--- a/CH_121913_A.xlsx
+++ b/CH_121913_A.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>Mouse ID</t>
   </si>
@@ -122,6 +122,27 @@
   <si>
     <t>mOsm</t>
   </si>
+  <si>
+    <t>CH_121913_A</t>
+  </si>
+  <si>
+    <t>EMX-Cre</t>
+  </si>
+  <si>
+    <t>No ears cliped</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Burr hole inection</t>
+  </si>
+  <si>
+    <t>Injected AAV9-EF1a-DIO-C1V1(T/T)-eYFP at 2.5 mm left of Lambda. Injected  50nL at 300 um from pia. Injected at 50 nl/min. Ready for recording on 1/3/2014</t>
+  </si>
+  <si>
+    <t>Injected AAV9-C1V1-eYFP into V1.</t>
+  </si>
 </sst>
 </file>
 
@@ -130,7 +151,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -171,6 +192,11 @@
       <color theme="1"/>
       <name val="Helvetica"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -180,7 +206,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -671,8 +697,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -682,8 +721,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -775,69 +818,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -857,52 +837,106 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -910,6 +944,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -919,17 +959,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -937,16 +974,41 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1285,7 +1347,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="38" customHeight="1" zeroHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20.6640625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="62.33203125" style="57" customWidth="1"/>
+    <col min="2" max="2" width="62.33203125" style="36" customWidth="1"/>
     <col min="3" max="16384" width="18.5" style="12" hidden="1"/>
   </cols>
   <sheetData>
@@ -1293,37 +1355,49 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
+      <c r="B1" s="31" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="2" spans="1:2" ht="38" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="32" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="3" spans="1:2" ht="38" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="83">
+        <v>41601</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="38" customHeight="1">
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="54"/>
+      <c r="B4" s="33" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" spans="1:2" ht="38" customHeight="1">
       <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="55"/>
+      <c r="B5" s="34" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:2" ht="148" customHeight="1" thickBot="1">
       <c r="A6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="56"/>
+      <c r="B6" s="35" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="1:2" ht="38" customHeight="1" thickTop="1"/>
     <row r="8" spans="1:2" ht="38" customHeight="1"/>
@@ -1368,66 +1442,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" customHeight="1" thickTop="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
       <c r="G1" s="29" t="s">
         <v>32</v>
       </c>
       <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" ht="39" customHeight="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="30" t="s">
         <v>32</v>
       </c>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:8" ht="39" customHeight="1">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="36"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="4" spans="1:8" ht="102" customHeight="1" thickBot="1">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="38"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="57"/>
     </row>
     <row r="5" spans="1:8" ht="26" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
     </row>
     <row r="6" spans="1:8" ht="39" customHeight="1" thickTop="1">
       <c r="A6" s="9" t="s">
@@ -1445,11 +1519,11 @@
       <c r="E6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="33"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="45"/>
     </row>
     <row r="7" spans="1:8" ht="39" customHeight="1">
       <c r="A7" s="3"/>
@@ -1457,9 +1531,9 @@
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="E7" s="26"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="67"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="48"/>
     </row>
     <row r="8" spans="1:8" ht="39" customHeight="1">
       <c r="A8" s="3"/>
@@ -1467,9 +1541,9 @@
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="E8" s="26"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="70"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
     </row>
     <row r="9" spans="1:8" ht="39" customHeight="1">
       <c r="A9" s="3"/>
@@ -1477,9 +1551,9 @@
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
       <c r="E9" s="26"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="70"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="1:8" ht="39" customHeight="1">
       <c r="A10" s="3"/>
@@ -1487,9 +1561,9 @@
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
       <c r="E10" s="26"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="70"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="39"/>
     </row>
     <row r="11" spans="1:8" ht="39" customHeight="1">
       <c r="A11" s="3"/>
@@ -1497,9 +1571,9 @@
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
       <c r="E11" s="26"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="70"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="39"/>
     </row>
     <row r="12" spans="1:8" ht="39" customHeight="1">
       <c r="A12" s="3"/>
@@ -1507,9 +1581,9 @@
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
       <c r="E12" s="26"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="70"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39"/>
     </row>
     <row r="13" spans="1:8" ht="39" customHeight="1">
       <c r="A13" s="3"/>
@@ -1517,9 +1591,9 @@
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
       <c r="E13" s="26"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="1:8" ht="39" customHeight="1">
       <c r="A14" s="3"/>
@@ -1527,9 +1601,9 @@
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
       <c r="E14" s="26"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="70"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="39"/>
     </row>
     <row r="15" spans="1:8" ht="39" customHeight="1">
       <c r="A15" s="3"/>
@@ -1537,9 +1611,9 @@
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
       <c r="E15" s="26"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="70"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="39"/>
     </row>
     <row r="16" spans="1:8" ht="39" customHeight="1">
       <c r="A16" s="3"/>
@@ -1547,9 +1621,9 @@
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
       <c r="E16" s="26"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="70"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="39"/>
     </row>
     <row r="17" spans="1:8" ht="39" customHeight="1">
       <c r="A17" s="3"/>
@@ -1557,9 +1631,9 @@
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
       <c r="E17" s="26"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="70"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="39"/>
     </row>
     <row r="18" spans="1:8" ht="39" customHeight="1">
       <c r="A18" s="3"/>
@@ -1567,9 +1641,9 @@
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
       <c r="E18" s="26"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="70"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="39"/>
     </row>
     <row r="19" spans="1:8" ht="39" customHeight="1">
       <c r="A19" s="3"/>
@@ -1577,9 +1651,9 @@
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
       <c r="E19" s="26"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="70"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
     </row>
     <row r="20" spans="1:8" ht="39" customHeight="1">
       <c r="A20" s="3"/>
@@ -1587,9 +1661,9 @@
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
       <c r="E20" s="26"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="70"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="39"/>
     </row>
     <row r="21" spans="1:8" ht="39" customHeight="1">
       <c r="A21" s="3"/>
@@ -1597,9 +1671,9 @@
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
       <c r="E21" s="26"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="70"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="39"/>
     </row>
     <row r="22" spans="1:8" ht="39" customHeight="1">
       <c r="A22" s="3"/>
@@ -1607,9 +1681,9 @@
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
       <c r="E22" s="26"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="70"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="39"/>
     </row>
     <row r="23" spans="1:8" ht="39" customHeight="1">
       <c r="A23" s="3"/>
@@ -1617,9 +1691,9 @@
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
       <c r="E23" s="26"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="70"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="39"/>
     </row>
     <row r="24" spans="1:8" ht="39" customHeight="1">
       <c r="A24" s="3"/>
@@ -1627,9 +1701,9 @@
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
       <c r="E24" s="26"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="70"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="39"/>
     </row>
     <row r="25" spans="1:8" ht="39" customHeight="1">
       <c r="A25" s="3"/>
@@ -1637,9 +1711,9 @@
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
       <c r="E25" s="26"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="70"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="39"/>
     </row>
     <row r="26" spans="1:8" ht="39" customHeight="1">
       <c r="A26" s="3"/>
@@ -1647,9 +1721,9 @@
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
       <c r="E26" s="26"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="70"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="39"/>
     </row>
     <row r="27" spans="1:8" ht="39" customHeight="1">
       <c r="A27" s="3"/>
@@ -1657,9 +1731,9 @@
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
       <c r="E27" s="26"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="70"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="39"/>
     </row>
     <row r="28" spans="1:8" ht="39" customHeight="1">
       <c r="A28" s="3"/>
@@ -1667,9 +1741,9 @@
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
       <c r="E28" s="26"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="70"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="39"/>
     </row>
     <row r="29" spans="1:8" ht="39" customHeight="1">
       <c r="A29" s="3"/>
@@ -1677,9 +1751,9 @@
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
       <c r="E29" s="26"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="70"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="39"/>
     </row>
     <row r="30" spans="1:8" ht="39" customHeight="1">
       <c r="A30" s="3"/>
@@ -1687,9 +1761,9 @@
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
       <c r="E30" s="26"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="70"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="39"/>
     </row>
     <row r="31" spans="1:8" ht="39" customHeight="1">
       <c r="A31" s="3"/>
@@ -1697,9 +1771,9 @@
       <c r="C31" s="4"/>
       <c r="D31" s="5"/>
       <c r="E31" s="26"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="70"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="39"/>
     </row>
     <row r="32" spans="1:8" ht="39" customHeight="1">
       <c r="A32" s="3"/>
@@ -1707,9 +1781,9 @@
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
       <c r="E32" s="26"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="70"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="39"/>
     </row>
     <row r="33" spans="1:8" ht="39" customHeight="1">
       <c r="A33" s="3"/>
@@ -1717,9 +1791,9 @@
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
       <c r="E33" s="26"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="70"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="39"/>
     </row>
     <row r="34" spans="1:8" ht="39" customHeight="1">
       <c r="A34" s="3"/>
@@ -1727,9 +1801,9 @@
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
       <c r="E34" s="26"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="70"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="39"/>
     </row>
     <row r="35" spans="1:8" ht="39" customHeight="1">
       <c r="A35" s="3"/>
@@ -1737,9 +1811,9 @@
       <c r="C35" s="4"/>
       <c r="D35" s="5"/>
       <c r="E35" s="26"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="70"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="39"/>
     </row>
     <row r="36" spans="1:8" ht="39" customHeight="1">
       <c r="A36" s="3"/>
@@ -1747,9 +1821,9 @@
       <c r="C36" s="4"/>
       <c r="D36" s="5"/>
       <c r="E36" s="26"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="70"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="39"/>
     </row>
     <row r="37" spans="1:8" ht="39" customHeight="1">
       <c r="A37" s="3"/>
@@ -1757,9 +1831,9 @@
       <c r="C37" s="4"/>
       <c r="D37" s="5"/>
       <c r="E37" s="26"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="70"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="39"/>
     </row>
     <row r="38" spans="1:8" ht="39" customHeight="1">
       <c r="A38" s="3"/>
@@ -1767,9 +1841,9 @@
       <c r="C38" s="4"/>
       <c r="D38" s="5"/>
       <c r="E38" s="26"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="70"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="39"/>
     </row>
     <row r="39" spans="1:8" ht="39" customHeight="1">
       <c r="A39" s="3"/>
@@ -1777,9 +1851,9 @@
       <c r="C39" s="4"/>
       <c r="D39" s="5"/>
       <c r="E39" s="26"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="70"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="39"/>
     </row>
     <row r="40" spans="1:8" ht="39" customHeight="1">
       <c r="A40" s="3"/>
@@ -1787,9 +1861,9 @@
       <c r="C40" s="4"/>
       <c r="D40" s="5"/>
       <c r="E40" s="26"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="69"/>
-      <c r="H40" s="70"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="39"/>
     </row>
     <row r="41" spans="1:8" ht="39" customHeight="1">
       <c r="A41" s="3"/>
@@ -1797,9 +1871,9 @@
       <c r="C41" s="4"/>
       <c r="D41" s="5"/>
       <c r="E41" s="26"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="70"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="39"/>
     </row>
     <row r="42" spans="1:8" ht="39" customHeight="1">
       <c r="A42" s="3"/>
@@ -1807,9 +1881,9 @@
       <c r="C42" s="4"/>
       <c r="D42" s="5"/>
       <c r="E42" s="26"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="70"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="39"/>
     </row>
     <row r="43" spans="1:8" ht="39" customHeight="1">
       <c r="A43" s="3"/>
@@ -1817,9 +1891,9 @@
       <c r="C43" s="4"/>
       <c r="D43" s="5"/>
       <c r="E43" s="26"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="69"/>
-      <c r="H43" s="70"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="39"/>
     </row>
     <row r="44" spans="1:8" ht="39" customHeight="1">
       <c r="A44" s="3"/>
@@ -1827,9 +1901,9 @@
       <c r="C44" s="4"/>
       <c r="D44" s="5"/>
       <c r="E44" s="26"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="70"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="39"/>
     </row>
     <row r="45" spans="1:8" ht="39" customHeight="1">
       <c r="A45" s="3"/>
@@ -1837,9 +1911,9 @@
       <c r="C45" s="4"/>
       <c r="D45" s="5"/>
       <c r="E45" s="26"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="69"/>
-      <c r="H45" s="70"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="39"/>
     </row>
     <row r="46" spans="1:8" ht="39" customHeight="1">
       <c r="A46" s="3"/>
@@ -1847,9 +1921,9 @@
       <c r="C46" s="4"/>
       <c r="D46" s="5"/>
       <c r="E46" s="26"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="70"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="39"/>
     </row>
     <row r="47" spans="1:8" ht="39" customHeight="1">
       <c r="A47" s="3"/>
@@ -1857,9 +1931,9 @@
       <c r="C47" s="4"/>
       <c r="D47" s="5"/>
       <c r="E47" s="26"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="70"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="39"/>
     </row>
     <row r="48" spans="1:8" ht="39" customHeight="1">
       <c r="A48" s="3"/>
@@ -1867,9 +1941,9 @@
       <c r="C48" s="4"/>
       <c r="D48" s="5"/>
       <c r="E48" s="26"/>
-      <c r="F48" s="68"/>
-      <c r="G48" s="69"/>
-      <c r="H48" s="70"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="39"/>
     </row>
     <row r="49" spans="1:8" ht="39" customHeight="1">
       <c r="A49" s="3"/>
@@ -1877,9 +1951,9 @@
       <c r="C49" s="4"/>
       <c r="D49" s="5"/>
       <c r="E49" s="26"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="69"/>
-      <c r="H49" s="70"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="39"/>
     </row>
     <row r="50" spans="1:8" ht="39" customHeight="1">
       <c r="A50" s="3"/>
@@ -1887,9 +1961,9 @@
       <c r="C50" s="4"/>
       <c r="D50" s="5"/>
       <c r="E50" s="26"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="69"/>
-      <c r="H50" s="70"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="39"/>
     </row>
     <row r="51" spans="1:8" ht="39" customHeight="1">
       <c r="A51" s="3"/>
@@ -1897,9 +1971,9 @@
       <c r="C51" s="4"/>
       <c r="D51" s="5"/>
       <c r="E51" s="26"/>
-      <c r="F51" s="68"/>
-      <c r="G51" s="69"/>
-      <c r="H51" s="70"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="39"/>
     </row>
     <row r="52" spans="1:8" ht="39" customHeight="1">
       <c r="A52" s="3"/>
@@ -1907,9 +1981,9 @@
       <c r="C52" s="4"/>
       <c r="D52" s="5"/>
       <c r="E52" s="26"/>
-      <c r="F52" s="68"/>
-      <c r="G52" s="69"/>
-      <c r="H52" s="70"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="39"/>
     </row>
     <row r="53" spans="1:8" ht="39" customHeight="1">
       <c r="A53" s="3"/>
@@ -1917,9 +1991,9 @@
       <c r="C53" s="4"/>
       <c r="D53" s="5"/>
       <c r="E53" s="26"/>
-      <c r="F53" s="68"/>
-      <c r="G53" s="69"/>
-      <c r="H53" s="70"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="39"/>
     </row>
     <row r="54" spans="1:8" ht="39" customHeight="1">
       <c r="A54" s="3"/>
@@ -1927,9 +2001,9 @@
       <c r="C54" s="4"/>
       <c r="D54" s="5"/>
       <c r="E54" s="26"/>
-      <c r="F54" s="68"/>
-      <c r="G54" s="69"/>
-      <c r="H54" s="70"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="39"/>
     </row>
     <row r="55" spans="1:8" ht="39" customHeight="1">
       <c r="A55" s="3"/>
@@ -1937,9 +2011,9 @@
       <c r="C55" s="4"/>
       <c r="D55" s="5"/>
       <c r="E55" s="26"/>
-      <c r="F55" s="68"/>
-      <c r="G55" s="69"/>
-      <c r="H55" s="70"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="39"/>
     </row>
     <row r="56" spans="1:8" ht="39" customHeight="1">
       <c r="A56" s="3"/>
@@ -1947,9 +2021,9 @@
       <c r="C56" s="4"/>
       <c r="D56" s="5"/>
       <c r="E56" s="26"/>
-      <c r="F56" s="68"/>
-      <c r="G56" s="69"/>
-      <c r="H56" s="70"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="39"/>
     </row>
     <row r="57" spans="1:8" ht="39" customHeight="1">
       <c r="A57" s="3"/>
@@ -1957,9 +2031,9 @@
       <c r="C57" s="4"/>
       <c r="D57" s="5"/>
       <c r="E57" s="26"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="69"/>
-      <c r="H57" s="70"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="39"/>
     </row>
     <row r="58" spans="1:8" ht="39" customHeight="1">
       <c r="A58" s="3"/>
@@ -1967,9 +2041,9 @@
       <c r="C58" s="4"/>
       <c r="D58" s="5"/>
       <c r="E58" s="26"/>
-      <c r="F58" s="68"/>
-      <c r="G58" s="69"/>
-      <c r="H58" s="70"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="39"/>
     </row>
     <row r="59" spans="1:8" ht="39" customHeight="1">
       <c r="A59" s="3"/>
@@ -1977,9 +2051,9 @@
       <c r="C59" s="4"/>
       <c r="D59" s="5"/>
       <c r="E59" s="26"/>
-      <c r="F59" s="68"/>
-      <c r="G59" s="69"/>
-      <c r="H59" s="70"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="39"/>
     </row>
     <row r="60" spans="1:8" ht="39" customHeight="1">
       <c r="A60" s="3"/>
@@ -1987,9 +2061,9 @@
       <c r="C60" s="4"/>
       <c r="D60" s="5"/>
       <c r="E60" s="26"/>
-      <c r="F60" s="68"/>
-      <c r="G60" s="69"/>
-      <c r="H60" s="70"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="39"/>
     </row>
     <row r="61" spans="1:8" ht="39" customHeight="1">
       <c r="A61" s="3"/>
@@ -1997,9 +2071,9 @@
       <c r="C61" s="4"/>
       <c r="D61" s="5"/>
       <c r="E61" s="26"/>
-      <c r="F61" s="68"/>
-      <c r="G61" s="69"/>
-      <c r="H61" s="70"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="39"/>
     </row>
     <row r="62" spans="1:8" ht="39" customHeight="1">
       <c r="A62" s="3"/>
@@ -2007,9 +2081,9 @@
       <c r="C62" s="4"/>
       <c r="D62" s="5"/>
       <c r="E62" s="26"/>
-      <c r="F62" s="68"/>
-      <c r="G62" s="69"/>
-      <c r="H62" s="70"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="39"/>
     </row>
     <row r="63" spans="1:8" ht="39" customHeight="1">
       <c r="A63" s="3"/>
@@ -2017,9 +2091,9 @@
       <c r="C63" s="4"/>
       <c r="D63" s="5"/>
       <c r="E63" s="26"/>
-      <c r="F63" s="68"/>
-      <c r="G63" s="69"/>
-      <c r="H63" s="70"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="39"/>
     </row>
     <row r="64" spans="1:8" ht="39" customHeight="1">
       <c r="A64" s="3"/>
@@ -2027,9 +2101,9 @@
       <c r="C64" s="4"/>
       <c r="D64" s="5"/>
       <c r="E64" s="26"/>
-      <c r="F64" s="68"/>
-      <c r="G64" s="69"/>
-      <c r="H64" s="70"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="39"/>
     </row>
     <row r="65" spans="1:8" ht="39" customHeight="1">
       <c r="A65" s="3"/>
@@ -2037,9 +2111,9 @@
       <c r="C65" s="4"/>
       <c r="D65" s="5"/>
       <c r="E65" s="26"/>
-      <c r="F65" s="68"/>
-      <c r="G65" s="69"/>
-      <c r="H65" s="70"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="39"/>
     </row>
     <row r="66" spans="1:8" ht="39" customHeight="1">
       <c r="A66" s="3"/>
@@ -2047,9 +2121,9 @@
       <c r="C66" s="4"/>
       <c r="D66" s="5"/>
       <c r="E66" s="26"/>
-      <c r="F66" s="68"/>
-      <c r="G66" s="69"/>
-      <c r="H66" s="70"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="39"/>
     </row>
     <row r="67" spans="1:8" ht="39" customHeight="1">
       <c r="A67" s="3"/>
@@ -2057,9 +2131,9 @@
       <c r="C67" s="4"/>
       <c r="D67" s="5"/>
       <c r="E67" s="26"/>
-      <c r="F67" s="68"/>
-      <c r="G67" s="69"/>
-      <c r="H67" s="70"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="39"/>
     </row>
     <row r="68" spans="1:8" ht="39" customHeight="1">
       <c r="A68" s="3"/>
@@ -2067,9 +2141,9 @@
       <c r="C68" s="4"/>
       <c r="D68" s="5"/>
       <c r="E68" s="26"/>
-      <c r="F68" s="68"/>
-      <c r="G68" s="69"/>
-      <c r="H68" s="70"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="38"/>
+      <c r="H68" s="39"/>
     </row>
     <row r="69" spans="1:8" ht="39" customHeight="1">
       <c r="A69" s="3"/>
@@ -2077,9 +2151,9 @@
       <c r="C69" s="4"/>
       <c r="D69" s="5"/>
       <c r="E69" s="26"/>
-      <c r="F69" s="68"/>
-      <c r="G69" s="69"/>
-      <c r="H69" s="70"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="38"/>
+      <c r="H69" s="39"/>
     </row>
     <row r="70" spans="1:8" ht="39" customHeight="1">
       <c r="A70" s="3"/>
@@ -2087,9 +2161,9 @@
       <c r="C70" s="4"/>
       <c r="D70" s="5"/>
       <c r="E70" s="26"/>
-      <c r="F70" s="68"/>
-      <c r="G70" s="69"/>
-      <c r="H70" s="70"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="39"/>
     </row>
     <row r="71" spans="1:8" ht="39" customHeight="1">
       <c r="A71" s="3"/>
@@ -2097,9 +2171,9 @@
       <c r="C71" s="4"/>
       <c r="D71" s="5"/>
       <c r="E71" s="26"/>
-      <c r="F71" s="68"/>
-      <c r="G71" s="69"/>
-      <c r="H71" s="70"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="39"/>
     </row>
     <row r="72" spans="1:8" ht="39" customHeight="1">
       <c r="A72" s="3"/>
@@ -2107,9 +2181,9 @@
       <c r="C72" s="4"/>
       <c r="D72" s="5"/>
       <c r="E72" s="26"/>
-      <c r="F72" s="68"/>
-      <c r="G72" s="69"/>
-      <c r="H72" s="70"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="38"/>
+      <c r="H72" s="39"/>
     </row>
     <row r="73" spans="1:8" ht="39" customHeight="1">
       <c r="A73" s="3"/>
@@ -2117,9 +2191,9 @@
       <c r="C73" s="4"/>
       <c r="D73" s="5"/>
       <c r="E73" s="26"/>
-      <c r="F73" s="68"/>
-      <c r="G73" s="69"/>
-      <c r="H73" s="70"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="39"/>
     </row>
     <row r="74" spans="1:8" ht="39" customHeight="1">
       <c r="A74" s="3"/>
@@ -2127,9 +2201,9 @@
       <c r="C74" s="4"/>
       <c r="D74" s="5"/>
       <c r="E74" s="26"/>
-      <c r="F74" s="68"/>
-      <c r="G74" s="69"/>
-      <c r="H74" s="70"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="38"/>
+      <c r="H74" s="39"/>
     </row>
     <row r="75" spans="1:8" ht="39" customHeight="1">
       <c r="A75" s="3"/>
@@ -2137,9 +2211,9 @@
       <c r="C75" s="4"/>
       <c r="D75" s="5"/>
       <c r="E75" s="26"/>
-      <c r="F75" s="68"/>
-      <c r="G75" s="69"/>
-      <c r="H75" s="70"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="39"/>
     </row>
     <row r="76" spans="1:8" ht="39" customHeight="1">
       <c r="A76" s="3"/>
@@ -2147,9 +2221,9 @@
       <c r="C76" s="4"/>
       <c r="D76" s="5"/>
       <c r="E76" s="26"/>
-      <c r="F76" s="68"/>
-      <c r="G76" s="69"/>
-      <c r="H76" s="70"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="38"/>
+      <c r="H76" s="39"/>
     </row>
     <row r="77" spans="1:8" ht="39" customHeight="1">
       <c r="A77" s="3"/>
@@ -2157,9 +2231,9 @@
       <c r="C77" s="4"/>
       <c r="D77" s="5"/>
       <c r="E77" s="26"/>
-      <c r="F77" s="68"/>
-      <c r="G77" s="69"/>
-      <c r="H77" s="70"/>
+      <c r="F77" s="37"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="39"/>
     </row>
     <row r="78" spans="1:8" ht="39" customHeight="1">
       <c r="A78" s="3"/>
@@ -2167,9 +2241,9 @@
       <c r="C78" s="4"/>
       <c r="D78" s="5"/>
       <c r="E78" s="26"/>
-      <c r="F78" s="68"/>
-      <c r="G78" s="69"/>
-      <c r="H78" s="70"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="38"/>
+      <c r="H78" s="39"/>
     </row>
     <row r="79" spans="1:8" ht="39" customHeight="1">
       <c r="A79" s="3"/>
@@ -2177,9 +2251,9 @@
       <c r="C79" s="4"/>
       <c r="D79" s="5"/>
       <c r="E79" s="26"/>
-      <c r="F79" s="68"/>
-      <c r="G79" s="69"/>
-      <c r="H79" s="70"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="38"/>
+      <c r="H79" s="39"/>
     </row>
     <row r="80" spans="1:8" ht="39" customHeight="1">
       <c r="A80" s="3"/>
@@ -2187,9 +2261,9 @@
       <c r="C80" s="4"/>
       <c r="D80" s="5"/>
       <c r="E80" s="26"/>
-      <c r="F80" s="68"/>
-      <c r="G80" s="69"/>
-      <c r="H80" s="70"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="38"/>
+      <c r="H80" s="39"/>
     </row>
     <row r="81" spans="1:8" ht="39" customHeight="1">
       <c r="A81" s="3"/>
@@ -2197,9 +2271,9 @@
       <c r="C81" s="4"/>
       <c r="D81" s="5"/>
       <c r="E81" s="26"/>
-      <c r="F81" s="68"/>
-      <c r="G81" s="69"/>
-      <c r="H81" s="70"/>
+      <c r="F81" s="37"/>
+      <c r="G81" s="38"/>
+      <c r="H81" s="39"/>
     </row>
     <row r="82" spans="1:8" ht="39" customHeight="1">
       <c r="A82" s="3"/>
@@ -2207,9 +2281,9 @@
       <c r="C82" s="4"/>
       <c r="D82" s="5"/>
       <c r="E82" s="26"/>
-      <c r="F82" s="68"/>
-      <c r="G82" s="69"/>
-      <c r="H82" s="70"/>
+      <c r="F82" s="37"/>
+      <c r="G82" s="38"/>
+      <c r="H82" s="39"/>
     </row>
     <row r="83" spans="1:8" ht="39" customHeight="1">
       <c r="A83" s="3"/>
@@ -2217,9 +2291,9 @@
       <c r="C83" s="4"/>
       <c r="D83" s="5"/>
       <c r="E83" s="26"/>
-      <c r="F83" s="68"/>
-      <c r="G83" s="69"/>
-      <c r="H83" s="70"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="38"/>
+      <c r="H83" s="39"/>
     </row>
     <row r="84" spans="1:8" ht="39" customHeight="1">
       <c r="A84" s="3"/>
@@ -2227,9 +2301,9 @@
       <c r="C84" s="4"/>
       <c r="D84" s="5"/>
       <c r="E84" s="26"/>
-      <c r="F84" s="68"/>
-      <c r="G84" s="69"/>
-      <c r="H84" s="70"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="38"/>
+      <c r="H84" s="39"/>
     </row>
     <row r="85" spans="1:8" ht="39" customHeight="1">
       <c r="A85" s="3"/>
@@ -2237,9 +2311,9 @@
       <c r="C85" s="4"/>
       <c r="D85" s="5"/>
       <c r="E85" s="26"/>
-      <c r="F85" s="68"/>
-      <c r="G85" s="69"/>
-      <c r="H85" s="70"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="38"/>
+      <c r="H85" s="39"/>
     </row>
     <row r="86" spans="1:8" ht="39" customHeight="1">
       <c r="A86" s="3"/>
@@ -2247,9 +2321,9 @@
       <c r="C86" s="4"/>
       <c r="D86" s="5"/>
       <c r="E86" s="26"/>
-      <c r="F86" s="68"/>
-      <c r="G86" s="69"/>
-      <c r="H86" s="70"/>
+      <c r="F86" s="37"/>
+      <c r="G86" s="38"/>
+      <c r="H86" s="39"/>
     </row>
     <row r="87" spans="1:8" ht="39" customHeight="1">
       <c r="A87" s="3"/>
@@ -2257,9 +2331,9 @@
       <c r="C87" s="4"/>
       <c r="D87" s="5"/>
       <c r="E87" s="26"/>
-      <c r="F87" s="68"/>
-      <c r="G87" s="69"/>
-      <c r="H87" s="70"/>
+      <c r="F87" s="37"/>
+      <c r="G87" s="38"/>
+      <c r="H87" s="39"/>
     </row>
     <row r="88" spans="1:8" ht="39" customHeight="1">
       <c r="A88" s="3"/>
@@ -2267,9 +2341,9 @@
       <c r="C88" s="4"/>
       <c r="D88" s="5"/>
       <c r="E88" s="26"/>
-      <c r="F88" s="68"/>
-      <c r="G88" s="69"/>
-      <c r="H88" s="70"/>
+      <c r="F88" s="37"/>
+      <c r="G88" s="38"/>
+      <c r="H88" s="39"/>
     </row>
     <row r="89" spans="1:8" ht="39" customHeight="1">
       <c r="A89" s="3"/>
@@ -2277,9 +2351,9 @@
       <c r="C89" s="4"/>
       <c r="D89" s="5"/>
       <c r="E89" s="26"/>
-      <c r="F89" s="68"/>
-      <c r="G89" s="69"/>
-      <c r="H89" s="70"/>
+      <c r="F89" s="37"/>
+      <c r="G89" s="38"/>
+      <c r="H89" s="39"/>
     </row>
     <row r="90" spans="1:8" ht="39" customHeight="1">
       <c r="A90" s="3"/>
@@ -2287,9 +2361,9 @@
       <c r="C90" s="4"/>
       <c r="D90" s="5"/>
       <c r="E90" s="26"/>
-      <c r="F90" s="68"/>
-      <c r="G90" s="69"/>
-      <c r="H90" s="70"/>
+      <c r="F90" s="37"/>
+      <c r="G90" s="38"/>
+      <c r="H90" s="39"/>
     </row>
     <row r="91" spans="1:8" ht="39" customHeight="1">
       <c r="A91" s="3"/>
@@ -2297,9 +2371,9 @@
       <c r="C91" s="4"/>
       <c r="D91" s="5"/>
       <c r="E91" s="26"/>
-      <c r="F91" s="68"/>
-      <c r="G91" s="69"/>
-      <c r="H91" s="70"/>
+      <c r="F91" s="37"/>
+      <c r="G91" s="38"/>
+      <c r="H91" s="39"/>
     </row>
     <row r="92" spans="1:8" ht="39" customHeight="1">
       <c r="A92" s="3"/>
@@ -2307,9 +2381,9 @@
       <c r="C92" s="4"/>
       <c r="D92" s="5"/>
       <c r="E92" s="26"/>
-      <c r="F92" s="68"/>
-      <c r="G92" s="69"/>
-      <c r="H92" s="70"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="38"/>
+      <c r="H92" s="39"/>
     </row>
     <row r="93" spans="1:8" ht="39" customHeight="1">
       <c r="A93" s="3"/>
@@ -2317,9 +2391,9 @@
       <c r="C93" s="4"/>
       <c r="D93" s="5"/>
       <c r="E93" s="26"/>
-      <c r="F93" s="68"/>
-      <c r="G93" s="69"/>
-      <c r="H93" s="70"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="38"/>
+      <c r="H93" s="39"/>
     </row>
     <row r="94" spans="1:8" ht="39" customHeight="1">
       <c r="A94" s="3"/>
@@ -2327,9 +2401,9 @@
       <c r="C94" s="4"/>
       <c r="D94" s="5"/>
       <c r="E94" s="26"/>
-      <c r="F94" s="68"/>
-      <c r="G94" s="69"/>
-      <c r="H94" s="70"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="38"/>
+      <c r="H94" s="39"/>
     </row>
     <row r="95" spans="1:8" ht="39" customHeight="1">
       <c r="A95" s="3"/>
@@ -2337,9 +2411,9 @@
       <c r="C95" s="4"/>
       <c r="D95" s="5"/>
       <c r="E95" s="26"/>
-      <c r="F95" s="68"/>
-      <c r="G95" s="69"/>
-      <c r="H95" s="70"/>
+      <c r="F95" s="37"/>
+      <c r="G95" s="38"/>
+      <c r="H95" s="39"/>
     </row>
     <row r="96" spans="1:8" ht="39" customHeight="1">
       <c r="A96" s="3"/>
@@ -2347,9 +2421,9 @@
       <c r="C96" s="4"/>
       <c r="D96" s="5"/>
       <c r="E96" s="26"/>
-      <c r="F96" s="68"/>
-      <c r="G96" s="69"/>
-      <c r="H96" s="70"/>
+      <c r="F96" s="37"/>
+      <c r="G96" s="38"/>
+      <c r="H96" s="39"/>
     </row>
     <row r="97" spans="1:8" ht="39" customHeight="1">
       <c r="A97" s="3"/>
@@ -2357,9 +2431,9 @@
       <c r="C97" s="4"/>
       <c r="D97" s="5"/>
       <c r="E97" s="26"/>
-      <c r="F97" s="68"/>
-      <c r="G97" s="69"/>
-      <c r="H97" s="70"/>
+      <c r="F97" s="37"/>
+      <c r="G97" s="38"/>
+      <c r="H97" s="39"/>
     </row>
     <row r="98" spans="1:8" ht="39" customHeight="1">
       <c r="A98" s="3"/>
@@ -2367,9 +2441,9 @@
       <c r="C98" s="4"/>
       <c r="D98" s="5"/>
       <c r="E98" s="26"/>
-      <c r="F98" s="68"/>
-      <c r="G98" s="69"/>
-      <c r="H98" s="70"/>
+      <c r="F98" s="37"/>
+      <c r="G98" s="38"/>
+      <c r="H98" s="39"/>
     </row>
     <row r="99" spans="1:8" ht="39" customHeight="1">
       <c r="A99" s="3"/>
@@ -2377,9 +2451,9 @@
       <c r="C99" s="4"/>
       <c r="D99" s="5"/>
       <c r="E99" s="26"/>
-      <c r="F99" s="68"/>
-      <c r="G99" s="69"/>
-      <c r="H99" s="70"/>
+      <c r="F99" s="37"/>
+      <c r="G99" s="38"/>
+      <c r="H99" s="39"/>
     </row>
     <row r="100" spans="1:8" ht="39" customHeight="1">
       <c r="A100" s="3"/>
@@ -2387,9 +2461,9 @@
       <c r="C100" s="4"/>
       <c r="D100" s="5"/>
       <c r="E100" s="26"/>
-      <c r="F100" s="68"/>
-      <c r="G100" s="69"/>
-      <c r="H100" s="70"/>
+      <c r="F100" s="37"/>
+      <c r="G100" s="38"/>
+      <c r="H100" s="39"/>
     </row>
     <row r="101" spans="1:8" ht="39" customHeight="1">
       <c r="A101" s="3"/>
@@ -2397,9 +2471,9 @@
       <c r="C101" s="4"/>
       <c r="D101" s="5"/>
       <c r="E101" s="26"/>
-      <c r="F101" s="68"/>
-      <c r="G101" s="69"/>
-      <c r="H101" s="70"/>
+      <c r="F101" s="37"/>
+      <c r="G101" s="38"/>
+      <c r="H101" s="39"/>
     </row>
     <row r="102" spans="1:8" ht="39" customHeight="1">
       <c r="A102" s="3"/>
@@ -2407,9 +2481,9 @@
       <c r="C102" s="4"/>
       <c r="D102" s="5"/>
       <c r="E102" s="26"/>
-      <c r="F102" s="68"/>
-      <c r="G102" s="69"/>
-      <c r="H102" s="70"/>
+      <c r="F102" s="37"/>
+      <c r="G102" s="38"/>
+      <c r="H102" s="39"/>
     </row>
     <row r="103" spans="1:8" ht="39" customHeight="1">
       <c r="A103" s="3"/>
@@ -2417,9 +2491,9 @@
       <c r="C103" s="4"/>
       <c r="D103" s="5"/>
       <c r="E103" s="26"/>
-      <c r="F103" s="68"/>
-      <c r="G103" s="69"/>
-      <c r="H103" s="70"/>
+      <c r="F103" s="37"/>
+      <c r="G103" s="38"/>
+      <c r="H103" s="39"/>
     </row>
     <row r="104" spans="1:8" ht="39" customHeight="1">
       <c r="A104" s="3"/>
@@ -2427,9 +2501,9 @@
       <c r="C104" s="4"/>
       <c r="D104" s="5"/>
       <c r="E104" s="26"/>
-      <c r="F104" s="68"/>
-      <c r="G104" s="69"/>
-      <c r="H104" s="70"/>
+      <c r="F104" s="37"/>
+      <c r="G104" s="38"/>
+      <c r="H104" s="39"/>
     </row>
     <row r="105" spans="1:8" ht="39" customHeight="1">
       <c r="A105" s="3"/>
@@ -2437,9 +2511,9 @@
       <c r="C105" s="4"/>
       <c r="D105" s="5"/>
       <c r="E105" s="26"/>
-      <c r="F105" s="68"/>
-      <c r="G105" s="69"/>
-      <c r="H105" s="70"/>
+      <c r="F105" s="37"/>
+      <c r="G105" s="38"/>
+      <c r="H105" s="39"/>
     </row>
     <row r="106" spans="1:8" ht="39" customHeight="1">
       <c r="A106" s="3"/>
@@ -2447,9 +2521,9 @@
       <c r="C106" s="4"/>
       <c r="D106" s="5"/>
       <c r="E106" s="26"/>
-      <c r="F106" s="68"/>
-      <c r="G106" s="69"/>
-      <c r="H106" s="70"/>
+      <c r="F106" s="37"/>
+      <c r="G106" s="38"/>
+      <c r="H106" s="39"/>
     </row>
     <row r="107" spans="1:8" ht="39" customHeight="1">
       <c r="A107" s="3"/>
@@ -2457,9 +2531,9 @@
       <c r="C107" s="4"/>
       <c r="D107" s="5"/>
       <c r="E107" s="26"/>
-      <c r="F107" s="68"/>
-      <c r="G107" s="69"/>
-      <c r="H107" s="70"/>
+      <c r="F107" s="37"/>
+      <c r="G107" s="38"/>
+      <c r="H107" s="39"/>
     </row>
     <row r="108" spans="1:8" ht="39" customHeight="1">
       <c r="A108" s="3"/>
@@ -2467,9 +2541,9 @@
       <c r="C108" s="4"/>
       <c r="D108" s="5"/>
       <c r="E108" s="26"/>
-      <c r="F108" s="68"/>
-      <c r="G108" s="69"/>
-      <c r="H108" s="70"/>
+      <c r="F108" s="37"/>
+      <c r="G108" s="38"/>
+      <c r="H108" s="39"/>
     </row>
     <row r="109" spans="1:8" ht="39" customHeight="1">
       <c r="A109" s="3"/>
@@ -2477,9 +2551,9 @@
       <c r="C109" s="4"/>
       <c r="D109" s="5"/>
       <c r="E109" s="26"/>
-      <c r="F109" s="68"/>
-      <c r="G109" s="69"/>
-      <c r="H109" s="70"/>
+      <c r="F109" s="37"/>
+      <c r="G109" s="38"/>
+      <c r="H109" s="39"/>
     </row>
     <row r="110" spans="1:8" ht="39" customHeight="1">
       <c r="A110" s="3"/>
@@ -2487,9 +2561,9 @@
       <c r="C110" s="4"/>
       <c r="D110" s="5"/>
       <c r="E110" s="26"/>
-      <c r="F110" s="68"/>
-      <c r="G110" s="69"/>
-      <c r="H110" s="70"/>
+      <c r="F110" s="37"/>
+      <c r="G110" s="38"/>
+      <c r="H110" s="39"/>
     </row>
     <row r="111" spans="1:8" ht="39" customHeight="1">
       <c r="A111" s="3"/>
@@ -2497,9 +2571,9 @@
       <c r="C111" s="4"/>
       <c r="D111" s="5"/>
       <c r="E111" s="26"/>
-      <c r="F111" s="68"/>
-      <c r="G111" s="69"/>
-      <c r="H111" s="70"/>
+      <c r="F111" s="37"/>
+      <c r="G111" s="38"/>
+      <c r="H111" s="39"/>
     </row>
     <row r="112" spans="1:8" ht="39" customHeight="1">
       <c r="A112" s="3"/>
@@ -2507,9 +2581,9 @@
       <c r="C112" s="4"/>
       <c r="D112" s="5"/>
       <c r="E112" s="26"/>
-      <c r="F112" s="68"/>
-      <c r="G112" s="69"/>
-      <c r="H112" s="70"/>
+      <c r="F112" s="37"/>
+      <c r="G112" s="38"/>
+      <c r="H112" s="39"/>
     </row>
     <row r="113" spans="1:8" ht="39" customHeight="1">
       <c r="A113" s="3"/>
@@ -2517,9 +2591,9 @@
       <c r="C113" s="4"/>
       <c r="D113" s="5"/>
       <c r="E113" s="26"/>
-      <c r="F113" s="68"/>
-      <c r="G113" s="69"/>
-      <c r="H113" s="70"/>
+      <c r="F113" s="37"/>
+      <c r="G113" s="38"/>
+      <c r="H113" s="39"/>
     </row>
     <row r="114" spans="1:8" ht="39" customHeight="1">
       <c r="A114" s="3"/>
@@ -2527,9 +2601,9 @@
       <c r="C114" s="4"/>
       <c r="D114" s="5"/>
       <c r="E114" s="26"/>
-      <c r="F114" s="68"/>
-      <c r="G114" s="69"/>
-      <c r="H114" s="70"/>
+      <c r="F114" s="37"/>
+      <c r="G114" s="38"/>
+      <c r="H114" s="39"/>
     </row>
     <row r="115" spans="1:8" ht="39" customHeight="1">
       <c r="A115" s="3"/>
@@ -2537,9 +2611,9 @@
       <c r="C115" s="4"/>
       <c r="D115" s="5"/>
       <c r="E115" s="26"/>
-      <c r="F115" s="68"/>
-      <c r="G115" s="69"/>
-      <c r="H115" s="70"/>
+      <c r="F115" s="37"/>
+      <c r="G115" s="38"/>
+      <c r="H115" s="39"/>
     </row>
     <row r="116" spans="1:8" ht="39" customHeight="1">
       <c r="A116" s="3"/>
@@ -2547,9 +2621,9 @@
       <c r="C116" s="4"/>
       <c r="D116" s="5"/>
       <c r="E116" s="26"/>
-      <c r="F116" s="68"/>
-      <c r="G116" s="69"/>
-      <c r="H116" s="70"/>
+      <c r="F116" s="37"/>
+      <c r="G116" s="38"/>
+      <c r="H116" s="39"/>
     </row>
     <row r="117" spans="1:8" ht="39" customHeight="1">
       <c r="A117" s="3"/>
@@ -2557,9 +2631,9 @@
       <c r="C117" s="4"/>
       <c r="D117" s="5"/>
       <c r="E117" s="26"/>
-      <c r="F117" s="68"/>
-      <c r="G117" s="69"/>
-      <c r="H117" s="70"/>
+      <c r="F117" s="37"/>
+      <c r="G117" s="38"/>
+      <c r="H117" s="39"/>
     </row>
     <row r="118" spans="1:8" ht="39" customHeight="1">
       <c r="A118" s="3"/>
@@ -2567,9 +2641,9 @@
       <c r="C118" s="4"/>
       <c r="D118" s="5"/>
       <c r="E118" s="26"/>
-      <c r="F118" s="68"/>
-      <c r="G118" s="69"/>
-      <c r="H118" s="70"/>
+      <c r="F118" s="37"/>
+      <c r="G118" s="38"/>
+      <c r="H118" s="39"/>
     </row>
     <row r="119" spans="1:8" ht="39" customHeight="1">
       <c r="A119" s="3"/>
@@ -2577,9 +2651,9 @@
       <c r="C119" s="4"/>
       <c r="D119" s="5"/>
       <c r="E119" s="26"/>
-      <c r="F119" s="68"/>
-      <c r="G119" s="69"/>
-      <c r="H119" s="70"/>
+      <c r="F119" s="37"/>
+      <c r="G119" s="38"/>
+      <c r="H119" s="39"/>
     </row>
     <row r="120" spans="1:8" ht="39" customHeight="1">
       <c r="A120" s="3"/>
@@ -2587,9 +2661,9 @@
       <c r="C120" s="4"/>
       <c r="D120" s="5"/>
       <c r="E120" s="26"/>
-      <c r="F120" s="68"/>
-      <c r="G120" s="69"/>
-      <c r="H120" s="70"/>
+      <c r="F120" s="37"/>
+      <c r="G120" s="38"/>
+      <c r="H120" s="39"/>
     </row>
     <row r="121" spans="1:8" ht="39" customHeight="1">
       <c r="A121" s="3"/>
@@ -2597,9 +2671,9 @@
       <c r="C121" s="4"/>
       <c r="D121" s="5"/>
       <c r="E121" s="26"/>
-      <c r="F121" s="68"/>
-      <c r="G121" s="69"/>
-      <c r="H121" s="70"/>
+      <c r="F121" s="37"/>
+      <c r="G121" s="38"/>
+      <c r="H121" s="39"/>
     </row>
     <row r="122" spans="1:8" ht="39" customHeight="1">
       <c r="A122" s="3"/>
@@ -2607,9 +2681,9 @@
       <c r="C122" s="4"/>
       <c r="D122" s="5"/>
       <c r="E122" s="26"/>
-      <c r="F122" s="68"/>
-      <c r="G122" s="69"/>
-      <c r="H122" s="70"/>
+      <c r="F122" s="37"/>
+      <c r="G122" s="38"/>
+      <c r="H122" s="39"/>
     </row>
     <row r="123" spans="1:8" ht="39" customHeight="1">
       <c r="A123" s="3"/>
@@ -2617,9 +2691,9 @@
       <c r="C123" s="4"/>
       <c r="D123" s="5"/>
       <c r="E123" s="26"/>
-      <c r="F123" s="68"/>
-      <c r="G123" s="69"/>
-      <c r="H123" s="70"/>
+      <c r="F123" s="37"/>
+      <c r="G123" s="38"/>
+      <c r="H123" s="39"/>
     </row>
     <row r="124" spans="1:8" ht="39" customHeight="1">
       <c r="A124" s="3"/>
@@ -2627,9 +2701,9 @@
       <c r="C124" s="4"/>
       <c r="D124" s="5"/>
       <c r="E124" s="26"/>
-      <c r="F124" s="68"/>
-      <c r="G124" s="69"/>
-      <c r="H124" s="70"/>
+      <c r="F124" s="37"/>
+      <c r="G124" s="38"/>
+      <c r="H124" s="39"/>
     </row>
     <row r="125" spans="1:8" ht="39" customHeight="1">
       <c r="A125" s="3"/>
@@ -2637,9 +2711,9 @@
       <c r="C125" s="4"/>
       <c r="D125" s="5"/>
       <c r="E125" s="26"/>
-      <c r="F125" s="68"/>
-      <c r="G125" s="69"/>
-      <c r="H125" s="70"/>
+      <c r="F125" s="37"/>
+      <c r="G125" s="38"/>
+      <c r="H125" s="39"/>
     </row>
     <row r="126" spans="1:8" ht="39" customHeight="1">
       <c r="A126" s="3"/>
@@ -2647,9 +2721,9 @@
       <c r="C126" s="4"/>
       <c r="D126" s="5"/>
       <c r="E126" s="26"/>
-      <c r="F126" s="68"/>
-      <c r="G126" s="69"/>
-      <c r="H126" s="70"/>
+      <c r="F126" s="37"/>
+      <c r="G126" s="38"/>
+      <c r="H126" s="39"/>
     </row>
     <row r="127" spans="1:8" ht="39" customHeight="1">
       <c r="A127" s="3"/>
@@ -2657,9 +2731,9 @@
       <c r="C127" s="4"/>
       <c r="D127" s="5"/>
       <c r="E127" s="26"/>
-      <c r="F127" s="68"/>
-      <c r="G127" s="69"/>
-      <c r="H127" s="70"/>
+      <c r="F127" s="37"/>
+      <c r="G127" s="38"/>
+      <c r="H127" s="39"/>
     </row>
     <row r="128" spans="1:8" ht="39" customHeight="1">
       <c r="A128" s="3"/>
@@ -2667,9 +2741,9 @@
       <c r="C128" s="4"/>
       <c r="D128" s="5"/>
       <c r="E128" s="26"/>
-      <c r="F128" s="68"/>
-      <c r="G128" s="69"/>
-      <c r="H128" s="70"/>
+      <c r="F128" s="37"/>
+      <c r="G128" s="38"/>
+      <c r="H128" s="39"/>
     </row>
     <row r="129" spans="1:8" ht="39" customHeight="1">
       <c r="A129" s="3"/>
@@ -2677,9 +2751,9 @@
       <c r="C129" s="4"/>
       <c r="D129" s="5"/>
       <c r="E129" s="26"/>
-      <c r="F129" s="68"/>
-      <c r="G129" s="69"/>
-      <c r="H129" s="70"/>
+      <c r="F129" s="37"/>
+      <c r="G129" s="38"/>
+      <c r="H129" s="39"/>
     </row>
     <row r="130" spans="1:8" ht="39" customHeight="1">
       <c r="A130" s="3"/>
@@ -2687,9 +2761,9 @@
       <c r="C130" s="4"/>
       <c r="D130" s="5"/>
       <c r="E130" s="26"/>
-      <c r="F130" s="68"/>
-      <c r="G130" s="69"/>
-      <c r="H130" s="70"/>
+      <c r="F130" s="37"/>
+      <c r="G130" s="38"/>
+      <c r="H130" s="39"/>
     </row>
     <row r="131" spans="1:8" ht="39" customHeight="1">
       <c r="A131" s="3"/>
@@ -2697,9 +2771,9 @@
       <c r="C131" s="4"/>
       <c r="D131" s="5"/>
       <c r="E131" s="26"/>
-      <c r="F131" s="68"/>
-      <c r="G131" s="69"/>
-      <c r="H131" s="70"/>
+      <c r="F131" s="37"/>
+      <c r="G131" s="38"/>
+      <c r="H131" s="39"/>
     </row>
     <row r="132" spans="1:8" ht="39" customHeight="1">
       <c r="A132" s="3"/>
@@ -2707,9 +2781,9 @@
       <c r="C132" s="4"/>
       <c r="D132" s="5"/>
       <c r="E132" s="26"/>
-      <c r="F132" s="68"/>
-      <c r="G132" s="69"/>
-      <c r="H132" s="70"/>
+      <c r="F132" s="37"/>
+      <c r="G132" s="38"/>
+      <c r="H132" s="39"/>
     </row>
     <row r="133" spans="1:8" ht="39" customHeight="1">
       <c r="A133" s="3"/>
@@ -2717,9 +2791,9 @@
       <c r="C133" s="4"/>
       <c r="D133" s="5"/>
       <c r="E133" s="26"/>
-      <c r="F133" s="68"/>
-      <c r="G133" s="69"/>
-      <c r="H133" s="70"/>
+      <c r="F133" s="37"/>
+      <c r="G133" s="38"/>
+      <c r="H133" s="39"/>
     </row>
     <row r="134" spans="1:8" ht="39" customHeight="1">
       <c r="A134" s="3"/>
@@ -2727,9 +2801,9 @@
       <c r="C134" s="4"/>
       <c r="D134" s="5"/>
       <c r="E134" s="26"/>
-      <c r="F134" s="68"/>
-      <c r="G134" s="69"/>
-      <c r="H134" s="70"/>
+      <c r="F134" s="37"/>
+      <c r="G134" s="38"/>
+      <c r="H134" s="39"/>
     </row>
     <row r="135" spans="1:8" ht="39" customHeight="1">
       <c r="A135" s="3"/>
@@ -2737,9 +2811,9 @@
       <c r="C135" s="4"/>
       <c r="D135" s="5"/>
       <c r="E135" s="26"/>
-      <c r="F135" s="68"/>
-      <c r="G135" s="69"/>
-      <c r="H135" s="70"/>
+      <c r="F135" s="37"/>
+      <c r="G135" s="38"/>
+      <c r="H135" s="39"/>
     </row>
     <row r="136" spans="1:8" ht="39" customHeight="1">
       <c r="A136" s="3"/>
@@ -2747,9 +2821,9 @@
       <c r="C136" s="4"/>
       <c r="D136" s="5"/>
       <c r="E136" s="26"/>
-      <c r="F136" s="68"/>
-      <c r="G136" s="69"/>
-      <c r="H136" s="70"/>
+      <c r="F136" s="37"/>
+      <c r="G136" s="38"/>
+      <c r="H136" s="39"/>
     </row>
     <row r="137" spans="1:8" ht="39" customHeight="1">
       <c r="A137" s="3"/>
@@ -2757,9 +2831,9 @@
       <c r="C137" s="4"/>
       <c r="D137" s="5"/>
       <c r="E137" s="26"/>
-      <c r="F137" s="68"/>
-      <c r="G137" s="69"/>
-      <c r="H137" s="70"/>
+      <c r="F137" s="37"/>
+      <c r="G137" s="38"/>
+      <c r="H137" s="39"/>
     </row>
     <row r="138" spans="1:8" ht="39" customHeight="1">
       <c r="A138" s="3"/>
@@ -2767,9 +2841,9 @@
       <c r="C138" s="4"/>
       <c r="D138" s="5"/>
       <c r="E138" s="26"/>
-      <c r="F138" s="68"/>
-      <c r="G138" s="69"/>
-      <c r="H138" s="70"/>
+      <c r="F138" s="37"/>
+      <c r="G138" s="38"/>
+      <c r="H138" s="39"/>
     </row>
     <row r="139" spans="1:8" ht="39" customHeight="1">
       <c r="A139" s="3"/>
@@ -2777,9 +2851,9 @@
       <c r="C139" s="4"/>
       <c r="D139" s="5"/>
       <c r="E139" s="26"/>
-      <c r="F139" s="68"/>
-      <c r="G139" s="69"/>
-      <c r="H139" s="70"/>
+      <c r="F139" s="37"/>
+      <c r="G139" s="38"/>
+      <c r="H139" s="39"/>
     </row>
     <row r="140" spans="1:8" ht="39" customHeight="1">
       <c r="A140" s="3"/>
@@ -2787,9 +2861,9 @@
       <c r="C140" s="4"/>
       <c r="D140" s="5"/>
       <c r="E140" s="26"/>
-      <c r="F140" s="68"/>
-      <c r="G140" s="69"/>
-      <c r="H140" s="70"/>
+      <c r="F140" s="37"/>
+      <c r="G140" s="38"/>
+      <c r="H140" s="39"/>
     </row>
     <row r="141" spans="1:8" ht="39" customHeight="1">
       <c r="A141" s="3"/>
@@ -2797,9 +2871,9 @@
       <c r="C141" s="4"/>
       <c r="D141" s="5"/>
       <c r="E141" s="26"/>
-      <c r="F141" s="68"/>
-      <c r="G141" s="69"/>
-      <c r="H141" s="70"/>
+      <c r="F141" s="37"/>
+      <c r="G141" s="38"/>
+      <c r="H141" s="39"/>
     </row>
     <row r="142" spans="1:8" ht="39" customHeight="1">
       <c r="A142" s="3"/>
@@ -2807,9 +2881,9 @@
       <c r="C142" s="4"/>
       <c r="D142" s="5"/>
       <c r="E142" s="26"/>
-      <c r="F142" s="68"/>
-      <c r="G142" s="69"/>
-      <c r="H142" s="70"/>
+      <c r="F142" s="37"/>
+      <c r="G142" s="38"/>
+      <c r="H142" s="39"/>
     </row>
     <row r="143" spans="1:8" ht="39" customHeight="1">
       <c r="A143" s="3"/>
@@ -2817,9 +2891,9 @@
       <c r="C143" s="4"/>
       <c r="D143" s="5"/>
       <c r="E143" s="26"/>
-      <c r="F143" s="68"/>
-      <c r="G143" s="69"/>
-      <c r="H143" s="70"/>
+      <c r="F143" s="37"/>
+      <c r="G143" s="38"/>
+      <c r="H143" s="39"/>
     </row>
     <row r="144" spans="1:8" ht="39" customHeight="1">
       <c r="A144" s="3"/>
@@ -2827,9 +2901,9 @@
       <c r="C144" s="4"/>
       <c r="D144" s="5"/>
       <c r="E144" s="26"/>
-      <c r="F144" s="68"/>
-      <c r="G144" s="69"/>
-      <c r="H144" s="70"/>
+      <c r="F144" s="37"/>
+      <c r="G144" s="38"/>
+      <c r="H144" s="39"/>
     </row>
     <row r="145" spans="1:8" ht="39" customHeight="1">
       <c r="A145" s="3"/>
@@ -2837,9 +2911,9 @@
       <c r="C145" s="4"/>
       <c r="D145" s="5"/>
       <c r="E145" s="26"/>
-      <c r="F145" s="68"/>
-      <c r="G145" s="69"/>
-      <c r="H145" s="70"/>
+      <c r="F145" s="37"/>
+      <c r="G145" s="38"/>
+      <c r="H145" s="39"/>
     </row>
     <row r="146" spans="1:8" ht="39" customHeight="1">
       <c r="A146" s="3"/>
@@ -2847,9 +2921,9 @@
       <c r="C146" s="4"/>
       <c r="D146" s="5"/>
       <c r="E146" s="26"/>
-      <c r="F146" s="68"/>
-      <c r="G146" s="69"/>
-      <c r="H146" s="70"/>
+      <c r="F146" s="37"/>
+      <c r="G146" s="38"/>
+      <c r="H146" s="39"/>
     </row>
     <row r="147" spans="1:8" ht="39" customHeight="1">
       <c r="A147" s="3"/>
@@ -2857,9 +2931,9 @@
       <c r="C147" s="4"/>
       <c r="D147" s="5"/>
       <c r="E147" s="26"/>
-      <c r="F147" s="68"/>
-      <c r="G147" s="69"/>
-      <c r="H147" s="70"/>
+      <c r="F147" s="37"/>
+      <c r="G147" s="38"/>
+      <c r="H147" s="39"/>
     </row>
     <row r="148" spans="1:8" ht="39" customHeight="1">
       <c r="A148" s="3"/>
@@ -2867,9 +2941,9 @@
       <c r="C148" s="4"/>
       <c r="D148" s="5"/>
       <c r="E148" s="26"/>
-      <c r="F148" s="68"/>
-      <c r="G148" s="69"/>
-      <c r="H148" s="70"/>
+      <c r="F148" s="37"/>
+      <c r="G148" s="38"/>
+      <c r="H148" s="39"/>
     </row>
     <row r="149" spans="1:8" ht="39" customHeight="1">
       <c r="A149" s="3"/>
@@ -2877,9 +2951,9 @@
       <c r="C149" s="4"/>
       <c r="D149" s="5"/>
       <c r="E149" s="26"/>
-      <c r="F149" s="68"/>
-      <c r="G149" s="69"/>
-      <c r="H149" s="70"/>
+      <c r="F149" s="37"/>
+      <c r="G149" s="38"/>
+      <c r="H149" s="39"/>
     </row>
     <row r="150" spans="1:8" ht="39" customHeight="1">
       <c r="A150" s="3"/>
@@ -2887,9 +2961,9 @@
       <c r="C150" s="4"/>
       <c r="D150" s="5"/>
       <c r="E150" s="26"/>
-      <c r="F150" s="68"/>
-      <c r="G150" s="69"/>
-      <c r="H150" s="70"/>
+      <c r="F150" s="37"/>
+      <c r="G150" s="38"/>
+      <c r="H150" s="39"/>
     </row>
     <row r="151" spans="1:8" ht="39" customHeight="1">
       <c r="A151" s="3"/>
@@ -2897,9 +2971,9 @@
       <c r="C151" s="4"/>
       <c r="D151" s="5"/>
       <c r="E151" s="26"/>
-      <c r="F151" s="68"/>
-      <c r="G151" s="69"/>
-      <c r="H151" s="70"/>
+      <c r="F151" s="37"/>
+      <c r="G151" s="38"/>
+      <c r="H151" s="39"/>
     </row>
     <row r="152" spans="1:8" ht="39" customHeight="1">
       <c r="A152" s="3"/>
@@ -2907,9 +2981,9 @@
       <c r="C152" s="4"/>
       <c r="D152" s="5"/>
       <c r="E152" s="26"/>
-      <c r="F152" s="68"/>
-      <c r="G152" s="69"/>
-      <c r="H152" s="70"/>
+      <c r="F152" s="37"/>
+      <c r="G152" s="38"/>
+      <c r="H152" s="39"/>
     </row>
     <row r="153" spans="1:8" ht="39" customHeight="1">
       <c r="A153" s="3"/>
@@ -2917,9 +2991,9 @@
       <c r="C153" s="4"/>
       <c r="D153" s="5"/>
       <c r="E153" s="26"/>
-      <c r="F153" s="68"/>
-      <c r="G153" s="69"/>
-      <c r="H153" s="70"/>
+      <c r="F153" s="37"/>
+      <c r="G153" s="38"/>
+      <c r="H153" s="39"/>
     </row>
     <row r="154" spans="1:8" ht="39" customHeight="1">
       <c r="A154" s="3"/>
@@ -2927,9 +3001,9 @@
       <c r="C154" s="4"/>
       <c r="D154" s="5"/>
       <c r="E154" s="26"/>
-      <c r="F154" s="68"/>
-      <c r="G154" s="69"/>
-      <c r="H154" s="70"/>
+      <c r="F154" s="37"/>
+      <c r="G154" s="38"/>
+      <c r="H154" s="39"/>
     </row>
     <row r="155" spans="1:8" ht="39" customHeight="1">
       <c r="A155" s="3"/>
@@ -2937,9 +3011,9 @@
       <c r="C155" s="4"/>
       <c r="D155" s="5"/>
       <c r="E155" s="26"/>
-      <c r="F155" s="68"/>
-      <c r="G155" s="69"/>
-      <c r="H155" s="70"/>
+      <c r="F155" s="37"/>
+      <c r="G155" s="38"/>
+      <c r="H155" s="39"/>
     </row>
     <row r="156" spans="1:8" ht="39" customHeight="1">
       <c r="A156" s="3"/>
@@ -2947,9 +3021,9 @@
       <c r="C156" s="4"/>
       <c r="D156" s="5"/>
       <c r="E156" s="26"/>
-      <c r="F156" s="68"/>
-      <c r="G156" s="69"/>
-      <c r="H156" s="70"/>
+      <c r="F156" s="37"/>
+      <c r="G156" s="38"/>
+      <c r="H156" s="39"/>
     </row>
     <row r="157" spans="1:8" ht="39" customHeight="1">
       <c r="A157" s="3"/>
@@ -2957,9 +3031,9 @@
       <c r="C157" s="4"/>
       <c r="D157" s="5"/>
       <c r="E157" s="26"/>
-      <c r="F157" s="68"/>
-      <c r="G157" s="69"/>
-      <c r="H157" s="70"/>
+      <c r="F157" s="37"/>
+      <c r="G157" s="38"/>
+      <c r="H157" s="39"/>
     </row>
     <row r="158" spans="1:8" ht="39" customHeight="1">
       <c r="A158" s="3"/>
@@ -2967,9 +3041,9 @@
       <c r="C158" s="4"/>
       <c r="D158" s="5"/>
       <c r="E158" s="26"/>
-      <c r="F158" s="68"/>
-      <c r="G158" s="69"/>
-      <c r="H158" s="70"/>
+      <c r="F158" s="37"/>
+      <c r="G158" s="38"/>
+      <c r="H158" s="39"/>
     </row>
     <row r="159" spans="1:8" ht="39" customHeight="1">
       <c r="A159" s="3"/>
@@ -2977,9 +3051,9 @@
       <c r="C159" s="4"/>
       <c r="D159" s="5"/>
       <c r="E159" s="26"/>
-      <c r="F159" s="68"/>
-      <c r="G159" s="69"/>
-      <c r="H159" s="70"/>
+      <c r="F159" s="37"/>
+      <c r="G159" s="38"/>
+      <c r="H159" s="39"/>
     </row>
     <row r="160" spans="1:8" ht="39" customHeight="1">
       <c r="A160" s="3"/>
@@ -2987,9 +3061,9 @@
       <c r="C160" s="4"/>
       <c r="D160" s="5"/>
       <c r="E160" s="26"/>
-      <c r="F160" s="68"/>
-      <c r="G160" s="69"/>
-      <c r="H160" s="70"/>
+      <c r="F160" s="37"/>
+      <c r="G160" s="38"/>
+      <c r="H160" s="39"/>
     </row>
     <row r="161" spans="1:8" ht="39" customHeight="1">
       <c r="A161" s="3"/>
@@ -2997,9 +3071,9 @@
       <c r="C161" s="4"/>
       <c r="D161" s="5"/>
       <c r="E161" s="26"/>
-      <c r="F161" s="68"/>
-      <c r="G161" s="69"/>
-      <c r="H161" s="70"/>
+      <c r="F161" s="37"/>
+      <c r="G161" s="38"/>
+      <c r="H161" s="39"/>
     </row>
     <row r="162" spans="1:8" ht="39" customHeight="1">
       <c r="A162" s="3"/>
@@ -3007,9 +3081,9 @@
       <c r="C162" s="4"/>
       <c r="D162" s="5"/>
       <c r="E162" s="26"/>
-      <c r="F162" s="68"/>
-      <c r="G162" s="69"/>
-      <c r="H162" s="70"/>
+      <c r="F162" s="37"/>
+      <c r="G162" s="38"/>
+      <c r="H162" s="39"/>
     </row>
     <row r="163" spans="1:8" ht="39" customHeight="1">
       <c r="A163" s="3"/>
@@ -3017,9 +3091,9 @@
       <c r="C163" s="4"/>
       <c r="D163" s="5"/>
       <c r="E163" s="26"/>
-      <c r="F163" s="68"/>
-      <c r="G163" s="69"/>
-      <c r="H163" s="70"/>
+      <c r="F163" s="37"/>
+      <c r="G163" s="38"/>
+      <c r="H163" s="39"/>
     </row>
     <row r="164" spans="1:8" ht="39" customHeight="1">
       <c r="A164" s="3"/>
@@ -3027,9 +3101,9 @@
       <c r="C164" s="4"/>
       <c r="D164" s="5"/>
       <c r="E164" s="26"/>
-      <c r="F164" s="68"/>
-      <c r="G164" s="69"/>
-      <c r="H164" s="70"/>
+      <c r="F164" s="37"/>
+      <c r="G164" s="38"/>
+      <c r="H164" s="39"/>
     </row>
     <row r="165" spans="1:8" ht="39" customHeight="1">
       <c r="A165" s="3"/>
@@ -3037,9 +3111,9 @@
       <c r="C165" s="4"/>
       <c r="D165" s="5"/>
       <c r="E165" s="26"/>
-      <c r="F165" s="68"/>
-      <c r="G165" s="69"/>
-      <c r="H165" s="70"/>
+      <c r="F165" s="37"/>
+      <c r="G165" s="38"/>
+      <c r="H165" s="39"/>
     </row>
     <row r="166" spans="1:8" ht="39" customHeight="1">
       <c r="A166" s="3"/>
@@ -3047,9 +3121,9 @@
       <c r="C166" s="4"/>
       <c r="D166" s="5"/>
       <c r="E166" s="26"/>
-      <c r="F166" s="68"/>
-      <c r="G166" s="69"/>
-      <c r="H166" s="70"/>
+      <c r="F166" s="37"/>
+      <c r="G166" s="38"/>
+      <c r="H166" s="39"/>
     </row>
     <row r="167" spans="1:8" ht="39" customHeight="1">
       <c r="A167" s="3"/>
@@ -3057,9 +3131,9 @@
       <c r="C167" s="4"/>
       <c r="D167" s="5"/>
       <c r="E167" s="26"/>
-      <c r="F167" s="68"/>
-      <c r="G167" s="69"/>
-      <c r="H167" s="70"/>
+      <c r="F167" s="37"/>
+      <c r="G167" s="38"/>
+      <c r="H167" s="39"/>
     </row>
     <row r="168" spans="1:8" ht="39" customHeight="1">
       <c r="A168" s="3"/>
@@ -3067,9 +3141,9 @@
       <c r="C168" s="4"/>
       <c r="D168" s="5"/>
       <c r="E168" s="26"/>
-      <c r="F168" s="68"/>
-      <c r="G168" s="69"/>
-      <c r="H168" s="70"/>
+      <c r="F168" s="37"/>
+      <c r="G168" s="38"/>
+      <c r="H168" s="39"/>
     </row>
     <row r="169" spans="1:8" ht="39" customHeight="1">
       <c r="A169" s="3"/>
@@ -3077,9 +3151,9 @@
       <c r="C169" s="4"/>
       <c r="D169" s="5"/>
       <c r="E169" s="26"/>
-      <c r="F169" s="68"/>
-      <c r="G169" s="69"/>
-      <c r="H169" s="70"/>
+      <c r="F169" s="37"/>
+      <c r="G169" s="38"/>
+      <c r="H169" s="39"/>
     </row>
     <row r="170" spans="1:8" ht="39" customHeight="1">
       <c r="A170" s="3"/>
@@ -3087,9 +3161,9 @@
       <c r="C170" s="4"/>
       <c r="D170" s="5"/>
       <c r="E170" s="26"/>
-      <c r="F170" s="68"/>
-      <c r="G170" s="69"/>
-      <c r="H170" s="70"/>
+      <c r="F170" s="37"/>
+      <c r="G170" s="38"/>
+      <c r="H170" s="39"/>
     </row>
     <row r="171" spans="1:8" ht="39" customHeight="1">
       <c r="A171" s="3"/>
@@ -3097,9 +3171,9 @@
       <c r="C171" s="4"/>
       <c r="D171" s="5"/>
       <c r="E171" s="26"/>
-      <c r="F171" s="68"/>
-      <c r="G171" s="69"/>
-      <c r="H171" s="70"/>
+      <c r="F171" s="37"/>
+      <c r="G171" s="38"/>
+      <c r="H171" s="39"/>
     </row>
     <row r="172" spans="1:8" ht="39" customHeight="1">
       <c r="A172" s="3"/>
@@ -3107,9 +3181,9 @@
       <c r="C172" s="4"/>
       <c r="D172" s="5"/>
       <c r="E172" s="26"/>
-      <c r="F172" s="68"/>
-      <c r="G172" s="69"/>
-      <c r="H172" s="70"/>
+      <c r="F172" s="37"/>
+      <c r="G172" s="38"/>
+      <c r="H172" s="39"/>
     </row>
     <row r="173" spans="1:8" ht="39" customHeight="1">
       <c r="A173" s="3"/>
@@ -3117,9 +3191,9 @@
       <c r="C173" s="4"/>
       <c r="D173" s="5"/>
       <c r="E173" s="26"/>
-      <c r="F173" s="68"/>
-      <c r="G173" s="69"/>
-      <c r="H173" s="70"/>
+      <c r="F173" s="37"/>
+      <c r="G173" s="38"/>
+      <c r="H173" s="39"/>
     </row>
     <row r="174" spans="1:8" ht="39" customHeight="1">
       <c r="A174" s="3"/>
@@ -3127,9 +3201,9 @@
       <c r="C174" s="4"/>
       <c r="D174" s="5"/>
       <c r="E174" s="26"/>
-      <c r="F174" s="68"/>
-      <c r="G174" s="69"/>
-      <c r="H174" s="70"/>
+      <c r="F174" s="37"/>
+      <c r="G174" s="38"/>
+      <c r="H174" s="39"/>
     </row>
     <row r="175" spans="1:8" ht="39" customHeight="1">
       <c r="A175" s="3"/>
@@ -3137,9 +3211,9 @@
       <c r="C175" s="4"/>
       <c r="D175" s="5"/>
       <c r="E175" s="26"/>
-      <c r="F175" s="68"/>
-      <c r="G175" s="69"/>
-      <c r="H175" s="70"/>
+      <c r="F175" s="37"/>
+      <c r="G175" s="38"/>
+      <c r="H175" s="39"/>
     </row>
     <row r="176" spans="1:8" ht="39" customHeight="1">
       <c r="A176" s="3"/>
@@ -3147,9 +3221,9 @@
       <c r="C176" s="4"/>
       <c r="D176" s="5"/>
       <c r="E176" s="26"/>
-      <c r="F176" s="68"/>
-      <c r="G176" s="69"/>
-      <c r="H176" s="70"/>
+      <c r="F176" s="37"/>
+      <c r="G176" s="38"/>
+      <c r="H176" s="39"/>
     </row>
     <row r="177" spans="1:8" ht="39" customHeight="1">
       <c r="A177" s="3"/>
@@ -3157,9 +3231,9 @@
       <c r="C177" s="4"/>
       <c r="D177" s="5"/>
       <c r="E177" s="26"/>
-      <c r="F177" s="68"/>
-      <c r="G177" s="69"/>
-      <c r="H177" s="70"/>
+      <c r="F177" s="37"/>
+      <c r="G177" s="38"/>
+      <c r="H177" s="39"/>
     </row>
     <row r="178" spans="1:8" ht="39" customHeight="1">
       <c r="A178" s="3"/>
@@ -3167,9 +3241,9 @@
       <c r="C178" s="4"/>
       <c r="D178" s="5"/>
       <c r="E178" s="26"/>
-      <c r="F178" s="68"/>
-      <c r="G178" s="69"/>
-      <c r="H178" s="70"/>
+      <c r="F178" s="37"/>
+      <c r="G178" s="38"/>
+      <c r="H178" s="39"/>
     </row>
     <row r="179" spans="1:8" ht="39" customHeight="1">
       <c r="A179" s="3"/>
@@ -3177,9 +3251,9 @@
       <c r="C179" s="4"/>
       <c r="D179" s="5"/>
       <c r="E179" s="26"/>
-      <c r="F179" s="68"/>
-      <c r="G179" s="69"/>
-      <c r="H179" s="70"/>
+      <c r="F179" s="37"/>
+      <c r="G179" s="38"/>
+      <c r="H179" s="39"/>
     </row>
     <row r="180" spans="1:8" ht="39" customHeight="1">
       <c r="A180" s="3"/>
@@ -3187,9 +3261,9 @@
       <c r="C180" s="4"/>
       <c r="D180" s="5"/>
       <c r="E180" s="26"/>
-      <c r="F180" s="68"/>
-      <c r="G180" s="69"/>
-      <c r="H180" s="70"/>
+      <c r="F180" s="37"/>
+      <c r="G180" s="38"/>
+      <c r="H180" s="39"/>
     </row>
     <row r="181" spans="1:8" ht="39" customHeight="1">
       <c r="A181" s="3"/>
@@ -3197,9 +3271,9 @@
       <c r="C181" s="4"/>
       <c r="D181" s="5"/>
       <c r="E181" s="26"/>
-      <c r="F181" s="68"/>
-      <c r="G181" s="69"/>
-      <c r="H181" s="70"/>
+      <c r="F181" s="37"/>
+      <c r="G181" s="38"/>
+      <c r="H181" s="39"/>
     </row>
     <row r="182" spans="1:8" ht="39" customHeight="1">
       <c r="A182" s="3"/>
@@ -3207,9 +3281,9 @@
       <c r="C182" s="4"/>
       <c r="D182" s="5"/>
       <c r="E182" s="26"/>
-      <c r="F182" s="68"/>
-      <c r="G182" s="69"/>
-      <c r="H182" s="70"/>
+      <c r="F182" s="37"/>
+      <c r="G182" s="38"/>
+      <c r="H182" s="39"/>
     </row>
     <row r="183" spans="1:8" ht="39" customHeight="1">
       <c r="A183" s="3"/>
@@ -3217,9 +3291,9 @@
       <c r="C183" s="4"/>
       <c r="D183" s="5"/>
       <c r="E183" s="26"/>
-      <c r="F183" s="68"/>
-      <c r="G183" s="69"/>
-      <c r="H183" s="70"/>
+      <c r="F183" s="37"/>
+      <c r="G183" s="38"/>
+      <c r="H183" s="39"/>
     </row>
     <row r="184" spans="1:8" ht="39" customHeight="1">
       <c r="A184" s="3"/>
@@ -3227,9 +3301,9 @@
       <c r="C184" s="4"/>
       <c r="D184" s="5"/>
       <c r="E184" s="26"/>
-      <c r="F184" s="68"/>
-      <c r="G184" s="69"/>
-      <c r="H184" s="70"/>
+      <c r="F184" s="37"/>
+      <c r="G184" s="38"/>
+      <c r="H184" s="39"/>
     </row>
     <row r="185" spans="1:8" ht="39" customHeight="1">
       <c r="A185" s="3"/>
@@ -3237,9 +3311,9 @@
       <c r="C185" s="4"/>
       <c r="D185" s="5"/>
       <c r="E185" s="26"/>
-      <c r="F185" s="68"/>
-      <c r="G185" s="69"/>
-      <c r="H185" s="70"/>
+      <c r="F185" s="37"/>
+      <c r="G185" s="38"/>
+      <c r="H185" s="39"/>
     </row>
     <row r="186" spans="1:8" ht="39" customHeight="1">
       <c r="A186" s="3"/>
@@ -3247,9 +3321,9 @@
       <c r="C186" s="4"/>
       <c r="D186" s="5"/>
       <c r="E186" s="26"/>
-      <c r="F186" s="68"/>
-      <c r="G186" s="69"/>
-      <c r="H186" s="70"/>
+      <c r="F186" s="37"/>
+      <c r="G186" s="38"/>
+      <c r="H186" s="39"/>
     </row>
     <row r="187" spans="1:8" ht="39" customHeight="1">
       <c r="A187" s="3"/>
@@ -3257,9 +3331,9 @@
       <c r="C187" s="4"/>
       <c r="D187" s="5"/>
       <c r="E187" s="26"/>
-      <c r="F187" s="68"/>
-      <c r="G187" s="69"/>
-      <c r="H187" s="70"/>
+      <c r="F187" s="37"/>
+      <c r="G187" s="38"/>
+      <c r="H187" s="39"/>
     </row>
     <row r="188" spans="1:8" ht="39" customHeight="1">
       <c r="A188" s="3"/>
@@ -3267,9 +3341,9 @@
       <c r="C188" s="4"/>
       <c r="D188" s="5"/>
       <c r="E188" s="26"/>
-      <c r="F188" s="68"/>
-      <c r="G188" s="69"/>
-      <c r="H188" s="70"/>
+      <c r="F188" s="37"/>
+      <c r="G188" s="38"/>
+      <c r="H188" s="39"/>
     </row>
     <row r="189" spans="1:8" ht="39" customHeight="1">
       <c r="A189" s="3"/>
@@ -3277,9 +3351,9 @@
       <c r="C189" s="4"/>
       <c r="D189" s="5"/>
       <c r="E189" s="26"/>
-      <c r="F189" s="68"/>
-      <c r="G189" s="69"/>
-      <c r="H189" s="70"/>
+      <c r="F189" s="37"/>
+      <c r="G189" s="38"/>
+      <c r="H189" s="39"/>
     </row>
     <row r="190" spans="1:8" ht="39" customHeight="1">
       <c r="A190" s="3"/>
@@ -3287,9 +3361,9 @@
       <c r="C190" s="4"/>
       <c r="D190" s="5"/>
       <c r="E190" s="26"/>
-      <c r="F190" s="68"/>
-      <c r="G190" s="69"/>
-      <c r="H190" s="70"/>
+      <c r="F190" s="37"/>
+      <c r="G190" s="38"/>
+      <c r="H190" s="39"/>
     </row>
     <row r="191" spans="1:8" ht="39" customHeight="1">
       <c r="A191" s="3"/>
@@ -3297,9 +3371,9 @@
       <c r="C191" s="4"/>
       <c r="D191" s="5"/>
       <c r="E191" s="26"/>
-      <c r="F191" s="68"/>
-      <c r="G191" s="69"/>
-      <c r="H191" s="70"/>
+      <c r="F191" s="37"/>
+      <c r="G191" s="38"/>
+      <c r="H191" s="39"/>
     </row>
     <row r="192" spans="1:8" ht="39" customHeight="1">
       <c r="A192" s="3"/>
@@ -3307,9 +3381,9 @@
       <c r="C192" s="4"/>
       <c r="D192" s="5"/>
       <c r="E192" s="26"/>
-      <c r="F192" s="68"/>
-      <c r="G192" s="69"/>
-      <c r="H192" s="70"/>
+      <c r="F192" s="37"/>
+      <c r="G192" s="38"/>
+      <c r="H192" s="39"/>
     </row>
     <row r="193" spans="1:8" ht="39" customHeight="1">
       <c r="A193" s="3"/>
@@ -3317,9 +3391,9 @@
       <c r="C193" s="4"/>
       <c r="D193" s="5"/>
       <c r="E193" s="26"/>
-      <c r="F193" s="68"/>
-      <c r="G193" s="69"/>
-      <c r="H193" s="70"/>
+      <c r="F193" s="37"/>
+      <c r="G193" s="38"/>
+      <c r="H193" s="39"/>
     </row>
     <row r="194" spans="1:8" ht="39" customHeight="1">
       <c r="A194" s="3"/>
@@ -3327,9 +3401,9 @@
       <c r="C194" s="4"/>
       <c r="D194" s="5"/>
       <c r="E194" s="26"/>
-      <c r="F194" s="68"/>
-      <c r="G194" s="69"/>
-      <c r="H194" s="70"/>
+      <c r="F194" s="37"/>
+      <c r="G194" s="38"/>
+      <c r="H194" s="39"/>
     </row>
     <row r="195" spans="1:8" ht="39" customHeight="1">
       <c r="A195" s="3"/>
@@ -3337,9 +3411,9 @@
       <c r="C195" s="4"/>
       <c r="D195" s="5"/>
       <c r="E195" s="26"/>
-      <c r="F195" s="68"/>
-      <c r="G195" s="69"/>
-      <c r="H195" s="70"/>
+      <c r="F195" s="37"/>
+      <c r="G195" s="38"/>
+      <c r="H195" s="39"/>
     </row>
     <row r="196" spans="1:8" ht="39" customHeight="1">
       <c r="A196" s="3"/>
@@ -3347,9 +3421,9 @@
       <c r="C196" s="4"/>
       <c r="D196" s="5"/>
       <c r="E196" s="26"/>
-      <c r="F196" s="68"/>
-      <c r="G196" s="69"/>
-      <c r="H196" s="70"/>
+      <c r="F196" s="37"/>
+      <c r="G196" s="38"/>
+      <c r="H196" s="39"/>
     </row>
     <row r="197" spans="1:8" ht="39" customHeight="1">
       <c r="A197" s="3"/>
@@ -3357,9 +3431,9 @@
       <c r="C197" s="4"/>
       <c r="D197" s="5"/>
       <c r="E197" s="26"/>
-      <c r="F197" s="68"/>
-      <c r="G197" s="69"/>
-      <c r="H197" s="70"/>
+      <c r="F197" s="37"/>
+      <c r="G197" s="38"/>
+      <c r="H197" s="39"/>
     </row>
     <row r="198" spans="1:8" ht="39" customHeight="1">
       <c r="A198" s="3"/>
@@ -3367,9 +3441,9 @@
       <c r="C198" s="4"/>
       <c r="D198" s="5"/>
       <c r="E198" s="26"/>
-      <c r="F198" s="68"/>
-      <c r="G198" s="69"/>
-      <c r="H198" s="70"/>
+      <c r="F198" s="37"/>
+      <c r="G198" s="38"/>
+      <c r="H198" s="39"/>
     </row>
     <row r="199" spans="1:8" ht="39" customHeight="1">
       <c r="A199" s="3"/>
@@ -3377,9 +3451,9 @@
       <c r="C199" s="4"/>
       <c r="D199" s="5"/>
       <c r="E199" s="26"/>
-      <c r="F199" s="68"/>
-      <c r="G199" s="69"/>
-      <c r="H199" s="70"/>
+      <c r="F199" s="37"/>
+      <c r="G199" s="38"/>
+      <c r="H199" s="39"/>
     </row>
     <row r="200" spans="1:8" ht="39" customHeight="1" thickBot="1">
       <c r="A200" s="6"/>
@@ -3387,203 +3461,13 @@
       <c r="C200" s="7"/>
       <c r="D200" s="8"/>
       <c r="E200" s="28"/>
-      <c r="F200" s="71"/>
-      <c r="G200" s="72"/>
-      <c r="H200" s="73"/>
+      <c r="F200" s="40"/>
+      <c r="G200" s="41"/>
+      <c r="H200" s="42"/>
     </row>
     <row r="201" spans="1:8" ht="39" hidden="1" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="204">
-    <mergeCell ref="F196:H196"/>
-    <mergeCell ref="F197:H197"/>
-    <mergeCell ref="F198:H198"/>
-    <mergeCell ref="F199:H199"/>
-    <mergeCell ref="F200:H200"/>
-    <mergeCell ref="F191:H191"/>
-    <mergeCell ref="F192:H192"/>
-    <mergeCell ref="F193:H193"/>
-    <mergeCell ref="F194:H194"/>
-    <mergeCell ref="F195:H195"/>
-    <mergeCell ref="F186:H186"/>
-    <mergeCell ref="F187:H187"/>
-    <mergeCell ref="F188:H188"/>
-    <mergeCell ref="F189:H189"/>
-    <mergeCell ref="F190:H190"/>
-    <mergeCell ref="F181:H181"/>
-    <mergeCell ref="F182:H182"/>
-    <mergeCell ref="F183:H183"/>
-    <mergeCell ref="F184:H184"/>
-    <mergeCell ref="F185:H185"/>
-    <mergeCell ref="F176:H176"/>
-    <mergeCell ref="F177:H177"/>
-    <mergeCell ref="F178:H178"/>
-    <mergeCell ref="F179:H179"/>
-    <mergeCell ref="F180:H180"/>
-    <mergeCell ref="F171:H171"/>
-    <mergeCell ref="F172:H172"/>
-    <mergeCell ref="F173:H173"/>
-    <mergeCell ref="F174:H174"/>
-    <mergeCell ref="F175:H175"/>
-    <mergeCell ref="F166:H166"/>
-    <mergeCell ref="F167:H167"/>
-    <mergeCell ref="F168:H168"/>
-    <mergeCell ref="F169:H169"/>
-    <mergeCell ref="F170:H170"/>
-    <mergeCell ref="F161:H161"/>
-    <mergeCell ref="F162:H162"/>
-    <mergeCell ref="F163:H163"/>
-    <mergeCell ref="F164:H164"/>
-    <mergeCell ref="F165:H165"/>
-    <mergeCell ref="F156:H156"/>
-    <mergeCell ref="F157:H157"/>
-    <mergeCell ref="F158:H158"/>
-    <mergeCell ref="F159:H159"/>
-    <mergeCell ref="F160:H160"/>
-    <mergeCell ref="F151:H151"/>
-    <mergeCell ref="F152:H152"/>
-    <mergeCell ref="F153:H153"/>
-    <mergeCell ref="F154:H154"/>
-    <mergeCell ref="F155:H155"/>
-    <mergeCell ref="F146:H146"/>
-    <mergeCell ref="F147:H147"/>
-    <mergeCell ref="F148:H148"/>
-    <mergeCell ref="F149:H149"/>
-    <mergeCell ref="F150:H150"/>
-    <mergeCell ref="F141:H141"/>
-    <mergeCell ref="F142:H142"/>
-    <mergeCell ref="F143:H143"/>
-    <mergeCell ref="F144:H144"/>
-    <mergeCell ref="F145:H145"/>
-    <mergeCell ref="F136:H136"/>
-    <mergeCell ref="F137:H137"/>
-    <mergeCell ref="F138:H138"/>
-    <mergeCell ref="F139:H139"/>
-    <mergeCell ref="F140:H140"/>
-    <mergeCell ref="F131:H131"/>
-    <mergeCell ref="F132:H132"/>
-    <mergeCell ref="F133:H133"/>
-    <mergeCell ref="F134:H134"/>
-    <mergeCell ref="F135:H135"/>
-    <mergeCell ref="F126:H126"/>
-    <mergeCell ref="F127:H127"/>
-    <mergeCell ref="F128:H128"/>
-    <mergeCell ref="F129:H129"/>
-    <mergeCell ref="F130:H130"/>
-    <mergeCell ref="F121:H121"/>
-    <mergeCell ref="F122:H122"/>
-    <mergeCell ref="F123:H123"/>
-    <mergeCell ref="F124:H124"/>
-    <mergeCell ref="F125:H125"/>
-    <mergeCell ref="F116:H116"/>
-    <mergeCell ref="F117:H117"/>
-    <mergeCell ref="F118:H118"/>
-    <mergeCell ref="F119:H119"/>
-    <mergeCell ref="F120:H120"/>
-    <mergeCell ref="F111:H111"/>
-    <mergeCell ref="F112:H112"/>
-    <mergeCell ref="F113:H113"/>
-    <mergeCell ref="F114:H114"/>
-    <mergeCell ref="F115:H115"/>
-    <mergeCell ref="F106:H106"/>
-    <mergeCell ref="F107:H107"/>
-    <mergeCell ref="F108:H108"/>
-    <mergeCell ref="F109:H109"/>
-    <mergeCell ref="F110:H110"/>
-    <mergeCell ref="F101:H101"/>
-    <mergeCell ref="F102:H102"/>
-    <mergeCell ref="F103:H103"/>
-    <mergeCell ref="F104:H104"/>
-    <mergeCell ref="F105:H105"/>
-    <mergeCell ref="F96:H96"/>
-    <mergeCell ref="F97:H97"/>
-    <mergeCell ref="F98:H98"/>
-    <mergeCell ref="F99:H99"/>
-    <mergeCell ref="F100:H100"/>
-    <mergeCell ref="F91:H91"/>
-    <mergeCell ref="F92:H92"/>
-    <mergeCell ref="F93:H93"/>
-    <mergeCell ref="F94:H94"/>
-    <mergeCell ref="F95:H95"/>
-    <mergeCell ref="F86:H86"/>
-    <mergeCell ref="F87:H87"/>
-    <mergeCell ref="F88:H88"/>
-    <mergeCell ref="F89:H89"/>
-    <mergeCell ref="F90:H90"/>
-    <mergeCell ref="F81:H81"/>
-    <mergeCell ref="F82:H82"/>
-    <mergeCell ref="F83:H83"/>
-    <mergeCell ref="F84:H84"/>
-    <mergeCell ref="F85:H85"/>
-    <mergeCell ref="F76:H76"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="F80:H80"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="F74:H74"/>
-    <mergeCell ref="F75:H75"/>
-    <mergeCell ref="F66:H66"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="F68:H68"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="F70:H70"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="F8:H8"/>
@@ -3598,6 +3482,196 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="C2:F2"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="F75:H75"/>
+    <mergeCell ref="F86:H86"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="F88:H88"/>
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="F90:H90"/>
+    <mergeCell ref="F81:H81"/>
+    <mergeCell ref="F82:H82"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="F84:H84"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="F96:H96"/>
+    <mergeCell ref="F97:H97"/>
+    <mergeCell ref="F98:H98"/>
+    <mergeCell ref="F99:H99"/>
+    <mergeCell ref="F100:H100"/>
+    <mergeCell ref="F91:H91"/>
+    <mergeCell ref="F92:H92"/>
+    <mergeCell ref="F93:H93"/>
+    <mergeCell ref="F94:H94"/>
+    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="F106:H106"/>
+    <mergeCell ref="F107:H107"/>
+    <mergeCell ref="F108:H108"/>
+    <mergeCell ref="F109:H109"/>
+    <mergeCell ref="F110:H110"/>
+    <mergeCell ref="F101:H101"/>
+    <mergeCell ref="F102:H102"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="F104:H104"/>
+    <mergeCell ref="F105:H105"/>
+    <mergeCell ref="F116:H116"/>
+    <mergeCell ref="F117:H117"/>
+    <mergeCell ref="F118:H118"/>
+    <mergeCell ref="F119:H119"/>
+    <mergeCell ref="F120:H120"/>
+    <mergeCell ref="F111:H111"/>
+    <mergeCell ref="F112:H112"/>
+    <mergeCell ref="F113:H113"/>
+    <mergeCell ref="F114:H114"/>
+    <mergeCell ref="F115:H115"/>
+    <mergeCell ref="F126:H126"/>
+    <mergeCell ref="F127:H127"/>
+    <mergeCell ref="F128:H128"/>
+    <mergeCell ref="F129:H129"/>
+    <mergeCell ref="F130:H130"/>
+    <mergeCell ref="F121:H121"/>
+    <mergeCell ref="F122:H122"/>
+    <mergeCell ref="F123:H123"/>
+    <mergeCell ref="F124:H124"/>
+    <mergeCell ref="F125:H125"/>
+    <mergeCell ref="F136:H136"/>
+    <mergeCell ref="F137:H137"/>
+    <mergeCell ref="F138:H138"/>
+    <mergeCell ref="F139:H139"/>
+    <mergeCell ref="F140:H140"/>
+    <mergeCell ref="F131:H131"/>
+    <mergeCell ref="F132:H132"/>
+    <mergeCell ref="F133:H133"/>
+    <mergeCell ref="F134:H134"/>
+    <mergeCell ref="F135:H135"/>
+    <mergeCell ref="F146:H146"/>
+    <mergeCell ref="F147:H147"/>
+    <mergeCell ref="F148:H148"/>
+    <mergeCell ref="F149:H149"/>
+    <mergeCell ref="F150:H150"/>
+    <mergeCell ref="F141:H141"/>
+    <mergeCell ref="F142:H142"/>
+    <mergeCell ref="F143:H143"/>
+    <mergeCell ref="F144:H144"/>
+    <mergeCell ref="F145:H145"/>
+    <mergeCell ref="F156:H156"/>
+    <mergeCell ref="F157:H157"/>
+    <mergeCell ref="F158:H158"/>
+    <mergeCell ref="F159:H159"/>
+    <mergeCell ref="F160:H160"/>
+    <mergeCell ref="F151:H151"/>
+    <mergeCell ref="F152:H152"/>
+    <mergeCell ref="F153:H153"/>
+    <mergeCell ref="F154:H154"/>
+    <mergeCell ref="F155:H155"/>
+    <mergeCell ref="F166:H166"/>
+    <mergeCell ref="F167:H167"/>
+    <mergeCell ref="F168:H168"/>
+    <mergeCell ref="F169:H169"/>
+    <mergeCell ref="F170:H170"/>
+    <mergeCell ref="F161:H161"/>
+    <mergeCell ref="F162:H162"/>
+    <mergeCell ref="F163:H163"/>
+    <mergeCell ref="F164:H164"/>
+    <mergeCell ref="F165:H165"/>
+    <mergeCell ref="F176:H176"/>
+    <mergeCell ref="F177:H177"/>
+    <mergeCell ref="F178:H178"/>
+    <mergeCell ref="F179:H179"/>
+    <mergeCell ref="F180:H180"/>
+    <mergeCell ref="F171:H171"/>
+    <mergeCell ref="F172:H172"/>
+    <mergeCell ref="F173:H173"/>
+    <mergeCell ref="F174:H174"/>
+    <mergeCell ref="F175:H175"/>
+    <mergeCell ref="F186:H186"/>
+    <mergeCell ref="F187:H187"/>
+    <mergeCell ref="F188:H188"/>
+    <mergeCell ref="F189:H189"/>
+    <mergeCell ref="F190:H190"/>
+    <mergeCell ref="F181:H181"/>
+    <mergeCell ref="F182:H182"/>
+    <mergeCell ref="F183:H183"/>
+    <mergeCell ref="F184:H184"/>
+    <mergeCell ref="F185:H185"/>
+    <mergeCell ref="F196:H196"/>
+    <mergeCell ref="F197:H197"/>
+    <mergeCell ref="F198:H198"/>
+    <mergeCell ref="F199:H199"/>
+    <mergeCell ref="F200:H200"/>
+    <mergeCell ref="F191:H191"/>
+    <mergeCell ref="F192:H192"/>
+    <mergeCell ref="F193:H193"/>
+    <mergeCell ref="F194:H194"/>
+    <mergeCell ref="F195:H195"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.47222222222222221" right="0.56944444444444442" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3630,77 +3704,77 @@
       <c r="A1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="2" spans="1:5" ht="36" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70"/>
     </row>
     <row r="3" spans="1:5" ht="136" customHeight="1">
       <c r="A3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="72"/>
     </row>
     <row r="4" spans="1:5" ht="46" customHeight="1">
       <c r="A4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="78"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="77"/>
     </row>
     <row r="5" spans="1:5" ht="46" customHeight="1">
       <c r="A5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="75"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="72"/>
     </row>
     <row r="6" spans="1:5" ht="46" customHeight="1">
       <c r="A6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="75"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="72"/>
     </row>
     <row r="7" spans="1:5" ht="46" customHeight="1">
       <c r="A7" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="78"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="77"/>
     </row>
     <row r="8" spans="1:5" ht="51" customHeight="1" thickBot="1">
       <c r="A8" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="80"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3729,7 +3803,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:G18"/>
+      <selection activeCell="B4" sqref="B4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="36" customHeight="1" zeroHeight="1" x14ac:dyDescent="0"/>
@@ -3741,192 +3815,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="51"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
     </row>
     <row r="2" spans="1:7" ht="36" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="82"/>
+      <c r="B2" s="84">
+        <v>41627</v>
+      </c>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
     </row>
     <row r="3" spans="1:7" ht="36" customHeight="1">
       <c r="A3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="82"/>
+      <c r="B3" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="89"/>
     </row>
     <row r="4" spans="1:7" ht="112" customHeight="1">
       <c r="A4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="82"/>
+      <c r="B4" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="89"/>
     </row>
     <row r="5" spans="1:7" ht="36" customHeight="1" thickBot="1">
       <c r="A5" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="84"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="82"/>
     </row>
     <row r="6" spans="1:7" ht="36" customHeight="1" thickBot="1"/>
     <row r="7" spans="1:7" ht="36" customHeight="1">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="51"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="80"/>
     </row>
     <row r="8" spans="1:7" ht="36" customHeight="1">
       <c r="A8" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="75"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="72"/>
     </row>
     <row r="9" spans="1:7" ht="36" customHeight="1">
       <c r="A9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="75"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="72"/>
     </row>
     <row r="10" spans="1:7" ht="112" customHeight="1">
       <c r="A10" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="75"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="72"/>
     </row>
     <row r="11" spans="1:7" ht="36" customHeight="1" thickBot="1">
       <c r="A11" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="80"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="74"/>
     </row>
     <row r="12" spans="1:7" ht="36" customHeight="1"/>
     <row r="13" spans="1:7" ht="36" customHeight="1" thickBot="1"/>
     <row r="14" spans="1:7" ht="36" customHeight="1">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="51"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="80"/>
     </row>
     <row r="15" spans="1:7" ht="36" customHeight="1">
       <c r="A15" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="75"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="72"/>
     </row>
     <row r="16" spans="1:7" ht="36" customHeight="1">
       <c r="A16" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="75"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="72"/>
     </row>
     <row r="17" spans="1:7" ht="113" customHeight="1">
       <c r="A17" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="75"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="72"/>
     </row>
     <row r="18" spans="1:7" ht="36" customHeight="1" thickBot="1">
       <c r="A18" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="80"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="74"/>
     </row>
     <row r="19" spans="1:7" ht="36" customHeight="1"/>
     <row r="20" spans="1:7" ht="36" hidden="1" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
     <mergeCell ref="A14:G14"/>
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B18:G18"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/CH_121913_A.xlsx
+++ b/CH_121913_A.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="140" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="1180" yWindow="140" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="1" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>Number of plates</t>
   </si>
   <si>
-    <t>Slides per plate               (or list of numbers for each plate)</t>
-  </si>
-  <si>
     <t>Notes on histology</t>
   </si>
   <si>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t>Injected AAV9-C1V1-eYFP into V1.</t>
+  </si>
+  <si>
+    <t>Slices per plate               (or list of numbers for each plate)</t>
   </si>
 </sst>
 </file>
@@ -836,6 +836,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -845,6 +866,60 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -854,78 +929,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -968,32 +971,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1340,7 +1340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageLayout" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1356,22 +1356,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="38" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="38" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="83">
+      <c r="B3" s="37">
         <v>41601</v>
       </c>
     </row>
@@ -1380,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="38" customHeight="1">
@@ -1388,15 +1388,15 @@
         <v>3</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="148" customHeight="1" thickBot="1">
       <c r="A6" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="38" customHeight="1" thickTop="1"/>
@@ -1442,66 +1442,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" customHeight="1" thickTop="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
       <c r="G1" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" ht="39" customHeight="1">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
       <c r="G2" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:8" ht="39" customHeight="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="53"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="1:8" ht="102" customHeight="1" thickBot="1">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="57"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="55"/>
     </row>
     <row r="5" spans="1:8" ht="26" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
     </row>
     <row r="6" spans="1:8" ht="39" customHeight="1" thickTop="1">
       <c r="A6" s="9" t="s">
@@ -1519,11 +1519,11 @@
       <c r="E6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="45"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40"/>
     </row>
     <row r="7" spans="1:8" ht="39" customHeight="1">
       <c r="A7" s="3"/>
@@ -1531,9 +1531,9 @@
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="E7" s="26"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="48"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="43"/>
     </row>
     <row r="8" spans="1:8" ht="39" customHeight="1">
       <c r="A8" s="3"/>
@@ -1541,9 +1541,9 @@
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="E8" s="26"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="39"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="46"/>
     </row>
     <row r="9" spans="1:8" ht="39" customHeight="1">
       <c r="A9" s="3"/>
@@ -1551,9 +1551,9 @@
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
       <c r="E9" s="26"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="39"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="46"/>
     </row>
     <row r="10" spans="1:8" ht="39" customHeight="1">
       <c r="A10" s="3"/>
@@ -1561,9 +1561,9 @@
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
       <c r="E10" s="26"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="39"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="46"/>
     </row>
     <row r="11" spans="1:8" ht="39" customHeight="1">
       <c r="A11" s="3"/>
@@ -1571,9 +1571,9 @@
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
       <c r="E11" s="26"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="39"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="46"/>
     </row>
     <row r="12" spans="1:8" ht="39" customHeight="1">
       <c r="A12" s="3"/>
@@ -1581,9 +1581,9 @@
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
       <c r="E12" s="26"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="46"/>
     </row>
     <row r="13" spans="1:8" ht="39" customHeight="1">
       <c r="A13" s="3"/>
@@ -1591,9 +1591,9 @@
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
       <c r="E13" s="26"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="46"/>
     </row>
     <row r="14" spans="1:8" ht="39" customHeight="1">
       <c r="A14" s="3"/>
@@ -1601,9 +1601,9 @@
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
       <c r="E14" s="26"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="39"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="46"/>
     </row>
     <row r="15" spans="1:8" ht="39" customHeight="1">
       <c r="A15" s="3"/>
@@ -1611,9 +1611,9 @@
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
       <c r="E15" s="26"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="39"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
     </row>
     <row r="16" spans="1:8" ht="39" customHeight="1">
       <c r="A16" s="3"/>
@@ -1621,9 +1621,9 @@
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
       <c r="E16" s="26"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="39"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="46"/>
     </row>
     <row r="17" spans="1:8" ht="39" customHeight="1">
       <c r="A17" s="3"/>
@@ -1631,9 +1631,9 @@
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
       <c r="E17" s="26"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="39"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="46"/>
     </row>
     <row r="18" spans="1:8" ht="39" customHeight="1">
       <c r="A18" s="3"/>
@@ -1641,9 +1641,9 @@
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
       <c r="E18" s="26"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="46"/>
     </row>
     <row r="19" spans="1:8" ht="39" customHeight="1">
       <c r="A19" s="3"/>
@@ -1651,9 +1651,9 @@
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
       <c r="E19" s="26"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="39"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="46"/>
     </row>
     <row r="20" spans="1:8" ht="39" customHeight="1">
       <c r="A20" s="3"/>
@@ -1661,9 +1661,9 @@
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
       <c r="E20" s="26"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="39"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="46"/>
     </row>
     <row r="21" spans="1:8" ht="39" customHeight="1">
       <c r="A21" s="3"/>
@@ -1671,9 +1671,9 @@
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
       <c r="E21" s="26"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="39"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="46"/>
     </row>
     <row r="22" spans="1:8" ht="39" customHeight="1">
       <c r="A22" s="3"/>
@@ -1681,9 +1681,9 @@
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
       <c r="E22" s="26"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="39"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="46"/>
     </row>
     <row r="23" spans="1:8" ht="39" customHeight="1">
       <c r="A23" s="3"/>
@@ -1691,9 +1691,9 @@
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
       <c r="E23" s="26"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="39"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="46"/>
     </row>
     <row r="24" spans="1:8" ht="39" customHeight="1">
       <c r="A24" s="3"/>
@@ -1701,9 +1701,9 @@
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
       <c r="E24" s="26"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="39"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="46"/>
     </row>
     <row r="25" spans="1:8" ht="39" customHeight="1">
       <c r="A25" s="3"/>
@@ -1711,9 +1711,9 @@
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
       <c r="E25" s="26"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="39"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="46"/>
     </row>
     <row r="26" spans="1:8" ht="39" customHeight="1">
       <c r="A26" s="3"/>
@@ -1721,9 +1721,9 @@
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
       <c r="E26" s="26"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="39"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="46"/>
     </row>
     <row r="27" spans="1:8" ht="39" customHeight="1">
       <c r="A27" s="3"/>
@@ -1731,9 +1731,9 @@
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
       <c r="E27" s="26"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="39"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="46"/>
     </row>
     <row r="28" spans="1:8" ht="39" customHeight="1">
       <c r="A28" s="3"/>
@@ -1741,9 +1741,9 @@
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
       <c r="E28" s="26"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="39"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="46"/>
     </row>
     <row r="29" spans="1:8" ht="39" customHeight="1">
       <c r="A29" s="3"/>
@@ -1751,9 +1751,9 @@
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
       <c r="E29" s="26"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="39"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="46"/>
     </row>
     <row r="30" spans="1:8" ht="39" customHeight="1">
       <c r="A30" s="3"/>
@@ -1761,9 +1761,9 @@
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
       <c r="E30" s="26"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="39"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="46"/>
     </row>
     <row r="31" spans="1:8" ht="39" customHeight="1">
       <c r="A31" s="3"/>
@@ -1771,9 +1771,9 @@
       <c r="C31" s="4"/>
       <c r="D31" s="5"/>
       <c r="E31" s="26"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="39"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="46"/>
     </row>
     <row r="32" spans="1:8" ht="39" customHeight="1">
       <c r="A32" s="3"/>
@@ -1781,9 +1781,9 @@
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
       <c r="E32" s="26"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="39"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="46"/>
     </row>
     <row r="33" spans="1:8" ht="39" customHeight="1">
       <c r="A33" s="3"/>
@@ -1791,9 +1791,9 @@
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
       <c r="E33" s="26"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="39"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="46"/>
     </row>
     <row r="34" spans="1:8" ht="39" customHeight="1">
       <c r="A34" s="3"/>
@@ -1801,9 +1801,9 @@
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
       <c r="E34" s="26"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="39"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="46"/>
     </row>
     <row r="35" spans="1:8" ht="39" customHeight="1">
       <c r="A35" s="3"/>
@@ -1811,9 +1811,9 @@
       <c r="C35" s="4"/>
       <c r="D35" s="5"/>
       <c r="E35" s="26"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="39"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="46"/>
     </row>
     <row r="36" spans="1:8" ht="39" customHeight="1">
       <c r="A36" s="3"/>
@@ -1821,9 +1821,9 @@
       <c r="C36" s="4"/>
       <c r="D36" s="5"/>
       <c r="E36" s="26"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="39"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="46"/>
     </row>
     <row r="37" spans="1:8" ht="39" customHeight="1">
       <c r="A37" s="3"/>
@@ -1831,9 +1831,9 @@
       <c r="C37" s="4"/>
       <c r="D37" s="5"/>
       <c r="E37" s="26"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="39"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="46"/>
     </row>
     <row r="38" spans="1:8" ht="39" customHeight="1">
       <c r="A38" s="3"/>
@@ -1841,9 +1841,9 @@
       <c r="C38" s="4"/>
       <c r="D38" s="5"/>
       <c r="E38" s="26"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="39"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="46"/>
     </row>
     <row r="39" spans="1:8" ht="39" customHeight="1">
       <c r="A39" s="3"/>
@@ -1851,9 +1851,9 @@
       <c r="C39" s="4"/>
       <c r="D39" s="5"/>
       <c r="E39" s="26"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="39"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="46"/>
     </row>
     <row r="40" spans="1:8" ht="39" customHeight="1">
       <c r="A40" s="3"/>
@@ -1861,9 +1861,9 @@
       <c r="C40" s="4"/>
       <c r="D40" s="5"/>
       <c r="E40" s="26"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="39"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="46"/>
     </row>
     <row r="41" spans="1:8" ht="39" customHeight="1">
       <c r="A41" s="3"/>
@@ -1871,9 +1871,9 @@
       <c r="C41" s="4"/>
       <c r="D41" s="5"/>
       <c r="E41" s="26"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="39"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="46"/>
     </row>
     <row r="42" spans="1:8" ht="39" customHeight="1">
       <c r="A42" s="3"/>
@@ -1881,9 +1881,9 @@
       <c r="C42" s="4"/>
       <c r="D42" s="5"/>
       <c r="E42" s="26"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="39"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="46"/>
     </row>
     <row r="43" spans="1:8" ht="39" customHeight="1">
       <c r="A43" s="3"/>
@@ -1891,9 +1891,9 @@
       <c r="C43" s="4"/>
       <c r="D43" s="5"/>
       <c r="E43" s="26"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="39"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="46"/>
     </row>
     <row r="44" spans="1:8" ht="39" customHeight="1">
       <c r="A44" s="3"/>
@@ -1901,9 +1901,9 @@
       <c r="C44" s="4"/>
       <c r="D44" s="5"/>
       <c r="E44" s="26"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="39"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="46"/>
     </row>
     <row r="45" spans="1:8" ht="39" customHeight="1">
       <c r="A45" s="3"/>
@@ -1911,9 +1911,9 @@
       <c r="C45" s="4"/>
       <c r="D45" s="5"/>
       <c r="E45" s="26"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="39"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="46"/>
     </row>
     <row r="46" spans="1:8" ht="39" customHeight="1">
       <c r="A46" s="3"/>
@@ -1921,9 +1921,9 @@
       <c r="C46" s="4"/>
       <c r="D46" s="5"/>
       <c r="E46" s="26"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="39"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="46"/>
     </row>
     <row r="47" spans="1:8" ht="39" customHeight="1">
       <c r="A47" s="3"/>
@@ -1931,9 +1931,9 @@
       <c r="C47" s="4"/>
       <c r="D47" s="5"/>
       <c r="E47" s="26"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="39"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="46"/>
     </row>
     <row r="48" spans="1:8" ht="39" customHeight="1">
       <c r="A48" s="3"/>
@@ -1941,9 +1941,9 @@
       <c r="C48" s="4"/>
       <c r="D48" s="5"/>
       <c r="E48" s="26"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="39"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="46"/>
     </row>
     <row r="49" spans="1:8" ht="39" customHeight="1">
       <c r="A49" s="3"/>
@@ -1951,9 +1951,9 @@
       <c r="C49" s="4"/>
       <c r="D49" s="5"/>
       <c r="E49" s="26"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="39"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="46"/>
     </row>
     <row r="50" spans="1:8" ht="39" customHeight="1">
       <c r="A50" s="3"/>
@@ -1961,9 +1961,9 @@
       <c r="C50" s="4"/>
       <c r="D50" s="5"/>
       <c r="E50" s="26"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="39"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="46"/>
     </row>
     <row r="51" spans="1:8" ht="39" customHeight="1">
       <c r="A51" s="3"/>
@@ -1971,9 +1971,9 @@
       <c r="C51" s="4"/>
       <c r="D51" s="5"/>
       <c r="E51" s="26"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="39"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="46"/>
     </row>
     <row r="52" spans="1:8" ht="39" customHeight="1">
       <c r="A52" s="3"/>
@@ -1981,9 +1981,9 @@
       <c r="C52" s="4"/>
       <c r="D52" s="5"/>
       <c r="E52" s="26"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="39"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="46"/>
     </row>
     <row r="53" spans="1:8" ht="39" customHeight="1">
       <c r="A53" s="3"/>
@@ -1991,9 +1991,9 @@
       <c r="C53" s="4"/>
       <c r="D53" s="5"/>
       <c r="E53" s="26"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="39"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="46"/>
     </row>
     <row r="54" spans="1:8" ht="39" customHeight="1">
       <c r="A54" s="3"/>
@@ -2001,9 +2001,9 @@
       <c r="C54" s="4"/>
       <c r="D54" s="5"/>
       <c r="E54" s="26"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="39"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="46"/>
     </row>
     <row r="55" spans="1:8" ht="39" customHeight="1">
       <c r="A55" s="3"/>
@@ -2011,9 +2011,9 @@
       <c r="C55" s="4"/>
       <c r="D55" s="5"/>
       <c r="E55" s="26"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="39"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="46"/>
     </row>
     <row r="56" spans="1:8" ht="39" customHeight="1">
       <c r="A56" s="3"/>
@@ -2021,9 +2021,9 @@
       <c r="C56" s="4"/>
       <c r="D56" s="5"/>
       <c r="E56" s="26"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="39"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="46"/>
     </row>
     <row r="57" spans="1:8" ht="39" customHeight="1">
       <c r="A57" s="3"/>
@@ -2031,9 +2031,9 @@
       <c r="C57" s="4"/>
       <c r="D57" s="5"/>
       <c r="E57" s="26"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="39"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="46"/>
     </row>
     <row r="58" spans="1:8" ht="39" customHeight="1">
       <c r="A58" s="3"/>
@@ -2041,9 +2041,9 @@
       <c r="C58" s="4"/>
       <c r="D58" s="5"/>
       <c r="E58" s="26"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="39"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="46"/>
     </row>
     <row r="59" spans="1:8" ht="39" customHeight="1">
       <c r="A59" s="3"/>
@@ -2051,9 +2051,9 @@
       <c r="C59" s="4"/>
       <c r="D59" s="5"/>
       <c r="E59" s="26"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="39"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="46"/>
     </row>
     <row r="60" spans="1:8" ht="39" customHeight="1">
       <c r="A60" s="3"/>
@@ -2061,9 +2061,9 @@
       <c r="C60" s="4"/>
       <c r="D60" s="5"/>
       <c r="E60" s="26"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="39"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="46"/>
     </row>
     <row r="61" spans="1:8" ht="39" customHeight="1">
       <c r="A61" s="3"/>
@@ -2071,9 +2071,9 @@
       <c r="C61" s="4"/>
       <c r="D61" s="5"/>
       <c r="E61" s="26"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="39"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="46"/>
     </row>
     <row r="62" spans="1:8" ht="39" customHeight="1">
       <c r="A62" s="3"/>
@@ -2081,9 +2081,9 @@
       <c r="C62" s="4"/>
       <c r="D62" s="5"/>
       <c r="E62" s="26"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="39"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="45"/>
+      <c r="H62" s="46"/>
     </row>
     <row r="63" spans="1:8" ht="39" customHeight="1">
       <c r="A63" s="3"/>
@@ -2091,9 +2091,9 @@
       <c r="C63" s="4"/>
       <c r="D63" s="5"/>
       <c r="E63" s="26"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="39"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="46"/>
     </row>
     <row r="64" spans="1:8" ht="39" customHeight="1">
       <c r="A64" s="3"/>
@@ -2101,9 +2101,9 @@
       <c r="C64" s="4"/>
       <c r="D64" s="5"/>
       <c r="E64" s="26"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="38"/>
-      <c r="H64" s="39"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="46"/>
     </row>
     <row r="65" spans="1:8" ht="39" customHeight="1">
       <c r="A65" s="3"/>
@@ -2111,9 +2111,9 @@
       <c r="C65" s="4"/>
       <c r="D65" s="5"/>
       <c r="E65" s="26"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="38"/>
-      <c r="H65" s="39"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="45"/>
+      <c r="H65" s="46"/>
     </row>
     <row r="66" spans="1:8" ht="39" customHeight="1">
       <c r="A66" s="3"/>
@@ -2121,9 +2121,9 @@
       <c r="C66" s="4"/>
       <c r="D66" s="5"/>
       <c r="E66" s="26"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="38"/>
-      <c r="H66" s="39"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="46"/>
     </row>
     <row r="67" spans="1:8" ht="39" customHeight="1">
       <c r="A67" s="3"/>
@@ -2131,9 +2131,9 @@
       <c r="C67" s="4"/>
       <c r="D67" s="5"/>
       <c r="E67" s="26"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="38"/>
-      <c r="H67" s="39"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="45"/>
+      <c r="H67" s="46"/>
     </row>
     <row r="68" spans="1:8" ht="39" customHeight="1">
       <c r="A68" s="3"/>
@@ -2141,9 +2141,9 @@
       <c r="C68" s="4"/>
       <c r="D68" s="5"/>
       <c r="E68" s="26"/>
-      <c r="F68" s="37"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="39"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="45"/>
+      <c r="H68" s="46"/>
     </row>
     <row r="69" spans="1:8" ht="39" customHeight="1">
       <c r="A69" s="3"/>
@@ -2151,9 +2151,9 @@
       <c r="C69" s="4"/>
       <c r="D69" s="5"/>
       <c r="E69" s="26"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="38"/>
-      <c r="H69" s="39"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="45"/>
+      <c r="H69" s="46"/>
     </row>
     <row r="70" spans="1:8" ht="39" customHeight="1">
       <c r="A70" s="3"/>
@@ -2161,9 +2161,9 @@
       <c r="C70" s="4"/>
       <c r="D70" s="5"/>
       <c r="E70" s="26"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="39"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="45"/>
+      <c r="H70" s="46"/>
     </row>
     <row r="71" spans="1:8" ht="39" customHeight="1">
       <c r="A71" s="3"/>
@@ -2171,9 +2171,9 @@
       <c r="C71" s="4"/>
       <c r="D71" s="5"/>
       <c r="E71" s="26"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="39"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="45"/>
+      <c r="H71" s="46"/>
     </row>
     <row r="72" spans="1:8" ht="39" customHeight="1">
       <c r="A72" s="3"/>
@@ -2181,9 +2181,9 @@
       <c r="C72" s="4"/>
       <c r="D72" s="5"/>
       <c r="E72" s="26"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="39"/>
+      <c r="F72" s="44"/>
+      <c r="G72" s="45"/>
+      <c r="H72" s="46"/>
     </row>
     <row r="73" spans="1:8" ht="39" customHeight="1">
       <c r="A73" s="3"/>
@@ -2191,9 +2191,9 @@
       <c r="C73" s="4"/>
       <c r="D73" s="5"/>
       <c r="E73" s="26"/>
-      <c r="F73" s="37"/>
-      <c r="G73" s="38"/>
-      <c r="H73" s="39"/>
+      <c r="F73" s="44"/>
+      <c r="G73" s="45"/>
+      <c r="H73" s="46"/>
     </row>
     <row r="74" spans="1:8" ht="39" customHeight="1">
       <c r="A74" s="3"/>
@@ -2201,9 +2201,9 @@
       <c r="C74" s="4"/>
       <c r="D74" s="5"/>
       <c r="E74" s="26"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="38"/>
-      <c r="H74" s="39"/>
+      <c r="F74" s="44"/>
+      <c r="G74" s="45"/>
+      <c r="H74" s="46"/>
     </row>
     <row r="75" spans="1:8" ht="39" customHeight="1">
       <c r="A75" s="3"/>
@@ -2211,9 +2211,9 @@
       <c r="C75" s="4"/>
       <c r="D75" s="5"/>
       <c r="E75" s="26"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="38"/>
-      <c r="H75" s="39"/>
+      <c r="F75" s="44"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="46"/>
     </row>
     <row r="76" spans="1:8" ht="39" customHeight="1">
       <c r="A76" s="3"/>
@@ -2221,9 +2221,9 @@
       <c r="C76" s="4"/>
       <c r="D76" s="5"/>
       <c r="E76" s="26"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="38"/>
-      <c r="H76" s="39"/>
+      <c r="F76" s="44"/>
+      <c r="G76" s="45"/>
+      <c r="H76" s="46"/>
     </row>
     <row r="77" spans="1:8" ht="39" customHeight="1">
       <c r="A77" s="3"/>
@@ -2231,9 +2231,9 @@
       <c r="C77" s="4"/>
       <c r="D77" s="5"/>
       <c r="E77" s="26"/>
-      <c r="F77" s="37"/>
-      <c r="G77" s="38"/>
-      <c r="H77" s="39"/>
+      <c r="F77" s="44"/>
+      <c r="G77" s="45"/>
+      <c r="H77" s="46"/>
     </row>
     <row r="78" spans="1:8" ht="39" customHeight="1">
       <c r="A78" s="3"/>
@@ -2241,9 +2241,9 @@
       <c r="C78" s="4"/>
       <c r="D78" s="5"/>
       <c r="E78" s="26"/>
-      <c r="F78" s="37"/>
-      <c r="G78" s="38"/>
-      <c r="H78" s="39"/>
+      <c r="F78" s="44"/>
+      <c r="G78" s="45"/>
+      <c r="H78" s="46"/>
     </row>
     <row r="79" spans="1:8" ht="39" customHeight="1">
       <c r="A79" s="3"/>
@@ -2251,9 +2251,9 @@
       <c r="C79" s="4"/>
       <c r="D79" s="5"/>
       <c r="E79" s="26"/>
-      <c r="F79" s="37"/>
-      <c r="G79" s="38"/>
-      <c r="H79" s="39"/>
+      <c r="F79" s="44"/>
+      <c r="G79" s="45"/>
+      <c r="H79" s="46"/>
     </row>
     <row r="80" spans="1:8" ht="39" customHeight="1">
       <c r="A80" s="3"/>
@@ -2261,9 +2261,9 @@
       <c r="C80" s="4"/>
       <c r="D80" s="5"/>
       <c r="E80" s="26"/>
-      <c r="F80" s="37"/>
-      <c r="G80" s="38"/>
-      <c r="H80" s="39"/>
+      <c r="F80" s="44"/>
+      <c r="G80" s="45"/>
+      <c r="H80" s="46"/>
     </row>
     <row r="81" spans="1:8" ht="39" customHeight="1">
       <c r="A81" s="3"/>
@@ -2271,9 +2271,9 @@
       <c r="C81" s="4"/>
       <c r="D81" s="5"/>
       <c r="E81" s="26"/>
-      <c r="F81" s="37"/>
-      <c r="G81" s="38"/>
-      <c r="H81" s="39"/>
+      <c r="F81" s="44"/>
+      <c r="G81" s="45"/>
+      <c r="H81" s="46"/>
     </row>
     <row r="82" spans="1:8" ht="39" customHeight="1">
       <c r="A82" s="3"/>
@@ -2281,9 +2281,9 @@
       <c r="C82" s="4"/>
       <c r="D82" s="5"/>
       <c r="E82" s="26"/>
-      <c r="F82" s="37"/>
-      <c r="G82" s="38"/>
-      <c r="H82" s="39"/>
+      <c r="F82" s="44"/>
+      <c r="G82" s="45"/>
+      <c r="H82" s="46"/>
     </row>
     <row r="83" spans="1:8" ht="39" customHeight="1">
       <c r="A83" s="3"/>
@@ -2291,9 +2291,9 @@
       <c r="C83" s="4"/>
       <c r="D83" s="5"/>
       <c r="E83" s="26"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="38"/>
-      <c r="H83" s="39"/>
+      <c r="F83" s="44"/>
+      <c r="G83" s="45"/>
+      <c r="H83" s="46"/>
     </row>
     <row r="84" spans="1:8" ht="39" customHeight="1">
       <c r="A84" s="3"/>
@@ -2301,9 +2301,9 @@
       <c r="C84" s="4"/>
       <c r="D84" s="5"/>
       <c r="E84" s="26"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="38"/>
-      <c r="H84" s="39"/>
+      <c r="F84" s="44"/>
+      <c r="G84" s="45"/>
+      <c r="H84" s="46"/>
     </row>
     <row r="85" spans="1:8" ht="39" customHeight="1">
       <c r="A85" s="3"/>
@@ -2311,9 +2311,9 @@
       <c r="C85" s="4"/>
       <c r="D85" s="5"/>
       <c r="E85" s="26"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="38"/>
-      <c r="H85" s="39"/>
+      <c r="F85" s="44"/>
+      <c r="G85" s="45"/>
+      <c r="H85" s="46"/>
     </row>
     <row r="86" spans="1:8" ht="39" customHeight="1">
       <c r="A86" s="3"/>
@@ -2321,9 +2321,9 @@
       <c r="C86" s="4"/>
       <c r="D86" s="5"/>
       <c r="E86" s="26"/>
-      <c r="F86" s="37"/>
-      <c r="G86" s="38"/>
-      <c r="H86" s="39"/>
+      <c r="F86" s="44"/>
+      <c r="G86" s="45"/>
+      <c r="H86" s="46"/>
     </row>
     <row r="87" spans="1:8" ht="39" customHeight="1">
       <c r="A87" s="3"/>
@@ -2331,9 +2331,9 @@
       <c r="C87" s="4"/>
       <c r="D87" s="5"/>
       <c r="E87" s="26"/>
-      <c r="F87" s="37"/>
-      <c r="G87" s="38"/>
-      <c r="H87" s="39"/>
+      <c r="F87" s="44"/>
+      <c r="G87" s="45"/>
+      <c r="H87" s="46"/>
     </row>
     <row r="88" spans="1:8" ht="39" customHeight="1">
       <c r="A88" s="3"/>
@@ -2341,9 +2341,9 @@
       <c r="C88" s="4"/>
       <c r="D88" s="5"/>
       <c r="E88" s="26"/>
-      <c r="F88" s="37"/>
-      <c r="G88" s="38"/>
-      <c r="H88" s="39"/>
+      <c r="F88" s="44"/>
+      <c r="G88" s="45"/>
+      <c r="H88" s="46"/>
     </row>
     <row r="89" spans="1:8" ht="39" customHeight="1">
       <c r="A89" s="3"/>
@@ -2351,9 +2351,9 @@
       <c r="C89" s="4"/>
       <c r="D89" s="5"/>
       <c r="E89" s="26"/>
-      <c r="F89" s="37"/>
-      <c r="G89" s="38"/>
-      <c r="H89" s="39"/>
+      <c r="F89" s="44"/>
+      <c r="G89" s="45"/>
+      <c r="H89" s="46"/>
     </row>
     <row r="90" spans="1:8" ht="39" customHeight="1">
       <c r="A90" s="3"/>
@@ -2361,9 +2361,9 @@
       <c r="C90" s="4"/>
       <c r="D90" s="5"/>
       <c r="E90" s="26"/>
-      <c r="F90" s="37"/>
-      <c r="G90" s="38"/>
-      <c r="H90" s="39"/>
+      <c r="F90" s="44"/>
+      <c r="G90" s="45"/>
+      <c r="H90" s="46"/>
     </row>
     <row r="91" spans="1:8" ht="39" customHeight="1">
       <c r="A91" s="3"/>
@@ -2371,9 +2371,9 @@
       <c r="C91" s="4"/>
       <c r="D91" s="5"/>
       <c r="E91" s="26"/>
-      <c r="F91" s="37"/>
-      <c r="G91" s="38"/>
-      <c r="H91" s="39"/>
+      <c r="F91" s="44"/>
+      <c r="G91" s="45"/>
+      <c r="H91" s="46"/>
     </row>
     <row r="92" spans="1:8" ht="39" customHeight="1">
       <c r="A92" s="3"/>
@@ -2381,9 +2381,9 @@
       <c r="C92" s="4"/>
       <c r="D92" s="5"/>
       <c r="E92" s="26"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="38"/>
-      <c r="H92" s="39"/>
+      <c r="F92" s="44"/>
+      <c r="G92" s="45"/>
+      <c r="H92" s="46"/>
     </row>
     <row r="93" spans="1:8" ht="39" customHeight="1">
       <c r="A93" s="3"/>
@@ -2391,9 +2391,9 @@
       <c r="C93" s="4"/>
       <c r="D93" s="5"/>
       <c r="E93" s="26"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="38"/>
-      <c r="H93" s="39"/>
+      <c r="F93" s="44"/>
+      <c r="G93" s="45"/>
+      <c r="H93" s="46"/>
     </row>
     <row r="94" spans="1:8" ht="39" customHeight="1">
       <c r="A94" s="3"/>
@@ -2401,9 +2401,9 @@
       <c r="C94" s="4"/>
       <c r="D94" s="5"/>
       <c r="E94" s="26"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="38"/>
-      <c r="H94" s="39"/>
+      <c r="F94" s="44"/>
+      <c r="G94" s="45"/>
+      <c r="H94" s="46"/>
     </row>
     <row r="95" spans="1:8" ht="39" customHeight="1">
       <c r="A95" s="3"/>
@@ -2411,9 +2411,9 @@
       <c r="C95" s="4"/>
       <c r="D95" s="5"/>
       <c r="E95" s="26"/>
-      <c r="F95" s="37"/>
-      <c r="G95" s="38"/>
-      <c r="H95" s="39"/>
+      <c r="F95" s="44"/>
+      <c r="G95" s="45"/>
+      <c r="H95" s="46"/>
     </row>
     <row r="96" spans="1:8" ht="39" customHeight="1">
       <c r="A96" s="3"/>
@@ -2421,9 +2421,9 @@
       <c r="C96" s="4"/>
       <c r="D96" s="5"/>
       <c r="E96" s="26"/>
-      <c r="F96" s="37"/>
-      <c r="G96" s="38"/>
-      <c r="H96" s="39"/>
+      <c r="F96" s="44"/>
+      <c r="G96" s="45"/>
+      <c r="H96" s="46"/>
     </row>
     <row r="97" spans="1:8" ht="39" customHeight="1">
       <c r="A97" s="3"/>
@@ -2431,9 +2431,9 @@
       <c r="C97" s="4"/>
       <c r="D97" s="5"/>
       <c r="E97" s="26"/>
-      <c r="F97" s="37"/>
-      <c r="G97" s="38"/>
-      <c r="H97" s="39"/>
+      <c r="F97" s="44"/>
+      <c r="G97" s="45"/>
+      <c r="H97" s="46"/>
     </row>
     <row r="98" spans="1:8" ht="39" customHeight="1">
       <c r="A98" s="3"/>
@@ -2441,9 +2441,9 @@
       <c r="C98" s="4"/>
       <c r="D98" s="5"/>
       <c r="E98" s="26"/>
-      <c r="F98" s="37"/>
-      <c r="G98" s="38"/>
-      <c r="H98" s="39"/>
+      <c r="F98" s="44"/>
+      <c r="G98" s="45"/>
+      <c r="H98" s="46"/>
     </row>
     <row r="99" spans="1:8" ht="39" customHeight="1">
       <c r="A99" s="3"/>
@@ -2451,9 +2451,9 @@
       <c r="C99" s="4"/>
       <c r="D99" s="5"/>
       <c r="E99" s="26"/>
-      <c r="F99" s="37"/>
-      <c r="G99" s="38"/>
-      <c r="H99" s="39"/>
+      <c r="F99" s="44"/>
+      <c r="G99" s="45"/>
+      <c r="H99" s="46"/>
     </row>
     <row r="100" spans="1:8" ht="39" customHeight="1">
       <c r="A100" s="3"/>
@@ -2461,9 +2461,9 @@
       <c r="C100" s="4"/>
       <c r="D100" s="5"/>
       <c r="E100" s="26"/>
-      <c r="F100" s="37"/>
-      <c r="G100" s="38"/>
-      <c r="H100" s="39"/>
+      <c r="F100" s="44"/>
+      <c r="G100" s="45"/>
+      <c r="H100" s="46"/>
     </row>
     <row r="101" spans="1:8" ht="39" customHeight="1">
       <c r="A101" s="3"/>
@@ -2471,9 +2471,9 @@
       <c r="C101" s="4"/>
       <c r="D101" s="5"/>
       <c r="E101" s="26"/>
-      <c r="F101" s="37"/>
-      <c r="G101" s="38"/>
-      <c r="H101" s="39"/>
+      <c r="F101" s="44"/>
+      <c r="G101" s="45"/>
+      <c r="H101" s="46"/>
     </row>
     <row r="102" spans="1:8" ht="39" customHeight="1">
       <c r="A102" s="3"/>
@@ -2481,9 +2481,9 @@
       <c r="C102" s="4"/>
       <c r="D102" s="5"/>
       <c r="E102" s="26"/>
-      <c r="F102" s="37"/>
-      <c r="G102" s="38"/>
-      <c r="H102" s="39"/>
+      <c r="F102" s="44"/>
+      <c r="G102" s="45"/>
+      <c r="H102" s="46"/>
     </row>
     <row r="103" spans="1:8" ht="39" customHeight="1">
       <c r="A103" s="3"/>
@@ -2491,9 +2491,9 @@
       <c r="C103" s="4"/>
       <c r="D103" s="5"/>
       <c r="E103" s="26"/>
-      <c r="F103" s="37"/>
-      <c r="G103" s="38"/>
-      <c r="H103" s="39"/>
+      <c r="F103" s="44"/>
+      <c r="G103" s="45"/>
+      <c r="H103" s="46"/>
     </row>
     <row r="104" spans="1:8" ht="39" customHeight="1">
       <c r="A104" s="3"/>
@@ -2501,9 +2501,9 @@
       <c r="C104" s="4"/>
       <c r="D104" s="5"/>
       <c r="E104" s="26"/>
-      <c r="F104" s="37"/>
-      <c r="G104" s="38"/>
-      <c r="H104" s="39"/>
+      <c r="F104" s="44"/>
+      <c r="G104" s="45"/>
+      <c r="H104" s="46"/>
     </row>
     <row r="105" spans="1:8" ht="39" customHeight="1">
       <c r="A105" s="3"/>
@@ -2511,9 +2511,9 @@
       <c r="C105" s="4"/>
       <c r="D105" s="5"/>
       <c r="E105" s="26"/>
-      <c r="F105" s="37"/>
-      <c r="G105" s="38"/>
-      <c r="H105" s="39"/>
+      <c r="F105" s="44"/>
+      <c r="G105" s="45"/>
+      <c r="H105" s="46"/>
     </row>
     <row r="106" spans="1:8" ht="39" customHeight="1">
       <c r="A106" s="3"/>
@@ -2521,9 +2521,9 @@
       <c r="C106" s="4"/>
       <c r="D106" s="5"/>
       <c r="E106" s="26"/>
-      <c r="F106" s="37"/>
-      <c r="G106" s="38"/>
-      <c r="H106" s="39"/>
+      <c r="F106" s="44"/>
+      <c r="G106" s="45"/>
+      <c r="H106" s="46"/>
     </row>
     <row r="107" spans="1:8" ht="39" customHeight="1">
       <c r="A107" s="3"/>
@@ -2531,9 +2531,9 @@
       <c r="C107" s="4"/>
       <c r="D107" s="5"/>
       <c r="E107" s="26"/>
-      <c r="F107" s="37"/>
-      <c r="G107" s="38"/>
-      <c r="H107" s="39"/>
+      <c r="F107" s="44"/>
+      <c r="G107" s="45"/>
+      <c r="H107" s="46"/>
     </row>
     <row r="108" spans="1:8" ht="39" customHeight="1">
       <c r="A108" s="3"/>
@@ -2541,9 +2541,9 @@
       <c r="C108" s="4"/>
       <c r="D108" s="5"/>
       <c r="E108" s="26"/>
-      <c r="F108" s="37"/>
-      <c r="G108" s="38"/>
-      <c r="H108" s="39"/>
+      <c r="F108" s="44"/>
+      <c r="G108" s="45"/>
+      <c r="H108" s="46"/>
     </row>
     <row r="109" spans="1:8" ht="39" customHeight="1">
       <c r="A109" s="3"/>
@@ -2551,9 +2551,9 @@
       <c r="C109" s="4"/>
       <c r="D109" s="5"/>
       <c r="E109" s="26"/>
-      <c r="F109" s="37"/>
-      <c r="G109" s="38"/>
-      <c r="H109" s="39"/>
+      <c r="F109" s="44"/>
+      <c r="G109" s="45"/>
+      <c r="H109" s="46"/>
     </row>
     <row r="110" spans="1:8" ht="39" customHeight="1">
       <c r="A110" s="3"/>
@@ -2561,9 +2561,9 @@
       <c r="C110" s="4"/>
       <c r="D110" s="5"/>
       <c r="E110" s="26"/>
-      <c r="F110" s="37"/>
-      <c r="G110" s="38"/>
-      <c r="H110" s="39"/>
+      <c r="F110" s="44"/>
+      <c r="G110" s="45"/>
+      <c r="H110" s="46"/>
     </row>
     <row r="111" spans="1:8" ht="39" customHeight="1">
       <c r="A111" s="3"/>
@@ -2571,9 +2571,9 @@
       <c r="C111" s="4"/>
       <c r="D111" s="5"/>
       <c r="E111" s="26"/>
-      <c r="F111" s="37"/>
-      <c r="G111" s="38"/>
-      <c r="H111" s="39"/>
+      <c r="F111" s="44"/>
+      <c r="G111" s="45"/>
+      <c r="H111" s="46"/>
     </row>
     <row r="112" spans="1:8" ht="39" customHeight="1">
       <c r="A112" s="3"/>
@@ -2581,9 +2581,9 @@
       <c r="C112" s="4"/>
       <c r="D112" s="5"/>
       <c r="E112" s="26"/>
-      <c r="F112" s="37"/>
-      <c r="G112" s="38"/>
-      <c r="H112" s="39"/>
+      <c r="F112" s="44"/>
+      <c r="G112" s="45"/>
+      <c r="H112" s="46"/>
     </row>
     <row r="113" spans="1:8" ht="39" customHeight="1">
       <c r="A113" s="3"/>
@@ -2591,9 +2591,9 @@
       <c r="C113" s="4"/>
       <c r="D113" s="5"/>
       <c r="E113" s="26"/>
-      <c r="F113" s="37"/>
-      <c r="G113" s="38"/>
-      <c r="H113" s="39"/>
+      <c r="F113" s="44"/>
+      <c r="G113" s="45"/>
+      <c r="H113" s="46"/>
     </row>
     <row r="114" spans="1:8" ht="39" customHeight="1">
       <c r="A114" s="3"/>
@@ -2601,9 +2601,9 @@
       <c r="C114" s="4"/>
       <c r="D114" s="5"/>
       <c r="E114" s="26"/>
-      <c r="F114" s="37"/>
-      <c r="G114" s="38"/>
-      <c r="H114" s="39"/>
+      <c r="F114" s="44"/>
+      <c r="G114" s="45"/>
+      <c r="H114" s="46"/>
     </row>
     <row r="115" spans="1:8" ht="39" customHeight="1">
       <c r="A115" s="3"/>
@@ -2611,9 +2611,9 @@
       <c r="C115" s="4"/>
       <c r="D115" s="5"/>
       <c r="E115" s="26"/>
-      <c r="F115" s="37"/>
-      <c r="G115" s="38"/>
-      <c r="H115" s="39"/>
+      <c r="F115" s="44"/>
+      <c r="G115" s="45"/>
+      <c r="H115" s="46"/>
     </row>
     <row r="116" spans="1:8" ht="39" customHeight="1">
       <c r="A116" s="3"/>
@@ -2621,9 +2621,9 @@
       <c r="C116" s="4"/>
       <c r="D116" s="5"/>
       <c r="E116" s="26"/>
-      <c r="F116" s="37"/>
-      <c r="G116" s="38"/>
-      <c r="H116" s="39"/>
+      <c r="F116" s="44"/>
+      <c r="G116" s="45"/>
+      <c r="H116" s="46"/>
     </row>
     <row r="117" spans="1:8" ht="39" customHeight="1">
       <c r="A117" s="3"/>
@@ -2631,9 +2631,9 @@
       <c r="C117" s="4"/>
       <c r="D117" s="5"/>
       <c r="E117" s="26"/>
-      <c r="F117" s="37"/>
-      <c r="G117" s="38"/>
-      <c r="H117" s="39"/>
+      <c r="F117" s="44"/>
+      <c r="G117" s="45"/>
+      <c r="H117" s="46"/>
     </row>
     <row r="118" spans="1:8" ht="39" customHeight="1">
       <c r="A118" s="3"/>
@@ -2641,9 +2641,9 @@
       <c r="C118" s="4"/>
       <c r="D118" s="5"/>
       <c r="E118" s="26"/>
-      <c r="F118" s="37"/>
-      <c r="G118" s="38"/>
-      <c r="H118" s="39"/>
+      <c r="F118" s="44"/>
+      <c r="G118" s="45"/>
+      <c r="H118" s="46"/>
     </row>
     <row r="119" spans="1:8" ht="39" customHeight="1">
       <c r="A119" s="3"/>
@@ -2651,9 +2651,9 @@
       <c r="C119" s="4"/>
       <c r="D119" s="5"/>
       <c r="E119" s="26"/>
-      <c r="F119" s="37"/>
-      <c r="G119" s="38"/>
-      <c r="H119" s="39"/>
+      <c r="F119" s="44"/>
+      <c r="G119" s="45"/>
+      <c r="H119" s="46"/>
     </row>
     <row r="120" spans="1:8" ht="39" customHeight="1">
       <c r="A120" s="3"/>
@@ -2661,9 +2661,9 @@
       <c r="C120" s="4"/>
       <c r="D120" s="5"/>
       <c r="E120" s="26"/>
-      <c r="F120" s="37"/>
-      <c r="G120" s="38"/>
-      <c r="H120" s="39"/>
+      <c r="F120" s="44"/>
+      <c r="G120" s="45"/>
+      <c r="H120" s="46"/>
     </row>
     <row r="121" spans="1:8" ht="39" customHeight="1">
       <c r="A121" s="3"/>
@@ -2671,9 +2671,9 @@
       <c r="C121" s="4"/>
       <c r="D121" s="5"/>
       <c r="E121" s="26"/>
-      <c r="F121" s="37"/>
-      <c r="G121" s="38"/>
-      <c r="H121" s="39"/>
+      <c r="F121" s="44"/>
+      <c r="G121" s="45"/>
+      <c r="H121" s="46"/>
     </row>
     <row r="122" spans="1:8" ht="39" customHeight="1">
       <c r="A122" s="3"/>
@@ -2681,9 +2681,9 @@
       <c r="C122" s="4"/>
       <c r="D122" s="5"/>
       <c r="E122" s="26"/>
-      <c r="F122" s="37"/>
-      <c r="G122" s="38"/>
-      <c r="H122" s="39"/>
+      <c r="F122" s="44"/>
+      <c r="G122" s="45"/>
+      <c r="H122" s="46"/>
     </row>
     <row r="123" spans="1:8" ht="39" customHeight="1">
       <c r="A123" s="3"/>
@@ -2691,9 +2691,9 @@
       <c r="C123" s="4"/>
       <c r="D123" s="5"/>
       <c r="E123" s="26"/>
-      <c r="F123" s="37"/>
-      <c r="G123" s="38"/>
-      <c r="H123" s="39"/>
+      <c r="F123" s="44"/>
+      <c r="G123" s="45"/>
+      <c r="H123" s="46"/>
     </row>
     <row r="124" spans="1:8" ht="39" customHeight="1">
       <c r="A124" s="3"/>
@@ -2701,9 +2701,9 @@
       <c r="C124" s="4"/>
       <c r="D124" s="5"/>
       <c r="E124" s="26"/>
-      <c r="F124" s="37"/>
-      <c r="G124" s="38"/>
-      <c r="H124" s="39"/>
+      <c r="F124" s="44"/>
+      <c r="G124" s="45"/>
+      <c r="H124" s="46"/>
     </row>
     <row r="125" spans="1:8" ht="39" customHeight="1">
       <c r="A125" s="3"/>
@@ -2711,9 +2711,9 @@
       <c r="C125" s="4"/>
       <c r="D125" s="5"/>
       <c r="E125" s="26"/>
-      <c r="F125" s="37"/>
-      <c r="G125" s="38"/>
-      <c r="H125" s="39"/>
+      <c r="F125" s="44"/>
+      <c r="G125" s="45"/>
+      <c r="H125" s="46"/>
     </row>
     <row r="126" spans="1:8" ht="39" customHeight="1">
       <c r="A126" s="3"/>
@@ -2721,9 +2721,9 @@
       <c r="C126" s="4"/>
       <c r="D126" s="5"/>
       <c r="E126" s="26"/>
-      <c r="F126" s="37"/>
-      <c r="G126" s="38"/>
-      <c r="H126" s="39"/>
+      <c r="F126" s="44"/>
+      <c r="G126" s="45"/>
+      <c r="H126" s="46"/>
     </row>
     <row r="127" spans="1:8" ht="39" customHeight="1">
       <c r="A127" s="3"/>
@@ -2731,9 +2731,9 @@
       <c r="C127" s="4"/>
       <c r="D127" s="5"/>
       <c r="E127" s="26"/>
-      <c r="F127" s="37"/>
-      <c r="G127" s="38"/>
-      <c r="H127" s="39"/>
+      <c r="F127" s="44"/>
+      <c r="G127" s="45"/>
+      <c r="H127" s="46"/>
     </row>
     <row r="128" spans="1:8" ht="39" customHeight="1">
       <c r="A128" s="3"/>
@@ -2741,9 +2741,9 @@
       <c r="C128" s="4"/>
       <c r="D128" s="5"/>
       <c r="E128" s="26"/>
-      <c r="F128" s="37"/>
-      <c r="G128" s="38"/>
-      <c r="H128" s="39"/>
+      <c r="F128" s="44"/>
+      <c r="G128" s="45"/>
+      <c r="H128" s="46"/>
     </row>
     <row r="129" spans="1:8" ht="39" customHeight="1">
       <c r="A129" s="3"/>
@@ -2751,9 +2751,9 @@
       <c r="C129" s="4"/>
       <c r="D129" s="5"/>
       <c r="E129" s="26"/>
-      <c r="F129" s="37"/>
-      <c r="G129" s="38"/>
-      <c r="H129" s="39"/>
+      <c r="F129" s="44"/>
+      <c r="G129" s="45"/>
+      <c r="H129" s="46"/>
     </row>
     <row r="130" spans="1:8" ht="39" customHeight="1">
       <c r="A130" s="3"/>
@@ -2761,9 +2761,9 @@
       <c r="C130" s="4"/>
       <c r="D130" s="5"/>
       <c r="E130" s="26"/>
-      <c r="F130" s="37"/>
-      <c r="G130" s="38"/>
-      <c r="H130" s="39"/>
+      <c r="F130" s="44"/>
+      <c r="G130" s="45"/>
+      <c r="H130" s="46"/>
     </row>
     <row r="131" spans="1:8" ht="39" customHeight="1">
       <c r="A131" s="3"/>
@@ -2771,9 +2771,9 @@
       <c r="C131" s="4"/>
       <c r="D131" s="5"/>
       <c r="E131" s="26"/>
-      <c r="F131" s="37"/>
-      <c r="G131" s="38"/>
-      <c r="H131" s="39"/>
+      <c r="F131" s="44"/>
+      <c r="G131" s="45"/>
+      <c r="H131" s="46"/>
     </row>
     <row r="132" spans="1:8" ht="39" customHeight="1">
       <c r="A132" s="3"/>
@@ -2781,9 +2781,9 @@
       <c r="C132" s="4"/>
       <c r="D132" s="5"/>
       <c r="E132" s="26"/>
-      <c r="F132" s="37"/>
-      <c r="G132" s="38"/>
-      <c r="H132" s="39"/>
+      <c r="F132" s="44"/>
+      <c r="G132" s="45"/>
+      <c r="H132" s="46"/>
     </row>
     <row r="133" spans="1:8" ht="39" customHeight="1">
       <c r="A133" s="3"/>
@@ -2791,9 +2791,9 @@
       <c r="C133" s="4"/>
       <c r="D133" s="5"/>
       <c r="E133" s="26"/>
-      <c r="F133" s="37"/>
-      <c r="G133" s="38"/>
-      <c r="H133" s="39"/>
+      <c r="F133" s="44"/>
+      <c r="G133" s="45"/>
+      <c r="H133" s="46"/>
     </row>
     <row r="134" spans="1:8" ht="39" customHeight="1">
       <c r="A134" s="3"/>
@@ -2801,9 +2801,9 @@
       <c r="C134" s="4"/>
       <c r="D134" s="5"/>
       <c r="E134" s="26"/>
-      <c r="F134" s="37"/>
-      <c r="G134" s="38"/>
-      <c r="H134" s="39"/>
+      <c r="F134" s="44"/>
+      <c r="G134" s="45"/>
+      <c r="H134" s="46"/>
     </row>
     <row r="135" spans="1:8" ht="39" customHeight="1">
       <c r="A135" s="3"/>
@@ -2811,9 +2811,9 @@
       <c r="C135" s="4"/>
       <c r="D135" s="5"/>
       <c r="E135" s="26"/>
-      <c r="F135" s="37"/>
-      <c r="G135" s="38"/>
-      <c r="H135" s="39"/>
+      <c r="F135" s="44"/>
+      <c r="G135" s="45"/>
+      <c r="H135" s="46"/>
     </row>
     <row r="136" spans="1:8" ht="39" customHeight="1">
       <c r="A136" s="3"/>
@@ -2821,9 +2821,9 @@
       <c r="C136" s="4"/>
       <c r="D136" s="5"/>
       <c r="E136" s="26"/>
-      <c r="F136" s="37"/>
-      <c r="G136" s="38"/>
-      <c r="H136" s="39"/>
+      <c r="F136" s="44"/>
+      <c r="G136" s="45"/>
+      <c r="H136" s="46"/>
     </row>
     <row r="137" spans="1:8" ht="39" customHeight="1">
       <c r="A137" s="3"/>
@@ -2831,9 +2831,9 @@
       <c r="C137" s="4"/>
       <c r="D137" s="5"/>
       <c r="E137" s="26"/>
-      <c r="F137" s="37"/>
-      <c r="G137" s="38"/>
-      <c r="H137" s="39"/>
+      <c r="F137" s="44"/>
+      <c r="G137" s="45"/>
+      <c r="H137" s="46"/>
     </row>
     <row r="138" spans="1:8" ht="39" customHeight="1">
       <c r="A138" s="3"/>
@@ -2841,9 +2841,9 @@
       <c r="C138" s="4"/>
       <c r="D138" s="5"/>
       <c r="E138" s="26"/>
-      <c r="F138" s="37"/>
-      <c r="G138" s="38"/>
-      <c r="H138" s="39"/>
+      <c r="F138" s="44"/>
+      <c r="G138" s="45"/>
+      <c r="H138" s="46"/>
     </row>
     <row r="139" spans="1:8" ht="39" customHeight="1">
       <c r="A139" s="3"/>
@@ -2851,9 +2851,9 @@
       <c r="C139" s="4"/>
       <c r="D139" s="5"/>
       <c r="E139" s="26"/>
-      <c r="F139" s="37"/>
-      <c r="G139" s="38"/>
-      <c r="H139" s="39"/>
+      <c r="F139" s="44"/>
+      <c r="G139" s="45"/>
+      <c r="H139" s="46"/>
     </row>
     <row r="140" spans="1:8" ht="39" customHeight="1">
       <c r="A140" s="3"/>
@@ -2861,9 +2861,9 @@
       <c r="C140" s="4"/>
       <c r="D140" s="5"/>
       <c r="E140" s="26"/>
-      <c r="F140" s="37"/>
-      <c r="G140" s="38"/>
-      <c r="H140" s="39"/>
+      <c r="F140" s="44"/>
+      <c r="G140" s="45"/>
+      <c r="H140" s="46"/>
     </row>
     <row r="141" spans="1:8" ht="39" customHeight="1">
       <c r="A141" s="3"/>
@@ -2871,9 +2871,9 @@
       <c r="C141" s="4"/>
       <c r="D141" s="5"/>
       <c r="E141" s="26"/>
-      <c r="F141" s="37"/>
-      <c r="G141" s="38"/>
-      <c r="H141" s="39"/>
+      <c r="F141" s="44"/>
+      <c r="G141" s="45"/>
+      <c r="H141" s="46"/>
     </row>
     <row r="142" spans="1:8" ht="39" customHeight="1">
       <c r="A142" s="3"/>
@@ -2881,9 +2881,9 @@
       <c r="C142" s="4"/>
       <c r="D142" s="5"/>
       <c r="E142" s="26"/>
-      <c r="F142" s="37"/>
-      <c r="G142" s="38"/>
-      <c r="H142" s="39"/>
+      <c r="F142" s="44"/>
+      <c r="G142" s="45"/>
+      <c r="H142" s="46"/>
     </row>
     <row r="143" spans="1:8" ht="39" customHeight="1">
       <c r="A143" s="3"/>
@@ -2891,9 +2891,9 @@
       <c r="C143" s="4"/>
       <c r="D143" s="5"/>
       <c r="E143" s="26"/>
-      <c r="F143" s="37"/>
-      <c r="G143" s="38"/>
-      <c r="H143" s="39"/>
+      <c r="F143" s="44"/>
+      <c r="G143" s="45"/>
+      <c r="H143" s="46"/>
     </row>
     <row r="144" spans="1:8" ht="39" customHeight="1">
       <c r="A144" s="3"/>
@@ -2901,9 +2901,9 @@
       <c r="C144" s="4"/>
       <c r="D144" s="5"/>
       <c r="E144" s="26"/>
-      <c r="F144" s="37"/>
-      <c r="G144" s="38"/>
-      <c r="H144" s="39"/>
+      <c r="F144" s="44"/>
+      <c r="G144" s="45"/>
+      <c r="H144" s="46"/>
     </row>
     <row r="145" spans="1:8" ht="39" customHeight="1">
       <c r="A145" s="3"/>
@@ -2911,9 +2911,9 @@
       <c r="C145" s="4"/>
       <c r="D145" s="5"/>
       <c r="E145" s="26"/>
-      <c r="F145" s="37"/>
-      <c r="G145" s="38"/>
-      <c r="H145" s="39"/>
+      <c r="F145" s="44"/>
+      <c r="G145" s="45"/>
+      <c r="H145" s="46"/>
     </row>
     <row r="146" spans="1:8" ht="39" customHeight="1">
       <c r="A146" s="3"/>
@@ -2921,9 +2921,9 @@
       <c r="C146" s="4"/>
       <c r="D146" s="5"/>
       <c r="E146" s="26"/>
-      <c r="F146" s="37"/>
-      <c r="G146" s="38"/>
-      <c r="H146" s="39"/>
+      <c r="F146" s="44"/>
+      <c r="G146" s="45"/>
+      <c r="H146" s="46"/>
     </row>
     <row r="147" spans="1:8" ht="39" customHeight="1">
       <c r="A147" s="3"/>
@@ -2931,9 +2931,9 @@
       <c r="C147" s="4"/>
       <c r="D147" s="5"/>
       <c r="E147" s="26"/>
-      <c r="F147" s="37"/>
-      <c r="G147" s="38"/>
-      <c r="H147" s="39"/>
+      <c r="F147" s="44"/>
+      <c r="G147" s="45"/>
+      <c r="H147" s="46"/>
     </row>
     <row r="148" spans="1:8" ht="39" customHeight="1">
       <c r="A148" s="3"/>
@@ -2941,9 +2941,9 @@
       <c r="C148" s="4"/>
       <c r="D148" s="5"/>
       <c r="E148" s="26"/>
-      <c r="F148" s="37"/>
-      <c r="G148" s="38"/>
-      <c r="H148" s="39"/>
+      <c r="F148" s="44"/>
+      <c r="G148" s="45"/>
+      <c r="H148" s="46"/>
     </row>
     <row r="149" spans="1:8" ht="39" customHeight="1">
       <c r="A149" s="3"/>
@@ -2951,9 +2951,9 @@
       <c r="C149" s="4"/>
       <c r="D149" s="5"/>
       <c r="E149" s="26"/>
-      <c r="F149" s="37"/>
-      <c r="G149" s="38"/>
-      <c r="H149" s="39"/>
+      <c r="F149" s="44"/>
+      <c r="G149" s="45"/>
+      <c r="H149" s="46"/>
     </row>
     <row r="150" spans="1:8" ht="39" customHeight="1">
       <c r="A150" s="3"/>
@@ -2961,9 +2961,9 @@
       <c r="C150" s="4"/>
       <c r="D150" s="5"/>
       <c r="E150" s="26"/>
-      <c r="F150" s="37"/>
-      <c r="G150" s="38"/>
-      <c r="H150" s="39"/>
+      <c r="F150" s="44"/>
+      <c r="G150" s="45"/>
+      <c r="H150" s="46"/>
     </row>
     <row r="151" spans="1:8" ht="39" customHeight="1">
       <c r="A151" s="3"/>
@@ -2971,9 +2971,9 @@
       <c r="C151" s="4"/>
       <c r="D151" s="5"/>
       <c r="E151" s="26"/>
-      <c r="F151" s="37"/>
-      <c r="G151" s="38"/>
-      <c r="H151" s="39"/>
+      <c r="F151" s="44"/>
+      <c r="G151" s="45"/>
+      <c r="H151" s="46"/>
     </row>
     <row r="152" spans="1:8" ht="39" customHeight="1">
       <c r="A152" s="3"/>
@@ -2981,9 +2981,9 @@
       <c r="C152" s="4"/>
       <c r="D152" s="5"/>
       <c r="E152" s="26"/>
-      <c r="F152" s="37"/>
-      <c r="G152" s="38"/>
-      <c r="H152" s="39"/>
+      <c r="F152" s="44"/>
+      <c r="G152" s="45"/>
+      <c r="H152" s="46"/>
     </row>
     <row r="153" spans="1:8" ht="39" customHeight="1">
       <c r="A153" s="3"/>
@@ -2991,9 +2991,9 @@
       <c r="C153" s="4"/>
       <c r="D153" s="5"/>
       <c r="E153" s="26"/>
-      <c r="F153" s="37"/>
-      <c r="G153" s="38"/>
-      <c r="H153" s="39"/>
+      <c r="F153" s="44"/>
+      <c r="G153" s="45"/>
+      <c r="H153" s="46"/>
     </row>
     <row r="154" spans="1:8" ht="39" customHeight="1">
       <c r="A154" s="3"/>
@@ -3001,9 +3001,9 @@
       <c r="C154" s="4"/>
       <c r="D154" s="5"/>
       <c r="E154" s="26"/>
-      <c r="F154" s="37"/>
-      <c r="G154" s="38"/>
-      <c r="H154" s="39"/>
+      <c r="F154" s="44"/>
+      <c r="G154" s="45"/>
+      <c r="H154" s="46"/>
     </row>
     <row r="155" spans="1:8" ht="39" customHeight="1">
       <c r="A155" s="3"/>
@@ -3011,9 +3011,9 @@
       <c r="C155" s="4"/>
       <c r="D155" s="5"/>
       <c r="E155" s="26"/>
-      <c r="F155" s="37"/>
-      <c r="G155" s="38"/>
-      <c r="H155" s="39"/>
+      <c r="F155" s="44"/>
+      <c r="G155" s="45"/>
+      <c r="H155" s="46"/>
     </row>
     <row r="156" spans="1:8" ht="39" customHeight="1">
       <c r="A156" s="3"/>
@@ -3021,9 +3021,9 @@
       <c r="C156" s="4"/>
       <c r="D156" s="5"/>
       <c r="E156" s="26"/>
-      <c r="F156" s="37"/>
-      <c r="G156" s="38"/>
-      <c r="H156" s="39"/>
+      <c r="F156" s="44"/>
+      <c r="G156" s="45"/>
+      <c r="H156" s="46"/>
     </row>
     <row r="157" spans="1:8" ht="39" customHeight="1">
       <c r="A157" s="3"/>
@@ -3031,9 +3031,9 @@
       <c r="C157" s="4"/>
       <c r="D157" s="5"/>
       <c r="E157" s="26"/>
-      <c r="F157" s="37"/>
-      <c r="G157" s="38"/>
-      <c r="H157" s="39"/>
+      <c r="F157" s="44"/>
+      <c r="G157" s="45"/>
+      <c r="H157" s="46"/>
     </row>
     <row r="158" spans="1:8" ht="39" customHeight="1">
       <c r="A158" s="3"/>
@@ -3041,9 +3041,9 @@
       <c r="C158" s="4"/>
       <c r="D158" s="5"/>
       <c r="E158" s="26"/>
-      <c r="F158" s="37"/>
-      <c r="G158" s="38"/>
-      <c r="H158" s="39"/>
+      <c r="F158" s="44"/>
+      <c r="G158" s="45"/>
+      <c r="H158" s="46"/>
     </row>
     <row r="159" spans="1:8" ht="39" customHeight="1">
       <c r="A159" s="3"/>
@@ -3051,9 +3051,9 @@
       <c r="C159" s="4"/>
       <c r="D159" s="5"/>
       <c r="E159" s="26"/>
-      <c r="F159" s="37"/>
-      <c r="G159" s="38"/>
-      <c r="H159" s="39"/>
+      <c r="F159" s="44"/>
+      <c r="G159" s="45"/>
+      <c r="H159" s="46"/>
     </row>
     <row r="160" spans="1:8" ht="39" customHeight="1">
       <c r="A160" s="3"/>
@@ -3061,9 +3061,9 @@
       <c r="C160" s="4"/>
       <c r="D160" s="5"/>
       <c r="E160" s="26"/>
-      <c r="F160" s="37"/>
-      <c r="G160" s="38"/>
-      <c r="H160" s="39"/>
+      <c r="F160" s="44"/>
+      <c r="G160" s="45"/>
+      <c r="H160" s="46"/>
     </row>
     <row r="161" spans="1:8" ht="39" customHeight="1">
       <c r="A161" s="3"/>
@@ -3071,9 +3071,9 @@
       <c r="C161" s="4"/>
       <c r="D161" s="5"/>
       <c r="E161" s="26"/>
-      <c r="F161" s="37"/>
-      <c r="G161" s="38"/>
-      <c r="H161" s="39"/>
+      <c r="F161" s="44"/>
+      <c r="G161" s="45"/>
+      <c r="H161" s="46"/>
     </row>
     <row r="162" spans="1:8" ht="39" customHeight="1">
       <c r="A162" s="3"/>
@@ -3081,9 +3081,9 @@
       <c r="C162" s="4"/>
       <c r="D162" s="5"/>
       <c r="E162" s="26"/>
-      <c r="F162" s="37"/>
-      <c r="G162" s="38"/>
-      <c r="H162" s="39"/>
+      <c r="F162" s="44"/>
+      <c r="G162" s="45"/>
+      <c r="H162" s="46"/>
     </row>
     <row r="163" spans="1:8" ht="39" customHeight="1">
       <c r="A163" s="3"/>
@@ -3091,9 +3091,9 @@
       <c r="C163" s="4"/>
       <c r="D163" s="5"/>
       <c r="E163" s="26"/>
-      <c r="F163" s="37"/>
-      <c r="G163" s="38"/>
-      <c r="H163" s="39"/>
+      <c r="F163" s="44"/>
+      <c r="G163" s="45"/>
+      <c r="H163" s="46"/>
     </row>
     <row r="164" spans="1:8" ht="39" customHeight="1">
       <c r="A164" s="3"/>
@@ -3101,9 +3101,9 @@
       <c r="C164" s="4"/>
       <c r="D164" s="5"/>
       <c r="E164" s="26"/>
-      <c r="F164" s="37"/>
-      <c r="G164" s="38"/>
-      <c r="H164" s="39"/>
+      <c r="F164" s="44"/>
+      <c r="G164" s="45"/>
+      <c r="H164" s="46"/>
     </row>
     <row r="165" spans="1:8" ht="39" customHeight="1">
       <c r="A165" s="3"/>
@@ -3111,9 +3111,9 @@
       <c r="C165" s="4"/>
       <c r="D165" s="5"/>
       <c r="E165" s="26"/>
-      <c r="F165" s="37"/>
-      <c r="G165" s="38"/>
-      <c r="H165" s="39"/>
+      <c r="F165" s="44"/>
+      <c r="G165" s="45"/>
+      <c r="H165" s="46"/>
     </row>
     <row r="166" spans="1:8" ht="39" customHeight="1">
       <c r="A166" s="3"/>
@@ -3121,9 +3121,9 @@
       <c r="C166" s="4"/>
       <c r="D166" s="5"/>
       <c r="E166" s="26"/>
-      <c r="F166" s="37"/>
-      <c r="G166" s="38"/>
-      <c r="H166" s="39"/>
+      <c r="F166" s="44"/>
+      <c r="G166" s="45"/>
+      <c r="H166" s="46"/>
     </row>
     <row r="167" spans="1:8" ht="39" customHeight="1">
       <c r="A167" s="3"/>
@@ -3131,9 +3131,9 @@
       <c r="C167" s="4"/>
       <c r="D167" s="5"/>
       <c r="E167" s="26"/>
-      <c r="F167" s="37"/>
-      <c r="G167" s="38"/>
-      <c r="H167" s="39"/>
+      <c r="F167" s="44"/>
+      <c r="G167" s="45"/>
+      <c r="H167" s="46"/>
     </row>
     <row r="168" spans="1:8" ht="39" customHeight="1">
       <c r="A168" s="3"/>
@@ -3141,9 +3141,9 @@
       <c r="C168" s="4"/>
       <c r="D168" s="5"/>
       <c r="E168" s="26"/>
-      <c r="F168" s="37"/>
-      <c r="G168" s="38"/>
-      <c r="H168" s="39"/>
+      <c r="F168" s="44"/>
+      <c r="G168" s="45"/>
+      <c r="H168" s="46"/>
     </row>
     <row r="169" spans="1:8" ht="39" customHeight="1">
       <c r="A169" s="3"/>
@@ -3151,9 +3151,9 @@
       <c r="C169" s="4"/>
       <c r="D169" s="5"/>
       <c r="E169" s="26"/>
-      <c r="F169" s="37"/>
-      <c r="G169" s="38"/>
-      <c r="H169" s="39"/>
+      <c r="F169" s="44"/>
+      <c r="G169" s="45"/>
+      <c r="H169" s="46"/>
     </row>
     <row r="170" spans="1:8" ht="39" customHeight="1">
       <c r="A170" s="3"/>
@@ -3161,9 +3161,9 @@
       <c r="C170" s="4"/>
       <c r="D170" s="5"/>
       <c r="E170" s="26"/>
-      <c r="F170" s="37"/>
-      <c r="G170" s="38"/>
-      <c r="H170" s="39"/>
+      <c r="F170" s="44"/>
+      <c r="G170" s="45"/>
+      <c r="H170" s="46"/>
     </row>
     <row r="171" spans="1:8" ht="39" customHeight="1">
       <c r="A171" s="3"/>
@@ -3171,9 +3171,9 @@
       <c r="C171" s="4"/>
       <c r="D171" s="5"/>
       <c r="E171" s="26"/>
-      <c r="F171" s="37"/>
-      <c r="G171" s="38"/>
-      <c r="H171" s="39"/>
+      <c r="F171" s="44"/>
+      <c r="G171" s="45"/>
+      <c r="H171" s="46"/>
     </row>
     <row r="172" spans="1:8" ht="39" customHeight="1">
       <c r="A172" s="3"/>
@@ -3181,9 +3181,9 @@
       <c r="C172" s="4"/>
       <c r="D172" s="5"/>
       <c r="E172" s="26"/>
-      <c r="F172" s="37"/>
-      <c r="G172" s="38"/>
-      <c r="H172" s="39"/>
+      <c r="F172" s="44"/>
+      <c r="G172" s="45"/>
+      <c r="H172" s="46"/>
     </row>
     <row r="173" spans="1:8" ht="39" customHeight="1">
       <c r="A173" s="3"/>
@@ -3191,9 +3191,9 @@
       <c r="C173" s="4"/>
       <c r="D173" s="5"/>
       <c r="E173" s="26"/>
-      <c r="F173" s="37"/>
-      <c r="G173" s="38"/>
-      <c r="H173" s="39"/>
+      <c r="F173" s="44"/>
+      <c r="G173" s="45"/>
+      <c r="H173" s="46"/>
     </row>
     <row r="174" spans="1:8" ht="39" customHeight="1">
       <c r="A174" s="3"/>
@@ -3201,9 +3201,9 @@
       <c r="C174" s="4"/>
       <c r="D174" s="5"/>
       <c r="E174" s="26"/>
-      <c r="F174" s="37"/>
-      <c r="G174" s="38"/>
-      <c r="H174" s="39"/>
+      <c r="F174" s="44"/>
+      <c r="G174" s="45"/>
+      <c r="H174" s="46"/>
     </row>
     <row r="175" spans="1:8" ht="39" customHeight="1">
       <c r="A175" s="3"/>
@@ -3211,9 +3211,9 @@
       <c r="C175" s="4"/>
       <c r="D175" s="5"/>
       <c r="E175" s="26"/>
-      <c r="F175" s="37"/>
-      <c r="G175" s="38"/>
-      <c r="H175" s="39"/>
+      <c r="F175" s="44"/>
+      <c r="G175" s="45"/>
+      <c r="H175" s="46"/>
     </row>
     <row r="176" spans="1:8" ht="39" customHeight="1">
       <c r="A176" s="3"/>
@@ -3221,9 +3221,9 @@
       <c r="C176" s="4"/>
       <c r="D176" s="5"/>
       <c r="E176" s="26"/>
-      <c r="F176" s="37"/>
-      <c r="G176" s="38"/>
-      <c r="H176" s="39"/>
+      <c r="F176" s="44"/>
+      <c r="G176" s="45"/>
+      <c r="H176" s="46"/>
     </row>
     <row r="177" spans="1:8" ht="39" customHeight="1">
       <c r="A177" s="3"/>
@@ -3231,9 +3231,9 @@
       <c r="C177" s="4"/>
       <c r="D177" s="5"/>
       <c r="E177" s="26"/>
-      <c r="F177" s="37"/>
-      <c r="G177" s="38"/>
-      <c r="H177" s="39"/>
+      <c r="F177" s="44"/>
+      <c r="G177" s="45"/>
+      <c r="H177" s="46"/>
     </row>
     <row r="178" spans="1:8" ht="39" customHeight="1">
       <c r="A178" s="3"/>
@@ -3241,9 +3241,9 @@
       <c r="C178" s="4"/>
       <c r="D178" s="5"/>
       <c r="E178" s="26"/>
-      <c r="F178" s="37"/>
-      <c r="G178" s="38"/>
-      <c r="H178" s="39"/>
+      <c r="F178" s="44"/>
+      <c r="G178" s="45"/>
+      <c r="H178" s="46"/>
     </row>
     <row r="179" spans="1:8" ht="39" customHeight="1">
       <c r="A179" s="3"/>
@@ -3251,9 +3251,9 @@
       <c r="C179" s="4"/>
       <c r="D179" s="5"/>
       <c r="E179" s="26"/>
-      <c r="F179" s="37"/>
-      <c r="G179" s="38"/>
-      <c r="H179" s="39"/>
+      <c r="F179" s="44"/>
+      <c r="G179" s="45"/>
+      <c r="H179" s="46"/>
     </row>
     <row r="180" spans="1:8" ht="39" customHeight="1">
       <c r="A180" s="3"/>
@@ -3261,9 +3261,9 @@
       <c r="C180" s="4"/>
       <c r="D180" s="5"/>
       <c r="E180" s="26"/>
-      <c r="F180" s="37"/>
-      <c r="G180" s="38"/>
-      <c r="H180" s="39"/>
+      <c r="F180" s="44"/>
+      <c r="G180" s="45"/>
+      <c r="H180" s="46"/>
     </row>
     <row r="181" spans="1:8" ht="39" customHeight="1">
       <c r="A181" s="3"/>
@@ -3271,9 +3271,9 @@
       <c r="C181" s="4"/>
       <c r="D181" s="5"/>
       <c r="E181" s="26"/>
-      <c r="F181" s="37"/>
-      <c r="G181" s="38"/>
-      <c r="H181" s="39"/>
+      <c r="F181" s="44"/>
+      <c r="G181" s="45"/>
+      <c r="H181" s="46"/>
     </row>
     <row r="182" spans="1:8" ht="39" customHeight="1">
       <c r="A182" s="3"/>
@@ -3281,9 +3281,9 @@
       <c r="C182" s="4"/>
       <c r="D182" s="5"/>
       <c r="E182" s="26"/>
-      <c r="F182" s="37"/>
-      <c r="G182" s="38"/>
-      <c r="H182" s="39"/>
+      <c r="F182" s="44"/>
+      <c r="G182" s="45"/>
+      <c r="H182" s="46"/>
     </row>
     <row r="183" spans="1:8" ht="39" customHeight="1">
       <c r="A183" s="3"/>
@@ -3291,9 +3291,9 @@
       <c r="C183" s="4"/>
       <c r="D183" s="5"/>
       <c r="E183" s="26"/>
-      <c r="F183" s="37"/>
-      <c r="G183" s="38"/>
-      <c r="H183" s="39"/>
+      <c r="F183" s="44"/>
+      <c r="G183" s="45"/>
+      <c r="H183" s="46"/>
     </row>
     <row r="184" spans="1:8" ht="39" customHeight="1">
       <c r="A184" s="3"/>
@@ -3301,9 +3301,9 @@
       <c r="C184" s="4"/>
       <c r="D184" s="5"/>
       <c r="E184" s="26"/>
-      <c r="F184" s="37"/>
-      <c r="G184" s="38"/>
-      <c r="H184" s="39"/>
+      <c r="F184" s="44"/>
+      <c r="G184" s="45"/>
+      <c r="H184" s="46"/>
     </row>
     <row r="185" spans="1:8" ht="39" customHeight="1">
       <c r="A185" s="3"/>
@@ -3311,9 +3311,9 @@
       <c r="C185" s="4"/>
       <c r="D185" s="5"/>
       <c r="E185" s="26"/>
-      <c r="F185" s="37"/>
-      <c r="G185" s="38"/>
-      <c r="H185" s="39"/>
+      <c r="F185" s="44"/>
+      <c r="G185" s="45"/>
+      <c r="H185" s="46"/>
     </row>
     <row r="186" spans="1:8" ht="39" customHeight="1">
       <c r="A186" s="3"/>
@@ -3321,9 +3321,9 @@
       <c r="C186" s="4"/>
       <c r="D186" s="5"/>
       <c r="E186" s="26"/>
-      <c r="F186" s="37"/>
-      <c r="G186" s="38"/>
-      <c r="H186" s="39"/>
+      <c r="F186" s="44"/>
+      <c r="G186" s="45"/>
+      <c r="H186" s="46"/>
     </row>
     <row r="187" spans="1:8" ht="39" customHeight="1">
       <c r="A187" s="3"/>
@@ -3331,9 +3331,9 @@
       <c r="C187" s="4"/>
       <c r="D187" s="5"/>
       <c r="E187" s="26"/>
-      <c r="F187" s="37"/>
-      <c r="G187" s="38"/>
-      <c r="H187" s="39"/>
+      <c r="F187" s="44"/>
+      <c r="G187" s="45"/>
+      <c r="H187" s="46"/>
     </row>
     <row r="188" spans="1:8" ht="39" customHeight="1">
       <c r="A188" s="3"/>
@@ -3341,9 +3341,9 @@
       <c r="C188" s="4"/>
       <c r="D188" s="5"/>
       <c r="E188" s="26"/>
-      <c r="F188" s="37"/>
-      <c r="G188" s="38"/>
-      <c r="H188" s="39"/>
+      <c r="F188" s="44"/>
+      <c r="G188" s="45"/>
+      <c r="H188" s="46"/>
     </row>
     <row r="189" spans="1:8" ht="39" customHeight="1">
       <c r="A189" s="3"/>
@@ -3351,9 +3351,9 @@
       <c r="C189" s="4"/>
       <c r="D189" s="5"/>
       <c r="E189" s="26"/>
-      <c r="F189" s="37"/>
-      <c r="G189" s="38"/>
-      <c r="H189" s="39"/>
+      <c r="F189" s="44"/>
+      <c r="G189" s="45"/>
+      <c r="H189" s="46"/>
     </row>
     <row r="190" spans="1:8" ht="39" customHeight="1">
       <c r="A190" s="3"/>
@@ -3361,9 +3361,9 @@
       <c r="C190" s="4"/>
       <c r="D190" s="5"/>
       <c r="E190" s="26"/>
-      <c r="F190" s="37"/>
-      <c r="G190" s="38"/>
-      <c r="H190" s="39"/>
+      <c r="F190" s="44"/>
+      <c r="G190" s="45"/>
+      <c r="H190" s="46"/>
     </row>
     <row r="191" spans="1:8" ht="39" customHeight="1">
       <c r="A191" s="3"/>
@@ -3371,9 +3371,9 @@
       <c r="C191" s="4"/>
       <c r="D191" s="5"/>
       <c r="E191" s="26"/>
-      <c r="F191" s="37"/>
-      <c r="G191" s="38"/>
-      <c r="H191" s="39"/>
+      <c r="F191" s="44"/>
+      <c r="G191" s="45"/>
+      <c r="H191" s="46"/>
     </row>
     <row r="192" spans="1:8" ht="39" customHeight="1">
       <c r="A192" s="3"/>
@@ -3381,9 +3381,9 @@
       <c r="C192" s="4"/>
       <c r="D192" s="5"/>
       <c r="E192" s="26"/>
-      <c r="F192" s="37"/>
-      <c r="G192" s="38"/>
-      <c r="H192" s="39"/>
+      <c r="F192" s="44"/>
+      <c r="G192" s="45"/>
+      <c r="H192" s="46"/>
     </row>
     <row r="193" spans="1:8" ht="39" customHeight="1">
       <c r="A193" s="3"/>
@@ -3391,9 +3391,9 @@
       <c r="C193" s="4"/>
       <c r="D193" s="5"/>
       <c r="E193" s="26"/>
-      <c r="F193" s="37"/>
-      <c r="G193" s="38"/>
-      <c r="H193" s="39"/>
+      <c r="F193" s="44"/>
+      <c r="G193" s="45"/>
+      <c r="H193" s="46"/>
     </row>
     <row r="194" spans="1:8" ht="39" customHeight="1">
       <c r="A194" s="3"/>
@@ -3401,9 +3401,9 @@
       <c r="C194" s="4"/>
       <c r="D194" s="5"/>
       <c r="E194" s="26"/>
-      <c r="F194" s="37"/>
-      <c r="G194" s="38"/>
-      <c r="H194" s="39"/>
+      <c r="F194" s="44"/>
+      <c r="G194" s="45"/>
+      <c r="H194" s="46"/>
     </row>
     <row r="195" spans="1:8" ht="39" customHeight="1">
       <c r="A195" s="3"/>
@@ -3411,9 +3411,9 @@
       <c r="C195" s="4"/>
       <c r="D195" s="5"/>
       <c r="E195" s="26"/>
-      <c r="F195" s="37"/>
-      <c r="G195" s="38"/>
-      <c r="H195" s="39"/>
+      <c r="F195" s="44"/>
+      <c r="G195" s="45"/>
+      <c r="H195" s="46"/>
     </row>
     <row r="196" spans="1:8" ht="39" customHeight="1">
       <c r="A196" s="3"/>
@@ -3421,9 +3421,9 @@
       <c r="C196" s="4"/>
       <c r="D196" s="5"/>
       <c r="E196" s="26"/>
-      <c r="F196" s="37"/>
-      <c r="G196" s="38"/>
-      <c r="H196" s="39"/>
+      <c r="F196" s="44"/>
+      <c r="G196" s="45"/>
+      <c r="H196" s="46"/>
     </row>
     <row r="197" spans="1:8" ht="39" customHeight="1">
       <c r="A197" s="3"/>
@@ -3431,9 +3431,9 @@
       <c r="C197" s="4"/>
       <c r="D197" s="5"/>
       <c r="E197" s="26"/>
-      <c r="F197" s="37"/>
-      <c r="G197" s="38"/>
-      <c r="H197" s="39"/>
+      <c r="F197" s="44"/>
+      <c r="G197" s="45"/>
+      <c r="H197" s="46"/>
     </row>
     <row r="198" spans="1:8" ht="39" customHeight="1">
       <c r="A198" s="3"/>
@@ -3441,9 +3441,9 @@
       <c r="C198" s="4"/>
       <c r="D198" s="5"/>
       <c r="E198" s="26"/>
-      <c r="F198" s="37"/>
-      <c r="G198" s="38"/>
-      <c r="H198" s="39"/>
+      <c r="F198" s="44"/>
+      <c r="G198" s="45"/>
+      <c r="H198" s="46"/>
     </row>
     <row r="199" spans="1:8" ht="39" customHeight="1">
       <c r="A199" s="3"/>
@@ -3451,9 +3451,9 @@
       <c r="C199" s="4"/>
       <c r="D199" s="5"/>
       <c r="E199" s="26"/>
-      <c r="F199" s="37"/>
-      <c r="G199" s="38"/>
-      <c r="H199" s="39"/>
+      <c r="F199" s="44"/>
+      <c r="G199" s="45"/>
+      <c r="H199" s="46"/>
     </row>
     <row r="200" spans="1:8" ht="39" customHeight="1" thickBot="1">
       <c r="A200" s="6"/>
@@ -3461,13 +3461,203 @@
       <c r="C200" s="7"/>
       <c r="D200" s="8"/>
       <c r="E200" s="28"/>
-      <c r="F200" s="40"/>
-      <c r="G200" s="41"/>
-      <c r="H200" s="42"/>
+      <c r="F200" s="65"/>
+      <c r="G200" s="66"/>
+      <c r="H200" s="67"/>
     </row>
     <row r="201" spans="1:8" ht="39" hidden="1" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="204">
+    <mergeCell ref="F196:H196"/>
+    <mergeCell ref="F197:H197"/>
+    <mergeCell ref="F198:H198"/>
+    <mergeCell ref="F199:H199"/>
+    <mergeCell ref="F200:H200"/>
+    <mergeCell ref="F191:H191"/>
+    <mergeCell ref="F192:H192"/>
+    <mergeCell ref="F193:H193"/>
+    <mergeCell ref="F194:H194"/>
+    <mergeCell ref="F195:H195"/>
+    <mergeCell ref="F186:H186"/>
+    <mergeCell ref="F187:H187"/>
+    <mergeCell ref="F188:H188"/>
+    <mergeCell ref="F189:H189"/>
+    <mergeCell ref="F190:H190"/>
+    <mergeCell ref="F181:H181"/>
+    <mergeCell ref="F182:H182"/>
+    <mergeCell ref="F183:H183"/>
+    <mergeCell ref="F184:H184"/>
+    <mergeCell ref="F185:H185"/>
+    <mergeCell ref="F176:H176"/>
+    <mergeCell ref="F177:H177"/>
+    <mergeCell ref="F178:H178"/>
+    <mergeCell ref="F179:H179"/>
+    <mergeCell ref="F180:H180"/>
+    <mergeCell ref="F171:H171"/>
+    <mergeCell ref="F172:H172"/>
+    <mergeCell ref="F173:H173"/>
+    <mergeCell ref="F174:H174"/>
+    <mergeCell ref="F175:H175"/>
+    <mergeCell ref="F166:H166"/>
+    <mergeCell ref="F167:H167"/>
+    <mergeCell ref="F168:H168"/>
+    <mergeCell ref="F169:H169"/>
+    <mergeCell ref="F170:H170"/>
+    <mergeCell ref="F161:H161"/>
+    <mergeCell ref="F162:H162"/>
+    <mergeCell ref="F163:H163"/>
+    <mergeCell ref="F164:H164"/>
+    <mergeCell ref="F165:H165"/>
+    <mergeCell ref="F156:H156"/>
+    <mergeCell ref="F157:H157"/>
+    <mergeCell ref="F158:H158"/>
+    <mergeCell ref="F159:H159"/>
+    <mergeCell ref="F160:H160"/>
+    <mergeCell ref="F151:H151"/>
+    <mergeCell ref="F152:H152"/>
+    <mergeCell ref="F153:H153"/>
+    <mergeCell ref="F154:H154"/>
+    <mergeCell ref="F155:H155"/>
+    <mergeCell ref="F146:H146"/>
+    <mergeCell ref="F147:H147"/>
+    <mergeCell ref="F148:H148"/>
+    <mergeCell ref="F149:H149"/>
+    <mergeCell ref="F150:H150"/>
+    <mergeCell ref="F141:H141"/>
+    <mergeCell ref="F142:H142"/>
+    <mergeCell ref="F143:H143"/>
+    <mergeCell ref="F144:H144"/>
+    <mergeCell ref="F145:H145"/>
+    <mergeCell ref="F136:H136"/>
+    <mergeCell ref="F137:H137"/>
+    <mergeCell ref="F138:H138"/>
+    <mergeCell ref="F139:H139"/>
+    <mergeCell ref="F140:H140"/>
+    <mergeCell ref="F131:H131"/>
+    <mergeCell ref="F132:H132"/>
+    <mergeCell ref="F133:H133"/>
+    <mergeCell ref="F134:H134"/>
+    <mergeCell ref="F135:H135"/>
+    <mergeCell ref="F126:H126"/>
+    <mergeCell ref="F127:H127"/>
+    <mergeCell ref="F128:H128"/>
+    <mergeCell ref="F129:H129"/>
+    <mergeCell ref="F130:H130"/>
+    <mergeCell ref="F121:H121"/>
+    <mergeCell ref="F122:H122"/>
+    <mergeCell ref="F123:H123"/>
+    <mergeCell ref="F124:H124"/>
+    <mergeCell ref="F125:H125"/>
+    <mergeCell ref="F116:H116"/>
+    <mergeCell ref="F117:H117"/>
+    <mergeCell ref="F118:H118"/>
+    <mergeCell ref="F119:H119"/>
+    <mergeCell ref="F120:H120"/>
+    <mergeCell ref="F111:H111"/>
+    <mergeCell ref="F112:H112"/>
+    <mergeCell ref="F113:H113"/>
+    <mergeCell ref="F114:H114"/>
+    <mergeCell ref="F115:H115"/>
+    <mergeCell ref="F106:H106"/>
+    <mergeCell ref="F107:H107"/>
+    <mergeCell ref="F108:H108"/>
+    <mergeCell ref="F109:H109"/>
+    <mergeCell ref="F110:H110"/>
+    <mergeCell ref="F101:H101"/>
+    <mergeCell ref="F102:H102"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="F104:H104"/>
+    <mergeCell ref="F105:H105"/>
+    <mergeCell ref="F96:H96"/>
+    <mergeCell ref="F97:H97"/>
+    <mergeCell ref="F98:H98"/>
+    <mergeCell ref="F99:H99"/>
+    <mergeCell ref="F100:H100"/>
+    <mergeCell ref="F91:H91"/>
+    <mergeCell ref="F92:H92"/>
+    <mergeCell ref="F93:H93"/>
+    <mergeCell ref="F94:H94"/>
+    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="F86:H86"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="F88:H88"/>
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="F90:H90"/>
+    <mergeCell ref="F81:H81"/>
+    <mergeCell ref="F82:H82"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="F84:H84"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="F75:H75"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="F8:H8"/>
@@ -3482,196 +3672,6 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="C2:F2"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="F66:H66"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="F68:H68"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="F70:H70"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="F76:H76"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="F80:H80"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="F74:H74"/>
-    <mergeCell ref="F75:H75"/>
-    <mergeCell ref="F86:H86"/>
-    <mergeCell ref="F87:H87"/>
-    <mergeCell ref="F88:H88"/>
-    <mergeCell ref="F89:H89"/>
-    <mergeCell ref="F90:H90"/>
-    <mergeCell ref="F81:H81"/>
-    <mergeCell ref="F82:H82"/>
-    <mergeCell ref="F83:H83"/>
-    <mergeCell ref="F84:H84"/>
-    <mergeCell ref="F85:H85"/>
-    <mergeCell ref="F96:H96"/>
-    <mergeCell ref="F97:H97"/>
-    <mergeCell ref="F98:H98"/>
-    <mergeCell ref="F99:H99"/>
-    <mergeCell ref="F100:H100"/>
-    <mergeCell ref="F91:H91"/>
-    <mergeCell ref="F92:H92"/>
-    <mergeCell ref="F93:H93"/>
-    <mergeCell ref="F94:H94"/>
-    <mergeCell ref="F95:H95"/>
-    <mergeCell ref="F106:H106"/>
-    <mergeCell ref="F107:H107"/>
-    <mergeCell ref="F108:H108"/>
-    <mergeCell ref="F109:H109"/>
-    <mergeCell ref="F110:H110"/>
-    <mergeCell ref="F101:H101"/>
-    <mergeCell ref="F102:H102"/>
-    <mergeCell ref="F103:H103"/>
-    <mergeCell ref="F104:H104"/>
-    <mergeCell ref="F105:H105"/>
-    <mergeCell ref="F116:H116"/>
-    <mergeCell ref="F117:H117"/>
-    <mergeCell ref="F118:H118"/>
-    <mergeCell ref="F119:H119"/>
-    <mergeCell ref="F120:H120"/>
-    <mergeCell ref="F111:H111"/>
-    <mergeCell ref="F112:H112"/>
-    <mergeCell ref="F113:H113"/>
-    <mergeCell ref="F114:H114"/>
-    <mergeCell ref="F115:H115"/>
-    <mergeCell ref="F126:H126"/>
-    <mergeCell ref="F127:H127"/>
-    <mergeCell ref="F128:H128"/>
-    <mergeCell ref="F129:H129"/>
-    <mergeCell ref="F130:H130"/>
-    <mergeCell ref="F121:H121"/>
-    <mergeCell ref="F122:H122"/>
-    <mergeCell ref="F123:H123"/>
-    <mergeCell ref="F124:H124"/>
-    <mergeCell ref="F125:H125"/>
-    <mergeCell ref="F136:H136"/>
-    <mergeCell ref="F137:H137"/>
-    <mergeCell ref="F138:H138"/>
-    <mergeCell ref="F139:H139"/>
-    <mergeCell ref="F140:H140"/>
-    <mergeCell ref="F131:H131"/>
-    <mergeCell ref="F132:H132"/>
-    <mergeCell ref="F133:H133"/>
-    <mergeCell ref="F134:H134"/>
-    <mergeCell ref="F135:H135"/>
-    <mergeCell ref="F146:H146"/>
-    <mergeCell ref="F147:H147"/>
-    <mergeCell ref="F148:H148"/>
-    <mergeCell ref="F149:H149"/>
-    <mergeCell ref="F150:H150"/>
-    <mergeCell ref="F141:H141"/>
-    <mergeCell ref="F142:H142"/>
-    <mergeCell ref="F143:H143"/>
-    <mergeCell ref="F144:H144"/>
-    <mergeCell ref="F145:H145"/>
-    <mergeCell ref="F156:H156"/>
-    <mergeCell ref="F157:H157"/>
-    <mergeCell ref="F158:H158"/>
-    <mergeCell ref="F159:H159"/>
-    <mergeCell ref="F160:H160"/>
-    <mergeCell ref="F151:H151"/>
-    <mergeCell ref="F152:H152"/>
-    <mergeCell ref="F153:H153"/>
-    <mergeCell ref="F154:H154"/>
-    <mergeCell ref="F155:H155"/>
-    <mergeCell ref="F166:H166"/>
-    <mergeCell ref="F167:H167"/>
-    <mergeCell ref="F168:H168"/>
-    <mergeCell ref="F169:H169"/>
-    <mergeCell ref="F170:H170"/>
-    <mergeCell ref="F161:H161"/>
-    <mergeCell ref="F162:H162"/>
-    <mergeCell ref="F163:H163"/>
-    <mergeCell ref="F164:H164"/>
-    <mergeCell ref="F165:H165"/>
-    <mergeCell ref="F176:H176"/>
-    <mergeCell ref="F177:H177"/>
-    <mergeCell ref="F178:H178"/>
-    <mergeCell ref="F179:H179"/>
-    <mergeCell ref="F180:H180"/>
-    <mergeCell ref="F171:H171"/>
-    <mergeCell ref="F172:H172"/>
-    <mergeCell ref="F173:H173"/>
-    <mergeCell ref="F174:H174"/>
-    <mergeCell ref="F175:H175"/>
-    <mergeCell ref="F186:H186"/>
-    <mergeCell ref="F187:H187"/>
-    <mergeCell ref="F188:H188"/>
-    <mergeCell ref="F189:H189"/>
-    <mergeCell ref="F190:H190"/>
-    <mergeCell ref="F181:H181"/>
-    <mergeCell ref="F182:H182"/>
-    <mergeCell ref="F183:H183"/>
-    <mergeCell ref="F184:H184"/>
-    <mergeCell ref="F185:H185"/>
-    <mergeCell ref="F196:H196"/>
-    <mergeCell ref="F197:H197"/>
-    <mergeCell ref="F198:H198"/>
-    <mergeCell ref="F199:H199"/>
-    <mergeCell ref="F200:H200"/>
-    <mergeCell ref="F191:H191"/>
-    <mergeCell ref="F192:H192"/>
-    <mergeCell ref="F193:H193"/>
-    <mergeCell ref="F194:H194"/>
-    <mergeCell ref="F195:H195"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.47222222222222221" right="0.56944444444444442" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3688,8 +3688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E8"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="36" customHeight="1" zeroHeight="1" x14ac:dyDescent="0"/>
@@ -3704,77 +3704,77 @@
       <c r="A1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="69"/>
     </row>
     <row r="2" spans="1:5" ht="36" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71"/>
     </row>
     <row r="3" spans="1:5" ht="136" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="72"/>
+        <v>19</v>
+      </c>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="73"/>
     </row>
     <row r="4" spans="1:5" ht="46" customHeight="1">
       <c r="A4" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="77"/>
+        <v>29</v>
+      </c>
+      <c r="B4" s="76"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="78"/>
     </row>
     <row r="5" spans="1:5" ht="46" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="72"/>
+        <v>20</v>
+      </c>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="73"/>
     </row>
     <row r="6" spans="1:5" ht="46" customHeight="1">
       <c r="A6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="72"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="73"/>
     </row>
     <row r="7" spans="1:5" ht="46" customHeight="1">
       <c r="A7" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="77"/>
+        <v>39</v>
+      </c>
+      <c r="B7" s="76"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="78"/>
     </row>
     <row r="8" spans="1:5" ht="51" customHeight="1" thickBot="1">
       <c r="A8" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="74"/>
+        <v>30</v>
+      </c>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3815,198 +3815,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36" customHeight="1">
-      <c r="A1" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="80"/>
+      <c r="A1" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="81"/>
     </row>
     <row r="2" spans="1:7" ht="36" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="84">
+        <v>24</v>
+      </c>
+      <c r="B2" s="82">
         <v>41627</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="86"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="84"/>
     </row>
     <row r="3" spans="1:7" ht="36" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="89"/>
+        <v>25</v>
+      </c>
+      <c r="B3" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="87"/>
     </row>
     <row r="4" spans="1:7" ht="112" customHeight="1">
       <c r="A4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="89"/>
+      <c r="B4" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="87"/>
     </row>
     <row r="5" spans="1:7" ht="36" customHeight="1" thickBot="1">
       <c r="A5" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="82"/>
+        <v>26</v>
+      </c>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="89"/>
     </row>
     <row r="6" spans="1:7" ht="36" customHeight="1" thickBot="1"/>
     <row r="7" spans="1:7" ht="36" customHeight="1">
-      <c r="A7" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="80"/>
+      <c r="A7" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="81"/>
     </row>
     <row r="8" spans="1:7" ht="36" customHeight="1">
       <c r="A8" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="72"/>
+        <v>24</v>
+      </c>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="73"/>
     </row>
     <row r="9" spans="1:7" ht="36" customHeight="1">
       <c r="A9" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="72"/>
+        <v>25</v>
+      </c>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="73"/>
     </row>
     <row r="10" spans="1:7" ht="112" customHeight="1">
       <c r="A10" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="72"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
     </row>
     <row r="11" spans="1:7" ht="36" customHeight="1" thickBot="1">
       <c r="A11" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="74"/>
+        <v>26</v>
+      </c>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="75"/>
     </row>
     <row r="12" spans="1:7" ht="36" customHeight="1"/>
     <row r="13" spans="1:7" ht="36" customHeight="1" thickBot="1"/>
     <row r="14" spans="1:7" ht="36" customHeight="1">
-      <c r="A14" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="80"/>
+      <c r="A14" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="81"/>
     </row>
     <row r="15" spans="1:7" ht="36" customHeight="1">
       <c r="A15" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="72"/>
+        <v>24</v>
+      </c>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="73"/>
     </row>
     <row r="16" spans="1:7" ht="36" customHeight="1">
       <c r="A16" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="72"/>
+        <v>25</v>
+      </c>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="73"/>
     </row>
     <row r="17" spans="1:7" ht="113" customHeight="1">
       <c r="A17" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="72"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="73"/>
     </row>
     <row r="18" spans="1:7" ht="36" customHeight="1" thickBot="1">
       <c r="A18" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="74"/>
+        <v>26</v>
+      </c>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="75"/>
     </row>
     <row r="19" spans="1:7" ht="36" customHeight="1"/>
     <row r="20" spans="1:7" ht="36" hidden="1" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/CH_121913_A.xlsx
+++ b/CH_121913_A.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glickfeld_lab\Documents\GitHub\docubase\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="140" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1185" yWindow="135" windowWidth="25605" windowHeight="16065" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="1" r:id="rId1"/>
@@ -13,6 +18,7 @@
     <sheet name="Surgery" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>Mouse ID</t>
   </si>
@@ -138,10 +144,22 @@
     <t>Injected AAV9-EF1a-DIO-C1V1(T/T)-eYFP at 2.5 mm left of Lambda. Injected  50nL at 300 um from pia. Injected at 50 nl/min. Ready for recording on 1/3/2014</t>
   </si>
   <si>
-    <t>Injected AAV9-C1V1-eYFP into V1.</t>
-  </si>
-  <si>
     <t>Slices per plate               (or list of numbers for each plate)</t>
+  </si>
+  <si>
+    <t>K-Gluconate, adjusted with DI to Osm</t>
+  </si>
+  <si>
+    <t>Normal. Some expts may have NBQX+AP5 (As noted).</t>
+  </si>
+  <si>
+    <t>4% PFA, Wash with 1% PBS</t>
+  </si>
+  <si>
+    <t>Injected AAV9-C1V1-eYFP into V1. Not much C1V1 expression. Which could be due to the fact that the injection tube was quite narrow. CH_121913_C worked just fine, but was 100nl instead of the 50 nl used on this mouse. Another possibility was that the pipet was cloged prior to injecting CH_121913_C so I broke the tip, which would have made the opening bigger, but the opening was too narrow for CH_121913_A and B.</t>
+  </si>
+  <si>
+    <t>Not a ton of data. B/C C1V1 didn't express, I mostly used the day to demo intracellular recording to Emily.</t>
   </si>
 </sst>
 </file>
@@ -1013,6 +1031,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1344,14 +1370,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="38" customHeight="1" zeroHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="38.1" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="62.33203125" style="36" customWidth="1"/>
+    <col min="1" max="1" width="20.625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="62.375" style="36" customWidth="1"/>
     <col min="3" max="16384" width="18.5" style="12" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="38" customHeight="1" thickTop="1">
+    <row r="1" spans="1:2" ht="38.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1359,7 +1385,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="38" customHeight="1">
+    <row r="2" spans="1:2" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
@@ -1367,7 +1393,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="38" customHeight="1">
+    <row r="3" spans="1:2" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
@@ -1375,7 +1401,7 @@
         <v>41601</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="38" customHeight="1">
+    <row r="4" spans="1:2" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
@@ -1383,7 +1409,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="38" customHeight="1">
+    <row r="5" spans="1:2" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
@@ -1391,27 +1417,27 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="148" customHeight="1" thickBot="1">
+    <row r="6" spans="1:2" ht="147.94999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="38" customHeight="1" thickTop="1"/>
-    <row r="8" spans="1:2" ht="38" customHeight="1"/>
-    <row r="9" spans="1:2" ht="38" customHeight="1"/>
-    <row r="10" spans="1:2" ht="38" customHeight="1"/>
-    <row r="11" spans="1:2" ht="38" customHeight="1"/>
-    <row r="12" spans="1:2" ht="38" customHeight="1"/>
-    <row r="13" spans="1:2" ht="38" hidden="1" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="38.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:2" ht="38.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:2" ht="38.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:2" ht="38.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:2" ht="38.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:2" ht="38.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:2" ht="38.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="100"/>
@@ -1424,76 +1450,88 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:H8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="6.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" style="24" customWidth="1"/>
     <col min="6" max="6" width="34.5" style="24" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="15" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="39" customHeight="1" thickTop="1">
+    <row r="1" spans="1:8" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="57"/>
-      <c r="C1" s="62"/>
+      <c r="C1" s="62" t="s">
+        <v>39</v>
+      </c>
       <c r="D1" s="63"/>
       <c r="E1" s="63"/>
       <c r="F1" s="63"/>
       <c r="G1" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" ht="39" customHeight="1">
+      <c r="H1" s="25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="59"/>
-      <c r="C2" s="49"/>
+      <c r="C2" s="49" t="s">
+        <v>40</v>
+      </c>
       <c r="D2" s="64"/>
       <c r="E2" s="64"/>
       <c r="F2" s="64"/>
       <c r="G2" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="27"/>
-    </row>
-    <row r="3" spans="1:8" ht="39" customHeight="1">
+      <c r="H2" s="27">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="59"/>
-      <c r="C3" s="48"/>
+      <c r="C3" s="48">
+        <v>34</v>
+      </c>
       <c r="D3" s="49"/>
       <c r="E3" s="49"/>
       <c r="F3" s="49"/>
       <c r="G3" s="50"/>
       <c r="H3" s="51"/>
     </row>
-    <row r="4" spans="1:8" ht="102" customHeight="1" thickBot="1">
+    <row r="4" spans="1:8" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="60" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="61"/>
-      <c r="C4" s="52"/>
+      <c r="C4" s="52" t="s">
+        <v>43</v>
+      </c>
       <c r="D4" s="53"/>
       <c r="E4" s="53"/>
       <c r="F4" s="53"/>
       <c r="G4" s="54"/>
       <c r="H4" s="55"/>
     </row>
-    <row r="5" spans="1:8" ht="26" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:8" ht="26.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="47"/>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
@@ -1503,7 +1541,7 @@
       <c r="G5" s="47"/>
       <c r="H5" s="47"/>
     </row>
-    <row r="6" spans="1:8" ht="39" customHeight="1" thickTop="1">
+    <row r="6" spans="1:8" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
@@ -1525,7 +1563,7 @@
       <c r="G6" s="39"/>
       <c r="H6" s="40"/>
     </row>
-    <row r="7" spans="1:8" ht="39" customHeight="1">
+    <row r="7" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1535,7 +1573,7 @@
       <c r="G7" s="42"/>
       <c r="H7" s="43"/>
     </row>
-    <row r="8" spans="1:8" ht="39" customHeight="1">
+    <row r="8" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1545,7 +1583,7 @@
       <c r="G8" s="45"/>
       <c r="H8" s="46"/>
     </row>
-    <row r="9" spans="1:8" ht="39" customHeight="1">
+    <row r="9" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1555,7 +1593,7 @@
       <c r="G9" s="45"/>
       <c r="H9" s="46"/>
     </row>
-    <row r="10" spans="1:8" ht="39" customHeight="1">
+    <row r="10" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1565,7 +1603,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="46"/>
     </row>
-    <row r="11" spans="1:8" ht="39" customHeight="1">
+    <row r="11" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1575,7 +1613,7 @@
       <c r="G11" s="45"/>
       <c r="H11" s="46"/>
     </row>
-    <row r="12" spans="1:8" ht="39" customHeight="1">
+    <row r="12" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1585,7 +1623,7 @@
       <c r="G12" s="45"/>
       <c r="H12" s="46"/>
     </row>
-    <row r="13" spans="1:8" ht="39" customHeight="1">
+    <row r="13" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1595,7 +1633,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="46"/>
     </row>
-    <row r="14" spans="1:8" ht="39" customHeight="1">
+    <row r="14" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1605,7 +1643,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="46"/>
     </row>
-    <row r="15" spans="1:8" ht="39" customHeight="1">
+    <row r="15" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1615,7 +1653,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="46"/>
     </row>
-    <row r="16" spans="1:8" ht="39" customHeight="1">
+    <row r="16" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1625,7 +1663,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="46"/>
     </row>
-    <row r="17" spans="1:8" ht="39" customHeight="1">
+    <row r="17" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1635,7 +1673,7 @@
       <c r="G17" s="45"/>
       <c r="H17" s="46"/>
     </row>
-    <row r="18" spans="1:8" ht="39" customHeight="1">
+    <row r="18" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1645,7 +1683,7 @@
       <c r="G18" s="45"/>
       <c r="H18" s="46"/>
     </row>
-    <row r="19" spans="1:8" ht="39" customHeight="1">
+    <row r="19" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1655,7 +1693,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="46"/>
     </row>
-    <row r="20" spans="1:8" ht="39" customHeight="1">
+    <row r="20" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1665,7 +1703,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="46"/>
     </row>
-    <row r="21" spans="1:8" ht="39" customHeight="1">
+    <row r="21" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1675,7 +1713,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="46"/>
     </row>
-    <row r="22" spans="1:8" ht="39" customHeight="1">
+    <row r="22" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1685,7 +1723,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="46"/>
     </row>
-    <row r="23" spans="1:8" ht="39" customHeight="1">
+    <row r="23" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1695,7 +1733,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="46"/>
     </row>
-    <row r="24" spans="1:8" ht="39" customHeight="1">
+    <row r="24" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1705,7 +1743,7 @@
       <c r="G24" s="45"/>
       <c r="H24" s="46"/>
     </row>
-    <row r="25" spans="1:8" ht="39" customHeight="1">
+    <row r="25" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1715,7 +1753,7 @@
       <c r="G25" s="45"/>
       <c r="H25" s="46"/>
     </row>
-    <row r="26" spans="1:8" ht="39" customHeight="1">
+    <row r="26" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1725,7 +1763,7 @@
       <c r="G26" s="45"/>
       <c r="H26" s="46"/>
     </row>
-    <row r="27" spans="1:8" ht="39" customHeight="1">
+    <row r="27" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1735,7 +1773,7 @@
       <c r="G27" s="45"/>
       <c r="H27" s="46"/>
     </row>
-    <row r="28" spans="1:8" ht="39" customHeight="1">
+    <row r="28" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1745,7 +1783,7 @@
       <c r="G28" s="45"/>
       <c r="H28" s="46"/>
     </row>
-    <row r="29" spans="1:8" ht="39" customHeight="1">
+    <row r="29" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1755,7 +1793,7 @@
       <c r="G29" s="45"/>
       <c r="H29" s="46"/>
     </row>
-    <row r="30" spans="1:8" ht="39" customHeight="1">
+    <row r="30" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1765,7 +1803,7 @@
       <c r="G30" s="45"/>
       <c r="H30" s="46"/>
     </row>
-    <row r="31" spans="1:8" ht="39" customHeight="1">
+    <row r="31" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1775,7 +1813,7 @@
       <c r="G31" s="45"/>
       <c r="H31" s="46"/>
     </row>
-    <row r="32" spans="1:8" ht="39" customHeight="1">
+    <row r="32" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1785,7 +1823,7 @@
       <c r="G32" s="45"/>
       <c r="H32" s="46"/>
     </row>
-    <row r="33" spans="1:8" ht="39" customHeight="1">
+    <row r="33" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1795,7 +1833,7 @@
       <c r="G33" s="45"/>
       <c r="H33" s="46"/>
     </row>
-    <row r="34" spans="1:8" ht="39" customHeight="1">
+    <row r="34" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1805,7 +1843,7 @@
       <c r="G34" s="45"/>
       <c r="H34" s="46"/>
     </row>
-    <row r="35" spans="1:8" ht="39" customHeight="1">
+    <row r="35" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1815,7 +1853,7 @@
       <c r="G35" s="45"/>
       <c r="H35" s="46"/>
     </row>
-    <row r="36" spans="1:8" ht="39" customHeight="1">
+    <row r="36" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1825,7 +1863,7 @@
       <c r="G36" s="45"/>
       <c r="H36" s="46"/>
     </row>
-    <row r="37" spans="1:8" ht="39" customHeight="1">
+    <row r="37" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1835,7 +1873,7 @@
       <c r="G37" s="45"/>
       <c r="H37" s="46"/>
     </row>
-    <row r="38" spans="1:8" ht="39" customHeight="1">
+    <row r="38" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1845,7 +1883,7 @@
       <c r="G38" s="45"/>
       <c r="H38" s="46"/>
     </row>
-    <row r="39" spans="1:8" ht="39" customHeight="1">
+    <row r="39" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1855,7 +1893,7 @@
       <c r="G39" s="45"/>
       <c r="H39" s="46"/>
     </row>
-    <row r="40" spans="1:8" ht="39" customHeight="1">
+    <row r="40" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1865,7 +1903,7 @@
       <c r="G40" s="45"/>
       <c r="H40" s="46"/>
     </row>
-    <row r="41" spans="1:8" ht="39" customHeight="1">
+    <row r="41" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1875,7 +1913,7 @@
       <c r="G41" s="45"/>
       <c r="H41" s="46"/>
     </row>
-    <row r="42" spans="1:8" ht="39" customHeight="1">
+    <row r="42" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1885,7 +1923,7 @@
       <c r="G42" s="45"/>
       <c r="H42" s="46"/>
     </row>
-    <row r="43" spans="1:8" ht="39" customHeight="1">
+    <row r="43" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1895,7 +1933,7 @@
       <c r="G43" s="45"/>
       <c r="H43" s="46"/>
     </row>
-    <row r="44" spans="1:8" ht="39" customHeight="1">
+    <row r="44" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1905,7 +1943,7 @@
       <c r="G44" s="45"/>
       <c r="H44" s="46"/>
     </row>
-    <row r="45" spans="1:8" ht="39" customHeight="1">
+    <row r="45" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1915,7 +1953,7 @@
       <c r="G45" s="45"/>
       <c r="H45" s="46"/>
     </row>
-    <row r="46" spans="1:8" ht="39" customHeight="1">
+    <row r="46" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1925,7 +1963,7 @@
       <c r="G46" s="45"/>
       <c r="H46" s="46"/>
     </row>
-    <row r="47" spans="1:8" ht="39" customHeight="1">
+    <row r="47" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1935,7 +1973,7 @@
       <c r="G47" s="45"/>
       <c r="H47" s="46"/>
     </row>
-    <row r="48" spans="1:8" ht="39" customHeight="1">
+    <row r="48" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1945,7 +1983,7 @@
       <c r="G48" s="45"/>
       <c r="H48" s="46"/>
     </row>
-    <row r="49" spans="1:8" ht="39" customHeight="1">
+    <row r="49" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1955,7 +1993,7 @@
       <c r="G49" s="45"/>
       <c r="H49" s="46"/>
     </row>
-    <row r="50" spans="1:8" ht="39" customHeight="1">
+    <row r="50" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -1965,7 +2003,7 @@
       <c r="G50" s="45"/>
       <c r="H50" s="46"/>
     </row>
-    <row r="51" spans="1:8" ht="39" customHeight="1">
+    <row r="51" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -1975,7 +2013,7 @@
       <c r="G51" s="45"/>
       <c r="H51" s="46"/>
     </row>
-    <row r="52" spans="1:8" ht="39" customHeight="1">
+    <row r="52" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -1985,7 +2023,7 @@
       <c r="G52" s="45"/>
       <c r="H52" s="46"/>
     </row>
-    <row r="53" spans="1:8" ht="39" customHeight="1">
+    <row r="53" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1995,7 +2033,7 @@
       <c r="G53" s="45"/>
       <c r="H53" s="46"/>
     </row>
-    <row r="54" spans="1:8" ht="39" customHeight="1">
+    <row r="54" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -2005,7 +2043,7 @@
       <c r="G54" s="45"/>
       <c r="H54" s="46"/>
     </row>
-    <row r="55" spans="1:8" ht="39" customHeight="1">
+    <row r="55" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -2015,7 +2053,7 @@
       <c r="G55" s="45"/>
       <c r="H55" s="46"/>
     </row>
-    <row r="56" spans="1:8" ht="39" customHeight="1">
+    <row r="56" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2025,7 +2063,7 @@
       <c r="G56" s="45"/>
       <c r="H56" s="46"/>
     </row>
-    <row r="57" spans="1:8" ht="39" customHeight="1">
+    <row r="57" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2035,7 +2073,7 @@
       <c r="G57" s="45"/>
       <c r="H57" s="46"/>
     </row>
-    <row r="58" spans="1:8" ht="39" customHeight="1">
+    <row r="58" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2045,7 +2083,7 @@
       <c r="G58" s="45"/>
       <c r="H58" s="46"/>
     </row>
-    <row r="59" spans="1:8" ht="39" customHeight="1">
+    <row r="59" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2055,7 +2093,7 @@
       <c r="G59" s="45"/>
       <c r="H59" s="46"/>
     </row>
-    <row r="60" spans="1:8" ht="39" customHeight="1">
+    <row r="60" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2065,7 +2103,7 @@
       <c r="G60" s="45"/>
       <c r="H60" s="46"/>
     </row>
-    <row r="61" spans="1:8" ht="39" customHeight="1">
+    <row r="61" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -2075,7 +2113,7 @@
       <c r="G61" s="45"/>
       <c r="H61" s="46"/>
     </row>
-    <row r="62" spans="1:8" ht="39" customHeight="1">
+    <row r="62" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2085,7 +2123,7 @@
       <c r="G62" s="45"/>
       <c r="H62" s="46"/>
     </row>
-    <row r="63" spans="1:8" ht="39" customHeight="1">
+    <row r="63" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -2095,7 +2133,7 @@
       <c r="G63" s="45"/>
       <c r="H63" s="46"/>
     </row>
-    <row r="64" spans="1:8" ht="39" customHeight="1">
+    <row r="64" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -2105,7 +2143,7 @@
       <c r="G64" s="45"/>
       <c r="H64" s="46"/>
     </row>
-    <row r="65" spans="1:8" ht="39" customHeight="1">
+    <row r="65" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -2115,7 +2153,7 @@
       <c r="G65" s="45"/>
       <c r="H65" s="46"/>
     </row>
-    <row r="66" spans="1:8" ht="39" customHeight="1">
+    <row r="66" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -2125,7 +2163,7 @@
       <c r="G66" s="45"/>
       <c r="H66" s="46"/>
     </row>
-    <row r="67" spans="1:8" ht="39" customHeight="1">
+    <row r="67" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -2135,7 +2173,7 @@
       <c r="G67" s="45"/>
       <c r="H67" s="46"/>
     </row>
-    <row r="68" spans="1:8" ht="39" customHeight="1">
+    <row r="68" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -2145,7 +2183,7 @@
       <c r="G68" s="45"/>
       <c r="H68" s="46"/>
     </row>
-    <row r="69" spans="1:8" ht="39" customHeight="1">
+    <row r="69" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -2155,7 +2193,7 @@
       <c r="G69" s="45"/>
       <c r="H69" s="46"/>
     </row>
-    <row r="70" spans="1:8" ht="39" customHeight="1">
+    <row r="70" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -2165,7 +2203,7 @@
       <c r="G70" s="45"/>
       <c r="H70" s="46"/>
     </row>
-    <row r="71" spans="1:8" ht="39" customHeight="1">
+    <row r="71" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -2175,7 +2213,7 @@
       <c r="G71" s="45"/>
       <c r="H71" s="46"/>
     </row>
-    <row r="72" spans="1:8" ht="39" customHeight="1">
+    <row r="72" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -2185,7 +2223,7 @@
       <c r="G72" s="45"/>
       <c r="H72" s="46"/>
     </row>
-    <row r="73" spans="1:8" ht="39" customHeight="1">
+    <row r="73" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -2195,7 +2233,7 @@
       <c r="G73" s="45"/>
       <c r="H73" s="46"/>
     </row>
-    <row r="74" spans="1:8" ht="39" customHeight="1">
+    <row r="74" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -2205,7 +2243,7 @@
       <c r="G74" s="45"/>
       <c r="H74" s="46"/>
     </row>
-    <row r="75" spans="1:8" ht="39" customHeight="1">
+    <row r="75" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -2215,7 +2253,7 @@
       <c r="G75" s="45"/>
       <c r="H75" s="46"/>
     </row>
-    <row r="76" spans="1:8" ht="39" customHeight="1">
+    <row r="76" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -2225,7 +2263,7 @@
       <c r="G76" s="45"/>
       <c r="H76" s="46"/>
     </row>
-    <row r="77" spans="1:8" ht="39" customHeight="1">
+    <row r="77" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -2235,7 +2273,7 @@
       <c r="G77" s="45"/>
       <c r="H77" s="46"/>
     </row>
-    <row r="78" spans="1:8" ht="39" customHeight="1">
+    <row r="78" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -2245,7 +2283,7 @@
       <c r="G78" s="45"/>
       <c r="H78" s="46"/>
     </row>
-    <row r="79" spans="1:8" ht="39" customHeight="1">
+    <row r="79" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -2255,7 +2293,7 @@
       <c r="G79" s="45"/>
       <c r="H79" s="46"/>
     </row>
-    <row r="80" spans="1:8" ht="39" customHeight="1">
+    <row r="80" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -2265,7 +2303,7 @@
       <c r="G80" s="45"/>
       <c r="H80" s="46"/>
     </row>
-    <row r="81" spans="1:8" ht="39" customHeight="1">
+    <row r="81" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -2275,7 +2313,7 @@
       <c r="G81" s="45"/>
       <c r="H81" s="46"/>
     </row>
-    <row r="82" spans="1:8" ht="39" customHeight="1">
+    <row r="82" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -2285,7 +2323,7 @@
       <c r="G82" s="45"/>
       <c r="H82" s="46"/>
     </row>
-    <row r="83" spans="1:8" ht="39" customHeight="1">
+    <row r="83" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -2295,7 +2333,7 @@
       <c r="G83" s="45"/>
       <c r="H83" s="46"/>
     </row>
-    <row r="84" spans="1:8" ht="39" customHeight="1">
+    <row r="84" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -2305,7 +2343,7 @@
       <c r="G84" s="45"/>
       <c r="H84" s="46"/>
     </row>
-    <row r="85" spans="1:8" ht="39" customHeight="1">
+    <row r="85" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -2315,7 +2353,7 @@
       <c r="G85" s="45"/>
       <c r="H85" s="46"/>
     </row>
-    <row r="86" spans="1:8" ht="39" customHeight="1">
+    <row r="86" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -2325,7 +2363,7 @@
       <c r="G86" s="45"/>
       <c r="H86" s="46"/>
     </row>
-    <row r="87" spans="1:8" ht="39" customHeight="1">
+    <row r="87" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -2335,7 +2373,7 @@
       <c r="G87" s="45"/>
       <c r="H87" s="46"/>
     </row>
-    <row r="88" spans="1:8" ht="39" customHeight="1">
+    <row r="88" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -2345,7 +2383,7 @@
       <c r="G88" s="45"/>
       <c r="H88" s="46"/>
     </row>
-    <row r="89" spans="1:8" ht="39" customHeight="1">
+    <row r="89" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -2355,7 +2393,7 @@
       <c r="G89" s="45"/>
       <c r="H89" s="46"/>
     </row>
-    <row r="90" spans="1:8" ht="39" customHeight="1">
+    <row r="90" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -2365,7 +2403,7 @@
       <c r="G90" s="45"/>
       <c r="H90" s="46"/>
     </row>
-    <row r="91" spans="1:8" ht="39" customHeight="1">
+    <row r="91" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -2375,7 +2413,7 @@
       <c r="G91" s="45"/>
       <c r="H91" s="46"/>
     </row>
-    <row r="92" spans="1:8" ht="39" customHeight="1">
+    <row r="92" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -2385,7 +2423,7 @@
       <c r="G92" s="45"/>
       <c r="H92" s="46"/>
     </row>
-    <row r="93" spans="1:8" ht="39" customHeight="1">
+    <row r="93" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -2395,7 +2433,7 @@
       <c r="G93" s="45"/>
       <c r="H93" s="46"/>
     </row>
-    <row r="94" spans="1:8" ht="39" customHeight="1">
+    <row r="94" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -2405,7 +2443,7 @@
       <c r="G94" s="45"/>
       <c r="H94" s="46"/>
     </row>
-    <row r="95" spans="1:8" ht="39" customHeight="1">
+    <row r="95" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -2415,7 +2453,7 @@
       <c r="G95" s="45"/>
       <c r="H95" s="46"/>
     </row>
-    <row r="96" spans="1:8" ht="39" customHeight="1">
+    <row r="96" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -2425,7 +2463,7 @@
       <c r="G96" s="45"/>
       <c r="H96" s="46"/>
     </row>
-    <row r="97" spans="1:8" ht="39" customHeight="1">
+    <row r="97" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -2435,7 +2473,7 @@
       <c r="G97" s="45"/>
       <c r="H97" s="46"/>
     </row>
-    <row r="98" spans="1:8" ht="39" customHeight="1">
+    <row r="98" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -2445,7 +2483,7 @@
       <c r="G98" s="45"/>
       <c r="H98" s="46"/>
     </row>
-    <row r="99" spans="1:8" ht="39" customHeight="1">
+    <row r="99" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -2455,7 +2493,7 @@
       <c r="G99" s="45"/>
       <c r="H99" s="46"/>
     </row>
-    <row r="100" spans="1:8" ht="39" customHeight="1">
+    <row r="100" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -2465,7 +2503,7 @@
       <c r="G100" s="45"/>
       <c r="H100" s="46"/>
     </row>
-    <row r="101" spans="1:8" ht="39" customHeight="1">
+    <row r="101" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -2475,7 +2513,7 @@
       <c r="G101" s="45"/>
       <c r="H101" s="46"/>
     </row>
-    <row r="102" spans="1:8" ht="39" customHeight="1">
+    <row r="102" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -2485,7 +2523,7 @@
       <c r="G102" s="45"/>
       <c r="H102" s="46"/>
     </row>
-    <row r="103" spans="1:8" ht="39" customHeight="1">
+    <row r="103" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -2495,7 +2533,7 @@
       <c r="G103" s="45"/>
       <c r="H103" s="46"/>
     </row>
-    <row r="104" spans="1:8" ht="39" customHeight="1">
+    <row r="104" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -2505,7 +2543,7 @@
       <c r="G104" s="45"/>
       <c r="H104" s="46"/>
     </row>
-    <row r="105" spans="1:8" ht="39" customHeight="1">
+    <row r="105" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -2515,7 +2553,7 @@
       <c r="G105" s="45"/>
       <c r="H105" s="46"/>
     </row>
-    <row r="106" spans="1:8" ht="39" customHeight="1">
+    <row r="106" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -2525,7 +2563,7 @@
       <c r="G106" s="45"/>
       <c r="H106" s="46"/>
     </row>
-    <row r="107" spans="1:8" ht="39" customHeight="1">
+    <row r="107" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -2535,7 +2573,7 @@
       <c r="G107" s="45"/>
       <c r="H107" s="46"/>
     </row>
-    <row r="108" spans="1:8" ht="39" customHeight="1">
+    <row r="108" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -2545,7 +2583,7 @@
       <c r="G108" s="45"/>
       <c r="H108" s="46"/>
     </row>
-    <row r="109" spans="1:8" ht="39" customHeight="1">
+    <row r="109" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -2555,7 +2593,7 @@
       <c r="G109" s="45"/>
       <c r="H109" s="46"/>
     </row>
-    <row r="110" spans="1:8" ht="39" customHeight="1">
+    <row r="110" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -2565,7 +2603,7 @@
       <c r="G110" s="45"/>
       <c r="H110" s="46"/>
     </row>
-    <row r="111" spans="1:8" ht="39" customHeight="1">
+    <row r="111" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -2575,7 +2613,7 @@
       <c r="G111" s="45"/>
       <c r="H111" s="46"/>
     </row>
-    <row r="112" spans="1:8" ht="39" customHeight="1">
+    <row r="112" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -2585,7 +2623,7 @@
       <c r="G112" s="45"/>
       <c r="H112" s="46"/>
     </row>
-    <row r="113" spans="1:8" ht="39" customHeight="1">
+    <row r="113" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -2595,7 +2633,7 @@
       <c r="G113" s="45"/>
       <c r="H113" s="46"/>
     </row>
-    <row r="114" spans="1:8" ht="39" customHeight="1">
+    <row r="114" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -2605,7 +2643,7 @@
       <c r="G114" s="45"/>
       <c r="H114" s="46"/>
     </row>
-    <row r="115" spans="1:8" ht="39" customHeight="1">
+    <row r="115" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -2615,7 +2653,7 @@
       <c r="G115" s="45"/>
       <c r="H115" s="46"/>
     </row>
-    <row r="116" spans="1:8" ht="39" customHeight="1">
+    <row r="116" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -2625,7 +2663,7 @@
       <c r="G116" s="45"/>
       <c r="H116" s="46"/>
     </row>
-    <row r="117" spans="1:8" ht="39" customHeight="1">
+    <row r="117" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -2635,7 +2673,7 @@
       <c r="G117" s="45"/>
       <c r="H117" s="46"/>
     </row>
-    <row r="118" spans="1:8" ht="39" customHeight="1">
+    <row r="118" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -2645,7 +2683,7 @@
       <c r="G118" s="45"/>
       <c r="H118" s="46"/>
     </row>
-    <row r="119" spans="1:8" ht="39" customHeight="1">
+    <row r="119" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -2655,7 +2693,7 @@
       <c r="G119" s="45"/>
       <c r="H119" s="46"/>
     </row>
-    <row r="120" spans="1:8" ht="39" customHeight="1">
+    <row r="120" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -2665,7 +2703,7 @@
       <c r="G120" s="45"/>
       <c r="H120" s="46"/>
     </row>
-    <row r="121" spans="1:8" ht="39" customHeight="1">
+    <row r="121" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -2675,7 +2713,7 @@
       <c r="G121" s="45"/>
       <c r="H121" s="46"/>
     </row>
-    <row r="122" spans="1:8" ht="39" customHeight="1">
+    <row r="122" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -2685,7 +2723,7 @@
       <c r="G122" s="45"/>
       <c r="H122" s="46"/>
     </row>
-    <row r="123" spans="1:8" ht="39" customHeight="1">
+    <row r="123" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -2695,7 +2733,7 @@
       <c r="G123" s="45"/>
       <c r="H123" s="46"/>
     </row>
-    <row r="124" spans="1:8" ht="39" customHeight="1">
+    <row r="124" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -2705,7 +2743,7 @@
       <c r="G124" s="45"/>
       <c r="H124" s="46"/>
     </row>
-    <row r="125" spans="1:8" ht="39" customHeight="1">
+    <row r="125" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -2715,7 +2753,7 @@
       <c r="G125" s="45"/>
       <c r="H125" s="46"/>
     </row>
-    <row r="126" spans="1:8" ht="39" customHeight="1">
+    <row r="126" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -2725,7 +2763,7 @@
       <c r="G126" s="45"/>
       <c r="H126" s="46"/>
     </row>
-    <row r="127" spans="1:8" ht="39" customHeight="1">
+    <row r="127" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -2735,7 +2773,7 @@
       <c r="G127" s="45"/>
       <c r="H127" s="46"/>
     </row>
-    <row r="128" spans="1:8" ht="39" customHeight="1">
+    <row r="128" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -2745,7 +2783,7 @@
       <c r="G128" s="45"/>
       <c r="H128" s="46"/>
     </row>
-    <row r="129" spans="1:8" ht="39" customHeight="1">
+    <row r="129" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -2755,7 +2793,7 @@
       <c r="G129" s="45"/>
       <c r="H129" s="46"/>
     </row>
-    <row r="130" spans="1:8" ht="39" customHeight="1">
+    <row r="130" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -2765,7 +2803,7 @@
       <c r="G130" s="45"/>
       <c r="H130" s="46"/>
     </row>
-    <row r="131" spans="1:8" ht="39" customHeight="1">
+    <row r="131" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -2775,7 +2813,7 @@
       <c r="G131" s="45"/>
       <c r="H131" s="46"/>
     </row>
-    <row r="132" spans="1:8" ht="39" customHeight="1">
+    <row r="132" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -2785,7 +2823,7 @@
       <c r="G132" s="45"/>
       <c r="H132" s="46"/>
     </row>
-    <row r="133" spans="1:8" ht="39" customHeight="1">
+    <row r="133" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -2795,7 +2833,7 @@
       <c r="G133" s="45"/>
       <c r="H133" s="46"/>
     </row>
-    <row r="134" spans="1:8" ht="39" customHeight="1">
+    <row r="134" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -2805,7 +2843,7 @@
       <c r="G134" s="45"/>
       <c r="H134" s="46"/>
     </row>
-    <row r="135" spans="1:8" ht="39" customHeight="1">
+    <row r="135" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -2815,7 +2853,7 @@
       <c r="G135" s="45"/>
       <c r="H135" s="46"/>
     </row>
-    <row r="136" spans="1:8" ht="39" customHeight="1">
+    <row r="136" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -2825,7 +2863,7 @@
       <c r="G136" s="45"/>
       <c r="H136" s="46"/>
     </row>
-    <row r="137" spans="1:8" ht="39" customHeight="1">
+    <row r="137" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -2835,7 +2873,7 @@
       <c r="G137" s="45"/>
       <c r="H137" s="46"/>
     </row>
-    <row r="138" spans="1:8" ht="39" customHeight="1">
+    <row r="138" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -2845,7 +2883,7 @@
       <c r="G138" s="45"/>
       <c r="H138" s="46"/>
     </row>
-    <row r="139" spans="1:8" ht="39" customHeight="1">
+    <row r="139" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -2855,7 +2893,7 @@
       <c r="G139" s="45"/>
       <c r="H139" s="46"/>
     </row>
-    <row r="140" spans="1:8" ht="39" customHeight="1">
+    <row r="140" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -2865,7 +2903,7 @@
       <c r="G140" s="45"/>
       <c r="H140" s="46"/>
     </row>
-    <row r="141" spans="1:8" ht="39" customHeight="1">
+    <row r="141" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -2875,7 +2913,7 @@
       <c r="G141" s="45"/>
       <c r="H141" s="46"/>
     </row>
-    <row r="142" spans="1:8" ht="39" customHeight="1">
+    <row r="142" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -2885,7 +2923,7 @@
       <c r="G142" s="45"/>
       <c r="H142" s="46"/>
     </row>
-    <row r="143" spans="1:8" ht="39" customHeight="1">
+    <row r="143" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -2895,7 +2933,7 @@
       <c r="G143" s="45"/>
       <c r="H143" s="46"/>
     </row>
-    <row r="144" spans="1:8" ht="39" customHeight="1">
+    <row r="144" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -2905,7 +2943,7 @@
       <c r="G144" s="45"/>
       <c r="H144" s="46"/>
     </row>
-    <row r="145" spans="1:8" ht="39" customHeight="1">
+    <row r="145" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -2915,7 +2953,7 @@
       <c r="G145" s="45"/>
       <c r="H145" s="46"/>
     </row>
-    <row r="146" spans="1:8" ht="39" customHeight="1">
+    <row r="146" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -2925,7 +2963,7 @@
       <c r="G146" s="45"/>
       <c r="H146" s="46"/>
     </row>
-    <row r="147" spans="1:8" ht="39" customHeight="1">
+    <row r="147" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -2935,7 +2973,7 @@
       <c r="G147" s="45"/>
       <c r="H147" s="46"/>
     </row>
-    <row r="148" spans="1:8" ht="39" customHeight="1">
+    <row r="148" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -2945,7 +2983,7 @@
       <c r="G148" s="45"/>
       <c r="H148" s="46"/>
     </row>
-    <row r="149" spans="1:8" ht="39" customHeight="1">
+    <row r="149" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -2955,7 +2993,7 @@
       <c r="G149" s="45"/>
       <c r="H149" s="46"/>
     </row>
-    <row r="150" spans="1:8" ht="39" customHeight="1">
+    <row r="150" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -2965,7 +3003,7 @@
       <c r="G150" s="45"/>
       <c r="H150" s="46"/>
     </row>
-    <row r="151" spans="1:8" ht="39" customHeight="1">
+    <row r="151" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -2975,7 +3013,7 @@
       <c r="G151" s="45"/>
       <c r="H151" s="46"/>
     </row>
-    <row r="152" spans="1:8" ht="39" customHeight="1">
+    <row r="152" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -2985,7 +3023,7 @@
       <c r="G152" s="45"/>
       <c r="H152" s="46"/>
     </row>
-    <row r="153" spans="1:8" ht="39" customHeight="1">
+    <row r="153" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -2995,7 +3033,7 @@
       <c r="G153" s="45"/>
       <c r="H153" s="46"/>
     </row>
-    <row r="154" spans="1:8" ht="39" customHeight="1">
+    <row r="154" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -3005,7 +3043,7 @@
       <c r="G154" s="45"/>
       <c r="H154" s="46"/>
     </row>
-    <row r="155" spans="1:8" ht="39" customHeight="1">
+    <row r="155" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -3015,7 +3053,7 @@
       <c r="G155" s="45"/>
       <c r="H155" s="46"/>
     </row>
-    <row r="156" spans="1:8" ht="39" customHeight="1">
+    <row r="156" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -3025,7 +3063,7 @@
       <c r="G156" s="45"/>
       <c r="H156" s="46"/>
     </row>
-    <row r="157" spans="1:8" ht="39" customHeight="1">
+    <row r="157" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -3035,7 +3073,7 @@
       <c r="G157" s="45"/>
       <c r="H157" s="46"/>
     </row>
-    <row r="158" spans="1:8" ht="39" customHeight="1">
+    <row r="158" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -3045,7 +3083,7 @@
       <c r="G158" s="45"/>
       <c r="H158" s="46"/>
     </row>
-    <row r="159" spans="1:8" ht="39" customHeight="1">
+    <row r="159" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -3055,7 +3093,7 @@
       <c r="G159" s="45"/>
       <c r="H159" s="46"/>
     </row>
-    <row r="160" spans="1:8" ht="39" customHeight="1">
+    <row r="160" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -3065,7 +3103,7 @@
       <c r="G160" s="45"/>
       <c r="H160" s="46"/>
     </row>
-    <row r="161" spans="1:8" ht="39" customHeight="1">
+    <row r="161" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -3075,7 +3113,7 @@
       <c r="G161" s="45"/>
       <c r="H161" s="46"/>
     </row>
-    <row r="162" spans="1:8" ht="39" customHeight="1">
+    <row r="162" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -3085,7 +3123,7 @@
       <c r="G162" s="45"/>
       <c r="H162" s="46"/>
     </row>
-    <row r="163" spans="1:8" ht="39" customHeight="1">
+    <row r="163" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -3095,7 +3133,7 @@
       <c r="G163" s="45"/>
       <c r="H163" s="46"/>
     </row>
-    <row r="164" spans="1:8" ht="39" customHeight="1">
+    <row r="164" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -3105,7 +3143,7 @@
       <c r="G164" s="45"/>
       <c r="H164" s="46"/>
     </row>
-    <row r="165" spans="1:8" ht="39" customHeight="1">
+    <row r="165" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -3115,7 +3153,7 @@
       <c r="G165" s="45"/>
       <c r="H165" s="46"/>
     </row>
-    <row r="166" spans="1:8" ht="39" customHeight="1">
+    <row r="166" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -3125,7 +3163,7 @@
       <c r="G166" s="45"/>
       <c r="H166" s="46"/>
     </row>
-    <row r="167" spans="1:8" ht="39" customHeight="1">
+    <row r="167" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -3135,7 +3173,7 @@
       <c r="G167" s="45"/>
       <c r="H167" s="46"/>
     </row>
-    <row r="168" spans="1:8" ht="39" customHeight="1">
+    <row r="168" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -3145,7 +3183,7 @@
       <c r="G168" s="45"/>
       <c r="H168" s="46"/>
     </row>
-    <row r="169" spans="1:8" ht="39" customHeight="1">
+    <row r="169" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -3155,7 +3193,7 @@
       <c r="G169" s="45"/>
       <c r="H169" s="46"/>
     </row>
-    <row r="170" spans="1:8" ht="39" customHeight="1">
+    <row r="170" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -3165,7 +3203,7 @@
       <c r="G170" s="45"/>
       <c r="H170" s="46"/>
     </row>
-    <row r="171" spans="1:8" ht="39" customHeight="1">
+    <row r="171" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -3175,7 +3213,7 @@
       <c r="G171" s="45"/>
       <c r="H171" s="46"/>
     </row>
-    <row r="172" spans="1:8" ht="39" customHeight="1">
+    <row r="172" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -3185,7 +3223,7 @@
       <c r="G172" s="45"/>
       <c r="H172" s="46"/>
     </row>
-    <row r="173" spans="1:8" ht="39" customHeight="1">
+    <row r="173" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -3195,7 +3233,7 @@
       <c r="G173" s="45"/>
       <c r="H173" s="46"/>
     </row>
-    <row r="174" spans="1:8" ht="39" customHeight="1">
+    <row r="174" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -3205,7 +3243,7 @@
       <c r="G174" s="45"/>
       <c r="H174" s="46"/>
     </row>
-    <row r="175" spans="1:8" ht="39" customHeight="1">
+    <row r="175" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -3215,7 +3253,7 @@
       <c r="G175" s="45"/>
       <c r="H175" s="46"/>
     </row>
-    <row r="176" spans="1:8" ht="39" customHeight="1">
+    <row r="176" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -3225,7 +3263,7 @@
       <c r="G176" s="45"/>
       <c r="H176" s="46"/>
     </row>
-    <row r="177" spans="1:8" ht="39" customHeight="1">
+    <row r="177" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -3235,7 +3273,7 @@
       <c r="G177" s="45"/>
       <c r="H177" s="46"/>
     </row>
-    <row r="178" spans="1:8" ht="39" customHeight="1">
+    <row r="178" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -3245,7 +3283,7 @@
       <c r="G178" s="45"/>
       <c r="H178" s="46"/>
     </row>
-    <row r="179" spans="1:8" ht="39" customHeight="1">
+    <row r="179" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -3255,7 +3293,7 @@
       <c r="G179" s="45"/>
       <c r="H179" s="46"/>
     </row>
-    <row r="180" spans="1:8" ht="39" customHeight="1">
+    <row r="180" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -3265,7 +3303,7 @@
       <c r="G180" s="45"/>
       <c r="H180" s="46"/>
     </row>
-    <row r="181" spans="1:8" ht="39" customHeight="1">
+    <row r="181" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -3275,7 +3313,7 @@
       <c r="G181" s="45"/>
       <c r="H181" s="46"/>
     </row>
-    <row r="182" spans="1:8" ht="39" customHeight="1">
+    <row r="182" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -3285,7 +3323,7 @@
       <c r="G182" s="45"/>
       <c r="H182" s="46"/>
     </row>
-    <row r="183" spans="1:8" ht="39" customHeight="1">
+    <row r="183" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -3295,7 +3333,7 @@
       <c r="G183" s="45"/>
       <c r="H183" s="46"/>
     </row>
-    <row r="184" spans="1:8" ht="39" customHeight="1">
+    <row r="184" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -3305,7 +3343,7 @@
       <c r="G184" s="45"/>
       <c r="H184" s="46"/>
     </row>
-    <row r="185" spans="1:8" ht="39" customHeight="1">
+    <row r="185" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -3315,7 +3353,7 @@
       <c r="G185" s="45"/>
       <c r="H185" s="46"/>
     </row>
-    <row r="186" spans="1:8" ht="39" customHeight="1">
+    <row r="186" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -3325,7 +3363,7 @@
       <c r="G186" s="45"/>
       <c r="H186" s="46"/>
     </row>
-    <row r="187" spans="1:8" ht="39" customHeight="1">
+    <row r="187" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -3335,7 +3373,7 @@
       <c r="G187" s="45"/>
       <c r="H187" s="46"/>
     </row>
-    <row r="188" spans="1:8" ht="39" customHeight="1">
+    <row r="188" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -3345,7 +3383,7 @@
       <c r="G188" s="45"/>
       <c r="H188" s="46"/>
     </row>
-    <row r="189" spans="1:8" ht="39" customHeight="1">
+    <row r="189" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -3355,7 +3393,7 @@
       <c r="G189" s="45"/>
       <c r="H189" s="46"/>
     </row>
-    <row r="190" spans="1:8" ht="39" customHeight="1">
+    <row r="190" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -3365,7 +3403,7 @@
       <c r="G190" s="45"/>
       <c r="H190" s="46"/>
     </row>
-    <row r="191" spans="1:8" ht="39" customHeight="1">
+    <row r="191" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -3375,7 +3413,7 @@
       <c r="G191" s="45"/>
       <c r="H191" s="46"/>
     </row>
-    <row r="192" spans="1:8" ht="39" customHeight="1">
+    <row r="192" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -3385,7 +3423,7 @@
       <c r="G192" s="45"/>
       <c r="H192" s="46"/>
     </row>
-    <row r="193" spans="1:8" ht="39" customHeight="1">
+    <row r="193" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -3395,7 +3433,7 @@
       <c r="G193" s="45"/>
       <c r="H193" s="46"/>
     </row>
-    <row r="194" spans="1:8" ht="39" customHeight="1">
+    <row r="194" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -3405,7 +3443,7 @@
       <c r="G194" s="45"/>
       <c r="H194" s="46"/>
     </row>
-    <row r="195" spans="1:8" ht="39" customHeight="1">
+    <row r="195" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -3415,7 +3453,7 @@
       <c r="G195" s="45"/>
       <c r="H195" s="46"/>
     </row>
-    <row r="196" spans="1:8" ht="39" customHeight="1">
+    <row r="196" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -3425,7 +3463,7 @@
       <c r="G196" s="45"/>
       <c r="H196" s="46"/>
     </row>
-    <row r="197" spans="1:8" ht="39" customHeight="1">
+    <row r="197" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -3435,7 +3473,7 @@
       <c r="G197" s="45"/>
       <c r="H197" s="46"/>
     </row>
-    <row r="198" spans="1:8" ht="39" customHeight="1">
+    <row r="198" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -3445,7 +3483,7 @@
       <c r="G198" s="45"/>
       <c r="H198" s="46"/>
     </row>
-    <row r="199" spans="1:8" ht="39" customHeight="1">
+    <row r="199" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -3455,7 +3493,7 @@
       <c r="G199" s="45"/>
       <c r="H199" s="46"/>
     </row>
-    <row r="200" spans="1:8" ht="39" customHeight="1" thickBot="1">
+    <row r="200" spans="1:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="6"/>
       <c r="B200" s="7"/>
       <c r="C200" s="7"/>
@@ -3465,7 +3503,7 @@
       <c r="G200" s="66"/>
       <c r="H200" s="67"/>
     </row>
-    <row r="201" spans="1:8" ht="39" hidden="1" customHeight="1" thickTop="1"/>
+    <row r="201" spans="1:8" ht="39" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="204">
     <mergeCell ref="F196:H196"/>
@@ -3675,7 +3713,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.47222222222222221" right="0.56944444444444442" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="0"/>
@@ -3688,19 +3726,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="36" customHeight="1" zeroHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="36" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="21.875" style="20" customWidth="1"/>
     <col min="2" max="4" width="15" style="20" customWidth="1"/>
     <col min="5" max="5" width="16.5" style="20" customWidth="1"/>
     <col min="6" max="16384" width="15" style="20" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36" customHeight="1">
+    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>14</v>
       </c>
@@ -3711,7 +3749,7 @@
       <c r="D1" s="68"/>
       <c r="E1" s="69"/>
     </row>
-    <row r="2" spans="1:5" ht="36" customHeight="1">
+    <row r="2" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>16</v>
       </c>
@@ -3722,7 +3760,7 @@
       <c r="D2" s="70"/>
       <c r="E2" s="71"/>
     </row>
-    <row r="3" spans="1:5" ht="136" customHeight="1">
+    <row r="3" spans="1:5" ht="135.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>19</v>
       </c>
@@ -3731,25 +3769,29 @@
       <c r="D3" s="72"/>
       <c r="E3" s="73"/>
     </row>
-    <row r="4" spans="1:5" ht="46" customHeight="1">
+    <row r="4" spans="1:5" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="76"/>
+      <c r="B4" s="76">
+        <v>300</v>
+      </c>
       <c r="C4" s="77"/>
       <c r="D4" s="77"/>
       <c r="E4" s="78"/>
     </row>
-    <row r="5" spans="1:5" ht="46" customHeight="1">
+    <row r="5" spans="1:5" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="72"/>
+      <c r="B5" s="72" t="s">
+        <v>41</v>
+      </c>
       <c r="C5" s="72"/>
       <c r="D5" s="72"/>
       <c r="E5" s="73"/>
     </row>
-    <row r="6" spans="1:5" ht="46" customHeight="1">
+    <row r="6" spans="1:5" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>18</v>
       </c>
@@ -3758,16 +3800,16 @@
       <c r="D6" s="72"/>
       <c r="E6" s="73"/>
     </row>
-    <row r="7" spans="1:5" ht="46" customHeight="1">
+    <row r="7" spans="1:5" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="76"/>
       <c r="C7" s="77"/>
       <c r="D7" s="77"/>
       <c r="E7" s="78"/>
     </row>
-    <row r="8" spans="1:5" ht="51" customHeight="1" thickBot="1">
+    <row r="8" spans="1:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>30</v>
       </c>
@@ -3789,7 +3831,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="0"/>
@@ -3802,19 +3844,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="36" customHeight="1" zeroHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="36" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="2" customWidth="1"/>
-    <col min="2" max="6" width="10.83203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="2" hidden="1"/>
+    <col min="1" max="1" width="14.125" style="2" customWidth="1"/>
+    <col min="2" max="6" width="10.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="10.875" style="2" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="36" customHeight="1">
+    <row r="1" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="79" t="s">
         <v>23</v>
       </c>
@@ -3825,7 +3867,7 @@
       <c r="F1" s="80"/>
       <c r="G1" s="81"/>
     </row>
-    <row r="2" spans="1:7" ht="36" customHeight="1">
+    <row r="2" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>24</v>
       </c>
@@ -3838,7 +3880,7 @@
       <c r="F2" s="83"/>
       <c r="G2" s="84"/>
     </row>
-    <row r="3" spans="1:7" ht="36" customHeight="1">
+    <row r="3" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>25</v>
       </c>
@@ -3851,7 +3893,7 @@
       <c r="F3" s="86"/>
       <c r="G3" s="87"/>
     </row>
-    <row r="4" spans="1:7" ht="112" customHeight="1">
+    <row r="4" spans="1:7" ht="111.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>6</v>
       </c>
@@ -3864,7 +3906,7 @@
       <c r="F4" s="86"/>
       <c r="G4" s="87"/>
     </row>
-    <row r="5" spans="1:7" ht="36" customHeight="1" thickBot="1">
+    <row r="5" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>26</v>
       </c>
@@ -3875,8 +3917,8 @@
       <c r="F5" s="88"/>
       <c r="G5" s="89"/>
     </row>
-    <row r="6" spans="1:7" ht="36" customHeight="1" thickBot="1"/>
-    <row r="7" spans="1:7" ht="36" customHeight="1">
+    <row r="6" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="79" t="s">
         <v>27</v>
       </c>
@@ -3887,7 +3929,7 @@
       <c r="F7" s="80"/>
       <c r="G7" s="81"/>
     </row>
-    <row r="8" spans="1:7" ht="36" customHeight="1">
+    <row r="8" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>24</v>
       </c>
@@ -3898,7 +3940,7 @@
       <c r="F8" s="72"/>
       <c r="G8" s="73"/>
     </row>
-    <row r="9" spans="1:7" ht="36" customHeight="1">
+    <row r="9" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>25</v>
       </c>
@@ -3909,7 +3951,7 @@
       <c r="F9" s="72"/>
       <c r="G9" s="73"/>
     </row>
-    <row r="10" spans="1:7" ht="112" customHeight="1">
+    <row r="10" spans="1:7" ht="111.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>6</v>
       </c>
@@ -3920,7 +3962,7 @@
       <c r="F10" s="72"/>
       <c r="G10" s="73"/>
     </row>
-    <row r="11" spans="1:7" ht="36" customHeight="1" thickBot="1">
+    <row r="11" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>26</v>
       </c>
@@ -3931,9 +3973,9 @@
       <c r="F11" s="74"/>
       <c r="G11" s="75"/>
     </row>
-    <row r="12" spans="1:7" ht="36" customHeight="1"/>
-    <row r="13" spans="1:7" ht="36" customHeight="1" thickBot="1"/>
-    <row r="14" spans="1:7" ht="36" customHeight="1">
+    <row r="12" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="79" t="s">
         <v>28</v>
       </c>
@@ -3944,7 +3986,7 @@
       <c r="F14" s="80"/>
       <c r="G14" s="81"/>
     </row>
-    <row r="15" spans="1:7" ht="36" customHeight="1">
+    <row r="15" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>24</v>
       </c>
@@ -3955,7 +3997,7 @@
       <c r="F15" s="72"/>
       <c r="G15" s="73"/>
     </row>
-    <row r="16" spans="1:7" ht="36" customHeight="1">
+    <row r="16" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>25</v>
       </c>
@@ -3966,7 +4008,7 @@
       <c r="F16" s="72"/>
       <c r="G16" s="73"/>
     </row>
-    <row r="17" spans="1:7" ht="113" customHeight="1">
+    <row r="17" spans="1:7" ht="113.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>6</v>
       </c>
@@ -3977,7 +4019,7 @@
       <c r="F17" s="72"/>
       <c r="G17" s="73"/>
     </row>
-    <row r="18" spans="1:7" ht="36" customHeight="1" thickBot="1">
+    <row r="18" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>26</v>
       </c>
@@ -3988,8 +4030,8 @@
       <c r="F18" s="74"/>
       <c r="G18" s="75"/>
     </row>
-    <row r="19" spans="1:7" ht="36" customHeight="1"/>
-    <row r="20" spans="1:7" ht="36" hidden="1" customHeight="1"/>
+    <row r="19" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:7" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="A14:G14"/>
@@ -4010,7 +4052,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="0"/>

--- a/CH_121913_A.xlsx
+++ b/CH_121913_A.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="135" windowWidth="25605" windowHeight="16065" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="1185" yWindow="135" windowWidth="25605" windowHeight="16065" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Surgery" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>Mouse ID</t>
   </si>
@@ -160,6 +159,9 @@
   </si>
   <si>
     <t>Not a ton of data. B/C C1V1 didn't express, I mostly used the day to demo intracellular recording to Emily.</t>
+  </si>
+  <si>
+    <t>PFA Room</t>
   </si>
 </sst>
 </file>
@@ -857,6 +859,24 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -875,15 +895,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -937,15 +948,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1468,16 +1470,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="62" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
       <c r="G1" s="29" t="s">
         <v>31</v>
       </c>
@@ -1486,16 +1488,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="49" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
       <c r="G2" s="30" t="s">
         <v>31</v>
       </c>
@@ -1504,42 +1506,42 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="48">
+      <c r="B3" s="62"/>
+      <c r="C3" s="51">
         <v>34</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="51"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="54"/>
     </row>
     <row r="4" spans="1:8" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="52" t="s">
+      <c r="B4" s="64"/>
+      <c r="C4" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="55"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="58"/>
     </row>
     <row r="5" spans="1:8" ht="26.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
     </row>
     <row r="6" spans="1:8" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -1557,11 +1559,11 @@
       <c r="E6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="39"/>
-      <c r="H6" s="40"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="46"/>
     </row>
     <row r="7" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -1569,9 +1571,9 @@
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="E7" s="26"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="43"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="49"/>
     </row>
     <row r="8" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
@@ -1579,9 +1581,9 @@
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="E8" s="26"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="46"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="40"/>
     </row>
     <row r="9" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -1589,9 +1591,9 @@
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
       <c r="E9" s="26"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="46"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="40"/>
     </row>
     <row r="10" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
@@ -1599,9 +1601,9 @@
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
       <c r="E10" s="26"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="46"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="40"/>
     </row>
     <row r="11" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
@@ -1609,9 +1611,9 @@
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
       <c r="E11" s="26"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="46"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="40"/>
     </row>
     <row r="12" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -1619,9 +1621,9 @@
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
       <c r="E12" s="26"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="46"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="40"/>
     </row>
     <row r="13" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
@@ -1629,9 +1631,9 @@
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
       <c r="E13" s="26"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="46"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
@@ -1639,9 +1641,9 @@
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
       <c r="E14" s="26"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="46"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="40"/>
     </row>
     <row r="15" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -1649,9 +1651,9 @@
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
       <c r="E15" s="26"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="46"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="40"/>
     </row>
     <row r="16" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
@@ -1659,9 +1661,9 @@
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
       <c r="E16" s="26"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="46"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="40"/>
     </row>
     <row r="17" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
@@ -1669,9 +1671,9 @@
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
       <c r="E17" s="26"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="46"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="40"/>
     </row>
     <row r="18" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
@@ -1679,9 +1681,9 @@
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
       <c r="E18" s="26"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="46"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
     </row>
     <row r="19" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
@@ -1689,9 +1691,9 @@
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
       <c r="E19" s="26"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="46"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="40"/>
     </row>
     <row r="20" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
@@ -1699,9 +1701,9 @@
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
       <c r="E20" s="26"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="46"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="40"/>
     </row>
     <row r="21" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
@@ -1709,9 +1711,9 @@
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
       <c r="E21" s="26"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="46"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="40"/>
     </row>
     <row r="22" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
@@ -1719,9 +1721,9 @@
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
       <c r="E22" s="26"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="46"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="40"/>
     </row>
     <row r="23" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
@@ -1729,9 +1731,9 @@
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
       <c r="E23" s="26"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="46"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="40"/>
     </row>
     <row r="24" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
@@ -1739,9 +1741,9 @@
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
       <c r="E24" s="26"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="46"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="40"/>
     </row>
     <row r="25" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
@@ -1749,9 +1751,9 @@
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
       <c r="E25" s="26"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="46"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="40"/>
     </row>
     <row r="26" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
@@ -1759,9 +1761,9 @@
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
       <c r="E26" s="26"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="46"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="40"/>
     </row>
     <row r="27" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
@@ -1769,9 +1771,9 @@
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
       <c r="E27" s="26"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="46"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="40"/>
     </row>
     <row r="28" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
@@ -1779,9 +1781,9 @@
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
       <c r="E28" s="26"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="46"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="40"/>
     </row>
     <row r="29" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
@@ -1789,9 +1791,9 @@
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
       <c r="E29" s="26"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="46"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="40"/>
     </row>
     <row r="30" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
@@ -1799,9 +1801,9 @@
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
       <c r="E30" s="26"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="46"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="40"/>
     </row>
     <row r="31" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
@@ -1809,9 +1811,9 @@
       <c r="C31" s="4"/>
       <c r="D31" s="5"/>
       <c r="E31" s="26"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="46"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="40"/>
     </row>
     <row r="32" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
@@ -1819,9 +1821,9 @@
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
       <c r="E32" s="26"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="46"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="40"/>
     </row>
     <row r="33" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
@@ -1829,9 +1831,9 @@
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
       <c r="E33" s="26"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="46"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="40"/>
     </row>
     <row r="34" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
@@ -1839,9 +1841,9 @@
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
       <c r="E34" s="26"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="46"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="40"/>
     </row>
     <row r="35" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
@@ -1849,9 +1851,9 @@
       <c r="C35" s="4"/>
       <c r="D35" s="5"/>
       <c r="E35" s="26"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="46"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="40"/>
     </row>
     <row r="36" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
@@ -1859,9 +1861,9 @@
       <c r="C36" s="4"/>
       <c r="D36" s="5"/>
       <c r="E36" s="26"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="46"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="40"/>
     </row>
     <row r="37" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
@@ -1869,9 +1871,9 @@
       <c r="C37" s="4"/>
       <c r="D37" s="5"/>
       <c r="E37" s="26"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="46"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="40"/>
     </row>
     <row r="38" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
@@ -1879,9 +1881,9 @@
       <c r="C38" s="4"/>
       <c r="D38" s="5"/>
       <c r="E38" s="26"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="46"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="40"/>
     </row>
     <row r="39" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
@@ -1889,9 +1891,9 @@
       <c r="C39" s="4"/>
       <c r="D39" s="5"/>
       <c r="E39" s="26"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="46"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="40"/>
     </row>
     <row r="40" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
@@ -1899,9 +1901,9 @@
       <c r="C40" s="4"/>
       <c r="D40" s="5"/>
       <c r="E40" s="26"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="46"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="40"/>
     </row>
     <row r="41" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
@@ -1909,9 +1911,9 @@
       <c r="C41" s="4"/>
       <c r="D41" s="5"/>
       <c r="E41" s="26"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="46"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="40"/>
     </row>
     <row r="42" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
@@ -1919,9 +1921,9 @@
       <c r="C42" s="4"/>
       <c r="D42" s="5"/>
       <c r="E42" s="26"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="46"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="40"/>
     </row>
     <row r="43" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
@@ -1929,9 +1931,9 @@
       <c r="C43" s="4"/>
       <c r="D43" s="5"/>
       <c r="E43" s="26"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="46"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="40"/>
     </row>
     <row r="44" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
@@ -1939,9 +1941,9 @@
       <c r="C44" s="4"/>
       <c r="D44" s="5"/>
       <c r="E44" s="26"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="46"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="40"/>
     </row>
     <row r="45" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
@@ -1949,9 +1951,9 @@
       <c r="C45" s="4"/>
       <c r="D45" s="5"/>
       <c r="E45" s="26"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="46"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="40"/>
     </row>
     <row r="46" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
@@ -1959,9 +1961,9 @@
       <c r="C46" s="4"/>
       <c r="D46" s="5"/>
       <c r="E46" s="26"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="46"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="40"/>
     </row>
     <row r="47" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
@@ -1969,9 +1971,9 @@
       <c r="C47" s="4"/>
       <c r="D47" s="5"/>
       <c r="E47" s="26"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="46"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="40"/>
     </row>
     <row r="48" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
@@ -1979,9 +1981,9 @@
       <c r="C48" s="4"/>
       <c r="D48" s="5"/>
       <c r="E48" s="26"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="46"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="40"/>
     </row>
     <row r="49" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
@@ -1989,9 +1991,9 @@
       <c r="C49" s="4"/>
       <c r="D49" s="5"/>
       <c r="E49" s="26"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="46"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="40"/>
     </row>
     <row r="50" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
@@ -1999,9 +2001,9 @@
       <c r="C50" s="4"/>
       <c r="D50" s="5"/>
       <c r="E50" s="26"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="46"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="40"/>
     </row>
     <row r="51" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
@@ -2009,9 +2011,9 @@
       <c r="C51" s="4"/>
       <c r="D51" s="5"/>
       <c r="E51" s="26"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="46"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="40"/>
     </row>
     <row r="52" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
@@ -2019,9 +2021,9 @@
       <c r="C52" s="4"/>
       <c r="D52" s="5"/>
       <c r="E52" s="26"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="46"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="40"/>
     </row>
     <row r="53" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
@@ -2029,9 +2031,9 @@
       <c r="C53" s="4"/>
       <c r="D53" s="5"/>
       <c r="E53" s="26"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="46"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="40"/>
     </row>
     <row r="54" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
@@ -2039,9 +2041,9 @@
       <c r="C54" s="4"/>
       <c r="D54" s="5"/>
       <c r="E54" s="26"/>
-      <c r="F54" s="44"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="46"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="40"/>
     </row>
     <row r="55" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
@@ -2049,9 +2051,9 @@
       <c r="C55" s="4"/>
       <c r="D55" s="5"/>
       <c r="E55" s="26"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="46"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="40"/>
     </row>
     <row r="56" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
@@ -2059,9 +2061,9 @@
       <c r="C56" s="4"/>
       <c r="D56" s="5"/>
       <c r="E56" s="26"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="46"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="40"/>
     </row>
     <row r="57" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
@@ -2069,9 +2071,9 @@
       <c r="C57" s="4"/>
       <c r="D57" s="5"/>
       <c r="E57" s="26"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="46"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="40"/>
     </row>
     <row r="58" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
@@ -2079,9 +2081,9 @@
       <c r="C58" s="4"/>
       <c r="D58" s="5"/>
       <c r="E58" s="26"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="46"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="40"/>
     </row>
     <row r="59" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
@@ -2089,9 +2091,9 @@
       <c r="C59" s="4"/>
       <c r="D59" s="5"/>
       <c r="E59" s="26"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="45"/>
-      <c r="H59" s="46"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="40"/>
     </row>
     <row r="60" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
@@ -2099,9 +2101,9 @@
       <c r="C60" s="4"/>
       <c r="D60" s="5"/>
       <c r="E60" s="26"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="45"/>
-      <c r="H60" s="46"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="40"/>
     </row>
     <row r="61" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
@@ -2109,9 +2111,9 @@
       <c r="C61" s="4"/>
       <c r="D61" s="5"/>
       <c r="E61" s="26"/>
-      <c r="F61" s="44"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="46"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="40"/>
     </row>
     <row r="62" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
@@ -2119,9 +2121,9 @@
       <c r="C62" s="4"/>
       <c r="D62" s="5"/>
       <c r="E62" s="26"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="45"/>
-      <c r="H62" s="46"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="40"/>
     </row>
     <row r="63" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
@@ -2129,9 +2131,9 @@
       <c r="C63" s="4"/>
       <c r="D63" s="5"/>
       <c r="E63" s="26"/>
-      <c r="F63" s="44"/>
-      <c r="G63" s="45"/>
-      <c r="H63" s="46"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="40"/>
     </row>
     <row r="64" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
@@ -2139,9 +2141,9 @@
       <c r="C64" s="4"/>
       <c r="D64" s="5"/>
       <c r="E64" s="26"/>
-      <c r="F64" s="44"/>
-      <c r="G64" s="45"/>
-      <c r="H64" s="46"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="40"/>
     </row>
     <row r="65" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
@@ -2149,9 +2151,9 @@
       <c r="C65" s="4"/>
       <c r="D65" s="5"/>
       <c r="E65" s="26"/>
-      <c r="F65" s="44"/>
-      <c r="G65" s="45"/>
-      <c r="H65" s="46"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="40"/>
     </row>
     <row r="66" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
@@ -2159,9 +2161,9 @@
       <c r="C66" s="4"/>
       <c r="D66" s="5"/>
       <c r="E66" s="26"/>
-      <c r="F66" s="44"/>
-      <c r="G66" s="45"/>
-      <c r="H66" s="46"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="40"/>
     </row>
     <row r="67" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
@@ -2169,9 +2171,9 @@
       <c r="C67" s="4"/>
       <c r="D67" s="5"/>
       <c r="E67" s="26"/>
-      <c r="F67" s="44"/>
-      <c r="G67" s="45"/>
-      <c r="H67" s="46"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="40"/>
     </row>
     <row r="68" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
@@ -2179,9 +2181,9 @@
       <c r="C68" s="4"/>
       <c r="D68" s="5"/>
       <c r="E68" s="26"/>
-      <c r="F68" s="44"/>
-      <c r="G68" s="45"/>
-      <c r="H68" s="46"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="40"/>
     </row>
     <row r="69" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
@@ -2189,9 +2191,9 @@
       <c r="C69" s="4"/>
       <c r="D69" s="5"/>
       <c r="E69" s="26"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="45"/>
-      <c r="H69" s="46"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="40"/>
     </row>
     <row r="70" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
@@ -2199,9 +2201,9 @@
       <c r="C70" s="4"/>
       <c r="D70" s="5"/>
       <c r="E70" s="26"/>
-      <c r="F70" s="44"/>
-      <c r="G70" s="45"/>
-      <c r="H70" s="46"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="40"/>
     </row>
     <row r="71" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
@@ -2209,9 +2211,9 @@
       <c r="C71" s="4"/>
       <c r="D71" s="5"/>
       <c r="E71" s="26"/>
-      <c r="F71" s="44"/>
-      <c r="G71" s="45"/>
-      <c r="H71" s="46"/>
+      <c r="F71" s="38"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="40"/>
     </row>
     <row r="72" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
@@ -2219,9 +2221,9 @@
       <c r="C72" s="4"/>
       <c r="D72" s="5"/>
       <c r="E72" s="26"/>
-      <c r="F72" s="44"/>
-      <c r="G72" s="45"/>
-      <c r="H72" s="46"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="40"/>
     </row>
     <row r="73" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
@@ -2229,9 +2231,9 @@
       <c r="C73" s="4"/>
       <c r="D73" s="5"/>
       <c r="E73" s="26"/>
-      <c r="F73" s="44"/>
-      <c r="G73" s="45"/>
-      <c r="H73" s="46"/>
+      <c r="F73" s="38"/>
+      <c r="G73" s="39"/>
+      <c r="H73" s="40"/>
     </row>
     <row r="74" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
@@ -2239,9 +2241,9 @@
       <c r="C74" s="4"/>
       <c r="D74" s="5"/>
       <c r="E74" s="26"/>
-      <c r="F74" s="44"/>
-      <c r="G74" s="45"/>
-      <c r="H74" s="46"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="40"/>
     </row>
     <row r="75" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
@@ -2249,9 +2251,9 @@
       <c r="C75" s="4"/>
       <c r="D75" s="5"/>
       <c r="E75" s="26"/>
-      <c r="F75" s="44"/>
-      <c r="G75" s="45"/>
-      <c r="H75" s="46"/>
+      <c r="F75" s="38"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="40"/>
     </row>
     <row r="76" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
@@ -2259,9 +2261,9 @@
       <c r="C76" s="4"/>
       <c r="D76" s="5"/>
       <c r="E76" s="26"/>
-      <c r="F76" s="44"/>
-      <c r="G76" s="45"/>
-      <c r="H76" s="46"/>
+      <c r="F76" s="38"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="40"/>
     </row>
     <row r="77" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
@@ -2269,9 +2271,9 @@
       <c r="C77" s="4"/>
       <c r="D77" s="5"/>
       <c r="E77" s="26"/>
-      <c r="F77" s="44"/>
-      <c r="G77" s="45"/>
-      <c r="H77" s="46"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="39"/>
+      <c r="H77" s="40"/>
     </row>
     <row r="78" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
@@ -2279,9 +2281,9 @@
       <c r="C78" s="4"/>
       <c r="D78" s="5"/>
       <c r="E78" s="26"/>
-      <c r="F78" s="44"/>
-      <c r="G78" s="45"/>
-      <c r="H78" s="46"/>
+      <c r="F78" s="38"/>
+      <c r="G78" s="39"/>
+      <c r="H78" s="40"/>
     </row>
     <row r="79" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
@@ -2289,9 +2291,9 @@
       <c r="C79" s="4"/>
       <c r="D79" s="5"/>
       <c r="E79" s="26"/>
-      <c r="F79" s="44"/>
-      <c r="G79" s="45"/>
-      <c r="H79" s="46"/>
+      <c r="F79" s="38"/>
+      <c r="G79" s="39"/>
+      <c r="H79" s="40"/>
     </row>
     <row r="80" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
@@ -2299,9 +2301,9 @@
       <c r="C80" s="4"/>
       <c r="D80" s="5"/>
       <c r="E80" s="26"/>
-      <c r="F80" s="44"/>
-      <c r="G80" s="45"/>
-      <c r="H80" s="46"/>
+      <c r="F80" s="38"/>
+      <c r="G80" s="39"/>
+      <c r="H80" s="40"/>
     </row>
     <row r="81" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
@@ -2309,9 +2311,9 @@
       <c r="C81" s="4"/>
       <c r="D81" s="5"/>
       <c r="E81" s="26"/>
-      <c r="F81" s="44"/>
-      <c r="G81" s="45"/>
-      <c r="H81" s="46"/>
+      <c r="F81" s="38"/>
+      <c r="G81" s="39"/>
+      <c r="H81" s="40"/>
     </row>
     <row r="82" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
@@ -2319,9 +2321,9 @@
       <c r="C82" s="4"/>
       <c r="D82" s="5"/>
       <c r="E82" s="26"/>
-      <c r="F82" s="44"/>
-      <c r="G82" s="45"/>
-      <c r="H82" s="46"/>
+      <c r="F82" s="38"/>
+      <c r="G82" s="39"/>
+      <c r="H82" s="40"/>
     </row>
     <row r="83" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
@@ -2329,9 +2331,9 @@
       <c r="C83" s="4"/>
       <c r="D83" s="5"/>
       <c r="E83" s="26"/>
-      <c r="F83" s="44"/>
-      <c r="G83" s="45"/>
-      <c r="H83" s="46"/>
+      <c r="F83" s="38"/>
+      <c r="G83" s="39"/>
+      <c r="H83" s="40"/>
     </row>
     <row r="84" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
@@ -2339,9 +2341,9 @@
       <c r="C84" s="4"/>
       <c r="D84" s="5"/>
       <c r="E84" s="26"/>
-      <c r="F84" s="44"/>
-      <c r="G84" s="45"/>
-      <c r="H84" s="46"/>
+      <c r="F84" s="38"/>
+      <c r="G84" s="39"/>
+      <c r="H84" s="40"/>
     </row>
     <row r="85" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
@@ -2349,9 +2351,9 @@
       <c r="C85" s="4"/>
       <c r="D85" s="5"/>
       <c r="E85" s="26"/>
-      <c r="F85" s="44"/>
-      <c r="G85" s="45"/>
-      <c r="H85" s="46"/>
+      <c r="F85" s="38"/>
+      <c r="G85" s="39"/>
+      <c r="H85" s="40"/>
     </row>
     <row r="86" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
@@ -2359,9 +2361,9 @@
       <c r="C86" s="4"/>
       <c r="D86" s="5"/>
       <c r="E86" s="26"/>
-      <c r="F86" s="44"/>
-      <c r="G86" s="45"/>
-      <c r="H86" s="46"/>
+      <c r="F86" s="38"/>
+      <c r="G86" s="39"/>
+      <c r="H86" s="40"/>
     </row>
     <row r="87" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
@@ -2369,9 +2371,9 @@
       <c r="C87" s="4"/>
       <c r="D87" s="5"/>
       <c r="E87" s="26"/>
-      <c r="F87" s="44"/>
-      <c r="G87" s="45"/>
-      <c r="H87" s="46"/>
+      <c r="F87" s="38"/>
+      <c r="G87" s="39"/>
+      <c r="H87" s="40"/>
     </row>
     <row r="88" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
@@ -2379,9 +2381,9 @@
       <c r="C88" s="4"/>
       <c r="D88" s="5"/>
       <c r="E88" s="26"/>
-      <c r="F88" s="44"/>
-      <c r="G88" s="45"/>
-      <c r="H88" s="46"/>
+      <c r="F88" s="38"/>
+      <c r="G88" s="39"/>
+      <c r="H88" s="40"/>
     </row>
     <row r="89" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
@@ -2389,9 +2391,9 @@
       <c r="C89" s="4"/>
       <c r="D89" s="5"/>
       <c r="E89" s="26"/>
-      <c r="F89" s="44"/>
-      <c r="G89" s="45"/>
-      <c r="H89" s="46"/>
+      <c r="F89" s="38"/>
+      <c r="G89" s="39"/>
+      <c r="H89" s="40"/>
     </row>
     <row r="90" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
@@ -2399,9 +2401,9 @@
       <c r="C90" s="4"/>
       <c r="D90" s="5"/>
       <c r="E90" s="26"/>
-      <c r="F90" s="44"/>
-      <c r="G90" s="45"/>
-      <c r="H90" s="46"/>
+      <c r="F90" s="38"/>
+      <c r="G90" s="39"/>
+      <c r="H90" s="40"/>
     </row>
     <row r="91" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
@@ -2409,9 +2411,9 @@
       <c r="C91" s="4"/>
       <c r="D91" s="5"/>
       <c r="E91" s="26"/>
-      <c r="F91" s="44"/>
-      <c r="G91" s="45"/>
-      <c r="H91" s="46"/>
+      <c r="F91" s="38"/>
+      <c r="G91" s="39"/>
+      <c r="H91" s="40"/>
     </row>
     <row r="92" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
@@ -2419,9 +2421,9 @@
       <c r="C92" s="4"/>
       <c r="D92" s="5"/>
       <c r="E92" s="26"/>
-      <c r="F92" s="44"/>
-      <c r="G92" s="45"/>
-      <c r="H92" s="46"/>
+      <c r="F92" s="38"/>
+      <c r="G92" s="39"/>
+      <c r="H92" s="40"/>
     </row>
     <row r="93" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
@@ -2429,9 +2431,9 @@
       <c r="C93" s="4"/>
       <c r="D93" s="5"/>
       <c r="E93" s="26"/>
-      <c r="F93" s="44"/>
-      <c r="G93" s="45"/>
-      <c r="H93" s="46"/>
+      <c r="F93" s="38"/>
+      <c r="G93" s="39"/>
+      <c r="H93" s="40"/>
     </row>
     <row r="94" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
@@ -2439,9 +2441,9 @@
       <c r="C94" s="4"/>
       <c r="D94" s="5"/>
       <c r="E94" s="26"/>
-      <c r="F94" s="44"/>
-      <c r="G94" s="45"/>
-      <c r="H94" s="46"/>
+      <c r="F94" s="38"/>
+      <c r="G94" s="39"/>
+      <c r="H94" s="40"/>
     </row>
     <row r="95" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
@@ -2449,9 +2451,9 @@
       <c r="C95" s="4"/>
       <c r="D95" s="5"/>
       <c r="E95" s="26"/>
-      <c r="F95" s="44"/>
-      <c r="G95" s="45"/>
-      <c r="H95" s="46"/>
+      <c r="F95" s="38"/>
+      <c r="G95" s="39"/>
+      <c r="H95" s="40"/>
     </row>
     <row r="96" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
@@ -2459,9 +2461,9 @@
       <c r="C96" s="4"/>
       <c r="D96" s="5"/>
       <c r="E96" s="26"/>
-      <c r="F96" s="44"/>
-      <c r="G96" s="45"/>
-      <c r="H96" s="46"/>
+      <c r="F96" s="38"/>
+      <c r="G96" s="39"/>
+      <c r="H96" s="40"/>
     </row>
     <row r="97" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
@@ -2469,9 +2471,9 @@
       <c r="C97" s="4"/>
       <c r="D97" s="5"/>
       <c r="E97" s="26"/>
-      <c r="F97" s="44"/>
-      <c r="G97" s="45"/>
-      <c r="H97" s="46"/>
+      <c r="F97" s="38"/>
+      <c r="G97" s="39"/>
+      <c r="H97" s="40"/>
     </row>
     <row r="98" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
@@ -2479,9 +2481,9 @@
       <c r="C98" s="4"/>
       <c r="D98" s="5"/>
       <c r="E98" s="26"/>
-      <c r="F98" s="44"/>
-      <c r="G98" s="45"/>
-      <c r="H98" s="46"/>
+      <c r="F98" s="38"/>
+      <c r="G98" s="39"/>
+      <c r="H98" s="40"/>
     </row>
     <row r="99" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
@@ -2489,9 +2491,9 @@
       <c r="C99" s="4"/>
       <c r="D99" s="5"/>
       <c r="E99" s="26"/>
-      <c r="F99" s="44"/>
-      <c r="G99" s="45"/>
-      <c r="H99" s="46"/>
+      <c r="F99" s="38"/>
+      <c r="G99" s="39"/>
+      <c r="H99" s="40"/>
     </row>
     <row r="100" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
@@ -2499,9 +2501,9 @@
       <c r="C100" s="4"/>
       <c r="D100" s="5"/>
       <c r="E100" s="26"/>
-      <c r="F100" s="44"/>
-      <c r="G100" s="45"/>
-      <c r="H100" s="46"/>
+      <c r="F100" s="38"/>
+      <c r="G100" s="39"/>
+      <c r="H100" s="40"/>
     </row>
     <row r="101" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
@@ -2509,9 +2511,9 @@
       <c r="C101" s="4"/>
       <c r="D101" s="5"/>
       <c r="E101" s="26"/>
-      <c r="F101" s="44"/>
-      <c r="G101" s="45"/>
-      <c r="H101" s="46"/>
+      <c r="F101" s="38"/>
+      <c r="G101" s="39"/>
+      <c r="H101" s="40"/>
     </row>
     <row r="102" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
@@ -2519,9 +2521,9 @@
       <c r="C102" s="4"/>
       <c r="D102" s="5"/>
       <c r="E102" s="26"/>
-      <c r="F102" s="44"/>
-      <c r="G102" s="45"/>
-      <c r="H102" s="46"/>
+      <c r="F102" s="38"/>
+      <c r="G102" s="39"/>
+      <c r="H102" s="40"/>
     </row>
     <row r="103" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
@@ -2529,9 +2531,9 @@
       <c r="C103" s="4"/>
       <c r="D103" s="5"/>
       <c r="E103" s="26"/>
-      <c r="F103" s="44"/>
-      <c r="G103" s="45"/>
-      <c r="H103" s="46"/>
+      <c r="F103" s="38"/>
+      <c r="G103" s="39"/>
+      <c r="H103" s="40"/>
     </row>
     <row r="104" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
@@ -2539,9 +2541,9 @@
       <c r="C104" s="4"/>
       <c r="D104" s="5"/>
       <c r="E104" s="26"/>
-      <c r="F104" s="44"/>
-      <c r="G104" s="45"/>
-      <c r="H104" s="46"/>
+      <c r="F104" s="38"/>
+      <c r="G104" s="39"/>
+      <c r="H104" s="40"/>
     </row>
     <row r="105" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
@@ -2549,9 +2551,9 @@
       <c r="C105" s="4"/>
       <c r="D105" s="5"/>
       <c r="E105" s="26"/>
-      <c r="F105" s="44"/>
-      <c r="G105" s="45"/>
-      <c r="H105" s="46"/>
+      <c r="F105" s="38"/>
+      <c r="G105" s="39"/>
+      <c r="H105" s="40"/>
     </row>
     <row r="106" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
@@ -2559,9 +2561,9 @@
       <c r="C106" s="4"/>
       <c r="D106" s="5"/>
       <c r="E106" s="26"/>
-      <c r="F106" s="44"/>
-      <c r="G106" s="45"/>
-      <c r="H106" s="46"/>
+      <c r="F106" s="38"/>
+      <c r="G106" s="39"/>
+      <c r="H106" s="40"/>
     </row>
     <row r="107" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
@@ -2569,9 +2571,9 @@
       <c r="C107" s="4"/>
       <c r="D107" s="5"/>
       <c r="E107" s="26"/>
-      <c r="F107" s="44"/>
-      <c r="G107" s="45"/>
-      <c r="H107" s="46"/>
+      <c r="F107" s="38"/>
+      <c r="G107" s="39"/>
+      <c r="H107" s="40"/>
     </row>
     <row r="108" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
@@ -2579,9 +2581,9 @@
       <c r="C108" s="4"/>
       <c r="D108" s="5"/>
       <c r="E108" s="26"/>
-      <c r="F108" s="44"/>
-      <c r="G108" s="45"/>
-      <c r="H108" s="46"/>
+      <c r="F108" s="38"/>
+      <c r="G108" s="39"/>
+      <c r="H108" s="40"/>
     </row>
     <row r="109" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
@@ -2589,9 +2591,9 @@
       <c r="C109" s="4"/>
       <c r="D109" s="5"/>
       <c r="E109" s="26"/>
-      <c r="F109" s="44"/>
-      <c r="G109" s="45"/>
-      <c r="H109" s="46"/>
+      <c r="F109" s="38"/>
+      <c r="G109" s="39"/>
+      <c r="H109" s="40"/>
     </row>
     <row r="110" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
@@ -2599,9 +2601,9 @@
       <c r="C110" s="4"/>
       <c r="D110" s="5"/>
       <c r="E110" s="26"/>
-      <c r="F110" s="44"/>
-      <c r="G110" s="45"/>
-      <c r="H110" s="46"/>
+      <c r="F110" s="38"/>
+      <c r="G110" s="39"/>
+      <c r="H110" s="40"/>
     </row>
     <row r="111" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
@@ -2609,9 +2611,9 @@
       <c r="C111" s="4"/>
       <c r="D111" s="5"/>
       <c r="E111" s="26"/>
-      <c r="F111" s="44"/>
-      <c r="G111" s="45"/>
-      <c r="H111" s="46"/>
+      <c r="F111" s="38"/>
+      <c r="G111" s="39"/>
+      <c r="H111" s="40"/>
     </row>
     <row r="112" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
@@ -2619,9 +2621,9 @@
       <c r="C112" s="4"/>
       <c r="D112" s="5"/>
       <c r="E112" s="26"/>
-      <c r="F112" s="44"/>
-      <c r="G112" s="45"/>
-      <c r="H112" s="46"/>
+      <c r="F112" s="38"/>
+      <c r="G112" s="39"/>
+      <c r="H112" s="40"/>
     </row>
     <row r="113" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
@@ -2629,9 +2631,9 @@
       <c r="C113" s="4"/>
       <c r="D113" s="5"/>
       <c r="E113" s="26"/>
-      <c r="F113" s="44"/>
-      <c r="G113" s="45"/>
-      <c r="H113" s="46"/>
+      <c r="F113" s="38"/>
+      <c r="G113" s="39"/>
+      <c r="H113" s="40"/>
     </row>
     <row r="114" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
@@ -2639,9 +2641,9 @@
       <c r="C114" s="4"/>
       <c r="D114" s="5"/>
       <c r="E114" s="26"/>
-      <c r="F114" s="44"/>
-      <c r="G114" s="45"/>
-      <c r="H114" s="46"/>
+      <c r="F114" s="38"/>
+      <c r="G114" s="39"/>
+      <c r="H114" s="40"/>
     </row>
     <row r="115" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
@@ -2649,9 +2651,9 @@
       <c r="C115" s="4"/>
       <c r="D115" s="5"/>
       <c r="E115" s="26"/>
-      <c r="F115" s="44"/>
-      <c r="G115" s="45"/>
-      <c r="H115" s="46"/>
+      <c r="F115" s="38"/>
+      <c r="G115" s="39"/>
+      <c r="H115" s="40"/>
     </row>
     <row r="116" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
@@ -2659,9 +2661,9 @@
       <c r="C116" s="4"/>
       <c r="D116" s="5"/>
       <c r="E116" s="26"/>
-      <c r="F116" s="44"/>
-      <c r="G116" s="45"/>
-      <c r="H116" s="46"/>
+      <c r="F116" s="38"/>
+      <c r="G116" s="39"/>
+      <c r="H116" s="40"/>
     </row>
     <row r="117" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
@@ -2669,9 +2671,9 @@
       <c r="C117" s="4"/>
       <c r="D117" s="5"/>
       <c r="E117" s="26"/>
-      <c r="F117" s="44"/>
-      <c r="G117" s="45"/>
-      <c r="H117" s="46"/>
+      <c r="F117" s="38"/>
+      <c r="G117" s="39"/>
+      <c r="H117" s="40"/>
     </row>
     <row r="118" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
@@ -2679,9 +2681,9 @@
       <c r="C118" s="4"/>
       <c r="D118" s="5"/>
       <c r="E118" s="26"/>
-      <c r="F118" s="44"/>
-      <c r="G118" s="45"/>
-      <c r="H118" s="46"/>
+      <c r="F118" s="38"/>
+      <c r="G118" s="39"/>
+      <c r="H118" s="40"/>
     </row>
     <row r="119" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
@@ -2689,9 +2691,9 @@
       <c r="C119" s="4"/>
       <c r="D119" s="5"/>
       <c r="E119" s="26"/>
-      <c r="F119" s="44"/>
-      <c r="G119" s="45"/>
-      <c r="H119" s="46"/>
+      <c r="F119" s="38"/>
+      <c r="G119" s="39"/>
+      <c r="H119" s="40"/>
     </row>
     <row r="120" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
@@ -2699,9 +2701,9 @@
       <c r="C120" s="4"/>
       <c r="D120" s="5"/>
       <c r="E120" s="26"/>
-      <c r="F120" s="44"/>
-      <c r="G120" s="45"/>
-      <c r="H120" s="46"/>
+      <c r="F120" s="38"/>
+      <c r="G120" s="39"/>
+      <c r="H120" s="40"/>
     </row>
     <row r="121" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
@@ -2709,9 +2711,9 @@
       <c r="C121" s="4"/>
       <c r="D121" s="5"/>
       <c r="E121" s="26"/>
-      <c r="F121" s="44"/>
-      <c r="G121" s="45"/>
-      <c r="H121" s="46"/>
+      <c r="F121" s="38"/>
+      <c r="G121" s="39"/>
+      <c r="H121" s="40"/>
     </row>
     <row r="122" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
@@ -2719,9 +2721,9 @@
       <c r="C122" s="4"/>
       <c r="D122" s="5"/>
       <c r="E122" s="26"/>
-      <c r="F122" s="44"/>
-      <c r="G122" s="45"/>
-      <c r="H122" s="46"/>
+      <c r="F122" s="38"/>
+      <c r="G122" s="39"/>
+      <c r="H122" s="40"/>
     </row>
     <row r="123" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
@@ -2729,9 +2731,9 @@
       <c r="C123" s="4"/>
       <c r="D123" s="5"/>
       <c r="E123" s="26"/>
-      <c r="F123" s="44"/>
-      <c r="G123" s="45"/>
-      <c r="H123" s="46"/>
+      <c r="F123" s="38"/>
+      <c r="G123" s="39"/>
+      <c r="H123" s="40"/>
     </row>
     <row r="124" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
@@ -2739,9 +2741,9 @@
       <c r="C124" s="4"/>
       <c r="D124" s="5"/>
       <c r="E124" s="26"/>
-      <c r="F124" s="44"/>
-      <c r="G124" s="45"/>
-      <c r="H124" s="46"/>
+      <c r="F124" s="38"/>
+      <c r="G124" s="39"/>
+      <c r="H124" s="40"/>
     </row>
     <row r="125" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
@@ -2749,9 +2751,9 @@
       <c r="C125" s="4"/>
       <c r="D125" s="5"/>
       <c r="E125" s="26"/>
-      <c r="F125" s="44"/>
-      <c r="G125" s="45"/>
-      <c r="H125" s="46"/>
+      <c r="F125" s="38"/>
+      <c r="G125" s="39"/>
+      <c r="H125" s="40"/>
     </row>
     <row r="126" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
@@ -2759,9 +2761,9 @@
       <c r="C126" s="4"/>
       <c r="D126" s="5"/>
       <c r="E126" s="26"/>
-      <c r="F126" s="44"/>
-      <c r="G126" s="45"/>
-      <c r="H126" s="46"/>
+      <c r="F126" s="38"/>
+      <c r="G126" s="39"/>
+      <c r="H126" s="40"/>
     </row>
     <row r="127" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
@@ -2769,9 +2771,9 @@
       <c r="C127" s="4"/>
       <c r="D127" s="5"/>
       <c r="E127" s="26"/>
-      <c r="F127" s="44"/>
-      <c r="G127" s="45"/>
-      <c r="H127" s="46"/>
+      <c r="F127" s="38"/>
+      <c r="G127" s="39"/>
+      <c r="H127" s="40"/>
     </row>
     <row r="128" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
@@ -2779,9 +2781,9 @@
       <c r="C128" s="4"/>
       <c r="D128" s="5"/>
       <c r="E128" s="26"/>
-      <c r="F128" s="44"/>
-      <c r="G128" s="45"/>
-      <c r="H128" s="46"/>
+      <c r="F128" s="38"/>
+      <c r="G128" s="39"/>
+      <c r="H128" s="40"/>
     </row>
     <row r="129" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
@@ -2789,9 +2791,9 @@
       <c r="C129" s="4"/>
       <c r="D129" s="5"/>
       <c r="E129" s="26"/>
-      <c r="F129" s="44"/>
-      <c r="G129" s="45"/>
-      <c r="H129" s="46"/>
+      <c r="F129" s="38"/>
+      <c r="G129" s="39"/>
+      <c r="H129" s="40"/>
     </row>
     <row r="130" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
@@ -2799,9 +2801,9 @@
       <c r="C130" s="4"/>
       <c r="D130" s="5"/>
       <c r="E130" s="26"/>
-      <c r="F130" s="44"/>
-      <c r="G130" s="45"/>
-      <c r="H130" s="46"/>
+      <c r="F130" s="38"/>
+      <c r="G130" s="39"/>
+      <c r="H130" s="40"/>
     </row>
     <row r="131" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
@@ -2809,9 +2811,9 @@
       <c r="C131" s="4"/>
       <c r="D131" s="5"/>
       <c r="E131" s="26"/>
-      <c r="F131" s="44"/>
-      <c r="G131" s="45"/>
-      <c r="H131" s="46"/>
+      <c r="F131" s="38"/>
+      <c r="G131" s="39"/>
+      <c r="H131" s="40"/>
     </row>
     <row r="132" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
@@ -2819,9 +2821,9 @@
       <c r="C132" s="4"/>
       <c r="D132" s="5"/>
       <c r="E132" s="26"/>
-      <c r="F132" s="44"/>
-      <c r="G132" s="45"/>
-      <c r="H132" s="46"/>
+      <c r="F132" s="38"/>
+      <c r="G132" s="39"/>
+      <c r="H132" s="40"/>
     </row>
     <row r="133" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
@@ -2829,9 +2831,9 @@
       <c r="C133" s="4"/>
       <c r="D133" s="5"/>
       <c r="E133" s="26"/>
-      <c r="F133" s="44"/>
-      <c r="G133" s="45"/>
-      <c r="H133" s="46"/>
+      <c r="F133" s="38"/>
+      <c r="G133" s="39"/>
+      <c r="H133" s="40"/>
     </row>
     <row r="134" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
@@ -2839,9 +2841,9 @@
       <c r="C134" s="4"/>
       <c r="D134" s="5"/>
       <c r="E134" s="26"/>
-      <c r="F134" s="44"/>
-      <c r="G134" s="45"/>
-      <c r="H134" s="46"/>
+      <c r="F134" s="38"/>
+      <c r="G134" s="39"/>
+      <c r="H134" s="40"/>
     </row>
     <row r="135" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
@@ -2849,9 +2851,9 @@
       <c r="C135" s="4"/>
       <c r="D135" s="5"/>
       <c r="E135" s="26"/>
-      <c r="F135" s="44"/>
-      <c r="G135" s="45"/>
-      <c r="H135" s="46"/>
+      <c r="F135" s="38"/>
+      <c r="G135" s="39"/>
+      <c r="H135" s="40"/>
     </row>
     <row r="136" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
@@ -2859,9 +2861,9 @@
       <c r="C136" s="4"/>
       <c r="D136" s="5"/>
       <c r="E136" s="26"/>
-      <c r="F136" s="44"/>
-      <c r="G136" s="45"/>
-      <c r="H136" s="46"/>
+      <c r="F136" s="38"/>
+      <c r="G136" s="39"/>
+      <c r="H136" s="40"/>
     </row>
     <row r="137" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
@@ -2869,9 +2871,9 @@
       <c r="C137" s="4"/>
       <c r="D137" s="5"/>
       <c r="E137" s="26"/>
-      <c r="F137" s="44"/>
-      <c r="G137" s="45"/>
-      <c r="H137" s="46"/>
+      <c r="F137" s="38"/>
+      <c r="G137" s="39"/>
+      <c r="H137" s="40"/>
     </row>
     <row r="138" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
@@ -2879,9 +2881,9 @@
       <c r="C138" s="4"/>
       <c r="D138" s="5"/>
       <c r="E138" s="26"/>
-      <c r="F138" s="44"/>
-      <c r="G138" s="45"/>
-      <c r="H138" s="46"/>
+      <c r="F138" s="38"/>
+      <c r="G138" s="39"/>
+      <c r="H138" s="40"/>
     </row>
     <row r="139" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
@@ -2889,9 +2891,9 @@
       <c r="C139" s="4"/>
       <c r="D139" s="5"/>
       <c r="E139" s="26"/>
-      <c r="F139" s="44"/>
-      <c r="G139" s="45"/>
-      <c r="H139" s="46"/>
+      <c r="F139" s="38"/>
+      <c r="G139" s="39"/>
+      <c r="H139" s="40"/>
     </row>
     <row r="140" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
@@ -2899,9 +2901,9 @@
       <c r="C140" s="4"/>
       <c r="D140" s="5"/>
       <c r="E140" s="26"/>
-      <c r="F140" s="44"/>
-      <c r="G140" s="45"/>
-      <c r="H140" s="46"/>
+      <c r="F140" s="38"/>
+      <c r="G140" s="39"/>
+      <c r="H140" s="40"/>
     </row>
     <row r="141" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
@@ -2909,9 +2911,9 @@
       <c r="C141" s="4"/>
       <c r="D141" s="5"/>
       <c r="E141" s="26"/>
-      <c r="F141" s="44"/>
-      <c r="G141" s="45"/>
-      <c r="H141" s="46"/>
+      <c r="F141" s="38"/>
+      <c r="G141" s="39"/>
+      <c r="H141" s="40"/>
     </row>
     <row r="142" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
@@ -2919,9 +2921,9 @@
       <c r="C142" s="4"/>
       <c r="D142" s="5"/>
       <c r="E142" s="26"/>
-      <c r="F142" s="44"/>
-      <c r="G142" s="45"/>
-      <c r="H142" s="46"/>
+      <c r="F142" s="38"/>
+      <c r="G142" s="39"/>
+      <c r="H142" s="40"/>
     </row>
     <row r="143" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
@@ -2929,9 +2931,9 @@
       <c r="C143" s="4"/>
       <c r="D143" s="5"/>
       <c r="E143" s="26"/>
-      <c r="F143" s="44"/>
-      <c r="G143" s="45"/>
-      <c r="H143" s="46"/>
+      <c r="F143" s="38"/>
+      <c r="G143" s="39"/>
+      <c r="H143" s="40"/>
     </row>
     <row r="144" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
@@ -2939,9 +2941,9 @@
       <c r="C144" s="4"/>
       <c r="D144" s="5"/>
       <c r="E144" s="26"/>
-      <c r="F144" s="44"/>
-      <c r="G144" s="45"/>
-      <c r="H144" s="46"/>
+      <c r="F144" s="38"/>
+      <c r="G144" s="39"/>
+      <c r="H144" s="40"/>
     </row>
     <row r="145" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
@@ -2949,9 +2951,9 @@
       <c r="C145" s="4"/>
       <c r="D145" s="5"/>
       <c r="E145" s="26"/>
-      <c r="F145" s="44"/>
-      <c r="G145" s="45"/>
-      <c r="H145" s="46"/>
+      <c r="F145" s="38"/>
+      <c r="G145" s="39"/>
+      <c r="H145" s="40"/>
     </row>
     <row r="146" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
@@ -2959,9 +2961,9 @@
       <c r="C146" s="4"/>
       <c r="D146" s="5"/>
       <c r="E146" s="26"/>
-      <c r="F146" s="44"/>
-      <c r="G146" s="45"/>
-      <c r="H146" s="46"/>
+      <c r="F146" s="38"/>
+      <c r="G146" s="39"/>
+      <c r="H146" s="40"/>
     </row>
     <row r="147" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
@@ -2969,9 +2971,9 @@
       <c r="C147" s="4"/>
       <c r="D147" s="5"/>
       <c r="E147" s="26"/>
-      <c r="F147" s="44"/>
-      <c r="G147" s="45"/>
-      <c r="H147" s="46"/>
+      <c r="F147" s="38"/>
+      <c r="G147" s="39"/>
+      <c r="H147" s="40"/>
     </row>
     <row r="148" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
@@ -2979,9 +2981,9 @@
       <c r="C148" s="4"/>
       <c r="D148" s="5"/>
       <c r="E148" s="26"/>
-      <c r="F148" s="44"/>
-      <c r="G148" s="45"/>
-      <c r="H148" s="46"/>
+      <c r="F148" s="38"/>
+      <c r="G148" s="39"/>
+      <c r="H148" s="40"/>
     </row>
     <row r="149" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
@@ -2989,9 +2991,9 @@
       <c r="C149" s="4"/>
       <c r="D149" s="5"/>
       <c r="E149" s="26"/>
-      <c r="F149" s="44"/>
-      <c r="G149" s="45"/>
-      <c r="H149" s="46"/>
+      <c r="F149" s="38"/>
+      <c r="G149" s="39"/>
+      <c r="H149" s="40"/>
     </row>
     <row r="150" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
@@ -2999,9 +3001,9 @@
       <c r="C150" s="4"/>
       <c r="D150" s="5"/>
       <c r="E150" s="26"/>
-      <c r="F150" s="44"/>
-      <c r="G150" s="45"/>
-      <c r="H150" s="46"/>
+      <c r="F150" s="38"/>
+      <c r="G150" s="39"/>
+      <c r="H150" s="40"/>
     </row>
     <row r="151" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
@@ -3009,9 +3011,9 @@
       <c r="C151" s="4"/>
       <c r="D151" s="5"/>
       <c r="E151" s="26"/>
-      <c r="F151" s="44"/>
-      <c r="G151" s="45"/>
-      <c r="H151" s="46"/>
+      <c r="F151" s="38"/>
+      <c r="G151" s="39"/>
+      <c r="H151" s="40"/>
     </row>
     <row r="152" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
@@ -3019,9 +3021,9 @@
       <c r="C152" s="4"/>
       <c r="D152" s="5"/>
       <c r="E152" s="26"/>
-      <c r="F152" s="44"/>
-      <c r="G152" s="45"/>
-      <c r="H152" s="46"/>
+      <c r="F152" s="38"/>
+      <c r="G152" s="39"/>
+      <c r="H152" s="40"/>
     </row>
     <row r="153" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
@@ -3029,9 +3031,9 @@
       <c r="C153" s="4"/>
       <c r="D153" s="5"/>
       <c r="E153" s="26"/>
-      <c r="F153" s="44"/>
-      <c r="G153" s="45"/>
-      <c r="H153" s="46"/>
+      <c r="F153" s="38"/>
+      <c r="G153" s="39"/>
+      <c r="H153" s="40"/>
     </row>
     <row r="154" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
@@ -3039,9 +3041,9 @@
       <c r="C154" s="4"/>
       <c r="D154" s="5"/>
       <c r="E154" s="26"/>
-      <c r="F154" s="44"/>
-      <c r="G154" s="45"/>
-      <c r="H154" s="46"/>
+      <c r="F154" s="38"/>
+      <c r="G154" s="39"/>
+      <c r="H154" s="40"/>
     </row>
     <row r="155" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
@@ -3049,9 +3051,9 @@
       <c r="C155" s="4"/>
       <c r="D155" s="5"/>
       <c r="E155" s="26"/>
-      <c r="F155" s="44"/>
-      <c r="G155" s="45"/>
-      <c r="H155" s="46"/>
+      <c r="F155" s="38"/>
+      <c r="G155" s="39"/>
+      <c r="H155" s="40"/>
     </row>
     <row r="156" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
@@ -3059,9 +3061,9 @@
       <c r="C156" s="4"/>
       <c r="D156" s="5"/>
       <c r="E156" s="26"/>
-      <c r="F156" s="44"/>
-      <c r="G156" s="45"/>
-      <c r="H156" s="46"/>
+      <c r="F156" s="38"/>
+      <c r="G156" s="39"/>
+      <c r="H156" s="40"/>
     </row>
     <row r="157" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
@@ -3069,9 +3071,9 @@
       <c r="C157" s="4"/>
       <c r="D157" s="5"/>
       <c r="E157" s="26"/>
-      <c r="F157" s="44"/>
-      <c r="G157" s="45"/>
-      <c r="H157" s="46"/>
+      <c r="F157" s="38"/>
+      <c r="G157" s="39"/>
+      <c r="H157" s="40"/>
     </row>
     <row r="158" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
@@ -3079,9 +3081,9 @@
       <c r="C158" s="4"/>
       <c r="D158" s="5"/>
       <c r="E158" s="26"/>
-      <c r="F158" s="44"/>
-      <c r="G158" s="45"/>
-      <c r="H158" s="46"/>
+      <c r="F158" s="38"/>
+      <c r="G158" s="39"/>
+      <c r="H158" s="40"/>
     </row>
     <row r="159" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
@@ -3089,9 +3091,9 @@
       <c r="C159" s="4"/>
       <c r="D159" s="5"/>
       <c r="E159" s="26"/>
-      <c r="F159" s="44"/>
-      <c r="G159" s="45"/>
-      <c r="H159" s="46"/>
+      <c r="F159" s="38"/>
+      <c r="G159" s="39"/>
+      <c r="H159" s="40"/>
     </row>
     <row r="160" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
@@ -3099,9 +3101,9 @@
       <c r="C160" s="4"/>
       <c r="D160" s="5"/>
       <c r="E160" s="26"/>
-      <c r="F160" s="44"/>
-      <c r="G160" s="45"/>
-      <c r="H160" s="46"/>
+      <c r="F160" s="38"/>
+      <c r="G160" s="39"/>
+      <c r="H160" s="40"/>
     </row>
     <row r="161" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
@@ -3109,9 +3111,9 @@
       <c r="C161" s="4"/>
       <c r="D161" s="5"/>
       <c r="E161" s="26"/>
-      <c r="F161" s="44"/>
-      <c r="G161" s="45"/>
-      <c r="H161" s="46"/>
+      <c r="F161" s="38"/>
+      <c r="G161" s="39"/>
+      <c r="H161" s="40"/>
     </row>
     <row r="162" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
@@ -3119,9 +3121,9 @@
       <c r="C162" s="4"/>
       <c r="D162" s="5"/>
       <c r="E162" s="26"/>
-      <c r="F162" s="44"/>
-      <c r="G162" s="45"/>
-      <c r="H162" s="46"/>
+      <c r="F162" s="38"/>
+      <c r="G162" s="39"/>
+      <c r="H162" s="40"/>
     </row>
     <row r="163" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
@@ -3129,9 +3131,9 @@
       <c r="C163" s="4"/>
       <c r="D163" s="5"/>
       <c r="E163" s="26"/>
-      <c r="F163" s="44"/>
-      <c r="G163" s="45"/>
-      <c r="H163" s="46"/>
+      <c r="F163" s="38"/>
+      <c r="G163" s="39"/>
+      <c r="H163" s="40"/>
     </row>
     <row r="164" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
@@ -3139,9 +3141,9 @@
       <c r="C164" s="4"/>
       <c r="D164" s="5"/>
       <c r="E164" s="26"/>
-      <c r="F164" s="44"/>
-      <c r="G164" s="45"/>
-      <c r="H164" s="46"/>
+      <c r="F164" s="38"/>
+      <c r="G164" s="39"/>
+      <c r="H164" s="40"/>
     </row>
     <row r="165" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
@@ -3149,9 +3151,9 @@
       <c r="C165" s="4"/>
       <c r="D165" s="5"/>
       <c r="E165" s="26"/>
-      <c r="F165" s="44"/>
-      <c r="G165" s="45"/>
-      <c r="H165" s="46"/>
+      <c r="F165" s="38"/>
+      <c r="G165" s="39"/>
+      <c r="H165" s="40"/>
     </row>
     <row r="166" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
@@ -3159,9 +3161,9 @@
       <c r="C166" s="4"/>
       <c r="D166" s="5"/>
       <c r="E166" s="26"/>
-      <c r="F166" s="44"/>
-      <c r="G166" s="45"/>
-      <c r="H166" s="46"/>
+      <c r="F166" s="38"/>
+      <c r="G166" s="39"/>
+      <c r="H166" s="40"/>
     </row>
     <row r="167" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
@@ -3169,9 +3171,9 @@
       <c r="C167" s="4"/>
       <c r="D167" s="5"/>
       <c r="E167" s="26"/>
-      <c r="F167" s="44"/>
-      <c r="G167" s="45"/>
-      <c r="H167" s="46"/>
+      <c r="F167" s="38"/>
+      <c r="G167" s="39"/>
+      <c r="H167" s="40"/>
     </row>
     <row r="168" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
@@ -3179,9 +3181,9 @@
       <c r="C168" s="4"/>
       <c r="D168" s="5"/>
       <c r="E168" s="26"/>
-      <c r="F168" s="44"/>
-      <c r="G168" s="45"/>
-      <c r="H168" s="46"/>
+      <c r="F168" s="38"/>
+      <c r="G168" s="39"/>
+      <c r="H168" s="40"/>
     </row>
     <row r="169" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
@@ -3189,9 +3191,9 @@
       <c r="C169" s="4"/>
       <c r="D169" s="5"/>
       <c r="E169" s="26"/>
-      <c r="F169" s="44"/>
-      <c r="G169" s="45"/>
-      <c r="H169" s="46"/>
+      <c r="F169" s="38"/>
+      <c r="G169" s="39"/>
+      <c r="H169" s="40"/>
     </row>
     <row r="170" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
@@ -3199,9 +3201,9 @@
       <c r="C170" s="4"/>
       <c r="D170" s="5"/>
       <c r="E170" s="26"/>
-      <c r="F170" s="44"/>
-      <c r="G170" s="45"/>
-      <c r="H170" s="46"/>
+      <c r="F170" s="38"/>
+      <c r="G170" s="39"/>
+      <c r="H170" s="40"/>
     </row>
     <row r="171" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
@@ -3209,9 +3211,9 @@
       <c r="C171" s="4"/>
       <c r="D171" s="5"/>
       <c r="E171" s="26"/>
-      <c r="F171" s="44"/>
-      <c r="G171" s="45"/>
-      <c r="H171" s="46"/>
+      <c r="F171" s="38"/>
+      <c r="G171" s="39"/>
+      <c r="H171" s="40"/>
     </row>
     <row r="172" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
@@ -3219,9 +3221,9 @@
       <c r="C172" s="4"/>
       <c r="D172" s="5"/>
       <c r="E172" s="26"/>
-      <c r="F172" s="44"/>
-      <c r="G172" s="45"/>
-      <c r="H172" s="46"/>
+      <c r="F172" s="38"/>
+      <c r="G172" s="39"/>
+      <c r="H172" s="40"/>
     </row>
     <row r="173" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
@@ -3229,9 +3231,9 @@
       <c r="C173" s="4"/>
       <c r="D173" s="5"/>
       <c r="E173" s="26"/>
-      <c r="F173" s="44"/>
-      <c r="G173" s="45"/>
-      <c r="H173" s="46"/>
+      <c r="F173" s="38"/>
+      <c r="G173" s="39"/>
+      <c r="H173" s="40"/>
     </row>
     <row r="174" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
@@ -3239,9 +3241,9 @@
       <c r="C174" s="4"/>
       <c r="D174" s="5"/>
       <c r="E174" s="26"/>
-      <c r="F174" s="44"/>
-      <c r="G174" s="45"/>
-      <c r="H174" s="46"/>
+      <c r="F174" s="38"/>
+      <c r="G174" s="39"/>
+      <c r="H174" s="40"/>
     </row>
     <row r="175" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
@@ -3249,9 +3251,9 @@
       <c r="C175" s="4"/>
       <c r="D175" s="5"/>
       <c r="E175" s="26"/>
-      <c r="F175" s="44"/>
-      <c r="G175" s="45"/>
-      <c r="H175" s="46"/>
+      <c r="F175" s="38"/>
+      <c r="G175" s="39"/>
+      <c r="H175" s="40"/>
     </row>
     <row r="176" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
@@ -3259,9 +3261,9 @@
       <c r="C176" s="4"/>
       <c r="D176" s="5"/>
       <c r="E176" s="26"/>
-      <c r="F176" s="44"/>
-      <c r="G176" s="45"/>
-      <c r="H176" s="46"/>
+      <c r="F176" s="38"/>
+      <c r="G176" s="39"/>
+      <c r="H176" s="40"/>
     </row>
     <row r="177" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
@@ -3269,9 +3271,9 @@
       <c r="C177" s="4"/>
       <c r="D177" s="5"/>
       <c r="E177" s="26"/>
-      <c r="F177" s="44"/>
-      <c r="G177" s="45"/>
-      <c r="H177" s="46"/>
+      <c r="F177" s="38"/>
+      <c r="G177" s="39"/>
+      <c r="H177" s="40"/>
     </row>
     <row r="178" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
@@ -3279,9 +3281,9 @@
       <c r="C178" s="4"/>
       <c r="D178" s="5"/>
       <c r="E178" s="26"/>
-      <c r="F178" s="44"/>
-      <c r="G178" s="45"/>
-      <c r="H178" s="46"/>
+      <c r="F178" s="38"/>
+      <c r="G178" s="39"/>
+      <c r="H178" s="40"/>
     </row>
     <row r="179" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
@@ -3289,9 +3291,9 @@
       <c r="C179" s="4"/>
       <c r="D179" s="5"/>
       <c r="E179" s="26"/>
-      <c r="F179" s="44"/>
-      <c r="G179" s="45"/>
-      <c r="H179" s="46"/>
+      <c r="F179" s="38"/>
+      <c r="G179" s="39"/>
+      <c r="H179" s="40"/>
     </row>
     <row r="180" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
@@ -3299,9 +3301,9 @@
       <c r="C180" s="4"/>
       <c r="D180" s="5"/>
       <c r="E180" s="26"/>
-      <c r="F180" s="44"/>
-      <c r="G180" s="45"/>
-      <c r="H180" s="46"/>
+      <c r="F180" s="38"/>
+      <c r="G180" s="39"/>
+      <c r="H180" s="40"/>
     </row>
     <row r="181" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
@@ -3309,9 +3311,9 @@
       <c r="C181" s="4"/>
       <c r="D181" s="5"/>
       <c r="E181" s="26"/>
-      <c r="F181" s="44"/>
-      <c r="G181" s="45"/>
-      <c r="H181" s="46"/>
+      <c r="F181" s="38"/>
+      <c r="G181" s="39"/>
+      <c r="H181" s="40"/>
     </row>
     <row r="182" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
@@ -3319,9 +3321,9 @@
       <c r="C182" s="4"/>
       <c r="D182" s="5"/>
       <c r="E182" s="26"/>
-      <c r="F182" s="44"/>
-      <c r="G182" s="45"/>
-      <c r="H182" s="46"/>
+      <c r="F182" s="38"/>
+      <c r="G182" s="39"/>
+      <c r="H182" s="40"/>
     </row>
     <row r="183" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
@@ -3329,9 +3331,9 @@
       <c r="C183" s="4"/>
       <c r="D183" s="5"/>
       <c r="E183" s="26"/>
-      <c r="F183" s="44"/>
-      <c r="G183" s="45"/>
-      <c r="H183" s="46"/>
+      <c r="F183" s="38"/>
+      <c r="G183" s="39"/>
+      <c r="H183" s="40"/>
     </row>
     <row r="184" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
@@ -3339,9 +3341,9 @@
       <c r="C184" s="4"/>
       <c r="D184" s="5"/>
       <c r="E184" s="26"/>
-      <c r="F184" s="44"/>
-      <c r="G184" s="45"/>
-      <c r="H184" s="46"/>
+      <c r="F184" s="38"/>
+      <c r="G184" s="39"/>
+      <c r="H184" s="40"/>
     </row>
     <row r="185" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
@@ -3349,9 +3351,9 @@
       <c r="C185" s="4"/>
       <c r="D185" s="5"/>
       <c r="E185" s="26"/>
-      <c r="F185" s="44"/>
-      <c r="G185" s="45"/>
-      <c r="H185" s="46"/>
+      <c r="F185" s="38"/>
+      <c r="G185" s="39"/>
+      <c r="H185" s="40"/>
     </row>
     <row r="186" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
@@ -3359,9 +3361,9 @@
       <c r="C186" s="4"/>
       <c r="D186" s="5"/>
       <c r="E186" s="26"/>
-      <c r="F186" s="44"/>
-      <c r="G186" s="45"/>
-      <c r="H186" s="46"/>
+      <c r="F186" s="38"/>
+      <c r="G186" s="39"/>
+      <c r="H186" s="40"/>
     </row>
     <row r="187" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
@@ -3369,9 +3371,9 @@
       <c r="C187" s="4"/>
       <c r="D187" s="5"/>
       <c r="E187" s="26"/>
-      <c r="F187" s="44"/>
-      <c r="G187" s="45"/>
-      <c r="H187" s="46"/>
+      <c r="F187" s="38"/>
+      <c r="G187" s="39"/>
+      <c r="H187" s="40"/>
     </row>
     <row r="188" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
@@ -3379,9 +3381,9 @@
       <c r="C188" s="4"/>
       <c r="D188" s="5"/>
       <c r="E188" s="26"/>
-      <c r="F188" s="44"/>
-      <c r="G188" s="45"/>
-      <c r="H188" s="46"/>
+      <c r="F188" s="38"/>
+      <c r="G188" s="39"/>
+      <c r="H188" s="40"/>
     </row>
     <row r="189" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
@@ -3389,9 +3391,9 @@
       <c r="C189" s="4"/>
       <c r="D189" s="5"/>
       <c r="E189" s="26"/>
-      <c r="F189" s="44"/>
-      <c r="G189" s="45"/>
-      <c r="H189" s="46"/>
+      <c r="F189" s="38"/>
+      <c r="G189" s="39"/>
+      <c r="H189" s="40"/>
     </row>
     <row r="190" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
@@ -3399,9 +3401,9 @@
       <c r="C190" s="4"/>
       <c r="D190" s="5"/>
       <c r="E190" s="26"/>
-      <c r="F190" s="44"/>
-      <c r="G190" s="45"/>
-      <c r="H190" s="46"/>
+      <c r="F190" s="38"/>
+      <c r="G190" s="39"/>
+      <c r="H190" s="40"/>
     </row>
     <row r="191" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
@@ -3409,9 +3411,9 @@
       <c r="C191" s="4"/>
       <c r="D191" s="5"/>
       <c r="E191" s="26"/>
-      <c r="F191" s="44"/>
-      <c r="G191" s="45"/>
-      <c r="H191" s="46"/>
+      <c r="F191" s="38"/>
+      <c r="G191" s="39"/>
+      <c r="H191" s="40"/>
     </row>
     <row r="192" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
@@ -3419,9 +3421,9 @@
       <c r="C192" s="4"/>
       <c r="D192" s="5"/>
       <c r="E192" s="26"/>
-      <c r="F192" s="44"/>
-      <c r="G192" s="45"/>
-      <c r="H192" s="46"/>
+      <c r="F192" s="38"/>
+      <c r="G192" s="39"/>
+      <c r="H192" s="40"/>
     </row>
     <row r="193" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
@@ -3429,9 +3431,9 @@
       <c r="C193" s="4"/>
       <c r="D193" s="5"/>
       <c r="E193" s="26"/>
-      <c r="F193" s="44"/>
-      <c r="G193" s="45"/>
-      <c r="H193" s="46"/>
+      <c r="F193" s="38"/>
+      <c r="G193" s="39"/>
+      <c r="H193" s="40"/>
     </row>
     <row r="194" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
@@ -3439,9 +3441,9 @@
       <c r="C194" s="4"/>
       <c r="D194" s="5"/>
       <c r="E194" s="26"/>
-      <c r="F194" s="44"/>
-      <c r="G194" s="45"/>
-      <c r="H194" s="46"/>
+      <c r="F194" s="38"/>
+      <c r="G194" s="39"/>
+      <c r="H194" s="40"/>
     </row>
     <row r="195" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
@@ -3449,9 +3451,9 @@
       <c r="C195" s="4"/>
       <c r="D195" s="5"/>
       <c r="E195" s="26"/>
-      <c r="F195" s="44"/>
-      <c r="G195" s="45"/>
-      <c r="H195" s="46"/>
+      <c r="F195" s="38"/>
+      <c r="G195" s="39"/>
+      <c r="H195" s="40"/>
     </row>
     <row r="196" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
@@ -3459,9 +3461,9 @@
       <c r="C196" s="4"/>
       <c r="D196" s="5"/>
       <c r="E196" s="26"/>
-      <c r="F196" s="44"/>
-      <c r="G196" s="45"/>
-      <c r="H196" s="46"/>
+      <c r="F196" s="38"/>
+      <c r="G196" s="39"/>
+      <c r="H196" s="40"/>
     </row>
     <row r="197" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
@@ -3469,9 +3471,9 @@
       <c r="C197" s="4"/>
       <c r="D197" s="5"/>
       <c r="E197" s="26"/>
-      <c r="F197" s="44"/>
-      <c r="G197" s="45"/>
-      <c r="H197" s="46"/>
+      <c r="F197" s="38"/>
+      <c r="G197" s="39"/>
+      <c r="H197" s="40"/>
     </row>
     <row r="198" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
@@ -3479,9 +3481,9 @@
       <c r="C198" s="4"/>
       <c r="D198" s="5"/>
       <c r="E198" s="26"/>
-      <c r="F198" s="44"/>
-      <c r="G198" s="45"/>
-      <c r="H198" s="46"/>
+      <c r="F198" s="38"/>
+      <c r="G198" s="39"/>
+      <c r="H198" s="40"/>
     </row>
     <row r="199" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
@@ -3489,9 +3491,9 @@
       <c r="C199" s="4"/>
       <c r="D199" s="5"/>
       <c r="E199" s="26"/>
-      <c r="F199" s="44"/>
-      <c r="G199" s="45"/>
-      <c r="H199" s="46"/>
+      <c r="F199" s="38"/>
+      <c r="G199" s="39"/>
+      <c r="H199" s="40"/>
     </row>
     <row r="200" spans="1:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="6"/>
@@ -3499,203 +3501,13 @@
       <c r="C200" s="7"/>
       <c r="D200" s="8"/>
       <c r="E200" s="28"/>
-      <c r="F200" s="65"/>
-      <c r="G200" s="66"/>
-      <c r="H200" s="67"/>
+      <c r="F200" s="41"/>
+      <c r="G200" s="42"/>
+      <c r="H200" s="43"/>
     </row>
     <row r="201" spans="1:8" ht="39" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="204">
-    <mergeCell ref="F196:H196"/>
-    <mergeCell ref="F197:H197"/>
-    <mergeCell ref="F198:H198"/>
-    <mergeCell ref="F199:H199"/>
-    <mergeCell ref="F200:H200"/>
-    <mergeCell ref="F191:H191"/>
-    <mergeCell ref="F192:H192"/>
-    <mergeCell ref="F193:H193"/>
-    <mergeCell ref="F194:H194"/>
-    <mergeCell ref="F195:H195"/>
-    <mergeCell ref="F186:H186"/>
-    <mergeCell ref="F187:H187"/>
-    <mergeCell ref="F188:H188"/>
-    <mergeCell ref="F189:H189"/>
-    <mergeCell ref="F190:H190"/>
-    <mergeCell ref="F181:H181"/>
-    <mergeCell ref="F182:H182"/>
-    <mergeCell ref="F183:H183"/>
-    <mergeCell ref="F184:H184"/>
-    <mergeCell ref="F185:H185"/>
-    <mergeCell ref="F176:H176"/>
-    <mergeCell ref="F177:H177"/>
-    <mergeCell ref="F178:H178"/>
-    <mergeCell ref="F179:H179"/>
-    <mergeCell ref="F180:H180"/>
-    <mergeCell ref="F171:H171"/>
-    <mergeCell ref="F172:H172"/>
-    <mergeCell ref="F173:H173"/>
-    <mergeCell ref="F174:H174"/>
-    <mergeCell ref="F175:H175"/>
-    <mergeCell ref="F166:H166"/>
-    <mergeCell ref="F167:H167"/>
-    <mergeCell ref="F168:H168"/>
-    <mergeCell ref="F169:H169"/>
-    <mergeCell ref="F170:H170"/>
-    <mergeCell ref="F161:H161"/>
-    <mergeCell ref="F162:H162"/>
-    <mergeCell ref="F163:H163"/>
-    <mergeCell ref="F164:H164"/>
-    <mergeCell ref="F165:H165"/>
-    <mergeCell ref="F156:H156"/>
-    <mergeCell ref="F157:H157"/>
-    <mergeCell ref="F158:H158"/>
-    <mergeCell ref="F159:H159"/>
-    <mergeCell ref="F160:H160"/>
-    <mergeCell ref="F151:H151"/>
-    <mergeCell ref="F152:H152"/>
-    <mergeCell ref="F153:H153"/>
-    <mergeCell ref="F154:H154"/>
-    <mergeCell ref="F155:H155"/>
-    <mergeCell ref="F146:H146"/>
-    <mergeCell ref="F147:H147"/>
-    <mergeCell ref="F148:H148"/>
-    <mergeCell ref="F149:H149"/>
-    <mergeCell ref="F150:H150"/>
-    <mergeCell ref="F141:H141"/>
-    <mergeCell ref="F142:H142"/>
-    <mergeCell ref="F143:H143"/>
-    <mergeCell ref="F144:H144"/>
-    <mergeCell ref="F145:H145"/>
-    <mergeCell ref="F136:H136"/>
-    <mergeCell ref="F137:H137"/>
-    <mergeCell ref="F138:H138"/>
-    <mergeCell ref="F139:H139"/>
-    <mergeCell ref="F140:H140"/>
-    <mergeCell ref="F131:H131"/>
-    <mergeCell ref="F132:H132"/>
-    <mergeCell ref="F133:H133"/>
-    <mergeCell ref="F134:H134"/>
-    <mergeCell ref="F135:H135"/>
-    <mergeCell ref="F126:H126"/>
-    <mergeCell ref="F127:H127"/>
-    <mergeCell ref="F128:H128"/>
-    <mergeCell ref="F129:H129"/>
-    <mergeCell ref="F130:H130"/>
-    <mergeCell ref="F121:H121"/>
-    <mergeCell ref="F122:H122"/>
-    <mergeCell ref="F123:H123"/>
-    <mergeCell ref="F124:H124"/>
-    <mergeCell ref="F125:H125"/>
-    <mergeCell ref="F116:H116"/>
-    <mergeCell ref="F117:H117"/>
-    <mergeCell ref="F118:H118"/>
-    <mergeCell ref="F119:H119"/>
-    <mergeCell ref="F120:H120"/>
-    <mergeCell ref="F111:H111"/>
-    <mergeCell ref="F112:H112"/>
-    <mergeCell ref="F113:H113"/>
-    <mergeCell ref="F114:H114"/>
-    <mergeCell ref="F115:H115"/>
-    <mergeCell ref="F106:H106"/>
-    <mergeCell ref="F107:H107"/>
-    <mergeCell ref="F108:H108"/>
-    <mergeCell ref="F109:H109"/>
-    <mergeCell ref="F110:H110"/>
-    <mergeCell ref="F101:H101"/>
-    <mergeCell ref="F102:H102"/>
-    <mergeCell ref="F103:H103"/>
-    <mergeCell ref="F104:H104"/>
-    <mergeCell ref="F105:H105"/>
-    <mergeCell ref="F96:H96"/>
-    <mergeCell ref="F97:H97"/>
-    <mergeCell ref="F98:H98"/>
-    <mergeCell ref="F99:H99"/>
-    <mergeCell ref="F100:H100"/>
-    <mergeCell ref="F91:H91"/>
-    <mergeCell ref="F92:H92"/>
-    <mergeCell ref="F93:H93"/>
-    <mergeCell ref="F94:H94"/>
-    <mergeCell ref="F95:H95"/>
-    <mergeCell ref="F86:H86"/>
-    <mergeCell ref="F87:H87"/>
-    <mergeCell ref="F88:H88"/>
-    <mergeCell ref="F89:H89"/>
-    <mergeCell ref="F90:H90"/>
-    <mergeCell ref="F81:H81"/>
-    <mergeCell ref="F82:H82"/>
-    <mergeCell ref="F83:H83"/>
-    <mergeCell ref="F84:H84"/>
-    <mergeCell ref="F85:H85"/>
-    <mergeCell ref="F76:H76"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="F80:H80"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="F74:H74"/>
-    <mergeCell ref="F75:H75"/>
-    <mergeCell ref="F66:H66"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="F68:H68"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="F70:H70"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="F8:H8"/>
@@ -3710,6 +3522,196 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="C2:F2"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="F75:H75"/>
+    <mergeCell ref="F86:H86"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="F88:H88"/>
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="F90:H90"/>
+    <mergeCell ref="F81:H81"/>
+    <mergeCell ref="F82:H82"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="F84:H84"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="F96:H96"/>
+    <mergeCell ref="F97:H97"/>
+    <mergeCell ref="F98:H98"/>
+    <mergeCell ref="F99:H99"/>
+    <mergeCell ref="F100:H100"/>
+    <mergeCell ref="F91:H91"/>
+    <mergeCell ref="F92:H92"/>
+    <mergeCell ref="F93:H93"/>
+    <mergeCell ref="F94:H94"/>
+    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="F106:H106"/>
+    <mergeCell ref="F107:H107"/>
+    <mergeCell ref="F108:H108"/>
+    <mergeCell ref="F109:H109"/>
+    <mergeCell ref="F110:H110"/>
+    <mergeCell ref="F101:H101"/>
+    <mergeCell ref="F102:H102"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="F104:H104"/>
+    <mergeCell ref="F105:H105"/>
+    <mergeCell ref="F116:H116"/>
+    <mergeCell ref="F117:H117"/>
+    <mergeCell ref="F118:H118"/>
+    <mergeCell ref="F119:H119"/>
+    <mergeCell ref="F120:H120"/>
+    <mergeCell ref="F111:H111"/>
+    <mergeCell ref="F112:H112"/>
+    <mergeCell ref="F113:H113"/>
+    <mergeCell ref="F114:H114"/>
+    <mergeCell ref="F115:H115"/>
+    <mergeCell ref="F126:H126"/>
+    <mergeCell ref="F127:H127"/>
+    <mergeCell ref="F128:H128"/>
+    <mergeCell ref="F129:H129"/>
+    <mergeCell ref="F130:H130"/>
+    <mergeCell ref="F121:H121"/>
+    <mergeCell ref="F122:H122"/>
+    <mergeCell ref="F123:H123"/>
+    <mergeCell ref="F124:H124"/>
+    <mergeCell ref="F125:H125"/>
+    <mergeCell ref="F136:H136"/>
+    <mergeCell ref="F137:H137"/>
+    <mergeCell ref="F138:H138"/>
+    <mergeCell ref="F139:H139"/>
+    <mergeCell ref="F140:H140"/>
+    <mergeCell ref="F131:H131"/>
+    <mergeCell ref="F132:H132"/>
+    <mergeCell ref="F133:H133"/>
+    <mergeCell ref="F134:H134"/>
+    <mergeCell ref="F135:H135"/>
+    <mergeCell ref="F146:H146"/>
+    <mergeCell ref="F147:H147"/>
+    <mergeCell ref="F148:H148"/>
+    <mergeCell ref="F149:H149"/>
+    <mergeCell ref="F150:H150"/>
+    <mergeCell ref="F141:H141"/>
+    <mergeCell ref="F142:H142"/>
+    <mergeCell ref="F143:H143"/>
+    <mergeCell ref="F144:H144"/>
+    <mergeCell ref="F145:H145"/>
+    <mergeCell ref="F156:H156"/>
+    <mergeCell ref="F157:H157"/>
+    <mergeCell ref="F158:H158"/>
+    <mergeCell ref="F159:H159"/>
+    <mergeCell ref="F160:H160"/>
+    <mergeCell ref="F151:H151"/>
+    <mergeCell ref="F152:H152"/>
+    <mergeCell ref="F153:H153"/>
+    <mergeCell ref="F154:H154"/>
+    <mergeCell ref="F155:H155"/>
+    <mergeCell ref="F166:H166"/>
+    <mergeCell ref="F167:H167"/>
+    <mergeCell ref="F168:H168"/>
+    <mergeCell ref="F169:H169"/>
+    <mergeCell ref="F170:H170"/>
+    <mergeCell ref="F161:H161"/>
+    <mergeCell ref="F162:H162"/>
+    <mergeCell ref="F163:H163"/>
+    <mergeCell ref="F164:H164"/>
+    <mergeCell ref="F165:H165"/>
+    <mergeCell ref="F176:H176"/>
+    <mergeCell ref="F177:H177"/>
+    <mergeCell ref="F178:H178"/>
+    <mergeCell ref="F179:H179"/>
+    <mergeCell ref="F180:H180"/>
+    <mergeCell ref="F171:H171"/>
+    <mergeCell ref="F172:H172"/>
+    <mergeCell ref="F173:H173"/>
+    <mergeCell ref="F174:H174"/>
+    <mergeCell ref="F175:H175"/>
+    <mergeCell ref="F186:H186"/>
+    <mergeCell ref="F187:H187"/>
+    <mergeCell ref="F188:H188"/>
+    <mergeCell ref="F189:H189"/>
+    <mergeCell ref="F190:H190"/>
+    <mergeCell ref="F181:H181"/>
+    <mergeCell ref="F182:H182"/>
+    <mergeCell ref="F183:H183"/>
+    <mergeCell ref="F184:H184"/>
+    <mergeCell ref="F185:H185"/>
+    <mergeCell ref="F196:H196"/>
+    <mergeCell ref="F197:H197"/>
+    <mergeCell ref="F198:H198"/>
+    <mergeCell ref="F199:H199"/>
+    <mergeCell ref="F200:H200"/>
+    <mergeCell ref="F191:H191"/>
+    <mergeCell ref="F192:H192"/>
+    <mergeCell ref="F193:H193"/>
+    <mergeCell ref="F194:H194"/>
+    <mergeCell ref="F195:H195"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.47222222222222221" right="0.56944444444444442" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3726,8 +3728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="36" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -3795,7 +3797,9 @@
       <c r="A6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="72"/>
+      <c r="B6" s="72">
+        <v>2</v>
+      </c>
       <c r="C6" s="72"/>
       <c r="D6" s="72"/>
       <c r="E6" s="73"/>
@@ -3804,7 +3808,9 @@
       <c r="A7" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="76"/>
+      <c r="B7" s="76">
+        <v>6</v>
+      </c>
       <c r="C7" s="77"/>
       <c r="D7" s="77"/>
       <c r="E7" s="78"/>
@@ -3813,7 +3819,9 @@
       <c r="A8" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="74"/>
+      <c r="B8" s="74" t="s">
+        <v>44</v>
+      </c>
       <c r="C8" s="74"/>
       <c r="D8" s="74"/>
       <c r="E8" s="75"/>
@@ -3844,7 +3852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:G4"/>
     </sheetView>
   </sheetViews>
@@ -4034,21 +4042,21 @@
     <row r="20" spans="1:7" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
     <mergeCell ref="A14:G14"/>
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B18:G18"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/CH_121913_A.xlsx
+++ b/CH_121913_A.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glickfeld_lab\Documents\GitHub\docubase\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="135" windowWidth="25605" windowHeight="16065" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1180" yWindow="140" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="1" r:id="rId1"/>
@@ -859,6 +854,24 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -868,6 +881,60 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -876,78 +943,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1368,18 +1363,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="38.1" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="38" customHeight="1" zeroHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="62.375" style="36" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="62.33203125" style="36" customWidth="1"/>
     <col min="3" max="16384" width="18.5" style="12" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="38.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="38" customHeight="1" thickTop="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1387,7 +1382,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="38" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
@@ -1395,7 +1390,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="38" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
@@ -1403,7 +1398,7 @@
         <v>41601</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="38" customHeight="1">
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
@@ -1411,7 +1406,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="38" customHeight="1">
       <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
@@ -1419,7 +1414,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="147.94999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="148" customHeight="1" thickBot="1">
       <c r="A6" s="16" t="s">
         <v>22</v>
       </c>
@@ -1427,19 +1422,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="38.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:2" ht="38.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:2" ht="38.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:2" ht="38.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:2" ht="38.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:2" ht="38.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:2" ht="38.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="38" customHeight="1" thickTop="1"/>
+    <row r="8" spans="1:2" ht="38" customHeight="1"/>
+    <row r="9" spans="1:2" ht="38" customHeight="1"/>
+    <row r="10" spans="1:2" ht="38" customHeight="1"/>
+    <row r="11" spans="1:2" ht="38" customHeight="1"/>
+    <row r="12" spans="1:2" ht="38" customHeight="1"/>
+    <row r="13" spans="1:2" ht="38" hidden="1" customHeight="1">
       <c r="A13" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="100"/>
@@ -1452,34 +1447,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageLayout" workbookViewId="0">
       <selection activeCell="C4" sqref="C4:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" style="24" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" style="24" customWidth="1"/>
     <col min="6" max="6" width="34.5" style="24" customWidth="1"/>
-    <col min="7" max="7" width="8.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="15" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:8" ht="39" customHeight="1" thickTop="1">
+      <c r="A1" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="65" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
       <c r="G1" s="29" t="s">
         <v>31</v>
       </c>
@@ -1487,17 +1482,17 @@
         <v>296</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+    <row r="2" spans="1:8" ht="39" customHeight="1">
+      <c r="A2" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="52" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
       <c r="G2" s="30" t="s">
         <v>31</v>
       </c>
@@ -1505,45 +1500,45 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+    <row r="3" spans="1:8" ht="39" customHeight="1">
+      <c r="A3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="51">
+      <c r="B3" s="59"/>
+      <c r="C3" s="48">
         <v>34</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="54"/>
-    </row>
-    <row r="4" spans="1:8" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="63" t="s">
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="51"/>
+    </row>
+    <row r="4" spans="1:8" ht="102" customHeight="1" thickBot="1">
+      <c r="A4" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="55" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-    </row>
-    <row r="5" spans="1:8" ht="26.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-    </row>
-    <row r="6" spans="1:8" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="55"/>
+    </row>
+    <row r="5" spans="1:8" ht="26" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+    </row>
+    <row r="6" spans="1:8" ht="39" customHeight="1" thickTop="1">
       <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
@@ -1559,1955 +1554,2145 @@
       <c r="E6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="46"/>
-    </row>
-    <row r="7" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="39"/>
+      <c r="H6" s="40"/>
+    </row>
+    <row r="7" spans="1:8" ht="39" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="E7" s="26"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="49"/>
-    </row>
-    <row r="8" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="41"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="43"/>
+    </row>
+    <row r="8" spans="1:8" ht="39" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="E8" s="26"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="40"/>
-    </row>
-    <row r="9" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="46"/>
+    </row>
+    <row r="9" spans="1:8" ht="39" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
       <c r="E9" s="26"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40"/>
-    </row>
-    <row r="10" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="44"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="46"/>
+    </row>
+    <row r="10" spans="1:8" ht="39" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
       <c r="E10" s="26"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="40"/>
-    </row>
-    <row r="11" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="44"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="46"/>
+    </row>
+    <row r="11" spans="1:8" ht="39" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
       <c r="E11" s="26"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40"/>
-    </row>
-    <row r="12" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="44"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="46"/>
+    </row>
+    <row r="12" spans="1:8" ht="39" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
       <c r="E12" s="26"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="40"/>
-    </row>
-    <row r="13" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="44"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="46"/>
+    </row>
+    <row r="13" spans="1:8" ht="39" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
       <c r="E13" s="26"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
-    </row>
-    <row r="14" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="44"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="46"/>
+    </row>
+    <row r="14" spans="1:8" ht="39" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
       <c r="E14" s="26"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="40"/>
-    </row>
-    <row r="15" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="46"/>
+    </row>
+    <row r="15" spans="1:8" ht="39" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
       <c r="E15" s="26"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="40"/>
-    </row>
-    <row r="16" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
+    </row>
+    <row r="16" spans="1:8" ht="39" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
       <c r="E16" s="26"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="40"/>
-    </row>
-    <row r="17" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="46"/>
+    </row>
+    <row r="17" spans="1:8" ht="39" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
       <c r="E17" s="26"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="40"/>
-    </row>
-    <row r="18" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="46"/>
+    </row>
+    <row r="18" spans="1:8" ht="39" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
       <c r="E18" s="26"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="40"/>
-    </row>
-    <row r="19" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="44"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="46"/>
+    </row>
+    <row r="19" spans="1:8" ht="39" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
       <c r="E19" s="26"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="40"/>
-    </row>
-    <row r="20" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="44"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="46"/>
+    </row>
+    <row r="20" spans="1:8" ht="39" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
       <c r="E20" s="26"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40"/>
-    </row>
-    <row r="21" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="44"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="46"/>
+    </row>
+    <row r="21" spans="1:8" ht="39" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
       <c r="E21" s="26"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="40"/>
-    </row>
-    <row r="22" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="46"/>
+    </row>
+    <row r="22" spans="1:8" ht="39" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
       <c r="E22" s="26"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="40"/>
-    </row>
-    <row r="23" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="44"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="46"/>
+    </row>
+    <row r="23" spans="1:8" ht="39" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
       <c r="E23" s="26"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="40"/>
-    </row>
-    <row r="24" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="44"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="46"/>
+    </row>
+    <row r="24" spans="1:8" ht="39" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
       <c r="E24" s="26"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="40"/>
-    </row>
-    <row r="25" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="44"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="46"/>
+    </row>
+    <row r="25" spans="1:8" ht="39" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
       <c r="E25" s="26"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="40"/>
-    </row>
-    <row r="26" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="44"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="46"/>
+    </row>
+    <row r="26" spans="1:8" ht="39" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
       <c r="E26" s="26"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="40"/>
-    </row>
-    <row r="27" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="44"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="46"/>
+    </row>
+    <row r="27" spans="1:8" ht="39" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
       <c r="E27" s="26"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="40"/>
-    </row>
-    <row r="28" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F27" s="44"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="46"/>
+    </row>
+    <row r="28" spans="1:8" ht="39" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
       <c r="E28" s="26"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="40"/>
-    </row>
-    <row r="29" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="44"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="46"/>
+    </row>
+    <row r="29" spans="1:8" ht="39" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
       <c r="E29" s="26"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="40"/>
-    </row>
-    <row r="30" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="44"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="46"/>
+    </row>
+    <row r="30" spans="1:8" ht="39" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
       <c r="E30" s="26"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="40"/>
-    </row>
-    <row r="31" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="44"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="46"/>
+    </row>
+    <row r="31" spans="1:8" ht="39" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="5"/>
       <c r="E31" s="26"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="40"/>
-    </row>
-    <row r="32" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="44"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="46"/>
+    </row>
+    <row r="32" spans="1:8" ht="39" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
       <c r="E32" s="26"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="40"/>
-    </row>
-    <row r="33" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F32" s="44"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="46"/>
+    </row>
+    <row r="33" spans="1:8" ht="39" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
       <c r="E33" s="26"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="40"/>
-    </row>
-    <row r="34" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="44"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="46"/>
+    </row>
+    <row r="34" spans="1:8" ht="39" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
       <c r="E34" s="26"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="40"/>
-    </row>
-    <row r="35" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F34" s="44"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="46"/>
+    </row>
+    <row r="35" spans="1:8" ht="39" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="5"/>
       <c r="E35" s="26"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="40"/>
-    </row>
-    <row r="36" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F35" s="44"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="46"/>
+    </row>
+    <row r="36" spans="1:8" ht="39" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="5"/>
       <c r="E36" s="26"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="40"/>
-    </row>
-    <row r="37" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F36" s="44"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="46"/>
+    </row>
+    <row r="37" spans="1:8" ht="39" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="5"/>
       <c r="E37" s="26"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="40"/>
-    </row>
-    <row r="38" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F37" s="44"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="46"/>
+    </row>
+    <row r="38" spans="1:8" ht="39" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="5"/>
       <c r="E38" s="26"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="40"/>
-    </row>
-    <row r="39" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F38" s="44"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="46"/>
+    </row>
+    <row r="39" spans="1:8" ht="39" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="5"/>
       <c r="E39" s="26"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="40"/>
-    </row>
-    <row r="40" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F39" s="44"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="46"/>
+    </row>
+    <row r="40" spans="1:8" ht="39" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="5"/>
       <c r="E40" s="26"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="40"/>
-    </row>
-    <row r="41" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F40" s="44"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="46"/>
+    </row>
+    <row r="41" spans="1:8" ht="39" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="5"/>
       <c r="E41" s="26"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="40"/>
-    </row>
-    <row r="42" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F41" s="44"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="46"/>
+    </row>
+    <row r="42" spans="1:8" ht="39" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="5"/>
       <c r="E42" s="26"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="40"/>
-    </row>
-    <row r="43" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F42" s="44"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="46"/>
+    </row>
+    <row r="43" spans="1:8" ht="39" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="5"/>
       <c r="E43" s="26"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="40"/>
-    </row>
-    <row r="44" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F43" s="44"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="46"/>
+    </row>
+    <row r="44" spans="1:8" ht="39" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="5"/>
       <c r="E44" s="26"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="40"/>
-    </row>
-    <row r="45" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F44" s="44"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="46"/>
+    </row>
+    <row r="45" spans="1:8" ht="39" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="5"/>
       <c r="E45" s="26"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="40"/>
-    </row>
-    <row r="46" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F45" s="44"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="46"/>
+    </row>
+    <row r="46" spans="1:8" ht="39" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="5"/>
       <c r="E46" s="26"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="40"/>
-    </row>
-    <row r="47" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F46" s="44"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="46"/>
+    </row>
+    <row r="47" spans="1:8" ht="39" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="5"/>
       <c r="E47" s="26"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="40"/>
-    </row>
-    <row r="48" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F47" s="44"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="46"/>
+    </row>
+    <row r="48" spans="1:8" ht="39" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="5"/>
       <c r="E48" s="26"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="40"/>
-    </row>
-    <row r="49" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F48" s="44"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="46"/>
+    </row>
+    <row r="49" spans="1:8" ht="39" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="5"/>
       <c r="E49" s="26"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="40"/>
-    </row>
-    <row r="50" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F49" s="44"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="46"/>
+    </row>
+    <row r="50" spans="1:8" ht="39" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="5"/>
       <c r="E50" s="26"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="40"/>
-    </row>
-    <row r="51" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F50" s="44"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="46"/>
+    </row>
+    <row r="51" spans="1:8" ht="39" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="5"/>
       <c r="E51" s="26"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="40"/>
-    </row>
-    <row r="52" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F51" s="44"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="46"/>
+    </row>
+    <row r="52" spans="1:8" ht="39" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="5"/>
       <c r="E52" s="26"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="40"/>
-    </row>
-    <row r="53" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F52" s="44"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="46"/>
+    </row>
+    <row r="53" spans="1:8" ht="39" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="5"/>
       <c r="E53" s="26"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="40"/>
-    </row>
-    <row r="54" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F53" s="44"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="46"/>
+    </row>
+    <row r="54" spans="1:8" ht="39" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="5"/>
       <c r="E54" s="26"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="40"/>
-    </row>
-    <row r="55" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F54" s="44"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="46"/>
+    </row>
+    <row r="55" spans="1:8" ht="39" customHeight="1">
       <c r="A55" s="3"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="5"/>
       <c r="E55" s="26"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="40"/>
-    </row>
-    <row r="56" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F55" s="44"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="46"/>
+    </row>
+    <row r="56" spans="1:8" ht="39" customHeight="1">
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="5"/>
       <c r="E56" s="26"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="40"/>
-    </row>
-    <row r="57" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F56" s="44"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="46"/>
+    </row>
+    <row r="57" spans="1:8" ht="39" customHeight="1">
       <c r="A57" s="3"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="5"/>
       <c r="E57" s="26"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="40"/>
-    </row>
-    <row r="58" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F57" s="44"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="46"/>
+    </row>
+    <row r="58" spans="1:8" ht="39" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="5"/>
       <c r="E58" s="26"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="40"/>
-    </row>
-    <row r="59" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F58" s="44"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="46"/>
+    </row>
+    <row r="59" spans="1:8" ht="39" customHeight="1">
       <c r="A59" s="3"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="5"/>
       <c r="E59" s="26"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="40"/>
-    </row>
-    <row r="60" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F59" s="44"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="46"/>
+    </row>
+    <row r="60" spans="1:8" ht="39" customHeight="1">
       <c r="A60" s="3"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="5"/>
       <c r="E60" s="26"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="40"/>
-    </row>
-    <row r="61" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F60" s="44"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="46"/>
+    </row>
+    <row r="61" spans="1:8" ht="39" customHeight="1">
       <c r="A61" s="3"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="5"/>
       <c r="E61" s="26"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="40"/>
-    </row>
-    <row r="62" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F61" s="44"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="46"/>
+    </row>
+    <row r="62" spans="1:8" ht="39" customHeight="1">
       <c r="A62" s="3"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="5"/>
       <c r="E62" s="26"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="40"/>
-    </row>
-    <row r="63" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F62" s="44"/>
+      <c r="G62" s="45"/>
+      <c r="H62" s="46"/>
+    </row>
+    <row r="63" spans="1:8" ht="39" customHeight="1">
       <c r="A63" s="3"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="5"/>
       <c r="E63" s="26"/>
-      <c r="F63" s="38"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="40"/>
-    </row>
-    <row r="64" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F63" s="44"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="46"/>
+    </row>
+    <row r="64" spans="1:8" ht="39" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="5"/>
       <c r="E64" s="26"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="40"/>
-    </row>
-    <row r="65" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F64" s="44"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="46"/>
+    </row>
+    <row r="65" spans="1:8" ht="39" customHeight="1">
       <c r="A65" s="3"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="5"/>
       <c r="E65" s="26"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="40"/>
-    </row>
-    <row r="66" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F65" s="44"/>
+      <c r="G65" s="45"/>
+      <c r="H65" s="46"/>
+    </row>
+    <row r="66" spans="1:8" ht="39" customHeight="1">
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="5"/>
       <c r="E66" s="26"/>
-      <c r="F66" s="38"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="40"/>
-    </row>
-    <row r="67" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F66" s="44"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="46"/>
+    </row>
+    <row r="67" spans="1:8" ht="39" customHeight="1">
       <c r="A67" s="3"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="5"/>
       <c r="E67" s="26"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="40"/>
-    </row>
-    <row r="68" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F67" s="44"/>
+      <c r="G67" s="45"/>
+      <c r="H67" s="46"/>
+    </row>
+    <row r="68" spans="1:8" ht="39" customHeight="1">
       <c r="A68" s="3"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="5"/>
       <c r="E68" s="26"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="39"/>
-      <c r="H68" s="40"/>
-    </row>
-    <row r="69" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F68" s="44"/>
+      <c r="G68" s="45"/>
+      <c r="H68" s="46"/>
+    </row>
+    <row r="69" spans="1:8" ht="39" customHeight="1">
       <c r="A69" s="3"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="5"/>
       <c r="E69" s="26"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="39"/>
-      <c r="H69" s="40"/>
-    </row>
-    <row r="70" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F69" s="44"/>
+      <c r="G69" s="45"/>
+      <c r="H69" s="46"/>
+    </row>
+    <row r="70" spans="1:8" ht="39" customHeight="1">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="5"/>
       <c r="E70" s="26"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="39"/>
-      <c r="H70" s="40"/>
-    </row>
-    <row r="71" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F70" s="44"/>
+      <c r="G70" s="45"/>
+      <c r="H70" s="46"/>
+    </row>
+    <row r="71" spans="1:8" ht="39" customHeight="1">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="5"/>
       <c r="E71" s="26"/>
-      <c r="F71" s="38"/>
-      <c r="G71" s="39"/>
-      <c r="H71" s="40"/>
-    </row>
-    <row r="72" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F71" s="44"/>
+      <c r="G71" s="45"/>
+      <c r="H71" s="46"/>
+    </row>
+    <row r="72" spans="1:8" ht="39" customHeight="1">
       <c r="A72" s="3"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="5"/>
       <c r="E72" s="26"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="39"/>
-      <c r="H72" s="40"/>
-    </row>
-    <row r="73" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F72" s="44"/>
+      <c r="G72" s="45"/>
+      <c r="H72" s="46"/>
+    </row>
+    <row r="73" spans="1:8" ht="39" customHeight="1">
       <c r="A73" s="3"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="5"/>
       <c r="E73" s="26"/>
-      <c r="F73" s="38"/>
-      <c r="G73" s="39"/>
-      <c r="H73" s="40"/>
-    </row>
-    <row r="74" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F73" s="44"/>
+      <c r="G73" s="45"/>
+      <c r="H73" s="46"/>
+    </row>
+    <row r="74" spans="1:8" ht="39" customHeight="1">
       <c r="A74" s="3"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="5"/>
       <c r="E74" s="26"/>
-      <c r="F74" s="38"/>
-      <c r="G74" s="39"/>
-      <c r="H74" s="40"/>
-    </row>
-    <row r="75" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F74" s="44"/>
+      <c r="G74" s="45"/>
+      <c r="H74" s="46"/>
+    </row>
+    <row r="75" spans="1:8" ht="39" customHeight="1">
       <c r="A75" s="3"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="5"/>
       <c r="E75" s="26"/>
-      <c r="F75" s="38"/>
-      <c r="G75" s="39"/>
-      <c r="H75" s="40"/>
-    </row>
-    <row r="76" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F75" s="44"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="46"/>
+    </row>
+    <row r="76" spans="1:8" ht="39" customHeight="1">
       <c r="A76" s="3"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="5"/>
       <c r="E76" s="26"/>
-      <c r="F76" s="38"/>
-      <c r="G76" s="39"/>
-      <c r="H76" s="40"/>
-    </row>
-    <row r="77" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F76" s="44"/>
+      <c r="G76" s="45"/>
+      <c r="H76" s="46"/>
+    </row>
+    <row r="77" spans="1:8" ht="39" customHeight="1">
       <c r="A77" s="3"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="5"/>
       <c r="E77" s="26"/>
-      <c r="F77" s="38"/>
-      <c r="G77" s="39"/>
-      <c r="H77" s="40"/>
-    </row>
-    <row r="78" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F77" s="44"/>
+      <c r="G77" s="45"/>
+      <c r="H77" s="46"/>
+    </row>
+    <row r="78" spans="1:8" ht="39" customHeight="1">
       <c r="A78" s="3"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="5"/>
       <c r="E78" s="26"/>
-      <c r="F78" s="38"/>
-      <c r="G78" s="39"/>
-      <c r="H78" s="40"/>
-    </row>
-    <row r="79" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F78" s="44"/>
+      <c r="G78" s="45"/>
+      <c r="H78" s="46"/>
+    </row>
+    <row r="79" spans="1:8" ht="39" customHeight="1">
       <c r="A79" s="3"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="5"/>
       <c r="E79" s="26"/>
-      <c r="F79" s="38"/>
-      <c r="G79" s="39"/>
-      <c r="H79" s="40"/>
-    </row>
-    <row r="80" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F79" s="44"/>
+      <c r="G79" s="45"/>
+      <c r="H79" s="46"/>
+    </row>
+    <row r="80" spans="1:8" ht="39" customHeight="1">
       <c r="A80" s="3"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="5"/>
       <c r="E80" s="26"/>
-      <c r="F80" s="38"/>
-      <c r="G80" s="39"/>
-      <c r="H80" s="40"/>
-    </row>
-    <row r="81" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F80" s="44"/>
+      <c r="G80" s="45"/>
+      <c r="H80" s="46"/>
+    </row>
+    <row r="81" spans="1:8" ht="39" customHeight="1">
       <c r="A81" s="3"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="5"/>
       <c r="E81" s="26"/>
-      <c r="F81" s="38"/>
-      <c r="G81" s="39"/>
-      <c r="H81" s="40"/>
-    </row>
-    <row r="82" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F81" s="44"/>
+      <c r="G81" s="45"/>
+      <c r="H81" s="46"/>
+    </row>
+    <row r="82" spans="1:8" ht="39" customHeight="1">
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="5"/>
       <c r="E82" s="26"/>
-      <c r="F82" s="38"/>
-      <c r="G82" s="39"/>
-      <c r="H82" s="40"/>
-    </row>
-    <row r="83" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F82" s="44"/>
+      <c r="G82" s="45"/>
+      <c r="H82" s="46"/>
+    </row>
+    <row r="83" spans="1:8" ht="39" customHeight="1">
       <c r="A83" s="3"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="5"/>
       <c r="E83" s="26"/>
-      <c r="F83" s="38"/>
-      <c r="G83" s="39"/>
-      <c r="H83" s="40"/>
-    </row>
-    <row r="84" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F83" s="44"/>
+      <c r="G83" s="45"/>
+      <c r="H83" s="46"/>
+    </row>
+    <row r="84" spans="1:8" ht="39" customHeight="1">
       <c r="A84" s="3"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="5"/>
       <c r="E84" s="26"/>
-      <c r="F84" s="38"/>
-      <c r="G84" s="39"/>
-      <c r="H84" s="40"/>
-    </row>
-    <row r="85" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F84" s="44"/>
+      <c r="G84" s="45"/>
+      <c r="H84" s="46"/>
+    </row>
+    <row r="85" spans="1:8" ht="39" customHeight="1">
       <c r="A85" s="3"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="5"/>
       <c r="E85" s="26"/>
-      <c r="F85" s="38"/>
-      <c r="G85" s="39"/>
-      <c r="H85" s="40"/>
-    </row>
-    <row r="86" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F85" s="44"/>
+      <c r="G85" s="45"/>
+      <c r="H85" s="46"/>
+    </row>
+    <row r="86" spans="1:8" ht="39" customHeight="1">
       <c r="A86" s="3"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="5"/>
       <c r="E86" s="26"/>
-      <c r="F86" s="38"/>
-      <c r="G86" s="39"/>
-      <c r="H86" s="40"/>
-    </row>
-    <row r="87" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F86" s="44"/>
+      <c r="G86" s="45"/>
+      <c r="H86" s="46"/>
+    </row>
+    <row r="87" spans="1:8" ht="39" customHeight="1">
       <c r="A87" s="3"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="5"/>
       <c r="E87" s="26"/>
-      <c r="F87" s="38"/>
-      <c r="G87" s="39"/>
-      <c r="H87" s="40"/>
-    </row>
-    <row r="88" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F87" s="44"/>
+      <c r="G87" s="45"/>
+      <c r="H87" s="46"/>
+    </row>
+    <row r="88" spans="1:8" ht="39" customHeight="1">
       <c r="A88" s="3"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="5"/>
       <c r="E88" s="26"/>
-      <c r="F88" s="38"/>
-      <c r="G88" s="39"/>
-      <c r="H88" s="40"/>
-    </row>
-    <row r="89" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F88" s="44"/>
+      <c r="G88" s="45"/>
+      <c r="H88" s="46"/>
+    </row>
+    <row r="89" spans="1:8" ht="39" customHeight="1">
       <c r="A89" s="3"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="5"/>
       <c r="E89" s="26"/>
-      <c r="F89" s="38"/>
-      <c r="G89" s="39"/>
-      <c r="H89" s="40"/>
-    </row>
-    <row r="90" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F89" s="44"/>
+      <c r="G89" s="45"/>
+      <c r="H89" s="46"/>
+    </row>
+    <row r="90" spans="1:8" ht="39" customHeight="1">
       <c r="A90" s="3"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="5"/>
       <c r="E90" s="26"/>
-      <c r="F90" s="38"/>
-      <c r="G90" s="39"/>
-      <c r="H90" s="40"/>
-    </row>
-    <row r="91" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F90" s="44"/>
+      <c r="G90" s="45"/>
+      <c r="H90" s="46"/>
+    </row>
+    <row r="91" spans="1:8" ht="39" customHeight="1">
       <c r="A91" s="3"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="5"/>
       <c r="E91" s="26"/>
-      <c r="F91" s="38"/>
-      <c r="G91" s="39"/>
-      <c r="H91" s="40"/>
-    </row>
-    <row r="92" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F91" s="44"/>
+      <c r="G91" s="45"/>
+      <c r="H91" s="46"/>
+    </row>
+    <row r="92" spans="1:8" ht="39" customHeight="1">
       <c r="A92" s="3"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="5"/>
       <c r="E92" s="26"/>
-      <c r="F92" s="38"/>
-      <c r="G92" s="39"/>
-      <c r="H92" s="40"/>
-    </row>
-    <row r="93" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F92" s="44"/>
+      <c r="G92" s="45"/>
+      <c r="H92" s="46"/>
+    </row>
+    <row r="93" spans="1:8" ht="39" customHeight="1">
       <c r="A93" s="3"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="5"/>
       <c r="E93" s="26"/>
-      <c r="F93" s="38"/>
-      <c r="G93" s="39"/>
-      <c r="H93" s="40"/>
-    </row>
-    <row r="94" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F93" s="44"/>
+      <c r="G93" s="45"/>
+      <c r="H93" s="46"/>
+    </row>
+    <row r="94" spans="1:8" ht="39" customHeight="1">
       <c r="A94" s="3"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="5"/>
       <c r="E94" s="26"/>
-      <c r="F94" s="38"/>
-      <c r="G94" s="39"/>
-      <c r="H94" s="40"/>
-    </row>
-    <row r="95" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F94" s="44"/>
+      <c r="G94" s="45"/>
+      <c r="H94" s="46"/>
+    </row>
+    <row r="95" spans="1:8" ht="39" customHeight="1">
       <c r="A95" s="3"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="5"/>
       <c r="E95" s="26"/>
-      <c r="F95" s="38"/>
-      <c r="G95" s="39"/>
-      <c r="H95" s="40"/>
-    </row>
-    <row r="96" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F95" s="44"/>
+      <c r="G95" s="45"/>
+      <c r="H95" s="46"/>
+    </row>
+    <row r="96" spans="1:8" ht="39" customHeight="1">
       <c r="A96" s="3"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="5"/>
       <c r="E96" s="26"/>
-      <c r="F96" s="38"/>
-      <c r="G96" s="39"/>
-      <c r="H96" s="40"/>
-    </row>
-    <row r="97" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F96" s="44"/>
+      <c r="G96" s="45"/>
+      <c r="H96" s="46"/>
+    </row>
+    <row r="97" spans="1:8" ht="39" customHeight="1">
       <c r="A97" s="3"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="5"/>
       <c r="E97" s="26"/>
-      <c r="F97" s="38"/>
-      <c r="G97" s="39"/>
-      <c r="H97" s="40"/>
-    </row>
-    <row r="98" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F97" s="44"/>
+      <c r="G97" s="45"/>
+      <c r="H97" s="46"/>
+    </row>
+    <row r="98" spans="1:8" ht="39" customHeight="1">
       <c r="A98" s="3"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="5"/>
       <c r="E98" s="26"/>
-      <c r="F98" s="38"/>
-      <c r="G98" s="39"/>
-      <c r="H98" s="40"/>
-    </row>
-    <row r="99" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F98" s="44"/>
+      <c r="G98" s="45"/>
+      <c r="H98" s="46"/>
+    </row>
+    <row r="99" spans="1:8" ht="39" customHeight="1">
       <c r="A99" s="3"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="5"/>
       <c r="E99" s="26"/>
-      <c r="F99" s="38"/>
-      <c r="G99" s="39"/>
-      <c r="H99" s="40"/>
-    </row>
-    <row r="100" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F99" s="44"/>
+      <c r="G99" s="45"/>
+      <c r="H99" s="46"/>
+    </row>
+    <row r="100" spans="1:8" ht="39" customHeight="1">
       <c r="A100" s="3"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="5"/>
       <c r="E100" s="26"/>
-      <c r="F100" s="38"/>
-      <c r="G100" s="39"/>
-      <c r="H100" s="40"/>
-    </row>
-    <row r="101" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F100" s="44"/>
+      <c r="G100" s="45"/>
+      <c r="H100" s="46"/>
+    </row>
+    <row r="101" spans="1:8" ht="39" customHeight="1">
       <c r="A101" s="3"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="5"/>
       <c r="E101" s="26"/>
-      <c r="F101" s="38"/>
-      <c r="G101" s="39"/>
-      <c r="H101" s="40"/>
-    </row>
-    <row r="102" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F101" s="44"/>
+      <c r="G101" s="45"/>
+      <c r="H101" s="46"/>
+    </row>
+    <row r="102" spans="1:8" ht="39" customHeight="1">
       <c r="A102" s="3"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="5"/>
       <c r="E102" s="26"/>
-      <c r="F102" s="38"/>
-      <c r="G102" s="39"/>
-      <c r="H102" s="40"/>
-    </row>
-    <row r="103" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F102" s="44"/>
+      <c r="G102" s="45"/>
+      <c r="H102" s="46"/>
+    </row>
+    <row r="103" spans="1:8" ht="39" customHeight="1">
       <c r="A103" s="3"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="5"/>
       <c r="E103" s="26"/>
-      <c r="F103" s="38"/>
-      <c r="G103" s="39"/>
-      <c r="H103" s="40"/>
-    </row>
-    <row r="104" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F103" s="44"/>
+      <c r="G103" s="45"/>
+      <c r="H103" s="46"/>
+    </row>
+    <row r="104" spans="1:8" ht="39" customHeight="1">
       <c r="A104" s="3"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="5"/>
       <c r="E104" s="26"/>
-      <c r="F104" s="38"/>
-      <c r="G104" s="39"/>
-      <c r="H104" s="40"/>
-    </row>
-    <row r="105" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F104" s="44"/>
+      <c r="G104" s="45"/>
+      <c r="H104" s="46"/>
+    </row>
+    <row r="105" spans="1:8" ht="39" customHeight="1">
       <c r="A105" s="3"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="5"/>
       <c r="E105" s="26"/>
-      <c r="F105" s="38"/>
-      <c r="G105" s="39"/>
-      <c r="H105" s="40"/>
-    </row>
-    <row r="106" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F105" s="44"/>
+      <c r="G105" s="45"/>
+      <c r="H105" s="46"/>
+    </row>
+    <row r="106" spans="1:8" ht="39" customHeight="1">
       <c r="A106" s="3"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="5"/>
       <c r="E106" s="26"/>
-      <c r="F106" s="38"/>
-      <c r="G106" s="39"/>
-      <c r="H106" s="40"/>
-    </row>
-    <row r="107" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F106" s="44"/>
+      <c r="G106" s="45"/>
+      <c r="H106" s="46"/>
+    </row>
+    <row r="107" spans="1:8" ht="39" customHeight="1">
       <c r="A107" s="3"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="5"/>
       <c r="E107" s="26"/>
-      <c r="F107" s="38"/>
-      <c r="G107" s="39"/>
-      <c r="H107" s="40"/>
-    </row>
-    <row r="108" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F107" s="44"/>
+      <c r="G107" s="45"/>
+      <c r="H107" s="46"/>
+    </row>
+    <row r="108" spans="1:8" ht="39" customHeight="1">
       <c r="A108" s="3"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="5"/>
       <c r="E108" s="26"/>
-      <c r="F108" s="38"/>
-      <c r="G108" s="39"/>
-      <c r="H108" s="40"/>
-    </row>
-    <row r="109" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F108" s="44"/>
+      <c r="G108" s="45"/>
+      <c r="H108" s="46"/>
+    </row>
+    <row r="109" spans="1:8" ht="39" customHeight="1">
       <c r="A109" s="3"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="5"/>
       <c r="E109" s="26"/>
-      <c r="F109" s="38"/>
-      <c r="G109" s="39"/>
-      <c r="H109" s="40"/>
-    </row>
-    <row r="110" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F109" s="44"/>
+      <c r="G109" s="45"/>
+      <c r="H109" s="46"/>
+    </row>
+    <row r="110" spans="1:8" ht="39" customHeight="1">
       <c r="A110" s="3"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="5"/>
       <c r="E110" s="26"/>
-      <c r="F110" s="38"/>
-      <c r="G110" s="39"/>
-      <c r="H110" s="40"/>
-    </row>
-    <row r="111" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F110" s="44"/>
+      <c r="G110" s="45"/>
+      <c r="H110" s="46"/>
+    </row>
+    <row r="111" spans="1:8" ht="39" customHeight="1">
       <c r="A111" s="3"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="5"/>
       <c r="E111" s="26"/>
-      <c r="F111" s="38"/>
-      <c r="G111" s="39"/>
-      <c r="H111" s="40"/>
-    </row>
-    <row r="112" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F111" s="44"/>
+      <c r="G111" s="45"/>
+      <c r="H111" s="46"/>
+    </row>
+    <row r="112" spans="1:8" ht="39" customHeight="1">
       <c r="A112" s="3"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="5"/>
       <c r="E112" s="26"/>
-      <c r="F112" s="38"/>
-      <c r="G112" s="39"/>
-      <c r="H112" s="40"/>
-    </row>
-    <row r="113" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F112" s="44"/>
+      <c r="G112" s="45"/>
+      <c r="H112" s="46"/>
+    </row>
+    <row r="113" spans="1:8" ht="39" customHeight="1">
       <c r="A113" s="3"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="5"/>
       <c r="E113" s="26"/>
-      <c r="F113" s="38"/>
-      <c r="G113" s="39"/>
-      <c r="H113" s="40"/>
-    </row>
-    <row r="114" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F113" s="44"/>
+      <c r="G113" s="45"/>
+      <c r="H113" s="46"/>
+    </row>
+    <row r="114" spans="1:8" ht="39" customHeight="1">
       <c r="A114" s="3"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="5"/>
       <c r="E114" s="26"/>
-      <c r="F114" s="38"/>
-      <c r="G114" s="39"/>
-      <c r="H114" s="40"/>
-    </row>
-    <row r="115" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F114" s="44"/>
+      <c r="G114" s="45"/>
+      <c r="H114" s="46"/>
+    </row>
+    <row r="115" spans="1:8" ht="39" customHeight="1">
       <c r="A115" s="3"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="5"/>
       <c r="E115" s="26"/>
-      <c r="F115" s="38"/>
-      <c r="G115" s="39"/>
-      <c r="H115" s="40"/>
-    </row>
-    <row r="116" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F115" s="44"/>
+      <c r="G115" s="45"/>
+      <c r="H115" s="46"/>
+    </row>
+    <row r="116" spans="1:8" ht="39" customHeight="1">
       <c r="A116" s="3"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="5"/>
       <c r="E116" s="26"/>
-      <c r="F116" s="38"/>
-      <c r="G116" s="39"/>
-      <c r="H116" s="40"/>
-    </row>
-    <row r="117" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F116" s="44"/>
+      <c r="G116" s="45"/>
+      <c r="H116" s="46"/>
+    </row>
+    <row r="117" spans="1:8" ht="39" customHeight="1">
       <c r="A117" s="3"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="5"/>
       <c r="E117" s="26"/>
-      <c r="F117" s="38"/>
-      <c r="G117" s="39"/>
-      <c r="H117" s="40"/>
-    </row>
-    <row r="118" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F117" s="44"/>
+      <c r="G117" s="45"/>
+      <c r="H117" s="46"/>
+    </row>
+    <row r="118" spans="1:8" ht="39" customHeight="1">
       <c r="A118" s="3"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="5"/>
       <c r="E118" s="26"/>
-      <c r="F118" s="38"/>
-      <c r="G118" s="39"/>
-      <c r="H118" s="40"/>
-    </row>
-    <row r="119" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F118" s="44"/>
+      <c r="G118" s="45"/>
+      <c r="H118" s="46"/>
+    </row>
+    <row r="119" spans="1:8" ht="39" customHeight="1">
       <c r="A119" s="3"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="5"/>
       <c r="E119" s="26"/>
-      <c r="F119" s="38"/>
-      <c r="G119" s="39"/>
-      <c r="H119" s="40"/>
-    </row>
-    <row r="120" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F119" s="44"/>
+      <c r="G119" s="45"/>
+      <c r="H119" s="46"/>
+    </row>
+    <row r="120" spans="1:8" ht="39" customHeight="1">
       <c r="A120" s="3"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="5"/>
       <c r="E120" s="26"/>
-      <c r="F120" s="38"/>
-      <c r="G120" s="39"/>
-      <c r="H120" s="40"/>
-    </row>
-    <row r="121" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F120" s="44"/>
+      <c r="G120" s="45"/>
+      <c r="H120" s="46"/>
+    </row>
+    <row r="121" spans="1:8" ht="39" customHeight="1">
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="5"/>
       <c r="E121" s="26"/>
-      <c r="F121" s="38"/>
-      <c r="G121" s="39"/>
-      <c r="H121" s="40"/>
-    </row>
-    <row r="122" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F121" s="44"/>
+      <c r="G121" s="45"/>
+      <c r="H121" s="46"/>
+    </row>
+    <row r="122" spans="1:8" ht="39" customHeight="1">
       <c r="A122" s="3"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="5"/>
       <c r="E122" s="26"/>
-      <c r="F122" s="38"/>
-      <c r="G122" s="39"/>
-      <c r="H122" s="40"/>
-    </row>
-    <row r="123" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F122" s="44"/>
+      <c r="G122" s="45"/>
+      <c r="H122" s="46"/>
+    </row>
+    <row r="123" spans="1:8" ht="39" customHeight="1">
       <c r="A123" s="3"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="5"/>
       <c r="E123" s="26"/>
-      <c r="F123" s="38"/>
-      <c r="G123" s="39"/>
-      <c r="H123" s="40"/>
-    </row>
-    <row r="124" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F123" s="44"/>
+      <c r="G123" s="45"/>
+      <c r="H123" s="46"/>
+    </row>
+    <row r="124" spans="1:8" ht="39" customHeight="1">
       <c r="A124" s="3"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
       <c r="D124" s="5"/>
       <c r="E124" s="26"/>
-      <c r="F124" s="38"/>
-      <c r="G124" s="39"/>
-      <c r="H124" s="40"/>
-    </row>
-    <row r="125" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F124" s="44"/>
+      <c r="G124" s="45"/>
+      <c r="H124" s="46"/>
+    </row>
+    <row r="125" spans="1:8" ht="39" customHeight="1">
       <c r="A125" s="3"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
       <c r="D125" s="5"/>
       <c r="E125" s="26"/>
-      <c r="F125" s="38"/>
-      <c r="G125" s="39"/>
-      <c r="H125" s="40"/>
-    </row>
-    <row r="126" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F125" s="44"/>
+      <c r="G125" s="45"/>
+      <c r="H125" s="46"/>
+    </row>
+    <row r="126" spans="1:8" ht="39" customHeight="1">
       <c r="A126" s="3"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="5"/>
       <c r="E126" s="26"/>
-      <c r="F126" s="38"/>
-      <c r="G126" s="39"/>
-      <c r="H126" s="40"/>
-    </row>
-    <row r="127" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F126" s="44"/>
+      <c r="G126" s="45"/>
+      <c r="H126" s="46"/>
+    </row>
+    <row r="127" spans="1:8" ht="39" customHeight="1">
       <c r="A127" s="3"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="5"/>
       <c r="E127" s="26"/>
-      <c r="F127" s="38"/>
-      <c r="G127" s="39"/>
-      <c r="H127" s="40"/>
-    </row>
-    <row r="128" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F127" s="44"/>
+      <c r="G127" s="45"/>
+      <c r="H127" s="46"/>
+    </row>
+    <row r="128" spans="1:8" ht="39" customHeight="1">
       <c r="A128" s="3"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="5"/>
       <c r="E128" s="26"/>
-      <c r="F128" s="38"/>
-      <c r="G128" s="39"/>
-      <c r="H128" s="40"/>
-    </row>
-    <row r="129" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F128" s="44"/>
+      <c r="G128" s="45"/>
+      <c r="H128" s="46"/>
+    </row>
+    <row r="129" spans="1:8" ht="39" customHeight="1">
       <c r="A129" s="3"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="5"/>
       <c r="E129" s="26"/>
-      <c r="F129" s="38"/>
-      <c r="G129" s="39"/>
-      <c r="H129" s="40"/>
-    </row>
-    <row r="130" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F129" s="44"/>
+      <c r="G129" s="45"/>
+      <c r="H129" s="46"/>
+    </row>
+    <row r="130" spans="1:8" ht="39" customHeight="1">
       <c r="A130" s="3"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="5"/>
       <c r="E130" s="26"/>
-      <c r="F130" s="38"/>
-      <c r="G130" s="39"/>
-      <c r="H130" s="40"/>
-    </row>
-    <row r="131" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F130" s="44"/>
+      <c r="G130" s="45"/>
+      <c r="H130" s="46"/>
+    </row>
+    <row r="131" spans="1:8" ht="39" customHeight="1">
       <c r="A131" s="3"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="5"/>
       <c r="E131" s="26"/>
-      <c r="F131" s="38"/>
-      <c r="G131" s="39"/>
-      <c r="H131" s="40"/>
-    </row>
-    <row r="132" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F131" s="44"/>
+      <c r="G131" s="45"/>
+      <c r="H131" s="46"/>
+    </row>
+    <row r="132" spans="1:8" ht="39" customHeight="1">
       <c r="A132" s="3"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="5"/>
       <c r="E132" s="26"/>
-      <c r="F132" s="38"/>
-      <c r="G132" s="39"/>
-      <c r="H132" s="40"/>
-    </row>
-    <row r="133" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F132" s="44"/>
+      <c r="G132" s="45"/>
+      <c r="H132" s="46"/>
+    </row>
+    <row r="133" spans="1:8" ht="39" customHeight="1">
       <c r="A133" s="3"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="5"/>
       <c r="E133" s="26"/>
-      <c r="F133" s="38"/>
-      <c r="G133" s="39"/>
-      <c r="H133" s="40"/>
-    </row>
-    <row r="134" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F133" s="44"/>
+      <c r="G133" s="45"/>
+      <c r="H133" s="46"/>
+    </row>
+    <row r="134" spans="1:8" ht="39" customHeight="1">
       <c r="A134" s="3"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="5"/>
       <c r="E134" s="26"/>
-      <c r="F134" s="38"/>
-      <c r="G134" s="39"/>
-      <c r="H134" s="40"/>
-    </row>
-    <row r="135" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F134" s="44"/>
+      <c r="G134" s="45"/>
+      <c r="H134" s="46"/>
+    </row>
+    <row r="135" spans="1:8" ht="39" customHeight="1">
       <c r="A135" s="3"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="5"/>
       <c r="E135" s="26"/>
-      <c r="F135" s="38"/>
-      <c r="G135" s="39"/>
-      <c r="H135" s="40"/>
-    </row>
-    <row r="136" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F135" s="44"/>
+      <c r="G135" s="45"/>
+      <c r="H135" s="46"/>
+    </row>
+    <row r="136" spans="1:8" ht="39" customHeight="1">
       <c r="A136" s="3"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="5"/>
       <c r="E136" s="26"/>
-      <c r="F136" s="38"/>
-      <c r="G136" s="39"/>
-      <c r="H136" s="40"/>
-    </row>
-    <row r="137" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F136" s="44"/>
+      <c r="G136" s="45"/>
+      <c r="H136" s="46"/>
+    </row>
+    <row r="137" spans="1:8" ht="39" customHeight="1">
       <c r="A137" s="3"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="5"/>
       <c r="E137" s="26"/>
-      <c r="F137" s="38"/>
-      <c r="G137" s="39"/>
-      <c r="H137" s="40"/>
-    </row>
-    <row r="138" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F137" s="44"/>
+      <c r="G137" s="45"/>
+      <c r="H137" s="46"/>
+    </row>
+    <row r="138" spans="1:8" ht="39" customHeight="1">
       <c r="A138" s="3"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="5"/>
       <c r="E138" s="26"/>
-      <c r="F138" s="38"/>
-      <c r="G138" s="39"/>
-      <c r="H138" s="40"/>
-    </row>
-    <row r="139" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F138" s="44"/>
+      <c r="G138" s="45"/>
+      <c r="H138" s="46"/>
+    </row>
+    <row r="139" spans="1:8" ht="39" customHeight="1">
       <c r="A139" s="3"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="5"/>
       <c r="E139" s="26"/>
-      <c r="F139" s="38"/>
-      <c r="G139" s="39"/>
-      <c r="H139" s="40"/>
-    </row>
-    <row r="140" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F139" s="44"/>
+      <c r="G139" s="45"/>
+      <c r="H139" s="46"/>
+    </row>
+    <row r="140" spans="1:8" ht="39" customHeight="1">
       <c r="A140" s="3"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="5"/>
       <c r="E140" s="26"/>
-      <c r="F140" s="38"/>
-      <c r="G140" s="39"/>
-      <c r="H140" s="40"/>
-    </row>
-    <row r="141" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F140" s="44"/>
+      <c r="G140" s="45"/>
+      <c r="H140" s="46"/>
+    </row>
+    <row r="141" spans="1:8" ht="39" customHeight="1">
       <c r="A141" s="3"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="5"/>
       <c r="E141" s="26"/>
-      <c r="F141" s="38"/>
-      <c r="G141" s="39"/>
-      <c r="H141" s="40"/>
-    </row>
-    <row r="142" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F141" s="44"/>
+      <c r="G141" s="45"/>
+      <c r="H141" s="46"/>
+    </row>
+    <row r="142" spans="1:8" ht="39" customHeight="1">
       <c r="A142" s="3"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="5"/>
       <c r="E142" s="26"/>
-      <c r="F142" s="38"/>
-      <c r="G142" s="39"/>
-      <c r="H142" s="40"/>
-    </row>
-    <row r="143" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F142" s="44"/>
+      <c r="G142" s="45"/>
+      <c r="H142" s="46"/>
+    </row>
+    <row r="143" spans="1:8" ht="39" customHeight="1">
       <c r="A143" s="3"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="5"/>
       <c r="E143" s="26"/>
-      <c r="F143" s="38"/>
-      <c r="G143" s="39"/>
-      <c r="H143" s="40"/>
-    </row>
-    <row r="144" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F143" s="44"/>
+      <c r="G143" s="45"/>
+      <c r="H143" s="46"/>
+    </row>
+    <row r="144" spans="1:8" ht="39" customHeight="1">
       <c r="A144" s="3"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="5"/>
       <c r="E144" s="26"/>
-      <c r="F144" s="38"/>
-      <c r="G144" s="39"/>
-      <c r="H144" s="40"/>
-    </row>
-    <row r="145" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F144" s="44"/>
+      <c r="G144" s="45"/>
+      <c r="H144" s="46"/>
+    </row>
+    <row r="145" spans="1:8" ht="39" customHeight="1">
       <c r="A145" s="3"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="5"/>
       <c r="E145" s="26"/>
-      <c r="F145" s="38"/>
-      <c r="G145" s="39"/>
-      <c r="H145" s="40"/>
-    </row>
-    <row r="146" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F145" s="44"/>
+      <c r="G145" s="45"/>
+      <c r="H145" s="46"/>
+    </row>
+    <row r="146" spans="1:8" ht="39" customHeight="1">
       <c r="A146" s="3"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="5"/>
       <c r="E146" s="26"/>
-      <c r="F146" s="38"/>
-      <c r="G146" s="39"/>
-      <c r="H146" s="40"/>
-    </row>
-    <row r="147" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F146" s="44"/>
+      <c r="G146" s="45"/>
+      <c r="H146" s="46"/>
+    </row>
+    <row r="147" spans="1:8" ht="39" customHeight="1">
       <c r="A147" s="3"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="5"/>
       <c r="E147" s="26"/>
-      <c r="F147" s="38"/>
-      <c r="G147" s="39"/>
-      <c r="H147" s="40"/>
-    </row>
-    <row r="148" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F147" s="44"/>
+      <c r="G147" s="45"/>
+      <c r="H147" s="46"/>
+    </row>
+    <row r="148" spans="1:8" ht="39" customHeight="1">
       <c r="A148" s="3"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="5"/>
       <c r="E148" s="26"/>
-      <c r="F148" s="38"/>
-      <c r="G148" s="39"/>
-      <c r="H148" s="40"/>
-    </row>
-    <row r="149" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F148" s="44"/>
+      <c r="G148" s="45"/>
+      <c r="H148" s="46"/>
+    </row>
+    <row r="149" spans="1:8" ht="39" customHeight="1">
       <c r="A149" s="3"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="5"/>
       <c r="E149" s="26"/>
-      <c r="F149" s="38"/>
-      <c r="G149" s="39"/>
-      <c r="H149" s="40"/>
-    </row>
-    <row r="150" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F149" s="44"/>
+      <c r="G149" s="45"/>
+      <c r="H149" s="46"/>
+    </row>
+    <row r="150" spans="1:8" ht="39" customHeight="1">
       <c r="A150" s="3"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="5"/>
       <c r="E150" s="26"/>
-      <c r="F150" s="38"/>
-      <c r="G150" s="39"/>
-      <c r="H150" s="40"/>
-    </row>
-    <row r="151" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F150" s="44"/>
+      <c r="G150" s="45"/>
+      <c r="H150" s="46"/>
+    </row>
+    <row r="151" spans="1:8" ht="39" customHeight="1">
       <c r="A151" s="3"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="5"/>
       <c r="E151" s="26"/>
-      <c r="F151" s="38"/>
-      <c r="G151" s="39"/>
-      <c r="H151" s="40"/>
-    </row>
-    <row r="152" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F151" s="44"/>
+      <c r="G151" s="45"/>
+      <c r="H151" s="46"/>
+    </row>
+    <row r="152" spans="1:8" ht="39" customHeight="1">
       <c r="A152" s="3"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="5"/>
       <c r="E152" s="26"/>
-      <c r="F152" s="38"/>
-      <c r="G152" s="39"/>
-      <c r="H152" s="40"/>
-    </row>
-    <row r="153" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F152" s="44"/>
+      <c r="G152" s="45"/>
+      <c r="H152" s="46"/>
+    </row>
+    <row r="153" spans="1:8" ht="39" customHeight="1">
       <c r="A153" s="3"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="5"/>
       <c r="E153" s="26"/>
-      <c r="F153" s="38"/>
-      <c r="G153" s="39"/>
-      <c r="H153" s="40"/>
-    </row>
-    <row r="154" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F153" s="44"/>
+      <c r="G153" s="45"/>
+      <c r="H153" s="46"/>
+    </row>
+    <row r="154" spans="1:8" ht="39" customHeight="1">
       <c r="A154" s="3"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="5"/>
       <c r="E154" s="26"/>
-      <c r="F154" s="38"/>
-      <c r="G154" s="39"/>
-      <c r="H154" s="40"/>
-    </row>
-    <row r="155" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F154" s="44"/>
+      <c r="G154" s="45"/>
+      <c r="H154" s="46"/>
+    </row>
+    <row r="155" spans="1:8" ht="39" customHeight="1">
       <c r="A155" s="3"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="5"/>
       <c r="E155" s="26"/>
-      <c r="F155" s="38"/>
-      <c r="G155" s="39"/>
-      <c r="H155" s="40"/>
-    </row>
-    <row r="156" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F155" s="44"/>
+      <c r="G155" s="45"/>
+      <c r="H155" s="46"/>
+    </row>
+    <row r="156" spans="1:8" ht="39" customHeight="1">
       <c r="A156" s="3"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="5"/>
       <c r="E156" s="26"/>
-      <c r="F156" s="38"/>
-      <c r="G156" s="39"/>
-      <c r="H156" s="40"/>
-    </row>
-    <row r="157" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F156" s="44"/>
+      <c r="G156" s="45"/>
+      <c r="H156" s="46"/>
+    </row>
+    <row r="157" spans="1:8" ht="39" customHeight="1">
       <c r="A157" s="3"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="5"/>
       <c r="E157" s="26"/>
-      <c r="F157" s="38"/>
-      <c r="G157" s="39"/>
-      <c r="H157" s="40"/>
-    </row>
-    <row r="158" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F157" s="44"/>
+      <c r="G157" s="45"/>
+      <c r="H157" s="46"/>
+    </row>
+    <row r="158" spans="1:8" ht="39" customHeight="1">
       <c r="A158" s="3"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="5"/>
       <c r="E158" s="26"/>
-      <c r="F158" s="38"/>
-      <c r="G158" s="39"/>
-      <c r="H158" s="40"/>
-    </row>
-    <row r="159" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F158" s="44"/>
+      <c r="G158" s="45"/>
+      <c r="H158" s="46"/>
+    </row>
+    <row r="159" spans="1:8" ht="39" customHeight="1">
       <c r="A159" s="3"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
       <c r="D159" s="5"/>
       <c r="E159" s="26"/>
-      <c r="F159" s="38"/>
-      <c r="G159" s="39"/>
-      <c r="H159" s="40"/>
-    </row>
-    <row r="160" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F159" s="44"/>
+      <c r="G159" s="45"/>
+      <c r="H159" s="46"/>
+    </row>
+    <row r="160" spans="1:8" ht="39" customHeight="1">
       <c r="A160" s="3"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="5"/>
       <c r="E160" s="26"/>
-      <c r="F160" s="38"/>
-      <c r="G160" s="39"/>
-      <c r="H160" s="40"/>
-    </row>
-    <row r="161" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F160" s="44"/>
+      <c r="G160" s="45"/>
+      <c r="H160" s="46"/>
+    </row>
+    <row r="161" spans="1:8" ht="39" customHeight="1">
       <c r="A161" s="3"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="5"/>
       <c r="E161" s="26"/>
-      <c r="F161" s="38"/>
-      <c r="G161" s="39"/>
-      <c r="H161" s="40"/>
-    </row>
-    <row r="162" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F161" s="44"/>
+      <c r="G161" s="45"/>
+      <c r="H161" s="46"/>
+    </row>
+    <row r="162" spans="1:8" ht="39" customHeight="1">
       <c r="A162" s="3"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="D162" s="5"/>
       <c r="E162" s="26"/>
-      <c r="F162" s="38"/>
-      <c r="G162" s="39"/>
-      <c r="H162" s="40"/>
-    </row>
-    <row r="163" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F162" s="44"/>
+      <c r="G162" s="45"/>
+      <c r="H162" s="46"/>
+    </row>
+    <row r="163" spans="1:8" ht="39" customHeight="1">
       <c r="A163" s="3"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="D163" s="5"/>
       <c r="E163" s="26"/>
-      <c r="F163" s="38"/>
-      <c r="G163" s="39"/>
-      <c r="H163" s="40"/>
-    </row>
-    <row r="164" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F163" s="44"/>
+      <c r="G163" s="45"/>
+      <c r="H163" s="46"/>
+    </row>
+    <row r="164" spans="1:8" ht="39" customHeight="1">
       <c r="A164" s="3"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
       <c r="D164" s="5"/>
       <c r="E164" s="26"/>
-      <c r="F164" s="38"/>
-      <c r="G164" s="39"/>
-      <c r="H164" s="40"/>
-    </row>
-    <row r="165" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F164" s="44"/>
+      <c r="G164" s="45"/>
+      <c r="H164" s="46"/>
+    </row>
+    <row r="165" spans="1:8" ht="39" customHeight="1">
       <c r="A165" s="3"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="5"/>
       <c r="E165" s="26"/>
-      <c r="F165" s="38"/>
-      <c r="G165" s="39"/>
-      <c r="H165" s="40"/>
-    </row>
-    <row r="166" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F165" s="44"/>
+      <c r="G165" s="45"/>
+      <c r="H165" s="46"/>
+    </row>
+    <row r="166" spans="1:8" ht="39" customHeight="1">
       <c r="A166" s="3"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="5"/>
       <c r="E166" s="26"/>
-      <c r="F166" s="38"/>
-      <c r="G166" s="39"/>
-      <c r="H166" s="40"/>
-    </row>
-    <row r="167" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F166" s="44"/>
+      <c r="G166" s="45"/>
+      <c r="H166" s="46"/>
+    </row>
+    <row r="167" spans="1:8" ht="39" customHeight="1">
       <c r="A167" s="3"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
       <c r="D167" s="5"/>
       <c r="E167" s="26"/>
-      <c r="F167" s="38"/>
-      <c r="G167" s="39"/>
-      <c r="H167" s="40"/>
-    </row>
-    <row r="168" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F167" s="44"/>
+      <c r="G167" s="45"/>
+      <c r="H167" s="46"/>
+    </row>
+    <row r="168" spans="1:8" ht="39" customHeight="1">
       <c r="A168" s="3"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
       <c r="D168" s="5"/>
       <c r="E168" s="26"/>
-      <c r="F168" s="38"/>
-      <c r="G168" s="39"/>
-      <c r="H168" s="40"/>
-    </row>
-    <row r="169" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F168" s="44"/>
+      <c r="G168" s="45"/>
+      <c r="H168" s="46"/>
+    </row>
+    <row r="169" spans="1:8" ht="39" customHeight="1">
       <c r="A169" s="3"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="5"/>
       <c r="E169" s="26"/>
-      <c r="F169" s="38"/>
-      <c r="G169" s="39"/>
-      <c r="H169" s="40"/>
-    </row>
-    <row r="170" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F169" s="44"/>
+      <c r="G169" s="45"/>
+      <c r="H169" s="46"/>
+    </row>
+    <row r="170" spans="1:8" ht="39" customHeight="1">
       <c r="A170" s="3"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
       <c r="D170" s="5"/>
       <c r="E170" s="26"/>
-      <c r="F170" s="38"/>
-      <c r="G170" s="39"/>
-      <c r="H170" s="40"/>
-    </row>
-    <row r="171" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F170" s="44"/>
+      <c r="G170" s="45"/>
+      <c r="H170" s="46"/>
+    </row>
+    <row r="171" spans="1:8" ht="39" customHeight="1">
       <c r="A171" s="3"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="5"/>
       <c r="E171" s="26"/>
-      <c r="F171" s="38"/>
-      <c r="G171" s="39"/>
-      <c r="H171" s="40"/>
-    </row>
-    <row r="172" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F171" s="44"/>
+      <c r="G171" s="45"/>
+      <c r="H171" s="46"/>
+    </row>
+    <row r="172" spans="1:8" ht="39" customHeight="1">
       <c r="A172" s="3"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="5"/>
       <c r="E172" s="26"/>
-      <c r="F172" s="38"/>
-      <c r="G172" s="39"/>
-      <c r="H172" s="40"/>
-    </row>
-    <row r="173" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F172" s="44"/>
+      <c r="G172" s="45"/>
+      <c r="H172" s="46"/>
+    </row>
+    <row r="173" spans="1:8" ht="39" customHeight="1">
       <c r="A173" s="3"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="5"/>
       <c r="E173" s="26"/>
-      <c r="F173" s="38"/>
-      <c r="G173" s="39"/>
-      <c r="H173" s="40"/>
-    </row>
-    <row r="174" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F173" s="44"/>
+      <c r="G173" s="45"/>
+      <c r="H173" s="46"/>
+    </row>
+    <row r="174" spans="1:8" ht="39" customHeight="1">
       <c r="A174" s="3"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
       <c r="D174" s="5"/>
       <c r="E174" s="26"/>
-      <c r="F174" s="38"/>
-      <c r="G174" s="39"/>
-      <c r="H174" s="40"/>
-    </row>
-    <row r="175" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F174" s="44"/>
+      <c r="G174" s="45"/>
+      <c r="H174" s="46"/>
+    </row>
+    <row r="175" spans="1:8" ht="39" customHeight="1">
       <c r="A175" s="3"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="5"/>
       <c r="E175" s="26"/>
-      <c r="F175" s="38"/>
-      <c r="G175" s="39"/>
-      <c r="H175" s="40"/>
-    </row>
-    <row r="176" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F175" s="44"/>
+      <c r="G175" s="45"/>
+      <c r="H175" s="46"/>
+    </row>
+    <row r="176" spans="1:8" ht="39" customHeight="1">
       <c r="A176" s="3"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
       <c r="D176" s="5"/>
       <c r="E176" s="26"/>
-      <c r="F176" s="38"/>
-      <c r="G176" s="39"/>
-      <c r="H176" s="40"/>
-    </row>
-    <row r="177" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F176" s="44"/>
+      <c r="G176" s="45"/>
+      <c r="H176" s="46"/>
+    </row>
+    <row r="177" spans="1:8" ht="39" customHeight="1">
       <c r="A177" s="3"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
       <c r="D177" s="5"/>
       <c r="E177" s="26"/>
-      <c r="F177" s="38"/>
-      <c r="G177" s="39"/>
-      <c r="H177" s="40"/>
-    </row>
-    <row r="178" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F177" s="44"/>
+      <c r="G177" s="45"/>
+      <c r="H177" s="46"/>
+    </row>
+    <row r="178" spans="1:8" ht="39" customHeight="1">
       <c r="A178" s="3"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
       <c r="D178" s="5"/>
       <c r="E178" s="26"/>
-      <c r="F178" s="38"/>
-      <c r="G178" s="39"/>
-      <c r="H178" s="40"/>
-    </row>
-    <row r="179" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F178" s="44"/>
+      <c r="G178" s="45"/>
+      <c r="H178" s="46"/>
+    </row>
+    <row r="179" spans="1:8" ht="39" customHeight="1">
       <c r="A179" s="3"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
       <c r="D179" s="5"/>
       <c r="E179" s="26"/>
-      <c r="F179" s="38"/>
-      <c r="G179" s="39"/>
-      <c r="H179" s="40"/>
-    </row>
-    <row r="180" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F179" s="44"/>
+      <c r="G179" s="45"/>
+      <c r="H179" s="46"/>
+    </row>
+    <row r="180" spans="1:8" ht="39" customHeight="1">
       <c r="A180" s="3"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
       <c r="D180" s="5"/>
       <c r="E180" s="26"/>
-      <c r="F180" s="38"/>
-      <c r="G180" s="39"/>
-      <c r="H180" s="40"/>
-    </row>
-    <row r="181" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F180" s="44"/>
+      <c r="G180" s="45"/>
+      <c r="H180" s="46"/>
+    </row>
+    <row r="181" spans="1:8" ht="39" customHeight="1">
       <c r="A181" s="3"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
       <c r="D181" s="5"/>
       <c r="E181" s="26"/>
-      <c r="F181" s="38"/>
-      <c r="G181" s="39"/>
-      <c r="H181" s="40"/>
-    </row>
-    <row r="182" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F181" s="44"/>
+      <c r="G181" s="45"/>
+      <c r="H181" s="46"/>
+    </row>
+    <row r="182" spans="1:8" ht="39" customHeight="1">
       <c r="A182" s="3"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
       <c r="D182" s="5"/>
       <c r="E182" s="26"/>
-      <c r="F182" s="38"/>
-      <c r="G182" s="39"/>
-      <c r="H182" s="40"/>
-    </row>
-    <row r="183" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F182" s="44"/>
+      <c r="G182" s="45"/>
+      <c r="H182" s="46"/>
+    </row>
+    <row r="183" spans="1:8" ht="39" customHeight="1">
       <c r="A183" s="3"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
       <c r="D183" s="5"/>
       <c r="E183" s="26"/>
-      <c r="F183" s="38"/>
-      <c r="G183" s="39"/>
-      <c r="H183" s="40"/>
-    </row>
-    <row r="184" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F183" s="44"/>
+      <c r="G183" s="45"/>
+      <c r="H183" s="46"/>
+    </row>
+    <row r="184" spans="1:8" ht="39" customHeight="1">
       <c r="A184" s="3"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
       <c r="D184" s="5"/>
       <c r="E184" s="26"/>
-      <c r="F184" s="38"/>
-      <c r="G184" s="39"/>
-      <c r="H184" s="40"/>
-    </row>
-    <row r="185" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F184" s="44"/>
+      <c r="G184" s="45"/>
+      <c r="H184" s="46"/>
+    </row>
+    <row r="185" spans="1:8" ht="39" customHeight="1">
       <c r="A185" s="3"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
       <c r="D185" s="5"/>
       <c r="E185" s="26"/>
-      <c r="F185" s="38"/>
-      <c r="G185" s="39"/>
-      <c r="H185" s="40"/>
-    </row>
-    <row r="186" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F185" s="44"/>
+      <c r="G185" s="45"/>
+      <c r="H185" s="46"/>
+    </row>
+    <row r="186" spans="1:8" ht="39" customHeight="1">
       <c r="A186" s="3"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
       <c r="D186" s="5"/>
       <c r="E186" s="26"/>
-      <c r="F186" s="38"/>
-      <c r="G186" s="39"/>
-      <c r="H186" s="40"/>
-    </row>
-    <row r="187" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F186" s="44"/>
+      <c r="G186" s="45"/>
+      <c r="H186" s="46"/>
+    </row>
+    <row r="187" spans="1:8" ht="39" customHeight="1">
       <c r="A187" s="3"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
       <c r="D187" s="5"/>
       <c r="E187" s="26"/>
-      <c r="F187" s="38"/>
-      <c r="G187" s="39"/>
-      <c r="H187" s="40"/>
-    </row>
-    <row r="188" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F187" s="44"/>
+      <c r="G187" s="45"/>
+      <c r="H187" s="46"/>
+    </row>
+    <row r="188" spans="1:8" ht="39" customHeight="1">
       <c r="A188" s="3"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
       <c r="D188" s="5"/>
       <c r="E188" s="26"/>
-      <c r="F188" s="38"/>
-      <c r="G188" s="39"/>
-      <c r="H188" s="40"/>
-    </row>
-    <row r="189" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F188" s="44"/>
+      <c r="G188" s="45"/>
+      <c r="H188" s="46"/>
+    </row>
+    <row r="189" spans="1:8" ht="39" customHeight="1">
       <c r="A189" s="3"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
       <c r="D189" s="5"/>
       <c r="E189" s="26"/>
-      <c r="F189" s="38"/>
-      <c r="G189" s="39"/>
-      <c r="H189" s="40"/>
-    </row>
-    <row r="190" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F189" s="44"/>
+      <c r="G189" s="45"/>
+      <c r="H189" s="46"/>
+    </row>
+    <row r="190" spans="1:8" ht="39" customHeight="1">
       <c r="A190" s="3"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
       <c r="D190" s="5"/>
       <c r="E190" s="26"/>
-      <c r="F190" s="38"/>
-      <c r="G190" s="39"/>
-      <c r="H190" s="40"/>
-    </row>
-    <row r="191" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F190" s="44"/>
+      <c r="G190" s="45"/>
+      <c r="H190" s="46"/>
+    </row>
+    <row r="191" spans="1:8" ht="39" customHeight="1">
       <c r="A191" s="3"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
       <c r="D191" s="5"/>
       <c r="E191" s="26"/>
-      <c r="F191" s="38"/>
-      <c r="G191" s="39"/>
-      <c r="H191" s="40"/>
-    </row>
-    <row r="192" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F191" s="44"/>
+      <c r="G191" s="45"/>
+      <c r="H191" s="46"/>
+    </row>
+    <row r="192" spans="1:8" ht="39" customHeight="1">
       <c r="A192" s="3"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
       <c r="D192" s="5"/>
       <c r="E192" s="26"/>
-      <c r="F192" s="38"/>
-      <c r="G192" s="39"/>
-      <c r="H192" s="40"/>
-    </row>
-    <row r="193" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F192" s="44"/>
+      <c r="G192" s="45"/>
+      <c r="H192" s="46"/>
+    </row>
+    <row r="193" spans="1:8" ht="39" customHeight="1">
       <c r="A193" s="3"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
       <c r="D193" s="5"/>
       <c r="E193" s="26"/>
-      <c r="F193" s="38"/>
-      <c r="G193" s="39"/>
-      <c r="H193" s="40"/>
-    </row>
-    <row r="194" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F193" s="44"/>
+      <c r="G193" s="45"/>
+      <c r="H193" s="46"/>
+    </row>
+    <row r="194" spans="1:8" ht="39" customHeight="1">
       <c r="A194" s="3"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
       <c r="D194" s="5"/>
       <c r="E194" s="26"/>
-      <c r="F194" s="38"/>
-      <c r="G194" s="39"/>
-      <c r="H194" s="40"/>
-    </row>
-    <row r="195" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F194" s="44"/>
+      <c r="G194" s="45"/>
+      <c r="H194" s="46"/>
+    </row>
+    <row r="195" spans="1:8" ht="39" customHeight="1">
       <c r="A195" s="3"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
       <c r="D195" s="5"/>
       <c r="E195" s="26"/>
-      <c r="F195" s="38"/>
-      <c r="G195" s="39"/>
-      <c r="H195" s="40"/>
-    </row>
-    <row r="196" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F195" s="44"/>
+      <c r="G195" s="45"/>
+      <c r="H195" s="46"/>
+    </row>
+    <row r="196" spans="1:8" ht="39" customHeight="1">
       <c r="A196" s="3"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
       <c r="D196" s="5"/>
       <c r="E196" s="26"/>
-      <c r="F196" s="38"/>
-      <c r="G196" s="39"/>
-      <c r="H196" s="40"/>
-    </row>
-    <row r="197" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F196" s="44"/>
+      <c r="G196" s="45"/>
+      <c r="H196" s="46"/>
+    </row>
+    <row r="197" spans="1:8" ht="39" customHeight="1">
       <c r="A197" s="3"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
       <c r="D197" s="5"/>
       <c r="E197" s="26"/>
-      <c r="F197" s="38"/>
-      <c r="G197" s="39"/>
-      <c r="H197" s="40"/>
-    </row>
-    <row r="198" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F197" s="44"/>
+      <c r="G197" s="45"/>
+      <c r="H197" s="46"/>
+    </row>
+    <row r="198" spans="1:8" ht="39" customHeight="1">
       <c r="A198" s="3"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
       <c r="D198" s="5"/>
       <c r="E198" s="26"/>
-      <c r="F198" s="38"/>
-      <c r="G198" s="39"/>
-      <c r="H198" s="40"/>
-    </row>
-    <row r="199" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F198" s="44"/>
+      <c r="G198" s="45"/>
+      <c r="H198" s="46"/>
+    </row>
+    <row r="199" spans="1:8" ht="39" customHeight="1">
       <c r="A199" s="3"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
       <c r="D199" s="5"/>
       <c r="E199" s="26"/>
-      <c r="F199" s="38"/>
-      <c r="G199" s="39"/>
-      <c r="H199" s="40"/>
-    </row>
-    <row r="200" spans="1:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F199" s="44"/>
+      <c r="G199" s="45"/>
+      <c r="H199" s="46"/>
+    </row>
+    <row r="200" spans="1:8" ht="39" customHeight="1" thickBot="1">
       <c r="A200" s="6"/>
       <c r="B200" s="7"/>
       <c r="C200" s="7"/>
       <c r="D200" s="8"/>
       <c r="E200" s="28"/>
-      <c r="F200" s="41"/>
-      <c r="G200" s="42"/>
-      <c r="H200" s="43"/>
-    </row>
-    <row r="201" spans="1:8" ht="39" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="F200" s="65"/>
+      <c r="G200" s="66"/>
+      <c r="H200" s="67"/>
+    </row>
+    <row r="201" spans="1:8" ht="39" hidden="1" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="204">
+    <mergeCell ref="F196:H196"/>
+    <mergeCell ref="F197:H197"/>
+    <mergeCell ref="F198:H198"/>
+    <mergeCell ref="F199:H199"/>
+    <mergeCell ref="F200:H200"/>
+    <mergeCell ref="F191:H191"/>
+    <mergeCell ref="F192:H192"/>
+    <mergeCell ref="F193:H193"/>
+    <mergeCell ref="F194:H194"/>
+    <mergeCell ref="F195:H195"/>
+    <mergeCell ref="F186:H186"/>
+    <mergeCell ref="F187:H187"/>
+    <mergeCell ref="F188:H188"/>
+    <mergeCell ref="F189:H189"/>
+    <mergeCell ref="F190:H190"/>
+    <mergeCell ref="F181:H181"/>
+    <mergeCell ref="F182:H182"/>
+    <mergeCell ref="F183:H183"/>
+    <mergeCell ref="F184:H184"/>
+    <mergeCell ref="F185:H185"/>
+    <mergeCell ref="F176:H176"/>
+    <mergeCell ref="F177:H177"/>
+    <mergeCell ref="F178:H178"/>
+    <mergeCell ref="F179:H179"/>
+    <mergeCell ref="F180:H180"/>
+    <mergeCell ref="F171:H171"/>
+    <mergeCell ref="F172:H172"/>
+    <mergeCell ref="F173:H173"/>
+    <mergeCell ref="F174:H174"/>
+    <mergeCell ref="F175:H175"/>
+    <mergeCell ref="F166:H166"/>
+    <mergeCell ref="F167:H167"/>
+    <mergeCell ref="F168:H168"/>
+    <mergeCell ref="F169:H169"/>
+    <mergeCell ref="F170:H170"/>
+    <mergeCell ref="F161:H161"/>
+    <mergeCell ref="F162:H162"/>
+    <mergeCell ref="F163:H163"/>
+    <mergeCell ref="F164:H164"/>
+    <mergeCell ref="F165:H165"/>
+    <mergeCell ref="F156:H156"/>
+    <mergeCell ref="F157:H157"/>
+    <mergeCell ref="F158:H158"/>
+    <mergeCell ref="F159:H159"/>
+    <mergeCell ref="F160:H160"/>
+    <mergeCell ref="F151:H151"/>
+    <mergeCell ref="F152:H152"/>
+    <mergeCell ref="F153:H153"/>
+    <mergeCell ref="F154:H154"/>
+    <mergeCell ref="F155:H155"/>
+    <mergeCell ref="F146:H146"/>
+    <mergeCell ref="F147:H147"/>
+    <mergeCell ref="F148:H148"/>
+    <mergeCell ref="F149:H149"/>
+    <mergeCell ref="F150:H150"/>
+    <mergeCell ref="F141:H141"/>
+    <mergeCell ref="F142:H142"/>
+    <mergeCell ref="F143:H143"/>
+    <mergeCell ref="F144:H144"/>
+    <mergeCell ref="F145:H145"/>
+    <mergeCell ref="F136:H136"/>
+    <mergeCell ref="F137:H137"/>
+    <mergeCell ref="F138:H138"/>
+    <mergeCell ref="F139:H139"/>
+    <mergeCell ref="F140:H140"/>
+    <mergeCell ref="F131:H131"/>
+    <mergeCell ref="F132:H132"/>
+    <mergeCell ref="F133:H133"/>
+    <mergeCell ref="F134:H134"/>
+    <mergeCell ref="F135:H135"/>
+    <mergeCell ref="F126:H126"/>
+    <mergeCell ref="F127:H127"/>
+    <mergeCell ref="F128:H128"/>
+    <mergeCell ref="F129:H129"/>
+    <mergeCell ref="F130:H130"/>
+    <mergeCell ref="F121:H121"/>
+    <mergeCell ref="F122:H122"/>
+    <mergeCell ref="F123:H123"/>
+    <mergeCell ref="F124:H124"/>
+    <mergeCell ref="F125:H125"/>
+    <mergeCell ref="F116:H116"/>
+    <mergeCell ref="F117:H117"/>
+    <mergeCell ref="F118:H118"/>
+    <mergeCell ref="F119:H119"/>
+    <mergeCell ref="F120:H120"/>
+    <mergeCell ref="F111:H111"/>
+    <mergeCell ref="F112:H112"/>
+    <mergeCell ref="F113:H113"/>
+    <mergeCell ref="F114:H114"/>
+    <mergeCell ref="F115:H115"/>
+    <mergeCell ref="F106:H106"/>
+    <mergeCell ref="F107:H107"/>
+    <mergeCell ref="F108:H108"/>
+    <mergeCell ref="F109:H109"/>
+    <mergeCell ref="F110:H110"/>
+    <mergeCell ref="F101:H101"/>
+    <mergeCell ref="F102:H102"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="F104:H104"/>
+    <mergeCell ref="F105:H105"/>
+    <mergeCell ref="F96:H96"/>
+    <mergeCell ref="F97:H97"/>
+    <mergeCell ref="F98:H98"/>
+    <mergeCell ref="F99:H99"/>
+    <mergeCell ref="F100:H100"/>
+    <mergeCell ref="F91:H91"/>
+    <mergeCell ref="F92:H92"/>
+    <mergeCell ref="F93:H93"/>
+    <mergeCell ref="F94:H94"/>
+    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="F86:H86"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="F88:H88"/>
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="F90:H90"/>
+    <mergeCell ref="F81:H81"/>
+    <mergeCell ref="F82:H82"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="F84:H84"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="F75:H75"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="F8:H8"/>
@@ -3522,200 +3707,10 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="C2:F2"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="F66:H66"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="F68:H68"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="F70:H70"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="F76:H76"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="F80:H80"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="F74:H74"/>
-    <mergeCell ref="F75:H75"/>
-    <mergeCell ref="F86:H86"/>
-    <mergeCell ref="F87:H87"/>
-    <mergeCell ref="F88:H88"/>
-    <mergeCell ref="F89:H89"/>
-    <mergeCell ref="F90:H90"/>
-    <mergeCell ref="F81:H81"/>
-    <mergeCell ref="F82:H82"/>
-    <mergeCell ref="F83:H83"/>
-    <mergeCell ref="F84:H84"/>
-    <mergeCell ref="F85:H85"/>
-    <mergeCell ref="F96:H96"/>
-    <mergeCell ref="F97:H97"/>
-    <mergeCell ref="F98:H98"/>
-    <mergeCell ref="F99:H99"/>
-    <mergeCell ref="F100:H100"/>
-    <mergeCell ref="F91:H91"/>
-    <mergeCell ref="F92:H92"/>
-    <mergeCell ref="F93:H93"/>
-    <mergeCell ref="F94:H94"/>
-    <mergeCell ref="F95:H95"/>
-    <mergeCell ref="F106:H106"/>
-    <mergeCell ref="F107:H107"/>
-    <mergeCell ref="F108:H108"/>
-    <mergeCell ref="F109:H109"/>
-    <mergeCell ref="F110:H110"/>
-    <mergeCell ref="F101:H101"/>
-    <mergeCell ref="F102:H102"/>
-    <mergeCell ref="F103:H103"/>
-    <mergeCell ref="F104:H104"/>
-    <mergeCell ref="F105:H105"/>
-    <mergeCell ref="F116:H116"/>
-    <mergeCell ref="F117:H117"/>
-    <mergeCell ref="F118:H118"/>
-    <mergeCell ref="F119:H119"/>
-    <mergeCell ref="F120:H120"/>
-    <mergeCell ref="F111:H111"/>
-    <mergeCell ref="F112:H112"/>
-    <mergeCell ref="F113:H113"/>
-    <mergeCell ref="F114:H114"/>
-    <mergeCell ref="F115:H115"/>
-    <mergeCell ref="F126:H126"/>
-    <mergeCell ref="F127:H127"/>
-    <mergeCell ref="F128:H128"/>
-    <mergeCell ref="F129:H129"/>
-    <mergeCell ref="F130:H130"/>
-    <mergeCell ref="F121:H121"/>
-    <mergeCell ref="F122:H122"/>
-    <mergeCell ref="F123:H123"/>
-    <mergeCell ref="F124:H124"/>
-    <mergeCell ref="F125:H125"/>
-    <mergeCell ref="F136:H136"/>
-    <mergeCell ref="F137:H137"/>
-    <mergeCell ref="F138:H138"/>
-    <mergeCell ref="F139:H139"/>
-    <mergeCell ref="F140:H140"/>
-    <mergeCell ref="F131:H131"/>
-    <mergeCell ref="F132:H132"/>
-    <mergeCell ref="F133:H133"/>
-    <mergeCell ref="F134:H134"/>
-    <mergeCell ref="F135:H135"/>
-    <mergeCell ref="F146:H146"/>
-    <mergeCell ref="F147:H147"/>
-    <mergeCell ref="F148:H148"/>
-    <mergeCell ref="F149:H149"/>
-    <mergeCell ref="F150:H150"/>
-    <mergeCell ref="F141:H141"/>
-    <mergeCell ref="F142:H142"/>
-    <mergeCell ref="F143:H143"/>
-    <mergeCell ref="F144:H144"/>
-    <mergeCell ref="F145:H145"/>
-    <mergeCell ref="F156:H156"/>
-    <mergeCell ref="F157:H157"/>
-    <mergeCell ref="F158:H158"/>
-    <mergeCell ref="F159:H159"/>
-    <mergeCell ref="F160:H160"/>
-    <mergeCell ref="F151:H151"/>
-    <mergeCell ref="F152:H152"/>
-    <mergeCell ref="F153:H153"/>
-    <mergeCell ref="F154:H154"/>
-    <mergeCell ref="F155:H155"/>
-    <mergeCell ref="F166:H166"/>
-    <mergeCell ref="F167:H167"/>
-    <mergeCell ref="F168:H168"/>
-    <mergeCell ref="F169:H169"/>
-    <mergeCell ref="F170:H170"/>
-    <mergeCell ref="F161:H161"/>
-    <mergeCell ref="F162:H162"/>
-    <mergeCell ref="F163:H163"/>
-    <mergeCell ref="F164:H164"/>
-    <mergeCell ref="F165:H165"/>
-    <mergeCell ref="F176:H176"/>
-    <mergeCell ref="F177:H177"/>
-    <mergeCell ref="F178:H178"/>
-    <mergeCell ref="F179:H179"/>
-    <mergeCell ref="F180:H180"/>
-    <mergeCell ref="F171:H171"/>
-    <mergeCell ref="F172:H172"/>
-    <mergeCell ref="F173:H173"/>
-    <mergeCell ref="F174:H174"/>
-    <mergeCell ref="F175:H175"/>
-    <mergeCell ref="F186:H186"/>
-    <mergeCell ref="F187:H187"/>
-    <mergeCell ref="F188:H188"/>
-    <mergeCell ref="F189:H189"/>
-    <mergeCell ref="F190:H190"/>
-    <mergeCell ref="F181:H181"/>
-    <mergeCell ref="F182:H182"/>
-    <mergeCell ref="F183:H183"/>
-    <mergeCell ref="F184:H184"/>
-    <mergeCell ref="F185:H185"/>
-    <mergeCell ref="F196:H196"/>
-    <mergeCell ref="F197:H197"/>
-    <mergeCell ref="F198:H198"/>
-    <mergeCell ref="F199:H199"/>
-    <mergeCell ref="F200:H200"/>
-    <mergeCell ref="F191:H191"/>
-    <mergeCell ref="F192:H192"/>
-    <mergeCell ref="F193:H193"/>
-    <mergeCell ref="F194:H194"/>
-    <mergeCell ref="F195:H195"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.47222222222222221" right="0.56944444444444442" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="0"/>
@@ -3728,19 +3723,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="B8" sqref="B8:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="36" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="36" customHeight="1" zeroHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.875" style="20" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" style="20" customWidth="1"/>
     <col min="2" max="4" width="15" style="20" customWidth="1"/>
     <col min="5" max="5" width="16.5" style="20" customWidth="1"/>
     <col min="6" max="16384" width="15" style="20" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="36" customHeight="1">
       <c r="A1" s="19" t="s">
         <v>14</v>
       </c>
@@ -3751,7 +3746,7 @@
       <c r="D1" s="68"/>
       <c r="E1" s="69"/>
     </row>
-    <row r="2" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="36" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>16</v>
       </c>
@@ -3762,7 +3757,7 @@
       <c r="D2" s="70"/>
       <c r="E2" s="71"/>
     </row>
-    <row r="3" spans="1:5" ht="135.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="136" customHeight="1">
       <c r="A3" s="21" t="s">
         <v>19</v>
       </c>
@@ -3771,7 +3766,7 @@
       <c r="D3" s="72"/>
       <c r="E3" s="73"/>
     </row>
-    <row r="4" spans="1:5" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="46" customHeight="1">
       <c r="A4" s="21" t="s">
         <v>29</v>
       </c>
@@ -3782,7 +3777,7 @@
       <c r="D4" s="77"/>
       <c r="E4" s="78"/>
     </row>
-    <row r="5" spans="1:5" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="46" customHeight="1">
       <c r="A5" s="21" t="s">
         <v>20</v>
       </c>
@@ -3793,7 +3788,7 @@
       <c r="D5" s="72"/>
       <c r="E5" s="73"/>
     </row>
-    <row r="6" spans="1:5" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="46" customHeight="1">
       <c r="A6" s="21" t="s">
         <v>18</v>
       </c>
@@ -3804,7 +3799,7 @@
       <c r="D6" s="72"/>
       <c r="E6" s="73"/>
     </row>
-    <row r="7" spans="1:5" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="46" customHeight="1">
       <c r="A7" s="23" t="s">
         <v>38</v>
       </c>
@@ -3815,7 +3810,7 @@
       <c r="D7" s="77"/>
       <c r="E7" s="78"/>
     </row>
-    <row r="8" spans="1:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="51" customHeight="1" thickBot="1">
       <c r="A8" s="22" t="s">
         <v>30</v>
       </c>
@@ -3839,7 +3834,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="0"/>
@@ -3852,19 +3847,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageLayout" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="36" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="36" customHeight="1" zeroHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="2" customWidth="1"/>
-    <col min="2" max="6" width="10.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="2" hidden="1"/>
+    <col min="1" max="1" width="14.1640625" style="2" customWidth="1"/>
+    <col min="2" max="6" width="10.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="2" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="36" customHeight="1">
       <c r="A1" s="79" t="s">
         <v>23</v>
       </c>
@@ -3875,7 +3870,7 @@
       <c r="F1" s="80"/>
       <c r="G1" s="81"/>
     </row>
-    <row r="2" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="36" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>24</v>
       </c>
@@ -3888,7 +3883,7 @@
       <c r="F2" s="83"/>
       <c r="G2" s="84"/>
     </row>
-    <row r="3" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="36" customHeight="1">
       <c r="A3" s="21" t="s">
         <v>25</v>
       </c>
@@ -3901,7 +3896,7 @@
       <c r="F3" s="86"/>
       <c r="G3" s="87"/>
     </row>
-    <row r="4" spans="1:7" ht="111.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="112" customHeight="1">
       <c r="A4" s="21" t="s">
         <v>6</v>
       </c>
@@ -3914,7 +3909,7 @@
       <c r="F4" s="86"/>
       <c r="G4" s="87"/>
     </row>
-    <row r="5" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="36" customHeight="1" thickBot="1">
       <c r="A5" s="22" t="s">
         <v>26</v>
       </c>
@@ -3925,8 +3920,8 @@
       <c r="F5" s="88"/>
       <c r="G5" s="89"/>
     </row>
-    <row r="6" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="36" customHeight="1" thickBot="1"/>
+    <row r="7" spans="1:7" ht="36" customHeight="1">
       <c r="A7" s="79" t="s">
         <v>27</v>
       </c>
@@ -3937,7 +3932,7 @@
       <c r="F7" s="80"/>
       <c r="G7" s="81"/>
     </row>
-    <row r="8" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="36" customHeight="1">
       <c r="A8" s="21" t="s">
         <v>24</v>
       </c>
@@ -3948,7 +3943,7 @@
       <c r="F8" s="72"/>
       <c r="G8" s="73"/>
     </row>
-    <row r="9" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="36" customHeight="1">
       <c r="A9" s="21" t="s">
         <v>25</v>
       </c>
@@ -3959,7 +3954,7 @@
       <c r="F9" s="72"/>
       <c r="G9" s="73"/>
     </row>
-    <row r="10" spans="1:7" ht="111.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="112" customHeight="1">
       <c r="A10" s="21" t="s">
         <v>6</v>
       </c>
@@ -3970,7 +3965,7 @@
       <c r="F10" s="72"/>
       <c r="G10" s="73"/>
     </row>
-    <row r="11" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="36" customHeight="1" thickBot="1">
       <c r="A11" s="22" t="s">
         <v>26</v>
       </c>
@@ -3981,9 +3976,9 @@
       <c r="F11" s="74"/>
       <c r="G11" s="75"/>
     </row>
-    <row r="12" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="36" customHeight="1"/>
+    <row r="13" spans="1:7" ht="36" customHeight="1" thickBot="1"/>
+    <row r="14" spans="1:7" ht="36" customHeight="1">
       <c r="A14" s="79" t="s">
         <v>28</v>
       </c>
@@ -3994,7 +3989,7 @@
       <c r="F14" s="80"/>
       <c r="G14" s="81"/>
     </row>
-    <row r="15" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="36" customHeight="1">
       <c r="A15" s="21" t="s">
         <v>24</v>
       </c>
@@ -4005,7 +4000,7 @@
       <c r="F15" s="72"/>
       <c r="G15" s="73"/>
     </row>
-    <row r="16" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="36" customHeight="1">
       <c r="A16" s="21" t="s">
         <v>25</v>
       </c>
@@ -4016,7 +4011,7 @@
       <c r="F16" s="72"/>
       <c r="G16" s="73"/>
     </row>
-    <row r="17" spans="1:7" ht="113.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="113" customHeight="1">
       <c r="A17" s="21" t="s">
         <v>6</v>
       </c>
@@ -4027,7 +4022,7 @@
       <c r="F17" s="72"/>
       <c r="G17" s="73"/>
     </row>
-    <row r="18" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="36" customHeight="1" thickBot="1">
       <c r="A18" s="22" t="s">
         <v>26</v>
       </c>
@@ -4038,29 +4033,29 @@
       <c r="F18" s="74"/>
       <c r="G18" s="75"/>
     </row>
-    <row r="19" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:7" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:7" ht="36" customHeight="1"/>
+    <row r="20" spans="1:7" ht="36" hidden="1" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="0"/>

--- a/CH_121913_A.xlsx
+++ b/CH_121913_A.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glickfeld_lab\Documents\GitHub\docubase\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="140" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="1185" yWindow="135" windowWidth="25605" windowHeight="16065" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="1" r:id="rId1"/>
@@ -854,6 +859,24 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -872,15 +895,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -934,15 +948,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1363,18 +1368,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageLayout" workbookViewId="0">
       <selection sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="38" customHeight="1" zeroHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="38.1" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="62.33203125" style="36" customWidth="1"/>
+    <col min="1" max="1" width="20.625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="62.375" style="36" customWidth="1"/>
     <col min="3" max="16384" width="18.5" style="12" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="38" customHeight="1" thickTop="1">
+    <row r="1" spans="1:2" ht="38.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1382,7 +1387,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="38" customHeight="1">
+    <row r="2" spans="1:2" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
@@ -1390,7 +1395,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="38" customHeight="1">
+    <row r="3" spans="1:2" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
@@ -1398,7 +1403,7 @@
         <v>41601</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="38" customHeight="1">
+    <row r="4" spans="1:2" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
@@ -1406,7 +1411,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="38" customHeight="1">
+    <row r="5" spans="1:2" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
@@ -1414,7 +1419,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="148" customHeight="1" thickBot="1">
+    <row r="6" spans="1:2" ht="147.94999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>22</v>
       </c>
@@ -1422,19 +1427,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="38" customHeight="1" thickTop="1"/>
-    <row r="8" spans="1:2" ht="38" customHeight="1"/>
-    <row r="9" spans="1:2" ht="38" customHeight="1"/>
-    <row r="10" spans="1:2" ht="38" customHeight="1"/>
-    <row r="11" spans="1:2" ht="38" customHeight="1"/>
-    <row r="12" spans="1:2" ht="38" customHeight="1"/>
-    <row r="13" spans="1:2" ht="38" hidden="1" customHeight="1">
+    <row r="7" spans="1:2" ht="38.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:2" ht="38.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:2" ht="38.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:2" ht="38.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:2" ht="38.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:2" ht="38.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:2" ht="38.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="100"/>
@@ -1451,30 +1456,30 @@
       <selection activeCell="C4" sqref="C4:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="6.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" style="24" customWidth="1"/>
     <col min="6" max="6" width="34.5" style="24" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="15" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="39" customHeight="1" thickTop="1">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:8" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="62" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
       <c r="G1" s="29" t="s">
         <v>31</v>
       </c>
@@ -1482,17 +1487,17 @@
         <v>296</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="39" customHeight="1">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="49" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
       <c r="G2" s="30" t="s">
         <v>31</v>
       </c>
@@ -1500,45 +1505,45 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="39" customHeight="1">
-      <c r="A3" s="58" t="s">
+    <row r="3" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="48">
+      <c r="B3" s="62"/>
+      <c r="C3" s="51">
         <v>34</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="51"/>
-    </row>
-    <row r="4" spans="1:8" ht="102" customHeight="1" thickBot="1">
-      <c r="A4" s="60" t="s">
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="54"/>
+    </row>
+    <row r="4" spans="1:8" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="52" t="s">
+      <c r="B4" s="64"/>
+      <c r="C4" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="55"/>
-    </row>
-    <row r="5" spans="1:8" ht="26" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-    </row>
-    <row r="6" spans="1:8" ht="39" customHeight="1" thickTop="1">
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="58"/>
+    </row>
+    <row r="5" spans="1:8" ht="26.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+    </row>
+    <row r="6" spans="1:8" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
@@ -1554,2145 +1559,1955 @@
       <c r="E6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="39"/>
-      <c r="H6" s="40"/>
-    </row>
-    <row r="7" spans="1:8" ht="39" customHeight="1">
+      <c r="G6" s="45"/>
+      <c r="H6" s="46"/>
+    </row>
+    <row r="7" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="E7" s="26"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="43"/>
-    </row>
-    <row r="8" spans="1:8" ht="39" customHeight="1">
+      <c r="F7" s="47"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="49"/>
+    </row>
+    <row r="8" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="E8" s="26"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="46"/>
-    </row>
-    <row r="9" spans="1:8" ht="39" customHeight="1">
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="40"/>
+    </row>
+    <row r="9" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
       <c r="E9" s="26"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="46"/>
-    </row>
-    <row r="10" spans="1:8" ht="39" customHeight="1">
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="40"/>
+    </row>
+    <row r="10" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
       <c r="E10" s="26"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="46"/>
-    </row>
-    <row r="11" spans="1:8" ht="39" customHeight="1">
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="40"/>
+    </row>
+    <row r="11" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
       <c r="E11" s="26"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="46"/>
-    </row>
-    <row r="12" spans="1:8" ht="39" customHeight="1">
+      <c r="F11" s="38"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="40"/>
+    </row>
+    <row r="12" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
       <c r="E12" s="26"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="46"/>
-    </row>
-    <row r="13" spans="1:8" ht="39" customHeight="1">
+      <c r="F12" s="38"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="40"/>
+    </row>
+    <row r="13" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
       <c r="E13" s="26"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="46"/>
-    </row>
-    <row r="14" spans="1:8" ht="39" customHeight="1">
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="40"/>
+    </row>
+    <row r="14" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
       <c r="E14" s="26"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="46"/>
-    </row>
-    <row r="15" spans="1:8" ht="39" customHeight="1">
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="40"/>
+    </row>
+    <row r="15" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
       <c r="E15" s="26"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="46"/>
-    </row>
-    <row r="16" spans="1:8" ht="39" customHeight="1">
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="40"/>
+    </row>
+    <row r="16" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
       <c r="E16" s="26"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="46"/>
-    </row>
-    <row r="17" spans="1:8" ht="39" customHeight="1">
+      <c r="F16" s="38"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="40"/>
+    </row>
+    <row r="17" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
       <c r="E17" s="26"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="46"/>
-    </row>
-    <row r="18" spans="1:8" ht="39" customHeight="1">
+      <c r="F17" s="38"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="40"/>
+    </row>
+    <row r="18" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
       <c r="E18" s="26"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="46"/>
-    </row>
-    <row r="19" spans="1:8" ht="39" customHeight="1">
+      <c r="F18" s="38"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
+    </row>
+    <row r="19" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
       <c r="E19" s="26"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="46"/>
-    </row>
-    <row r="20" spans="1:8" ht="39" customHeight="1">
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="40"/>
+    </row>
+    <row r="20" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
       <c r="E20" s="26"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="46"/>
-    </row>
-    <row r="21" spans="1:8" ht="39" customHeight="1">
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="40"/>
+    </row>
+    <row r="21" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
       <c r="E21" s="26"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="46"/>
-    </row>
-    <row r="22" spans="1:8" ht="39" customHeight="1">
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="40"/>
+    </row>
+    <row r="22" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
       <c r="E22" s="26"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="46"/>
-    </row>
-    <row r="23" spans="1:8" ht="39" customHeight="1">
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="40"/>
+    </row>
+    <row r="23" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
       <c r="E23" s="26"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="46"/>
-    </row>
-    <row r="24" spans="1:8" ht="39" customHeight="1">
+      <c r="F23" s="38"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="40"/>
+    </row>
+    <row r="24" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
       <c r="E24" s="26"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="46"/>
-    </row>
-    <row r="25" spans="1:8" ht="39" customHeight="1">
+      <c r="F24" s="38"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="40"/>
+    </row>
+    <row r="25" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
       <c r="E25" s="26"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="46"/>
-    </row>
-    <row r="26" spans="1:8" ht="39" customHeight="1">
+      <c r="F25" s="38"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="40"/>
+    </row>
+    <row r="26" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
       <c r="E26" s="26"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="46"/>
-    </row>
-    <row r="27" spans="1:8" ht="39" customHeight="1">
+      <c r="F26" s="38"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="40"/>
+    </row>
+    <row r="27" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
       <c r="E27" s="26"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="46"/>
-    </row>
-    <row r="28" spans="1:8" ht="39" customHeight="1">
+      <c r="F27" s="38"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="40"/>
+    </row>
+    <row r="28" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
       <c r="E28" s="26"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="46"/>
-    </row>
-    <row r="29" spans="1:8" ht="39" customHeight="1">
+      <c r="F28" s="38"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="40"/>
+    </row>
+    <row r="29" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
       <c r="E29" s="26"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="46"/>
-    </row>
-    <row r="30" spans="1:8" ht="39" customHeight="1">
+      <c r="F29" s="38"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="40"/>
+    </row>
+    <row r="30" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
       <c r="E30" s="26"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="46"/>
-    </row>
-    <row r="31" spans="1:8" ht="39" customHeight="1">
+      <c r="F30" s="38"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="40"/>
+    </row>
+    <row r="31" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="5"/>
       <c r="E31" s="26"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="46"/>
-    </row>
-    <row r="32" spans="1:8" ht="39" customHeight="1">
+      <c r="F31" s="38"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="40"/>
+    </row>
+    <row r="32" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
       <c r="E32" s="26"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="46"/>
-    </row>
-    <row r="33" spans="1:8" ht="39" customHeight="1">
+      <c r="F32" s="38"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="40"/>
+    </row>
+    <row r="33" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
       <c r="E33" s="26"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="46"/>
-    </row>
-    <row r="34" spans="1:8" ht="39" customHeight="1">
+      <c r="F33" s="38"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="40"/>
+    </row>
+    <row r="34" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
       <c r="E34" s="26"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="46"/>
-    </row>
-    <row r="35" spans="1:8" ht="39" customHeight="1">
+      <c r="F34" s="38"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="40"/>
+    </row>
+    <row r="35" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="5"/>
       <c r="E35" s="26"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="46"/>
-    </row>
-    <row r="36" spans="1:8" ht="39" customHeight="1">
+      <c r="F35" s="38"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="40"/>
+    </row>
+    <row r="36" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="5"/>
       <c r="E36" s="26"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="46"/>
-    </row>
-    <row r="37" spans="1:8" ht="39" customHeight="1">
+      <c r="F36" s="38"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="40"/>
+    </row>
+    <row r="37" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="5"/>
       <c r="E37" s="26"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="46"/>
-    </row>
-    <row r="38" spans="1:8" ht="39" customHeight="1">
+      <c r="F37" s="38"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="40"/>
+    </row>
+    <row r="38" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="5"/>
       <c r="E38" s="26"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="46"/>
-    </row>
-    <row r="39" spans="1:8" ht="39" customHeight="1">
+      <c r="F38" s="38"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="40"/>
+    </row>
+    <row r="39" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="5"/>
       <c r="E39" s="26"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="46"/>
-    </row>
-    <row r="40" spans="1:8" ht="39" customHeight="1">
+      <c r="F39" s="38"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="40"/>
+    </row>
+    <row r="40" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="5"/>
       <c r="E40" s="26"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="46"/>
-    </row>
-    <row r="41" spans="1:8" ht="39" customHeight="1">
+      <c r="F40" s="38"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="40"/>
+    </row>
+    <row r="41" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="5"/>
       <c r="E41" s="26"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="46"/>
-    </row>
-    <row r="42" spans="1:8" ht="39" customHeight="1">
+      <c r="F41" s="38"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="40"/>
+    </row>
+    <row r="42" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="5"/>
       <c r="E42" s="26"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="46"/>
-    </row>
-    <row r="43" spans="1:8" ht="39" customHeight="1">
+      <c r="F42" s="38"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="40"/>
+    </row>
+    <row r="43" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="5"/>
       <c r="E43" s="26"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="46"/>
-    </row>
-    <row r="44" spans="1:8" ht="39" customHeight="1">
+      <c r="F43" s="38"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="40"/>
+    </row>
+    <row r="44" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="5"/>
       <c r="E44" s="26"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="46"/>
-    </row>
-    <row r="45" spans="1:8" ht="39" customHeight="1">
+      <c r="F44" s="38"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="40"/>
+    </row>
+    <row r="45" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="5"/>
       <c r="E45" s="26"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="46"/>
-    </row>
-    <row r="46" spans="1:8" ht="39" customHeight="1">
+      <c r="F45" s="38"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="40"/>
+    </row>
+    <row r="46" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="5"/>
       <c r="E46" s="26"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="46"/>
-    </row>
-    <row r="47" spans="1:8" ht="39" customHeight="1">
+      <c r="F46" s="38"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="40"/>
+    </row>
+    <row r="47" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="5"/>
       <c r="E47" s="26"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="46"/>
-    </row>
-    <row r="48" spans="1:8" ht="39" customHeight="1">
+      <c r="F47" s="38"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="40"/>
+    </row>
+    <row r="48" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="5"/>
       <c r="E48" s="26"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="46"/>
-    </row>
-    <row r="49" spans="1:8" ht="39" customHeight="1">
+      <c r="F48" s="38"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="40"/>
+    </row>
+    <row r="49" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="5"/>
       <c r="E49" s="26"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="46"/>
-    </row>
-    <row r="50" spans="1:8" ht="39" customHeight="1">
+      <c r="F49" s="38"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="40"/>
+    </row>
+    <row r="50" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="5"/>
       <c r="E50" s="26"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="46"/>
-    </row>
-    <row r="51" spans="1:8" ht="39" customHeight="1">
+      <c r="F50" s="38"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="40"/>
+    </row>
+    <row r="51" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="5"/>
       <c r="E51" s="26"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="46"/>
-    </row>
-    <row r="52" spans="1:8" ht="39" customHeight="1">
+      <c r="F51" s="38"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="40"/>
+    </row>
+    <row r="52" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="5"/>
       <c r="E52" s="26"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="46"/>
-    </row>
-    <row r="53" spans="1:8" ht="39" customHeight="1">
+      <c r="F52" s="38"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="40"/>
+    </row>
+    <row r="53" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="5"/>
       <c r="E53" s="26"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="46"/>
-    </row>
-    <row r="54" spans="1:8" ht="39" customHeight="1">
+      <c r="F53" s="38"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="40"/>
+    </row>
+    <row r="54" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="5"/>
       <c r="E54" s="26"/>
-      <c r="F54" s="44"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="46"/>
-    </row>
-    <row r="55" spans="1:8" ht="39" customHeight="1">
+      <c r="F54" s="38"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="40"/>
+    </row>
+    <row r="55" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="5"/>
       <c r="E55" s="26"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="46"/>
-    </row>
-    <row r="56" spans="1:8" ht="39" customHeight="1">
+      <c r="F55" s="38"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="40"/>
+    </row>
+    <row r="56" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="5"/>
       <c r="E56" s="26"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="46"/>
-    </row>
-    <row r="57" spans="1:8" ht="39" customHeight="1">
+      <c r="F56" s="38"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="40"/>
+    </row>
+    <row r="57" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="5"/>
       <c r="E57" s="26"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="46"/>
-    </row>
-    <row r="58" spans="1:8" ht="39" customHeight="1">
+      <c r="F57" s="38"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="40"/>
+    </row>
+    <row r="58" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="5"/>
       <c r="E58" s="26"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="46"/>
-    </row>
-    <row r="59" spans="1:8" ht="39" customHeight="1">
+      <c r="F58" s="38"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="40"/>
+    </row>
+    <row r="59" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="5"/>
       <c r="E59" s="26"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="45"/>
-      <c r="H59" s="46"/>
-    </row>
-    <row r="60" spans="1:8" ht="39" customHeight="1">
+      <c r="F59" s="38"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="40"/>
+    </row>
+    <row r="60" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="5"/>
       <c r="E60" s="26"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="45"/>
-      <c r="H60" s="46"/>
-    </row>
-    <row r="61" spans="1:8" ht="39" customHeight="1">
+      <c r="F60" s="38"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="40"/>
+    </row>
+    <row r="61" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="5"/>
       <c r="E61" s="26"/>
-      <c r="F61" s="44"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="46"/>
-    </row>
-    <row r="62" spans="1:8" ht="39" customHeight="1">
+      <c r="F61" s="38"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="40"/>
+    </row>
+    <row r="62" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="5"/>
       <c r="E62" s="26"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="45"/>
-      <c r="H62" s="46"/>
-    </row>
-    <row r="63" spans="1:8" ht="39" customHeight="1">
+      <c r="F62" s="38"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="40"/>
+    </row>
+    <row r="63" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="5"/>
       <c r="E63" s="26"/>
-      <c r="F63" s="44"/>
-      <c r="G63" s="45"/>
-      <c r="H63" s="46"/>
-    </row>
-    <row r="64" spans="1:8" ht="39" customHeight="1">
+      <c r="F63" s="38"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="40"/>
+    </row>
+    <row r="64" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="5"/>
       <c r="E64" s="26"/>
-      <c r="F64" s="44"/>
-      <c r="G64" s="45"/>
-      <c r="H64" s="46"/>
-    </row>
-    <row r="65" spans="1:8" ht="39" customHeight="1">
+      <c r="F64" s="38"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="40"/>
+    </row>
+    <row r="65" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="5"/>
       <c r="E65" s="26"/>
-      <c r="F65" s="44"/>
-      <c r="G65" s="45"/>
-      <c r="H65" s="46"/>
-    </row>
-    <row r="66" spans="1:8" ht="39" customHeight="1">
+      <c r="F65" s="38"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="40"/>
+    </row>
+    <row r="66" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="5"/>
       <c r="E66" s="26"/>
-      <c r="F66" s="44"/>
-      <c r="G66" s="45"/>
-      <c r="H66" s="46"/>
-    </row>
-    <row r="67" spans="1:8" ht="39" customHeight="1">
+      <c r="F66" s="38"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="40"/>
+    </row>
+    <row r="67" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="5"/>
       <c r="E67" s="26"/>
-      <c r="F67" s="44"/>
-      <c r="G67" s="45"/>
-      <c r="H67" s="46"/>
-    </row>
-    <row r="68" spans="1:8" ht="39" customHeight="1">
+      <c r="F67" s="38"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="40"/>
+    </row>
+    <row r="68" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="5"/>
       <c r="E68" s="26"/>
-      <c r="F68" s="44"/>
-      <c r="G68" s="45"/>
-      <c r="H68" s="46"/>
-    </row>
-    <row r="69" spans="1:8" ht="39" customHeight="1">
+      <c r="F68" s="38"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="40"/>
+    </row>
+    <row r="69" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="5"/>
       <c r="E69" s="26"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="45"/>
-      <c r="H69" s="46"/>
-    </row>
-    <row r="70" spans="1:8" ht="39" customHeight="1">
+      <c r="F69" s="38"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="40"/>
+    </row>
+    <row r="70" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="5"/>
       <c r="E70" s="26"/>
-      <c r="F70" s="44"/>
-      <c r="G70" s="45"/>
-      <c r="H70" s="46"/>
-    </row>
-    <row r="71" spans="1:8" ht="39" customHeight="1">
+      <c r="F70" s="38"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="40"/>
+    </row>
+    <row r="71" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="5"/>
       <c r="E71" s="26"/>
-      <c r="F71" s="44"/>
-      <c r="G71" s="45"/>
-      <c r="H71" s="46"/>
-    </row>
-    <row r="72" spans="1:8" ht="39" customHeight="1">
+      <c r="F71" s="38"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="40"/>
+    </row>
+    <row r="72" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="5"/>
       <c r="E72" s="26"/>
-      <c r="F72" s="44"/>
-      <c r="G72" s="45"/>
-      <c r="H72" s="46"/>
-    </row>
-    <row r="73" spans="1:8" ht="39" customHeight="1">
+      <c r="F72" s="38"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="40"/>
+    </row>
+    <row r="73" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="5"/>
       <c r="E73" s="26"/>
-      <c r="F73" s="44"/>
-      <c r="G73" s="45"/>
-      <c r="H73" s="46"/>
-    </row>
-    <row r="74" spans="1:8" ht="39" customHeight="1">
+      <c r="F73" s="38"/>
+      <c r="G73" s="39"/>
+      <c r="H73" s="40"/>
+    </row>
+    <row r="74" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="5"/>
       <c r="E74" s="26"/>
-      <c r="F74" s="44"/>
-      <c r="G74" s="45"/>
-      <c r="H74" s="46"/>
-    </row>
-    <row r="75" spans="1:8" ht="39" customHeight="1">
+      <c r="F74" s="38"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="40"/>
+    </row>
+    <row r="75" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="5"/>
       <c r="E75" s="26"/>
-      <c r="F75" s="44"/>
-      <c r="G75" s="45"/>
-      <c r="H75" s="46"/>
-    </row>
-    <row r="76" spans="1:8" ht="39" customHeight="1">
+      <c r="F75" s="38"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="40"/>
+    </row>
+    <row r="76" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="5"/>
       <c r="E76" s="26"/>
-      <c r="F76" s="44"/>
-      <c r="G76" s="45"/>
-      <c r="H76" s="46"/>
-    </row>
-    <row r="77" spans="1:8" ht="39" customHeight="1">
+      <c r="F76" s="38"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="40"/>
+    </row>
+    <row r="77" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="5"/>
       <c r="E77" s="26"/>
-      <c r="F77" s="44"/>
-      <c r="G77" s="45"/>
-      <c r="H77" s="46"/>
-    </row>
-    <row r="78" spans="1:8" ht="39" customHeight="1">
+      <c r="F77" s="38"/>
+      <c r="G77" s="39"/>
+      <c r="H77" s="40"/>
+    </row>
+    <row r="78" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="5"/>
       <c r="E78" s="26"/>
-      <c r="F78" s="44"/>
-      <c r="G78" s="45"/>
-      <c r="H78" s="46"/>
-    </row>
-    <row r="79" spans="1:8" ht="39" customHeight="1">
+      <c r="F78" s="38"/>
+      <c r="G78" s="39"/>
+      <c r="H78" s="40"/>
+    </row>
+    <row r="79" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="5"/>
       <c r="E79" s="26"/>
-      <c r="F79" s="44"/>
-      <c r="G79" s="45"/>
-      <c r="H79" s="46"/>
-    </row>
-    <row r="80" spans="1:8" ht="39" customHeight="1">
+      <c r="F79" s="38"/>
+      <c r="G79" s="39"/>
+      <c r="H79" s="40"/>
+    </row>
+    <row r="80" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="5"/>
       <c r="E80" s="26"/>
-      <c r="F80" s="44"/>
-      <c r="G80" s="45"/>
-      <c r="H80" s="46"/>
-    </row>
-    <row r="81" spans="1:8" ht="39" customHeight="1">
+      <c r="F80" s="38"/>
+      <c r="G80" s="39"/>
+      <c r="H80" s="40"/>
+    </row>
+    <row r="81" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="5"/>
       <c r="E81" s="26"/>
-      <c r="F81" s="44"/>
-      <c r="G81" s="45"/>
-      <c r="H81" s="46"/>
-    </row>
-    <row r="82" spans="1:8" ht="39" customHeight="1">
+      <c r="F81" s="38"/>
+      <c r="G81" s="39"/>
+      <c r="H81" s="40"/>
+    </row>
+    <row r="82" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="5"/>
       <c r="E82" s="26"/>
-      <c r="F82" s="44"/>
-      <c r="G82" s="45"/>
-      <c r="H82" s="46"/>
-    </row>
-    <row r="83" spans="1:8" ht="39" customHeight="1">
+      <c r="F82" s="38"/>
+      <c r="G82" s="39"/>
+      <c r="H82" s="40"/>
+    </row>
+    <row r="83" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="5"/>
       <c r="E83" s="26"/>
-      <c r="F83" s="44"/>
-      <c r="G83" s="45"/>
-      <c r="H83" s="46"/>
-    </row>
-    <row r="84" spans="1:8" ht="39" customHeight="1">
+      <c r="F83" s="38"/>
+      <c r="G83" s="39"/>
+      <c r="H83" s="40"/>
+    </row>
+    <row r="84" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="5"/>
       <c r="E84" s="26"/>
-      <c r="F84" s="44"/>
-      <c r="G84" s="45"/>
-      <c r="H84" s="46"/>
-    </row>
-    <row r="85" spans="1:8" ht="39" customHeight="1">
+      <c r="F84" s="38"/>
+      <c r="G84" s="39"/>
+      <c r="H84" s="40"/>
+    </row>
+    <row r="85" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="5"/>
       <c r="E85" s="26"/>
-      <c r="F85" s="44"/>
-      <c r="G85" s="45"/>
-      <c r="H85" s="46"/>
-    </row>
-    <row r="86" spans="1:8" ht="39" customHeight="1">
+      <c r="F85" s="38"/>
+      <c r="G85" s="39"/>
+      <c r="H85" s="40"/>
+    </row>
+    <row r="86" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="5"/>
       <c r="E86" s="26"/>
-      <c r="F86" s="44"/>
-      <c r="G86" s="45"/>
-      <c r="H86" s="46"/>
-    </row>
-    <row r="87" spans="1:8" ht="39" customHeight="1">
+      <c r="F86" s="38"/>
+      <c r="G86" s="39"/>
+      <c r="H86" s="40"/>
+    </row>
+    <row r="87" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="5"/>
       <c r="E87" s="26"/>
-      <c r="F87" s="44"/>
-      <c r="G87" s="45"/>
-      <c r="H87" s="46"/>
-    </row>
-    <row r="88" spans="1:8" ht="39" customHeight="1">
+      <c r="F87" s="38"/>
+      <c r="G87" s="39"/>
+      <c r="H87" s="40"/>
+    </row>
+    <row r="88" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="5"/>
       <c r="E88" s="26"/>
-      <c r="F88" s="44"/>
-      <c r="G88" s="45"/>
-      <c r="H88" s="46"/>
-    </row>
-    <row r="89" spans="1:8" ht="39" customHeight="1">
+      <c r="F88" s="38"/>
+      <c r="G88" s="39"/>
+      <c r="H88" s="40"/>
+    </row>
+    <row r="89" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="5"/>
       <c r="E89" s="26"/>
-      <c r="F89" s="44"/>
-      <c r="G89" s="45"/>
-      <c r="H89" s="46"/>
-    </row>
-    <row r="90" spans="1:8" ht="39" customHeight="1">
+      <c r="F89" s="38"/>
+      <c r="G89" s="39"/>
+      <c r="H89" s="40"/>
+    </row>
+    <row r="90" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="5"/>
       <c r="E90" s="26"/>
-      <c r="F90" s="44"/>
-      <c r="G90" s="45"/>
-      <c r="H90" s="46"/>
-    </row>
-    <row r="91" spans="1:8" ht="39" customHeight="1">
+      <c r="F90" s="38"/>
+      <c r="G90" s="39"/>
+      <c r="H90" s="40"/>
+    </row>
+    <row r="91" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="5"/>
       <c r="E91" s="26"/>
-      <c r="F91" s="44"/>
-      <c r="G91" s="45"/>
-      <c r="H91" s="46"/>
-    </row>
-    <row r="92" spans="1:8" ht="39" customHeight="1">
+      <c r="F91" s="38"/>
+      <c r="G91" s="39"/>
+      <c r="H91" s="40"/>
+    </row>
+    <row r="92" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="5"/>
       <c r="E92" s="26"/>
-      <c r="F92" s="44"/>
-      <c r="G92" s="45"/>
-      <c r="H92" s="46"/>
-    </row>
-    <row r="93" spans="1:8" ht="39" customHeight="1">
+      <c r="F92" s="38"/>
+      <c r="G92" s="39"/>
+      <c r="H92" s="40"/>
+    </row>
+    <row r="93" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="5"/>
       <c r="E93" s="26"/>
-      <c r="F93" s="44"/>
-      <c r="G93" s="45"/>
-      <c r="H93" s="46"/>
-    </row>
-    <row r="94" spans="1:8" ht="39" customHeight="1">
+      <c r="F93" s="38"/>
+      <c r="G93" s="39"/>
+      <c r="H93" s="40"/>
+    </row>
+    <row r="94" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="5"/>
       <c r="E94" s="26"/>
-      <c r="F94" s="44"/>
-      <c r="G94" s="45"/>
-      <c r="H94" s="46"/>
-    </row>
-    <row r="95" spans="1:8" ht="39" customHeight="1">
+      <c r="F94" s="38"/>
+      <c r="G94" s="39"/>
+      <c r="H94" s="40"/>
+    </row>
+    <row r="95" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="5"/>
       <c r="E95" s="26"/>
-      <c r="F95" s="44"/>
-      <c r="G95" s="45"/>
-      <c r="H95" s="46"/>
-    </row>
-    <row r="96" spans="1:8" ht="39" customHeight="1">
+      <c r="F95" s="38"/>
+      <c r="G95" s="39"/>
+      <c r="H95" s="40"/>
+    </row>
+    <row r="96" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="5"/>
       <c r="E96" s="26"/>
-      <c r="F96" s="44"/>
-      <c r="G96" s="45"/>
-      <c r="H96" s="46"/>
-    </row>
-    <row r="97" spans="1:8" ht="39" customHeight="1">
+      <c r="F96" s="38"/>
+      <c r="G96" s="39"/>
+      <c r="H96" s="40"/>
+    </row>
+    <row r="97" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="5"/>
       <c r="E97" s="26"/>
-      <c r="F97" s="44"/>
-      <c r="G97" s="45"/>
-      <c r="H97" s="46"/>
-    </row>
-    <row r="98" spans="1:8" ht="39" customHeight="1">
+      <c r="F97" s="38"/>
+      <c r="G97" s="39"/>
+      <c r="H97" s="40"/>
+    </row>
+    <row r="98" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="5"/>
       <c r="E98" s="26"/>
-      <c r="F98" s="44"/>
-      <c r="G98" s="45"/>
-      <c r="H98" s="46"/>
-    </row>
-    <row r="99" spans="1:8" ht="39" customHeight="1">
+      <c r="F98" s="38"/>
+      <c r="G98" s="39"/>
+      <c r="H98" s="40"/>
+    </row>
+    <row r="99" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="5"/>
       <c r="E99" s="26"/>
-      <c r="F99" s="44"/>
-      <c r="G99" s="45"/>
-      <c r="H99" s="46"/>
-    </row>
-    <row r="100" spans="1:8" ht="39" customHeight="1">
+      <c r="F99" s="38"/>
+      <c r="G99" s="39"/>
+      <c r="H99" s="40"/>
+    </row>
+    <row r="100" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="5"/>
       <c r="E100" s="26"/>
-      <c r="F100" s="44"/>
-      <c r="G100" s="45"/>
-      <c r="H100" s="46"/>
-    </row>
-    <row r="101" spans="1:8" ht="39" customHeight="1">
+      <c r="F100" s="38"/>
+      <c r="G100" s="39"/>
+      <c r="H100" s="40"/>
+    </row>
+    <row r="101" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="5"/>
       <c r="E101" s="26"/>
-      <c r="F101" s="44"/>
-      <c r="G101" s="45"/>
-      <c r="H101" s="46"/>
-    </row>
-    <row r="102" spans="1:8" ht="39" customHeight="1">
+      <c r="F101" s="38"/>
+      <c r="G101" s="39"/>
+      <c r="H101" s="40"/>
+    </row>
+    <row r="102" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="5"/>
       <c r="E102" s="26"/>
-      <c r="F102" s="44"/>
-      <c r="G102" s="45"/>
-      <c r="H102" s="46"/>
-    </row>
-    <row r="103" spans="1:8" ht="39" customHeight="1">
+      <c r="F102" s="38"/>
+      <c r="G102" s="39"/>
+      <c r="H102" s="40"/>
+    </row>
+    <row r="103" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="5"/>
       <c r="E103" s="26"/>
-      <c r="F103" s="44"/>
-      <c r="G103" s="45"/>
-      <c r="H103" s="46"/>
-    </row>
-    <row r="104" spans="1:8" ht="39" customHeight="1">
+      <c r="F103" s="38"/>
+      <c r="G103" s="39"/>
+      <c r="H103" s="40"/>
+    </row>
+    <row r="104" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="5"/>
       <c r="E104" s="26"/>
-      <c r="F104" s="44"/>
-      <c r="G104" s="45"/>
-      <c r="H104" s="46"/>
-    </row>
-    <row r="105" spans="1:8" ht="39" customHeight="1">
+      <c r="F104" s="38"/>
+      <c r="G104" s="39"/>
+      <c r="H104" s="40"/>
+    </row>
+    <row r="105" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="5"/>
       <c r="E105" s="26"/>
-      <c r="F105" s="44"/>
-      <c r="G105" s="45"/>
-      <c r="H105" s="46"/>
-    </row>
-    <row r="106" spans="1:8" ht="39" customHeight="1">
+      <c r="F105" s="38"/>
+      <c r="G105" s="39"/>
+      <c r="H105" s="40"/>
+    </row>
+    <row r="106" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="5"/>
       <c r="E106" s="26"/>
-      <c r="F106" s="44"/>
-      <c r="G106" s="45"/>
-      <c r="H106" s="46"/>
-    </row>
-    <row r="107" spans="1:8" ht="39" customHeight="1">
+      <c r="F106" s="38"/>
+      <c r="G106" s="39"/>
+      <c r="H106" s="40"/>
+    </row>
+    <row r="107" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="5"/>
       <c r="E107" s="26"/>
-      <c r="F107" s="44"/>
-      <c r="G107" s="45"/>
-      <c r="H107" s="46"/>
-    </row>
-    <row r="108" spans="1:8" ht="39" customHeight="1">
+      <c r="F107" s="38"/>
+      <c r="G107" s="39"/>
+      <c r="H107" s="40"/>
+    </row>
+    <row r="108" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="5"/>
       <c r="E108" s="26"/>
-      <c r="F108" s="44"/>
-      <c r="G108" s="45"/>
-      <c r="H108" s="46"/>
-    </row>
-    <row r="109" spans="1:8" ht="39" customHeight="1">
+      <c r="F108" s="38"/>
+      <c r="G108" s="39"/>
+      <c r="H108" s="40"/>
+    </row>
+    <row r="109" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="5"/>
       <c r="E109" s="26"/>
-      <c r="F109" s="44"/>
-      <c r="G109" s="45"/>
-      <c r="H109" s="46"/>
-    </row>
-    <row r="110" spans="1:8" ht="39" customHeight="1">
+      <c r="F109" s="38"/>
+      <c r="G109" s="39"/>
+      <c r="H109" s="40"/>
+    </row>
+    <row r="110" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="5"/>
       <c r="E110" s="26"/>
-      <c r="F110" s="44"/>
-      <c r="G110" s="45"/>
-      <c r="H110" s="46"/>
-    </row>
-    <row r="111" spans="1:8" ht="39" customHeight="1">
+      <c r="F110" s="38"/>
+      <c r="G110" s="39"/>
+      <c r="H110" s="40"/>
+    </row>
+    <row r="111" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="5"/>
       <c r="E111" s="26"/>
-      <c r="F111" s="44"/>
-      <c r="G111" s="45"/>
-      <c r="H111" s="46"/>
-    </row>
-    <row r="112" spans="1:8" ht="39" customHeight="1">
+      <c r="F111" s="38"/>
+      <c r="G111" s="39"/>
+      <c r="H111" s="40"/>
+    </row>
+    <row r="112" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="5"/>
       <c r="E112" s="26"/>
-      <c r="F112" s="44"/>
-      <c r="G112" s="45"/>
-      <c r="H112" s="46"/>
-    </row>
-    <row r="113" spans="1:8" ht="39" customHeight="1">
+      <c r="F112" s="38"/>
+      <c r="G112" s="39"/>
+      <c r="H112" s="40"/>
+    </row>
+    <row r="113" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="5"/>
       <c r="E113" s="26"/>
-      <c r="F113" s="44"/>
-      <c r="G113" s="45"/>
-      <c r="H113" s="46"/>
-    </row>
-    <row r="114" spans="1:8" ht="39" customHeight="1">
+      <c r="F113" s="38"/>
+      <c r="G113" s="39"/>
+      <c r="H113" s="40"/>
+    </row>
+    <row r="114" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="5"/>
       <c r="E114" s="26"/>
-      <c r="F114" s="44"/>
-      <c r="G114" s="45"/>
-      <c r="H114" s="46"/>
-    </row>
-    <row r="115" spans="1:8" ht="39" customHeight="1">
+      <c r="F114" s="38"/>
+      <c r="G114" s="39"/>
+      <c r="H114" s="40"/>
+    </row>
+    <row r="115" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="5"/>
       <c r="E115" s="26"/>
-      <c r="F115" s="44"/>
-      <c r="G115" s="45"/>
-      <c r="H115" s="46"/>
-    </row>
-    <row r="116" spans="1:8" ht="39" customHeight="1">
+      <c r="F115" s="38"/>
+      <c r="G115" s="39"/>
+      <c r="H115" s="40"/>
+    </row>
+    <row r="116" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="5"/>
       <c r="E116" s="26"/>
-      <c r="F116" s="44"/>
-      <c r="G116" s="45"/>
-      <c r="H116" s="46"/>
-    </row>
-    <row r="117" spans="1:8" ht="39" customHeight="1">
+      <c r="F116" s="38"/>
+      <c r="G116" s="39"/>
+      <c r="H116" s="40"/>
+    </row>
+    <row r="117" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="5"/>
       <c r="E117" s="26"/>
-      <c r="F117" s="44"/>
-      <c r="G117" s="45"/>
-      <c r="H117" s="46"/>
-    </row>
-    <row r="118" spans="1:8" ht="39" customHeight="1">
+      <c r="F117" s="38"/>
+      <c r="G117" s="39"/>
+      <c r="H117" s="40"/>
+    </row>
+    <row r="118" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="5"/>
       <c r="E118" s="26"/>
-      <c r="F118" s="44"/>
-      <c r="G118" s="45"/>
-      <c r="H118" s="46"/>
-    </row>
-    <row r="119" spans="1:8" ht="39" customHeight="1">
+      <c r="F118" s="38"/>
+      <c r="G118" s="39"/>
+      <c r="H118" s="40"/>
+    </row>
+    <row r="119" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="5"/>
       <c r="E119" s="26"/>
-      <c r="F119" s="44"/>
-      <c r="G119" s="45"/>
-      <c r="H119" s="46"/>
-    </row>
-    <row r="120" spans="1:8" ht="39" customHeight="1">
+      <c r="F119" s="38"/>
+      <c r="G119" s="39"/>
+      <c r="H119" s="40"/>
+    </row>
+    <row r="120" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="5"/>
       <c r="E120" s="26"/>
-      <c r="F120" s="44"/>
-      <c r="G120" s="45"/>
-      <c r="H120" s="46"/>
-    </row>
-    <row r="121" spans="1:8" ht="39" customHeight="1">
+      <c r="F120" s="38"/>
+      <c r="G120" s="39"/>
+      <c r="H120" s="40"/>
+    </row>
+    <row r="121" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="5"/>
       <c r="E121" s="26"/>
-      <c r="F121" s="44"/>
-      <c r="G121" s="45"/>
-      <c r="H121" s="46"/>
-    </row>
-    <row r="122" spans="1:8" ht="39" customHeight="1">
+      <c r="F121" s="38"/>
+      <c r="G121" s="39"/>
+      <c r="H121" s="40"/>
+    </row>
+    <row r="122" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="5"/>
       <c r="E122" s="26"/>
-      <c r="F122" s="44"/>
-      <c r="G122" s="45"/>
-      <c r="H122" s="46"/>
-    </row>
-    <row r="123" spans="1:8" ht="39" customHeight="1">
+      <c r="F122" s="38"/>
+      <c r="G122" s="39"/>
+      <c r="H122" s="40"/>
+    </row>
+    <row r="123" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="5"/>
       <c r="E123" s="26"/>
-      <c r="F123" s="44"/>
-      <c r="G123" s="45"/>
-      <c r="H123" s="46"/>
-    </row>
-    <row r="124" spans="1:8" ht="39" customHeight="1">
+      <c r="F123" s="38"/>
+      <c r="G123" s="39"/>
+      <c r="H123" s="40"/>
+    </row>
+    <row r="124" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
       <c r="D124" s="5"/>
       <c r="E124" s="26"/>
-      <c r="F124" s="44"/>
-      <c r="G124" s="45"/>
-      <c r="H124" s="46"/>
-    </row>
-    <row r="125" spans="1:8" ht="39" customHeight="1">
+      <c r="F124" s="38"/>
+      <c r="G124" s="39"/>
+      <c r="H124" s="40"/>
+    </row>
+    <row r="125" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
       <c r="D125" s="5"/>
       <c r="E125" s="26"/>
-      <c r="F125" s="44"/>
-      <c r="G125" s="45"/>
-      <c r="H125" s="46"/>
-    </row>
-    <row r="126" spans="1:8" ht="39" customHeight="1">
+      <c r="F125" s="38"/>
+      <c r="G125" s="39"/>
+      <c r="H125" s="40"/>
+    </row>
+    <row r="126" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="5"/>
       <c r="E126" s="26"/>
-      <c r="F126" s="44"/>
-      <c r="G126" s="45"/>
-      <c r="H126" s="46"/>
-    </row>
-    <row r="127" spans="1:8" ht="39" customHeight="1">
+      <c r="F126" s="38"/>
+      <c r="G126" s="39"/>
+      <c r="H126" s="40"/>
+    </row>
+    <row r="127" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="5"/>
       <c r="E127" s="26"/>
-      <c r="F127" s="44"/>
-      <c r="G127" s="45"/>
-      <c r="H127" s="46"/>
-    </row>
-    <row r="128" spans="1:8" ht="39" customHeight="1">
+      <c r="F127" s="38"/>
+      <c r="G127" s="39"/>
+      <c r="H127" s="40"/>
+    </row>
+    <row r="128" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="5"/>
       <c r="E128" s="26"/>
-      <c r="F128" s="44"/>
-      <c r="G128" s="45"/>
-      <c r="H128" s="46"/>
-    </row>
-    <row r="129" spans="1:8" ht="39" customHeight="1">
+      <c r="F128" s="38"/>
+      <c r="G128" s="39"/>
+      <c r="H128" s="40"/>
+    </row>
+    <row r="129" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="5"/>
       <c r="E129" s="26"/>
-      <c r="F129" s="44"/>
-      <c r="G129" s="45"/>
-      <c r="H129" s="46"/>
-    </row>
-    <row r="130" spans="1:8" ht="39" customHeight="1">
+      <c r="F129" s="38"/>
+      <c r="G129" s="39"/>
+      <c r="H129" s="40"/>
+    </row>
+    <row r="130" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="5"/>
       <c r="E130" s="26"/>
-      <c r="F130" s="44"/>
-      <c r="G130" s="45"/>
-      <c r="H130" s="46"/>
-    </row>
-    <row r="131" spans="1:8" ht="39" customHeight="1">
+      <c r="F130" s="38"/>
+      <c r="G130" s="39"/>
+      <c r="H130" s="40"/>
+    </row>
+    <row r="131" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="5"/>
       <c r="E131" s="26"/>
-      <c r="F131" s="44"/>
-      <c r="G131" s="45"/>
-      <c r="H131" s="46"/>
-    </row>
-    <row r="132" spans="1:8" ht="39" customHeight="1">
+      <c r="F131" s="38"/>
+      <c r="G131" s="39"/>
+      <c r="H131" s="40"/>
+    </row>
+    <row r="132" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="5"/>
       <c r="E132" s="26"/>
-      <c r="F132" s="44"/>
-      <c r="G132" s="45"/>
-      <c r="H132" s="46"/>
-    </row>
-    <row r="133" spans="1:8" ht="39" customHeight="1">
+      <c r="F132" s="38"/>
+      <c r="G132" s="39"/>
+      <c r="H132" s="40"/>
+    </row>
+    <row r="133" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="5"/>
       <c r="E133" s="26"/>
-      <c r="F133" s="44"/>
-      <c r="G133" s="45"/>
-      <c r="H133" s="46"/>
-    </row>
-    <row r="134" spans="1:8" ht="39" customHeight="1">
+      <c r="F133" s="38"/>
+      <c r="G133" s="39"/>
+      <c r="H133" s="40"/>
+    </row>
+    <row r="134" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="5"/>
       <c r="E134" s="26"/>
-      <c r="F134" s="44"/>
-      <c r="G134" s="45"/>
-      <c r="H134" s="46"/>
-    </row>
-    <row r="135" spans="1:8" ht="39" customHeight="1">
+      <c r="F134" s="38"/>
+      <c r="G134" s="39"/>
+      <c r="H134" s="40"/>
+    </row>
+    <row r="135" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="5"/>
       <c r="E135" s="26"/>
-      <c r="F135" s="44"/>
-      <c r="G135" s="45"/>
-      <c r="H135" s="46"/>
-    </row>
-    <row r="136" spans="1:8" ht="39" customHeight="1">
+      <c r="F135" s="38"/>
+      <c r="G135" s="39"/>
+      <c r="H135" s="40"/>
+    </row>
+    <row r="136" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="5"/>
       <c r="E136" s="26"/>
-      <c r="F136" s="44"/>
-      <c r="G136" s="45"/>
-      <c r="H136" s="46"/>
-    </row>
-    <row r="137" spans="1:8" ht="39" customHeight="1">
+      <c r="F136" s="38"/>
+      <c r="G136" s="39"/>
+      <c r="H136" s="40"/>
+    </row>
+    <row r="137" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="5"/>
       <c r="E137" s="26"/>
-      <c r="F137" s="44"/>
-      <c r="G137" s="45"/>
-      <c r="H137" s="46"/>
-    </row>
-    <row r="138" spans="1:8" ht="39" customHeight="1">
+      <c r="F137" s="38"/>
+      <c r="G137" s="39"/>
+      <c r="H137" s="40"/>
+    </row>
+    <row r="138" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="5"/>
       <c r="E138" s="26"/>
-      <c r="F138" s="44"/>
-      <c r="G138" s="45"/>
-      <c r="H138" s="46"/>
-    </row>
-    <row r="139" spans="1:8" ht="39" customHeight="1">
+      <c r="F138" s="38"/>
+      <c r="G138" s="39"/>
+      <c r="H138" s="40"/>
+    </row>
+    <row r="139" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="5"/>
       <c r="E139" s="26"/>
-      <c r="F139" s="44"/>
-      <c r="G139" s="45"/>
-      <c r="H139" s="46"/>
-    </row>
-    <row r="140" spans="1:8" ht="39" customHeight="1">
+      <c r="F139" s="38"/>
+      <c r="G139" s="39"/>
+      <c r="H139" s="40"/>
+    </row>
+    <row r="140" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="5"/>
       <c r="E140" s="26"/>
-      <c r="F140" s="44"/>
-      <c r="G140" s="45"/>
-      <c r="H140" s="46"/>
-    </row>
-    <row r="141" spans="1:8" ht="39" customHeight="1">
+      <c r="F140" s="38"/>
+      <c r="G140" s="39"/>
+      <c r="H140" s="40"/>
+    </row>
+    <row r="141" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="5"/>
       <c r="E141" s="26"/>
-      <c r="F141" s="44"/>
-      <c r="G141" s="45"/>
-      <c r="H141" s="46"/>
-    </row>
-    <row r="142" spans="1:8" ht="39" customHeight="1">
+      <c r="F141" s="38"/>
+      <c r="G141" s="39"/>
+      <c r="H141" s="40"/>
+    </row>
+    <row r="142" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="5"/>
       <c r="E142" s="26"/>
-      <c r="F142" s="44"/>
-      <c r="G142" s="45"/>
-      <c r="H142" s="46"/>
-    </row>
-    <row r="143" spans="1:8" ht="39" customHeight="1">
+      <c r="F142" s="38"/>
+      <c r="G142" s="39"/>
+      <c r="H142" s="40"/>
+    </row>
+    <row r="143" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="5"/>
       <c r="E143" s="26"/>
-      <c r="F143" s="44"/>
-      <c r="G143" s="45"/>
-      <c r="H143" s="46"/>
-    </row>
-    <row r="144" spans="1:8" ht="39" customHeight="1">
+      <c r="F143" s="38"/>
+      <c r="G143" s="39"/>
+      <c r="H143" s="40"/>
+    </row>
+    <row r="144" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="5"/>
       <c r="E144" s="26"/>
-      <c r="F144" s="44"/>
-      <c r="G144" s="45"/>
-      <c r="H144" s="46"/>
-    </row>
-    <row r="145" spans="1:8" ht="39" customHeight="1">
+      <c r="F144" s="38"/>
+      <c r="G144" s="39"/>
+      <c r="H144" s="40"/>
+    </row>
+    <row r="145" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="5"/>
       <c r="E145" s="26"/>
-      <c r="F145" s="44"/>
-      <c r="G145" s="45"/>
-      <c r="H145" s="46"/>
-    </row>
-    <row r="146" spans="1:8" ht="39" customHeight="1">
+      <c r="F145" s="38"/>
+      <c r="G145" s="39"/>
+      <c r="H145" s="40"/>
+    </row>
+    <row r="146" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="5"/>
       <c r="E146" s="26"/>
-      <c r="F146" s="44"/>
-      <c r="G146" s="45"/>
-      <c r="H146" s="46"/>
-    </row>
-    <row r="147" spans="1:8" ht="39" customHeight="1">
+      <c r="F146" s="38"/>
+      <c r="G146" s="39"/>
+      <c r="H146" s="40"/>
+    </row>
+    <row r="147" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="5"/>
       <c r="E147" s="26"/>
-      <c r="F147" s="44"/>
-      <c r="G147" s="45"/>
-      <c r="H147" s="46"/>
-    </row>
-    <row r="148" spans="1:8" ht="39" customHeight="1">
+      <c r="F147" s="38"/>
+      <c r="G147" s="39"/>
+      <c r="H147" s="40"/>
+    </row>
+    <row r="148" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="5"/>
       <c r="E148" s="26"/>
-      <c r="F148" s="44"/>
-      <c r="G148" s="45"/>
-      <c r="H148" s="46"/>
-    </row>
-    <row r="149" spans="1:8" ht="39" customHeight="1">
+      <c r="F148" s="38"/>
+      <c r="G148" s="39"/>
+      <c r="H148" s="40"/>
+    </row>
+    <row r="149" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="5"/>
       <c r="E149" s="26"/>
-      <c r="F149" s="44"/>
-      <c r="G149" s="45"/>
-      <c r="H149" s="46"/>
-    </row>
-    <row r="150" spans="1:8" ht="39" customHeight="1">
+      <c r="F149" s="38"/>
+      <c r="G149" s="39"/>
+      <c r="H149" s="40"/>
+    </row>
+    <row r="150" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="5"/>
       <c r="E150" s="26"/>
-      <c r="F150" s="44"/>
-      <c r="G150" s="45"/>
-      <c r="H150" s="46"/>
-    </row>
-    <row r="151" spans="1:8" ht="39" customHeight="1">
+      <c r="F150" s="38"/>
+      <c r="G150" s="39"/>
+      <c r="H150" s="40"/>
+    </row>
+    <row r="151" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="5"/>
       <c r="E151" s="26"/>
-      <c r="F151" s="44"/>
-      <c r="G151" s="45"/>
-      <c r="H151" s="46"/>
-    </row>
-    <row r="152" spans="1:8" ht="39" customHeight="1">
+      <c r="F151" s="38"/>
+      <c r="G151" s="39"/>
+      <c r="H151" s="40"/>
+    </row>
+    <row r="152" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="5"/>
       <c r="E152" s="26"/>
-      <c r="F152" s="44"/>
-      <c r="G152" s="45"/>
-      <c r="H152" s="46"/>
-    </row>
-    <row r="153" spans="1:8" ht="39" customHeight="1">
+      <c r="F152" s="38"/>
+      <c r="G152" s="39"/>
+      <c r="H152" s="40"/>
+    </row>
+    <row r="153" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="5"/>
       <c r="E153" s="26"/>
-      <c r="F153" s="44"/>
-      <c r="G153" s="45"/>
-      <c r="H153" s="46"/>
-    </row>
-    <row r="154" spans="1:8" ht="39" customHeight="1">
+      <c r="F153" s="38"/>
+      <c r="G153" s="39"/>
+      <c r="H153" s="40"/>
+    </row>
+    <row r="154" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="5"/>
       <c r="E154" s="26"/>
-      <c r="F154" s="44"/>
-      <c r="G154" s="45"/>
-      <c r="H154" s="46"/>
-    </row>
-    <row r="155" spans="1:8" ht="39" customHeight="1">
+      <c r="F154" s="38"/>
+      <c r="G154" s="39"/>
+      <c r="H154" s="40"/>
+    </row>
+    <row r="155" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="5"/>
       <c r="E155" s="26"/>
-      <c r="F155" s="44"/>
-      <c r="G155" s="45"/>
-      <c r="H155" s="46"/>
-    </row>
-    <row r="156" spans="1:8" ht="39" customHeight="1">
+      <c r="F155" s="38"/>
+      <c r="G155" s="39"/>
+      <c r="H155" s="40"/>
+    </row>
+    <row r="156" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="5"/>
       <c r="E156" s="26"/>
-      <c r="F156" s="44"/>
-      <c r="G156" s="45"/>
-      <c r="H156" s="46"/>
-    </row>
-    <row r="157" spans="1:8" ht="39" customHeight="1">
+      <c r="F156" s="38"/>
+      <c r="G156" s="39"/>
+      <c r="H156" s="40"/>
+    </row>
+    <row r="157" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="5"/>
       <c r="E157" s="26"/>
-      <c r="F157" s="44"/>
-      <c r="G157" s="45"/>
-      <c r="H157" s="46"/>
-    </row>
-    <row r="158" spans="1:8" ht="39" customHeight="1">
+      <c r="F157" s="38"/>
+      <c r="G157" s="39"/>
+      <c r="H157" s="40"/>
+    </row>
+    <row r="158" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="5"/>
       <c r="E158" s="26"/>
-      <c r="F158" s="44"/>
-      <c r="G158" s="45"/>
-      <c r="H158" s="46"/>
-    </row>
-    <row r="159" spans="1:8" ht="39" customHeight="1">
+      <c r="F158" s="38"/>
+      <c r="G158" s="39"/>
+      <c r="H158" s="40"/>
+    </row>
+    <row r="159" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
       <c r="D159" s="5"/>
       <c r="E159" s="26"/>
-      <c r="F159" s="44"/>
-      <c r="G159" s="45"/>
-      <c r="H159" s="46"/>
-    </row>
-    <row r="160" spans="1:8" ht="39" customHeight="1">
+      <c r="F159" s="38"/>
+      <c r="G159" s="39"/>
+      <c r="H159" s="40"/>
+    </row>
+    <row r="160" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="5"/>
       <c r="E160" s="26"/>
-      <c r="F160" s="44"/>
-      <c r="G160" s="45"/>
-      <c r="H160" s="46"/>
-    </row>
-    <row r="161" spans="1:8" ht="39" customHeight="1">
+      <c r="F160" s="38"/>
+      <c r="G160" s="39"/>
+      <c r="H160" s="40"/>
+    </row>
+    <row r="161" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="5"/>
       <c r="E161" s="26"/>
-      <c r="F161" s="44"/>
-      <c r="G161" s="45"/>
-      <c r="H161" s="46"/>
-    </row>
-    <row r="162" spans="1:8" ht="39" customHeight="1">
+      <c r="F161" s="38"/>
+      <c r="G161" s="39"/>
+      <c r="H161" s="40"/>
+    </row>
+    <row r="162" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="D162" s="5"/>
       <c r="E162" s="26"/>
-      <c r="F162" s="44"/>
-      <c r="G162" s="45"/>
-      <c r="H162" s="46"/>
-    </row>
-    <row r="163" spans="1:8" ht="39" customHeight="1">
+      <c r="F162" s="38"/>
+      <c r="G162" s="39"/>
+      <c r="H162" s="40"/>
+    </row>
+    <row r="163" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="D163" s="5"/>
       <c r="E163" s="26"/>
-      <c r="F163" s="44"/>
-      <c r="G163" s="45"/>
-      <c r="H163" s="46"/>
-    </row>
-    <row r="164" spans="1:8" ht="39" customHeight="1">
+      <c r="F163" s="38"/>
+      <c r="G163" s="39"/>
+      <c r="H163" s="40"/>
+    </row>
+    <row r="164" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
       <c r="D164" s="5"/>
       <c r="E164" s="26"/>
-      <c r="F164" s="44"/>
-      <c r="G164" s="45"/>
-      <c r="H164" s="46"/>
-    </row>
-    <row r="165" spans="1:8" ht="39" customHeight="1">
+      <c r="F164" s="38"/>
+      <c r="G164" s="39"/>
+      <c r="H164" s="40"/>
+    </row>
+    <row r="165" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="5"/>
       <c r="E165" s="26"/>
-      <c r="F165" s="44"/>
-      <c r="G165" s="45"/>
-      <c r="H165" s="46"/>
-    </row>
-    <row r="166" spans="1:8" ht="39" customHeight="1">
+      <c r="F165" s="38"/>
+      <c r="G165" s="39"/>
+      <c r="H165" s="40"/>
+    </row>
+    <row r="166" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="5"/>
       <c r="E166" s="26"/>
-      <c r="F166" s="44"/>
-      <c r="G166" s="45"/>
-      <c r="H166" s="46"/>
-    </row>
-    <row r="167" spans="1:8" ht="39" customHeight="1">
+      <c r="F166" s="38"/>
+      <c r="G166" s="39"/>
+      <c r="H166" s="40"/>
+    </row>
+    <row r="167" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
       <c r="D167" s="5"/>
       <c r="E167" s="26"/>
-      <c r="F167" s="44"/>
-      <c r="G167" s="45"/>
-      <c r="H167" s="46"/>
-    </row>
-    <row r="168" spans="1:8" ht="39" customHeight="1">
+      <c r="F167" s="38"/>
+      <c r="G167" s="39"/>
+      <c r="H167" s="40"/>
+    </row>
+    <row r="168" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
       <c r="D168" s="5"/>
       <c r="E168" s="26"/>
-      <c r="F168" s="44"/>
-      <c r="G168" s="45"/>
-      <c r="H168" s="46"/>
-    </row>
-    <row r="169" spans="1:8" ht="39" customHeight="1">
+      <c r="F168" s="38"/>
+      <c r="G168" s="39"/>
+      <c r="H168" s="40"/>
+    </row>
+    <row r="169" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="5"/>
       <c r="E169" s="26"/>
-      <c r="F169" s="44"/>
-      <c r="G169" s="45"/>
-      <c r="H169" s="46"/>
-    </row>
-    <row r="170" spans="1:8" ht="39" customHeight="1">
+      <c r="F169" s="38"/>
+      <c r="G169" s="39"/>
+      <c r="H169" s="40"/>
+    </row>
+    <row r="170" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
       <c r="D170" s="5"/>
       <c r="E170" s="26"/>
-      <c r="F170" s="44"/>
-      <c r="G170" s="45"/>
-      <c r="H170" s="46"/>
-    </row>
-    <row r="171" spans="1:8" ht="39" customHeight="1">
+      <c r="F170" s="38"/>
+      <c r="G170" s="39"/>
+      <c r="H170" s="40"/>
+    </row>
+    <row r="171" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="5"/>
       <c r="E171" s="26"/>
-      <c r="F171" s="44"/>
-      <c r="G171" s="45"/>
-      <c r="H171" s="46"/>
-    </row>
-    <row r="172" spans="1:8" ht="39" customHeight="1">
+      <c r="F171" s="38"/>
+      <c r="G171" s="39"/>
+      <c r="H171" s="40"/>
+    </row>
+    <row r="172" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="5"/>
       <c r="E172" s="26"/>
-      <c r="F172" s="44"/>
-      <c r="G172" s="45"/>
-      <c r="H172" s="46"/>
-    </row>
-    <row r="173" spans="1:8" ht="39" customHeight="1">
+      <c r="F172" s="38"/>
+      <c r="G172" s="39"/>
+      <c r="H172" s="40"/>
+    </row>
+    <row r="173" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="5"/>
       <c r="E173" s="26"/>
-      <c r="F173" s="44"/>
-      <c r="G173" s="45"/>
-      <c r="H173" s="46"/>
-    </row>
-    <row r="174" spans="1:8" ht="39" customHeight="1">
+      <c r="F173" s="38"/>
+      <c r="G173" s="39"/>
+      <c r="H173" s="40"/>
+    </row>
+    <row r="174" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
       <c r="D174" s="5"/>
       <c r="E174" s="26"/>
-      <c r="F174" s="44"/>
-      <c r="G174" s="45"/>
-      <c r="H174" s="46"/>
-    </row>
-    <row r="175" spans="1:8" ht="39" customHeight="1">
+      <c r="F174" s="38"/>
+      <c r="G174" s="39"/>
+      <c r="H174" s="40"/>
+    </row>
+    <row r="175" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="5"/>
       <c r="E175" s="26"/>
-      <c r="F175" s="44"/>
-      <c r="G175" s="45"/>
-      <c r="H175" s="46"/>
-    </row>
-    <row r="176" spans="1:8" ht="39" customHeight="1">
+      <c r="F175" s="38"/>
+      <c r="G175" s="39"/>
+      <c r="H175" s="40"/>
+    </row>
+    <row r="176" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
       <c r="D176" s="5"/>
       <c r="E176" s="26"/>
-      <c r="F176" s="44"/>
-      <c r="G176" s="45"/>
-      <c r="H176" s="46"/>
-    </row>
-    <row r="177" spans="1:8" ht="39" customHeight="1">
+      <c r="F176" s="38"/>
+      <c r="G176" s="39"/>
+      <c r="H176" s="40"/>
+    </row>
+    <row r="177" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
       <c r="D177" s="5"/>
       <c r="E177" s="26"/>
-      <c r="F177" s="44"/>
-      <c r="G177" s="45"/>
-      <c r="H177" s="46"/>
-    </row>
-    <row r="178" spans="1:8" ht="39" customHeight="1">
+      <c r="F177" s="38"/>
+      <c r="G177" s="39"/>
+      <c r="H177" s="40"/>
+    </row>
+    <row r="178" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
       <c r="D178" s="5"/>
       <c r="E178" s="26"/>
-      <c r="F178" s="44"/>
-      <c r="G178" s="45"/>
-      <c r="H178" s="46"/>
-    </row>
-    <row r="179" spans="1:8" ht="39" customHeight="1">
+      <c r="F178" s="38"/>
+      <c r="G178" s="39"/>
+      <c r="H178" s="40"/>
+    </row>
+    <row r="179" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
       <c r="D179" s="5"/>
       <c r="E179" s="26"/>
-      <c r="F179" s="44"/>
-      <c r="G179" s="45"/>
-      <c r="H179" s="46"/>
-    </row>
-    <row r="180" spans="1:8" ht="39" customHeight="1">
+      <c r="F179" s="38"/>
+      <c r="G179" s="39"/>
+      <c r="H179" s="40"/>
+    </row>
+    <row r="180" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
       <c r="D180" s="5"/>
       <c r="E180" s="26"/>
-      <c r="F180" s="44"/>
-      <c r="G180" s="45"/>
-      <c r="H180" s="46"/>
-    </row>
-    <row r="181" spans="1:8" ht="39" customHeight="1">
+      <c r="F180" s="38"/>
+      <c r="G180" s="39"/>
+      <c r="H180" s="40"/>
+    </row>
+    <row r="181" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
       <c r="D181" s="5"/>
       <c r="E181" s="26"/>
-      <c r="F181" s="44"/>
-      <c r="G181" s="45"/>
-      <c r="H181" s="46"/>
-    </row>
-    <row r="182" spans="1:8" ht="39" customHeight="1">
+      <c r="F181" s="38"/>
+      <c r="G181" s="39"/>
+      <c r="H181" s="40"/>
+    </row>
+    <row r="182" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
       <c r="D182" s="5"/>
       <c r="E182" s="26"/>
-      <c r="F182" s="44"/>
-      <c r="G182" s="45"/>
-      <c r="H182" s="46"/>
-    </row>
-    <row r="183" spans="1:8" ht="39" customHeight="1">
+      <c r="F182" s="38"/>
+      <c r="G182" s="39"/>
+      <c r="H182" s="40"/>
+    </row>
+    <row r="183" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
       <c r="D183" s="5"/>
       <c r="E183" s="26"/>
-      <c r="F183" s="44"/>
-      <c r="G183" s="45"/>
-      <c r="H183" s="46"/>
-    </row>
-    <row r="184" spans="1:8" ht="39" customHeight="1">
+      <c r="F183" s="38"/>
+      <c r="G183" s="39"/>
+      <c r="H183" s="40"/>
+    </row>
+    <row r="184" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
       <c r="D184" s="5"/>
       <c r="E184" s="26"/>
-      <c r="F184" s="44"/>
-      <c r="G184" s="45"/>
-      <c r="H184" s="46"/>
-    </row>
-    <row r="185" spans="1:8" ht="39" customHeight="1">
+      <c r="F184" s="38"/>
+      <c r="G184" s="39"/>
+      <c r="H184" s="40"/>
+    </row>
+    <row r="185" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
       <c r="D185" s="5"/>
       <c r="E185" s="26"/>
-      <c r="F185" s="44"/>
-      <c r="G185" s="45"/>
-      <c r="H185" s="46"/>
-    </row>
-    <row r="186" spans="1:8" ht="39" customHeight="1">
+      <c r="F185" s="38"/>
+      <c r="G185" s="39"/>
+      <c r="H185" s="40"/>
+    </row>
+    <row r="186" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
       <c r="D186" s="5"/>
       <c r="E186" s="26"/>
-      <c r="F186" s="44"/>
-      <c r="G186" s="45"/>
-      <c r="H186" s="46"/>
-    </row>
-    <row r="187" spans="1:8" ht="39" customHeight="1">
+      <c r="F186" s="38"/>
+      <c r="G186" s="39"/>
+      <c r="H186" s="40"/>
+    </row>
+    <row r="187" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
       <c r="D187" s="5"/>
       <c r="E187" s="26"/>
-      <c r="F187" s="44"/>
-      <c r="G187" s="45"/>
-      <c r="H187" s="46"/>
-    </row>
-    <row r="188" spans="1:8" ht="39" customHeight="1">
+      <c r="F187" s="38"/>
+      <c r="G187" s="39"/>
+      <c r="H187" s="40"/>
+    </row>
+    <row r="188" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
       <c r="D188" s="5"/>
       <c r="E188" s="26"/>
-      <c r="F188" s="44"/>
-      <c r="G188" s="45"/>
-      <c r="H188" s="46"/>
-    </row>
-    <row r="189" spans="1:8" ht="39" customHeight="1">
+      <c r="F188" s="38"/>
+      <c r="G188" s="39"/>
+      <c r="H188" s="40"/>
+    </row>
+    <row r="189" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
       <c r="D189" s="5"/>
       <c r="E189" s="26"/>
-      <c r="F189" s="44"/>
-      <c r="G189" s="45"/>
-      <c r="H189" s="46"/>
-    </row>
-    <row r="190" spans="1:8" ht="39" customHeight="1">
+      <c r="F189" s="38"/>
+      <c r="G189" s="39"/>
+      <c r="H189" s="40"/>
+    </row>
+    <row r="190" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
       <c r="D190" s="5"/>
       <c r="E190" s="26"/>
-      <c r="F190" s="44"/>
-      <c r="G190" s="45"/>
-      <c r="H190" s="46"/>
-    </row>
-    <row r="191" spans="1:8" ht="39" customHeight="1">
+      <c r="F190" s="38"/>
+      <c r="G190" s="39"/>
+      <c r="H190" s="40"/>
+    </row>
+    <row r="191" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
       <c r="D191" s="5"/>
       <c r="E191" s="26"/>
-      <c r="F191" s="44"/>
-      <c r="G191" s="45"/>
-      <c r="H191" s="46"/>
-    </row>
-    <row r="192" spans="1:8" ht="39" customHeight="1">
+      <c r="F191" s="38"/>
+      <c r="G191" s="39"/>
+      <c r="H191" s="40"/>
+    </row>
+    <row r="192" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
       <c r="D192" s="5"/>
       <c r="E192" s="26"/>
-      <c r="F192" s="44"/>
-      <c r="G192" s="45"/>
-      <c r="H192" s="46"/>
-    </row>
-    <row r="193" spans="1:8" ht="39" customHeight="1">
+      <c r="F192" s="38"/>
+      <c r="G192" s="39"/>
+      <c r="H192" s="40"/>
+    </row>
+    <row r="193" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
       <c r="D193" s="5"/>
       <c r="E193" s="26"/>
-      <c r="F193" s="44"/>
-      <c r="G193" s="45"/>
-      <c r="H193" s="46"/>
-    </row>
-    <row r="194" spans="1:8" ht="39" customHeight="1">
+      <c r="F193" s="38"/>
+      <c r="G193" s="39"/>
+      <c r="H193" s="40"/>
+    </row>
+    <row r="194" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
       <c r="D194" s="5"/>
       <c r="E194" s="26"/>
-      <c r="F194" s="44"/>
-      <c r="G194" s="45"/>
-      <c r="H194" s="46"/>
-    </row>
-    <row r="195" spans="1:8" ht="39" customHeight="1">
+      <c r="F194" s="38"/>
+      <c r="G194" s="39"/>
+      <c r="H194" s="40"/>
+    </row>
+    <row r="195" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
       <c r="D195" s="5"/>
       <c r="E195" s="26"/>
-      <c r="F195" s="44"/>
-      <c r="G195" s="45"/>
-      <c r="H195" s="46"/>
-    </row>
-    <row r="196" spans="1:8" ht="39" customHeight="1">
+      <c r="F195" s="38"/>
+      <c r="G195" s="39"/>
+      <c r="H195" s="40"/>
+    </row>
+    <row r="196" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
       <c r="D196" s="5"/>
       <c r="E196" s="26"/>
-      <c r="F196" s="44"/>
-      <c r="G196" s="45"/>
-      <c r="H196" s="46"/>
-    </row>
-    <row r="197" spans="1:8" ht="39" customHeight="1">
+      <c r="F196" s="38"/>
+      <c r="G196" s="39"/>
+      <c r="H196" s="40"/>
+    </row>
+    <row r="197" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
       <c r="D197" s="5"/>
       <c r="E197" s="26"/>
-      <c r="F197" s="44"/>
-      <c r="G197" s="45"/>
-      <c r="H197" s="46"/>
-    </row>
-    <row r="198" spans="1:8" ht="39" customHeight="1">
+      <c r="F197" s="38"/>
+      <c r="G197" s="39"/>
+      <c r="H197" s="40"/>
+    </row>
+    <row r="198" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
       <c r="D198" s="5"/>
       <c r="E198" s="26"/>
-      <c r="F198" s="44"/>
-      <c r="G198" s="45"/>
-      <c r="H198" s="46"/>
-    </row>
-    <row r="199" spans="1:8" ht="39" customHeight="1">
+      <c r="F198" s="38"/>
+      <c r="G198" s="39"/>
+      <c r="H198" s="40"/>
+    </row>
+    <row r="199" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
       <c r="D199" s="5"/>
       <c r="E199" s="26"/>
-      <c r="F199" s="44"/>
-      <c r="G199" s="45"/>
-      <c r="H199" s="46"/>
-    </row>
-    <row r="200" spans="1:8" ht="39" customHeight="1" thickBot="1">
+      <c r="F199" s="38"/>
+      <c r="G199" s="39"/>
+      <c r="H199" s="40"/>
+    </row>
+    <row r="200" spans="1:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="6"/>
       <c r="B200" s="7"/>
       <c r="C200" s="7"/>
       <c r="D200" s="8"/>
       <c r="E200" s="28"/>
-      <c r="F200" s="65"/>
-      <c r="G200" s="66"/>
-      <c r="H200" s="67"/>
-    </row>
-    <row r="201" spans="1:8" ht="39" hidden="1" customHeight="1" thickTop="1"/>
+      <c r="F200" s="41"/>
+      <c r="G200" s="42"/>
+      <c r="H200" s="43"/>
+    </row>
+    <row r="201" spans="1:8" ht="39" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="204">
-    <mergeCell ref="F196:H196"/>
-    <mergeCell ref="F197:H197"/>
-    <mergeCell ref="F198:H198"/>
-    <mergeCell ref="F199:H199"/>
-    <mergeCell ref="F200:H200"/>
-    <mergeCell ref="F191:H191"/>
-    <mergeCell ref="F192:H192"/>
-    <mergeCell ref="F193:H193"/>
-    <mergeCell ref="F194:H194"/>
-    <mergeCell ref="F195:H195"/>
-    <mergeCell ref="F186:H186"/>
-    <mergeCell ref="F187:H187"/>
-    <mergeCell ref="F188:H188"/>
-    <mergeCell ref="F189:H189"/>
-    <mergeCell ref="F190:H190"/>
-    <mergeCell ref="F181:H181"/>
-    <mergeCell ref="F182:H182"/>
-    <mergeCell ref="F183:H183"/>
-    <mergeCell ref="F184:H184"/>
-    <mergeCell ref="F185:H185"/>
-    <mergeCell ref="F176:H176"/>
-    <mergeCell ref="F177:H177"/>
-    <mergeCell ref="F178:H178"/>
-    <mergeCell ref="F179:H179"/>
-    <mergeCell ref="F180:H180"/>
-    <mergeCell ref="F171:H171"/>
-    <mergeCell ref="F172:H172"/>
-    <mergeCell ref="F173:H173"/>
-    <mergeCell ref="F174:H174"/>
-    <mergeCell ref="F175:H175"/>
-    <mergeCell ref="F166:H166"/>
-    <mergeCell ref="F167:H167"/>
-    <mergeCell ref="F168:H168"/>
-    <mergeCell ref="F169:H169"/>
-    <mergeCell ref="F170:H170"/>
-    <mergeCell ref="F161:H161"/>
-    <mergeCell ref="F162:H162"/>
-    <mergeCell ref="F163:H163"/>
-    <mergeCell ref="F164:H164"/>
-    <mergeCell ref="F165:H165"/>
-    <mergeCell ref="F156:H156"/>
-    <mergeCell ref="F157:H157"/>
-    <mergeCell ref="F158:H158"/>
-    <mergeCell ref="F159:H159"/>
-    <mergeCell ref="F160:H160"/>
-    <mergeCell ref="F151:H151"/>
-    <mergeCell ref="F152:H152"/>
-    <mergeCell ref="F153:H153"/>
-    <mergeCell ref="F154:H154"/>
-    <mergeCell ref="F155:H155"/>
-    <mergeCell ref="F146:H146"/>
-    <mergeCell ref="F147:H147"/>
-    <mergeCell ref="F148:H148"/>
-    <mergeCell ref="F149:H149"/>
-    <mergeCell ref="F150:H150"/>
-    <mergeCell ref="F141:H141"/>
-    <mergeCell ref="F142:H142"/>
-    <mergeCell ref="F143:H143"/>
-    <mergeCell ref="F144:H144"/>
-    <mergeCell ref="F145:H145"/>
-    <mergeCell ref="F136:H136"/>
-    <mergeCell ref="F137:H137"/>
-    <mergeCell ref="F138:H138"/>
-    <mergeCell ref="F139:H139"/>
-    <mergeCell ref="F140:H140"/>
-    <mergeCell ref="F131:H131"/>
-    <mergeCell ref="F132:H132"/>
-    <mergeCell ref="F133:H133"/>
-    <mergeCell ref="F134:H134"/>
-    <mergeCell ref="F135:H135"/>
-    <mergeCell ref="F126:H126"/>
-    <mergeCell ref="F127:H127"/>
-    <mergeCell ref="F128:H128"/>
-    <mergeCell ref="F129:H129"/>
-    <mergeCell ref="F130:H130"/>
-    <mergeCell ref="F121:H121"/>
-    <mergeCell ref="F122:H122"/>
-    <mergeCell ref="F123:H123"/>
-    <mergeCell ref="F124:H124"/>
-    <mergeCell ref="F125:H125"/>
-    <mergeCell ref="F116:H116"/>
-    <mergeCell ref="F117:H117"/>
-    <mergeCell ref="F118:H118"/>
-    <mergeCell ref="F119:H119"/>
-    <mergeCell ref="F120:H120"/>
-    <mergeCell ref="F111:H111"/>
-    <mergeCell ref="F112:H112"/>
-    <mergeCell ref="F113:H113"/>
-    <mergeCell ref="F114:H114"/>
-    <mergeCell ref="F115:H115"/>
-    <mergeCell ref="F106:H106"/>
-    <mergeCell ref="F107:H107"/>
-    <mergeCell ref="F108:H108"/>
-    <mergeCell ref="F109:H109"/>
-    <mergeCell ref="F110:H110"/>
-    <mergeCell ref="F101:H101"/>
-    <mergeCell ref="F102:H102"/>
-    <mergeCell ref="F103:H103"/>
-    <mergeCell ref="F104:H104"/>
-    <mergeCell ref="F105:H105"/>
-    <mergeCell ref="F96:H96"/>
-    <mergeCell ref="F97:H97"/>
-    <mergeCell ref="F98:H98"/>
-    <mergeCell ref="F99:H99"/>
-    <mergeCell ref="F100:H100"/>
-    <mergeCell ref="F91:H91"/>
-    <mergeCell ref="F92:H92"/>
-    <mergeCell ref="F93:H93"/>
-    <mergeCell ref="F94:H94"/>
-    <mergeCell ref="F95:H95"/>
-    <mergeCell ref="F86:H86"/>
-    <mergeCell ref="F87:H87"/>
-    <mergeCell ref="F88:H88"/>
-    <mergeCell ref="F89:H89"/>
-    <mergeCell ref="F90:H90"/>
-    <mergeCell ref="F81:H81"/>
-    <mergeCell ref="F82:H82"/>
-    <mergeCell ref="F83:H83"/>
-    <mergeCell ref="F84:H84"/>
-    <mergeCell ref="F85:H85"/>
-    <mergeCell ref="F76:H76"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="F80:H80"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="F74:H74"/>
-    <mergeCell ref="F75:H75"/>
-    <mergeCell ref="F66:H66"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="F68:H68"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="F70:H70"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="F8:H8"/>
@@ -3707,10 +3522,200 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="C2:F2"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="F75:H75"/>
+    <mergeCell ref="F86:H86"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="F88:H88"/>
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="F90:H90"/>
+    <mergeCell ref="F81:H81"/>
+    <mergeCell ref="F82:H82"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="F84:H84"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="F96:H96"/>
+    <mergeCell ref="F97:H97"/>
+    <mergeCell ref="F98:H98"/>
+    <mergeCell ref="F99:H99"/>
+    <mergeCell ref="F100:H100"/>
+    <mergeCell ref="F91:H91"/>
+    <mergeCell ref="F92:H92"/>
+    <mergeCell ref="F93:H93"/>
+    <mergeCell ref="F94:H94"/>
+    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="F106:H106"/>
+    <mergeCell ref="F107:H107"/>
+    <mergeCell ref="F108:H108"/>
+    <mergeCell ref="F109:H109"/>
+    <mergeCell ref="F110:H110"/>
+    <mergeCell ref="F101:H101"/>
+    <mergeCell ref="F102:H102"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="F104:H104"/>
+    <mergeCell ref="F105:H105"/>
+    <mergeCell ref="F116:H116"/>
+    <mergeCell ref="F117:H117"/>
+    <mergeCell ref="F118:H118"/>
+    <mergeCell ref="F119:H119"/>
+    <mergeCell ref="F120:H120"/>
+    <mergeCell ref="F111:H111"/>
+    <mergeCell ref="F112:H112"/>
+    <mergeCell ref="F113:H113"/>
+    <mergeCell ref="F114:H114"/>
+    <mergeCell ref="F115:H115"/>
+    <mergeCell ref="F126:H126"/>
+    <mergeCell ref="F127:H127"/>
+    <mergeCell ref="F128:H128"/>
+    <mergeCell ref="F129:H129"/>
+    <mergeCell ref="F130:H130"/>
+    <mergeCell ref="F121:H121"/>
+    <mergeCell ref="F122:H122"/>
+    <mergeCell ref="F123:H123"/>
+    <mergeCell ref="F124:H124"/>
+    <mergeCell ref="F125:H125"/>
+    <mergeCell ref="F136:H136"/>
+    <mergeCell ref="F137:H137"/>
+    <mergeCell ref="F138:H138"/>
+    <mergeCell ref="F139:H139"/>
+    <mergeCell ref="F140:H140"/>
+    <mergeCell ref="F131:H131"/>
+    <mergeCell ref="F132:H132"/>
+    <mergeCell ref="F133:H133"/>
+    <mergeCell ref="F134:H134"/>
+    <mergeCell ref="F135:H135"/>
+    <mergeCell ref="F146:H146"/>
+    <mergeCell ref="F147:H147"/>
+    <mergeCell ref="F148:H148"/>
+    <mergeCell ref="F149:H149"/>
+    <mergeCell ref="F150:H150"/>
+    <mergeCell ref="F141:H141"/>
+    <mergeCell ref="F142:H142"/>
+    <mergeCell ref="F143:H143"/>
+    <mergeCell ref="F144:H144"/>
+    <mergeCell ref="F145:H145"/>
+    <mergeCell ref="F156:H156"/>
+    <mergeCell ref="F157:H157"/>
+    <mergeCell ref="F158:H158"/>
+    <mergeCell ref="F159:H159"/>
+    <mergeCell ref="F160:H160"/>
+    <mergeCell ref="F151:H151"/>
+    <mergeCell ref="F152:H152"/>
+    <mergeCell ref="F153:H153"/>
+    <mergeCell ref="F154:H154"/>
+    <mergeCell ref="F155:H155"/>
+    <mergeCell ref="F166:H166"/>
+    <mergeCell ref="F167:H167"/>
+    <mergeCell ref="F168:H168"/>
+    <mergeCell ref="F169:H169"/>
+    <mergeCell ref="F170:H170"/>
+    <mergeCell ref="F161:H161"/>
+    <mergeCell ref="F162:H162"/>
+    <mergeCell ref="F163:H163"/>
+    <mergeCell ref="F164:H164"/>
+    <mergeCell ref="F165:H165"/>
+    <mergeCell ref="F176:H176"/>
+    <mergeCell ref="F177:H177"/>
+    <mergeCell ref="F178:H178"/>
+    <mergeCell ref="F179:H179"/>
+    <mergeCell ref="F180:H180"/>
+    <mergeCell ref="F171:H171"/>
+    <mergeCell ref="F172:H172"/>
+    <mergeCell ref="F173:H173"/>
+    <mergeCell ref="F174:H174"/>
+    <mergeCell ref="F175:H175"/>
+    <mergeCell ref="F186:H186"/>
+    <mergeCell ref="F187:H187"/>
+    <mergeCell ref="F188:H188"/>
+    <mergeCell ref="F189:H189"/>
+    <mergeCell ref="F190:H190"/>
+    <mergeCell ref="F181:H181"/>
+    <mergeCell ref="F182:H182"/>
+    <mergeCell ref="F183:H183"/>
+    <mergeCell ref="F184:H184"/>
+    <mergeCell ref="F185:H185"/>
+    <mergeCell ref="F196:H196"/>
+    <mergeCell ref="F197:H197"/>
+    <mergeCell ref="F198:H198"/>
+    <mergeCell ref="F199:H199"/>
+    <mergeCell ref="F200:H200"/>
+    <mergeCell ref="F191:H191"/>
+    <mergeCell ref="F192:H192"/>
+    <mergeCell ref="F193:H193"/>
+    <mergeCell ref="F194:H194"/>
+    <mergeCell ref="F195:H195"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.47222222222222221" right="0.56944444444444442" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="0"/>
@@ -3727,15 +3732,15 @@
       <selection activeCell="B8" sqref="B8:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="36" customHeight="1" zeroHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="36" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="21.875" style="20" customWidth="1"/>
     <col min="2" max="4" width="15" style="20" customWidth="1"/>
     <col min="5" max="5" width="16.5" style="20" customWidth="1"/>
     <col min="6" max="16384" width="15" style="20" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36" customHeight="1">
+    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>14</v>
       </c>
@@ -3746,7 +3751,7 @@
       <c r="D1" s="68"/>
       <c r="E1" s="69"/>
     </row>
-    <row r="2" spans="1:5" ht="36" customHeight="1">
+    <row r="2" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>16</v>
       </c>
@@ -3757,7 +3762,7 @@
       <c r="D2" s="70"/>
       <c r="E2" s="71"/>
     </row>
-    <row r="3" spans="1:5" ht="136" customHeight="1">
+    <row r="3" spans="1:5" ht="135.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>19</v>
       </c>
@@ -3766,7 +3771,7 @@
       <c r="D3" s="72"/>
       <c r="E3" s="73"/>
     </row>
-    <row r="4" spans="1:5" ht="46" customHeight="1">
+    <row r="4" spans="1:5" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>29</v>
       </c>
@@ -3777,7 +3782,7 @@
       <c r="D4" s="77"/>
       <c r="E4" s="78"/>
     </row>
-    <row r="5" spans="1:5" ht="46" customHeight="1">
+    <row r="5" spans="1:5" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>20</v>
       </c>
@@ -3788,7 +3793,7 @@
       <c r="D5" s="72"/>
       <c r="E5" s="73"/>
     </row>
-    <row r="6" spans="1:5" ht="46" customHeight="1">
+    <row r="6" spans="1:5" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>18</v>
       </c>
@@ -3799,7 +3804,7 @@
       <c r="D6" s="72"/>
       <c r="E6" s="73"/>
     </row>
-    <row r="7" spans="1:5" ht="46" customHeight="1">
+    <row r="7" spans="1:5" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>38</v>
       </c>
@@ -3810,7 +3815,7 @@
       <c r="D7" s="77"/>
       <c r="E7" s="78"/>
     </row>
-    <row r="8" spans="1:5" ht="51" customHeight="1" thickBot="1">
+    <row r="8" spans="1:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>30</v>
       </c>
@@ -3834,7 +3839,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="0"/>
@@ -3847,19 +3852,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="36" customHeight="1" zeroHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="36" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="2" customWidth="1"/>
-    <col min="2" max="6" width="10.83203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="2" hidden="1"/>
+    <col min="1" max="1" width="14.125" style="2" customWidth="1"/>
+    <col min="2" max="6" width="10.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="10.875" style="2" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="36" customHeight="1">
+    <row r="1" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="79" t="s">
         <v>23</v>
       </c>
@@ -3870,7 +3875,7 @@
       <c r="F1" s="80"/>
       <c r="G1" s="81"/>
     </row>
-    <row r="2" spans="1:7" ht="36" customHeight="1">
+    <row r="2" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>24</v>
       </c>
@@ -3883,7 +3888,7 @@
       <c r="F2" s="83"/>
       <c r="G2" s="84"/>
     </row>
-    <row r="3" spans="1:7" ht="36" customHeight="1">
+    <row r="3" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>25</v>
       </c>
@@ -3896,7 +3901,7 @@
       <c r="F3" s="86"/>
       <c r="G3" s="87"/>
     </row>
-    <row r="4" spans="1:7" ht="112" customHeight="1">
+    <row r="4" spans="1:7" ht="111.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>6</v>
       </c>
@@ -3909,7 +3914,7 @@
       <c r="F4" s="86"/>
       <c r="G4" s="87"/>
     </row>
-    <row r="5" spans="1:7" ht="36" customHeight="1" thickBot="1">
+    <row r="5" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>26</v>
       </c>
@@ -3920,8 +3925,8 @@
       <c r="F5" s="88"/>
       <c r="G5" s="89"/>
     </row>
-    <row r="6" spans="1:7" ht="36" customHeight="1" thickBot="1"/>
-    <row r="7" spans="1:7" ht="36" customHeight="1">
+    <row r="6" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="79" t="s">
         <v>27</v>
       </c>
@@ -3932,7 +3937,7 @@
       <c r="F7" s="80"/>
       <c r="G7" s="81"/>
     </row>
-    <row r="8" spans="1:7" ht="36" customHeight="1">
+    <row r="8" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>24</v>
       </c>
@@ -3943,7 +3948,7 @@
       <c r="F8" s="72"/>
       <c r="G8" s="73"/>
     </row>
-    <row r="9" spans="1:7" ht="36" customHeight="1">
+    <row r="9" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>25</v>
       </c>
@@ -3954,7 +3959,7 @@
       <c r="F9" s="72"/>
       <c r="G9" s="73"/>
     </row>
-    <row r="10" spans="1:7" ht="112" customHeight="1">
+    <row r="10" spans="1:7" ht="111.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>6</v>
       </c>
@@ -3965,7 +3970,7 @@
       <c r="F10" s="72"/>
       <c r="G10" s="73"/>
     </row>
-    <row r="11" spans="1:7" ht="36" customHeight="1" thickBot="1">
+    <row r="11" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>26</v>
       </c>
@@ -3976,9 +3981,9 @@
       <c r="F11" s="74"/>
       <c r="G11" s="75"/>
     </row>
-    <row r="12" spans="1:7" ht="36" customHeight="1"/>
-    <row r="13" spans="1:7" ht="36" customHeight="1" thickBot="1"/>
-    <row r="14" spans="1:7" ht="36" customHeight="1">
+    <row r="12" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="79" t="s">
         <v>28</v>
       </c>
@@ -3989,7 +3994,7 @@
       <c r="F14" s="80"/>
       <c r="G14" s="81"/>
     </row>
-    <row r="15" spans="1:7" ht="36" customHeight="1">
+    <row r="15" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>24</v>
       </c>
@@ -4000,7 +4005,7 @@
       <c r="F15" s="72"/>
       <c r="G15" s="73"/>
     </row>
-    <row r="16" spans="1:7" ht="36" customHeight="1">
+    <row r="16" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>25</v>
       </c>
@@ -4011,7 +4016,7 @@
       <c r="F16" s="72"/>
       <c r="G16" s="73"/>
     </row>
-    <row r="17" spans="1:7" ht="113" customHeight="1">
+    <row r="17" spans="1:7" ht="113.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>6</v>
       </c>
@@ -4022,7 +4027,7 @@
       <c r="F17" s="72"/>
       <c r="G17" s="73"/>
     </row>
-    <row r="18" spans="1:7" ht="36" customHeight="1" thickBot="1">
+    <row r="18" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>26</v>
       </c>
@@ -4033,29 +4038,29 @@
       <c r="F18" s="74"/>
       <c r="G18" s="75"/>
     </row>
-    <row r="19" spans="1:7" ht="36" customHeight="1"/>
-    <row r="20" spans="1:7" ht="36" hidden="1" customHeight="1"/>
+    <row r="19" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:7" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
     <mergeCell ref="A14:G14"/>
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B18:G18"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="0"/>
